--- a/examples/99_tower_gbf/15mw/20m/outputs_mono/mono_turb_output.xlsx
+++ b/examples/99_tower_gbf/15mw/20m/outputs_mono/mono_turb_output.xlsx
@@ -1249,7 +1249,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>[12.43319258]</t>
+          <t>[11.]</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2352,7 +2352,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>[6.01183391]</t>
+          <t>[5.999]</t>
         </is>
       </c>
       <c r="E78" t="inlineStr"/>
@@ -5634,8 +5634,7 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>[12.43319258 12.4331927  12.4331927  12.43319276 12.43319278 12.43319278
- 12.43319278]</t>
+          <t>[11. 11. 11. 11. 11. 11. 11.]</t>
         </is>
       </c>
       <c r="E227" t="inlineStr"/>
@@ -6212,7 +6211,7 @@
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>[12.43319278]</t>
+          <t>[11.]</t>
         </is>
       </c>
       <c r="E251" t="inlineStr"/>
@@ -6235,7 +6234,7 @@
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>[12.43319278]</t>
+          <t>[11.]</t>
         </is>
       </c>
       <c r="E252" t="inlineStr"/>
@@ -9453,7 +9452,7 @@
       </c>
       <c r="D380" t="inlineStr">
         <is>
-          <t>[3.26622204]</t>
+          <t>[2.8838056]</t>
         </is>
       </c>
       <c r="E380" t="inlineStr"/>
@@ -9688,7 +9687,7 @@
       </c>
       <c r="D391" t="inlineStr">
         <is>
-          <t>[12.43319278 12.43319278 11.42989152  8.90073352  6.01183391]</t>
+          <t>[11.         11.         11.          8.43719762  5.999     ]</t>
         </is>
       </c>
       <c r="E391" t="inlineStr"/>
@@ -10162,7 +10161,7 @@
       </c>
       <c r="D413" t="inlineStr">
         <is>
-          <t>[[0.02921938 0.01614151 0.01226288 0.01122482 0.01163286]]</t>
+          <t>[[0.04       0.03409205 0.015      0.015      0.015     ]]</t>
         </is>
       </c>
       <c r="E413" t="inlineStr"/>
@@ -10185,7 +10184,7 @@
       </c>
       <c r="D414" t="inlineStr">
         <is>
-          <t>[12.43319278 12.43319278 11.42989152  8.90073352  6.01183391]</t>
+          <t>[11.         11.         11.          8.43719762  5.999     ]</t>
         </is>
       </c>
       <c r="E414" t="inlineStr"/>
@@ -13844,7 +13843,7 @@
       </c>
       <c r="D526" t="inlineStr">
         <is>
-          <t>[1023.68528257]</t>
+          <t>[1061.48370486]</t>
         </is>
       </c>
       <c r="E526" t="inlineStr"/>
@@ -13867,7 +13866,7 @@
       </c>
       <c r="D527" t="inlineStr">
         <is>
-          <t>[3309.46373715]</t>
+          <t>[3270.24316034]</t>
         </is>
       </c>
       <c r="E527" t="inlineStr"/>
@@ -13967,7 +13966,7 @@
       </c>
       <c r="D531" t="inlineStr">
         <is>
-          <t>[1023.68528257]</t>
+          <t>[1061.48370486]</t>
         </is>
       </c>
       <c r="E531" t="inlineStr">
@@ -14048,7 +14047,7 @@
       </c>
       <c r="D534" t="inlineStr">
         <is>
-          <t>[633.54557017]</t>
+          <t>[915.49794236]</t>
         </is>
       </c>
       <c r="E534" t="inlineStr">
@@ -14102,7 +14101,7 @@
       </c>
       <c r="D536" t="inlineStr">
         <is>
-          <t>[655.08215141]</t>
+          <t>[654.74689765]</t>
         </is>
       </c>
       <c r="E536" t="inlineStr">
@@ -14183,7 +14182,7 @@
       </c>
       <c r="D539" t="inlineStr">
         <is>
-          <t>[1721.50022425]</t>
+          <t>[1533.42266953]</t>
         </is>
       </c>
       <c r="E539" t="inlineStr">
@@ -14210,7 +14209,7 @@
       </c>
       <c r="D540" t="inlineStr">
         <is>
-          <t>[4461795.23695627]</t>
+          <t>[4006890.31747133]</t>
         </is>
       </c>
       <c r="E540" t="inlineStr">
@@ -14283,7 +14282,7 @@
       </c>
       <c r="D543" t="inlineStr">
         <is>
-          <t>[85.27951017]</t>
+          <t>[85.26162106]</t>
         </is>
       </c>
       <c r="E543" t="inlineStr"/>
@@ -14561,7 +14560,7 @@
       </c>
       <c r="D555" t="inlineStr">
         <is>
-          <t>[0.00358375]</t>
+          <t>[0.00359163]</t>
         </is>
       </c>
       <c r="E555" t="inlineStr"/>
@@ -14653,7 +14652,7 @@
       </c>
       <c r="D559" t="inlineStr">
         <is>
-          <t>[0.03405191]</t>
+          <t>[0.03405017]</t>
         </is>
       </c>
       <c r="E559" t="inlineStr"/>
@@ -15287,7 +15286,7 @@
       </c>
       <c r="D587" t="inlineStr">
         <is>
-          <t>[0.00131203]</t>
+          <t>[0.00131597]</t>
         </is>
       </c>
       <c r="E587" t="inlineStr"/>
@@ -15310,7 +15309,7 @@
       </c>
       <c r="D588" t="inlineStr">
         <is>
-          <t>[7.40265534e-06]</t>
+          <t>[7.74367548e-06]</t>
         </is>
       </c>
       <c r="E588" t="inlineStr"/>
@@ -17111,7 +17110,7 @@
       </c>
       <c r="D666" t="inlineStr">
         <is>
-          <t>[0.         4.88091695 1.875     ]</t>
+          <t>[0.     4.8745 1.875 ]</t>
         </is>
       </c>
       <c r="E666" t="inlineStr"/>
@@ -17180,7 +17179,7 @@
       </c>
       <c r="D669" t="inlineStr">
         <is>
-          <t>[ 0.         -4.88091695  1.875     ]</t>
+          <t>[ 0.     -4.8745  1.875 ]</t>
         </is>
       </c>
       <c r="E669" t="inlineStr"/>
@@ -17226,7 +17225,7 @@
       </c>
       <c r="D671" t="inlineStr">
         <is>
-          <t>[25322.99102922]</t>
+          <t>[25227.95426345]</t>
         </is>
       </c>
       <c r="E671" t="inlineStr"/>
@@ -17295,7 +17294,7 @@
       </c>
       <c r="D674" t="inlineStr">
         <is>
-          <t>[34012.09635566]</t>
+          <t>[33949.45548704]</t>
         </is>
       </c>
       <c r="E674" t="inlineStr"/>
@@ -17318,7 +17317,7 @@
       </c>
       <c r="D675" t="inlineStr">
         <is>
-          <t>[-0.88492314  0.          2.40265037]</t>
+          <t>[-0.88537221  0.          2.40318707]</t>
         </is>
       </c>
       <c r="E675" t="inlineStr"/>
@@ -17341,8 +17340,8 @@
       </c>
       <c r="D676" t="inlineStr">
         <is>
-          <t>[389128.34745191 427942.15670659 249119.25003718      0.
-  87497.60045129      0.        ]</t>
+          <t>[388014.25589214 426867.9023198  247893.0889835       0.
+  87517.08492439      0.        ]</t>
         </is>
       </c>
       <c r="E676" t="inlineStr"/>
@@ -17434,7 +17433,7 @@
       </c>
       <c r="D680" t="inlineStr">
         <is>
-          <t>[41635.75328293]</t>
+          <t>[41458.177152]</t>
         </is>
       </c>
       <c r="E680" t="inlineStr"/>
@@ -17480,7 +17479,7 @@
       </c>
       <c r="D682" t="inlineStr">
         <is>
-          <t>[ 501607.38923373  501607.38923373 1003203.67559992]</t>
+          <t>[497337.83469174 497337.83469174 994664.61386957]</t>
         </is>
       </c>
       <c r="E682" t="inlineStr"/>
@@ -17666,8 +17665,8 @@
       </c>
       <c r="D690" t="inlineStr">
         <is>
-          <t>[-3.00591695 -3.01376311 -3.03714185 -3.07557725 -3.12828688 -3.19419772
- -3.27196801 -3.36001458 -3.45654506 -3.55959436 -3.66706469 -3.77676827]</t>
+          <t>[-2.9995     -3.00741147 -3.03098483 -3.06974018 -3.12288859 -3.18934811
+ -3.2677658  -3.35654532 -3.45387936 -3.55778649 -3.66615146 -3.77676827]</t>
         </is>
       </c>
       <c r="E690" t="inlineStr"/>
@@ -17714,8 +17713,8 @@
       </c>
       <c r="D692" t="inlineStr">
         <is>
-          <t>[ 3.00591695  2.936879    2.73117055  2.39297922  1.92918964  1.3492432
-  0.66494595 -0.10977179 -0.959139   -1.86586502 -2.81149152 -3.77676827]</t>
+          <t>[ 2.9995      2.93052736  2.72501352  2.38714216  1.92379135  1.34439359
+  0.66074374 -0.11324105 -0.9618047  -1.86767288 -2.81240475 -3.77676827]</t>
         </is>
       </c>
       <c r="E692" t="inlineStr"/>
@@ -17762,8 +17761,8 @@
       </c>
       <c r="D694" t="inlineStr">
         <is>
-          <t>[6.01183391 5.95887309 5.80151655 5.5443978  5.19545613 4.76638788
- 4.27360427 3.74023831 3.20028124 2.70639107 2.33965349 2.2       ]</t>
+          <t>[5.999      5.9461874  5.78927314 5.53288369 5.18494688 4.75714325
+ 4.26586323 3.73421034 3.19612251 2.70412972 2.3389862  2.2       ]</t>
         </is>
       </c>
       <c r="E694" t="inlineStr"/>
@@ -17978,7 +17977,7 @@
       </c>
       <c r="D703" t="inlineStr">
         <is>
-          <t>[137074.15645377]</t>
+          <t>[136801.54355707]</t>
         </is>
       </c>
       <c r="E703" t="inlineStr"/>
@@ -18139,7 +18138,7 @@
       </c>
       <c r="D710" t="inlineStr">
         <is>
-          <t>[655082.151415]</t>
+          <t>[654746.89764968]</t>
         </is>
       </c>
       <c r="E710" t="inlineStr"/>
@@ -18185,7 +18184,7 @@
       </c>
       <c r="D712" t="inlineStr">
         <is>
-          <t>[-3.85360997 -0.13896687  4.08367834]</t>
+          <t>[-3.85552178 -0.13885523  4.08556729]</t>
         </is>
       </c>
       <c r="E712" t="inlineStr"/>
@@ -18208,8 +18207,8 @@
       </c>
       <c r="D713" t="inlineStr">
         <is>
-          <t>[2.01743796e+07 2.92845893e+07 1.79533961e+07 5.45298788e+02
- 1.20568111e+07 1.70112235e+05]</t>
+          <t>[2.01661593e+07 2.92791472e+07 1.79410337e+07 5.41253437e+02
+ 1.20568489e+07 1.69892134e+05]</t>
         </is>
       </c>
       <c r="E713" t="inlineStr"/>
@@ -18257,8 +18256,8 @@
         <is>
           <t>[   0.            0.            0.            0.            0.
     0.            0.            0.            0.            0.
-    0.            0.            0.          823.5777459   975.41988459
- 1078.61829036 1121.04796468 1159.34049127 1194.35831773]</t>
+    0.            0.            0.          729.03380056  860.22223859
+  948.63122849  984.81920533 1017.40258925 1047.13860747]</t>
         </is>
       </c>
       <c r="E715" t="inlineStr"/>
@@ -18402,10 +18401,10 @@
       </c>
       <c r="D721" t="inlineStr">
         <is>
-          <t>[     0.              0.              0.          96476.17864374
-  96918.90641228  98252.45317392 100493.08222435 103668.49141771
- 107818.75539867 112997.76167827 126739.70475695 145701.26866961
- 171147.80374315      0.              0.              0.
+          <t>[     0.              0.              0.          76069.22818689
+  76419.81487525  77475.80310771  79250.00595527  81764.21915156
+  85049.92502601  89149.36708317 100022.09247963 115010.75107985
+ 135096.15327474      0.              0.              0.
       0.              0.              0.        ]</t>
         </is>
       </c>
@@ -18656,10 +18655,8 @@
       </c>
       <c r="D731" t="inlineStr">
         <is>
-          <t>[12.43319258 12.43319262 12.43319266 12.4331927  12.4331927  12.4331927
- 12.4331927  12.43319272 12.43319274 12.43319276 12.43319277 12.43319277
- 12.43319278 12.43319278 12.43319278 12.43319278 12.43319278 12.43319278
- 12.43319278]</t>
+          <t>[11. 11. 11. 11. 11. 11. 11. 11. 11. 11. 11. 11. 11. 11. 11. 11. 11. 11.
+ 11.]</t>
         </is>
       </c>
       <c r="E731" t="inlineStr"/>
@@ -18826,11 +18823,11 @@
       </c>
       <c r="D738" t="inlineStr">
         <is>
-          <t>[     0.              0.              0.          96476.17864374
-  96918.90641228  98252.45317392 100493.08222435 103668.49141771
- 107818.75539867 112997.76167827 126739.70475695 145701.26866961
- 171147.80374315    823.5777459     975.41988459   1078.61829036
-   1121.04796468   1159.34049127   1194.35831773]</t>
+          <t>[     0.              0.              0.          76069.22818689
+  76419.81487525  77475.80310771  79250.00595527  81764.21915156
+  85049.92502601  89149.36708317 100022.09247963 115010.75107985
+ 135096.15327474    729.03380056    860.22223859    948.63122849
+    984.81920533   1017.40258925   1047.13860747]</t>
         </is>
       </c>
       <c r="E738" t="inlineStr"/>
@@ -18972,11 +18969,11 @@
       </c>
       <c r="D744" t="inlineStr">
         <is>
-          <t>[      0.               0.               0.          -96476.17864374
-  -96918.90641228  -98252.45317392 -100493.08222435 -103668.49141771
- -107818.75539867 -112997.76167827 -126739.70475695 -145701.26866961
- -171147.80374315    -823.5777459     -975.41988459   -1078.61829036
-   -1121.04796468   -1159.34049127   -1194.35831773]</t>
+          <t>[      0.               0.               0.          -76069.22818689
+  -76419.81487525  -77475.80310771  -79250.00595527  -81764.21915156
+  -85049.92502601  -89149.36708317 -100022.09247963 -115010.75107985
+ -135096.15327474    -729.03380056    -860.22223859    -948.63122849
+    -984.81920533   -1017.40258925   -1047.13860747]</t>
         </is>
       </c>
       <c r="E744" t="inlineStr"/>
@@ -19026,8 +19023,7 @@
       </c>
       <c r="D746" t="inlineStr">
         <is>
-          <t>[12.43319258 12.4331927  12.4331927  12.43319276 12.43319278 12.43319278
- 12.43319278]</t>
+          <t>[11. 11. 11. 11. 11. 11. 11.]</t>
         </is>
       </c>
       <c r="E746" t="inlineStr"/>
@@ -19116,8 +19112,7 @@
       </c>
       <c r="D750" t="inlineStr">
         <is>
-          <t>[12.43319258 12.4331927  12.4331927  12.43319276 12.43319278 12.43319278
- 12.43319278]</t>
+          <t>[11. 11. 11. 11. 11. 11. 11.]</t>
         </is>
       </c>
       <c r="E750" t="inlineStr"/>
@@ -19568,7 +19563,7 @@
       </c>
       <c r="D769" t="inlineStr">
         <is>
-          <t>[1621500.22424683]</t>
+          <t>[1433422.66952573]</t>
         </is>
       </c>
       <c r="E769" t="inlineStr"/>
@@ -19591,7 +19586,7 @@
       </c>
       <c r="D770" t="inlineStr">
         <is>
-          <t>[3961795.23695627]</t>
+          <t>[3506890.31747133]</t>
         </is>
       </c>
       <c r="E770" t="inlineStr"/>
@@ -19614,7 +19609,7 @@
       </c>
       <c r="D771" t="inlineStr">
         <is>
-          <t>[32.4999999]</t>
+          <t>[32.5]</t>
         </is>
       </c>
       <c r="E771" t="inlineStr"/>
@@ -19637,7 +19632,7 @@
       </c>
       <c r="D772" t="inlineStr">
         <is>
-          <t>[2.31455943e+09 2.31455943e+09 6.18932421e+07 0.00000000e+00
+          <t>[2.04011604e+09 2.04011604e+09 4.27582306e+07 0.00000000e+00
  0.00000000e+00 0.00000000e+00]</t>
         </is>
       </c>
@@ -19661,7 +19656,7 @@
       </c>
       <c r="D773" t="inlineStr">
         <is>
-          <t>[633545.57016637]</t>
+          <t>[915497.94235688]</t>
         </is>
       </c>
       <c r="E773" t="inlineStr"/>
@@ -19684,7 +19679,7 @@
       </c>
       <c r="D774" t="inlineStr">
         <is>
-          <t>[2070237.733636]</t>
+          <t>[2641221.08348016]</t>
         </is>
       </c>
       <c r="E774" t="inlineStr"/>
@@ -19731,26 +19726,26 @@
       </c>
       <c r="D776" t="inlineStr">
         <is>
-          <t>[[2.30719502e+10 6.04489020e+12 2.30719502e+10 6.04489020e+12
-  1.58821565e+10 1.79384436e+11]
- [2.09970029e+10 4.38691536e+12 2.09970029e+10 4.38691536e+12
-  1.47621565e+10 1.79384436e+11]
- [1.89220555e+10 3.08291584e+12 1.89220555e+10 3.08291584e+12
-  1.36421565e+10 1.79384436e+11]
- [1.68471081e+10 2.08864470e+12 1.68471081e+10 2.08864470e+12
-  1.25221565e+10 1.79384436e+11]
- [1.47721607e+10 1.35985505e+12 1.47721607e+10 1.35985505e+12
-  1.14021565e+10 1.79384436e+11]
- [1.26972134e+10 8.52299963e+11 1.26972134e+10 8.52299963e+11
-  1.02821565e+10 1.79384436e+11]
- [1.06222660e+10 5.21732532e+11 1.06222660e+10 5.21732532e+11
-  9.16215654e+09 1.79384436e+11]
- [8.54731864e+09 3.23905842e+11 8.54731864e+09 3.23905842e+11
-  8.04215654e+09 1.79384436e+11]
- [6.47237127e+09 2.14572979e+11 6.47237127e+09 2.14572979e+11
-  6.92215654e+09 1.79384436e+11]
- [4.39742390e+09 1.49487030e+11 4.39742390e+09 1.49487030e+11
-  5.80215654e+09 1.79384436e+11]]</t>
+          <t>[[2.25650526e+10 5.88608222e+12 2.25650526e+10 5.88608222e+12
+  1.52133333e+10 1.24226667e+11]
+ [2.04901053e+10 4.24064551e+12 2.04901053e+10 4.24064551e+12
+  1.40933333e+10 1.24226667e+11]
+ [1.84151579e+10 2.94918412e+12 1.84151579e+10 2.94918412e+12
+  1.29733333e+10 1.24226667e+11]
+ [1.63402105e+10 1.96745111e+12 1.63402105e+10 1.96745111e+12
+  1.18533333e+10 1.24226667e+11]
+ [1.42652632e+10 1.25119959e+12 1.42652632e+10 1.25119959e+12
+  1.07333333e+10 1.24226667e+11]
+ [1.21903158e+10 7.56182634e+11 1.21903158e+10 7.56182634e+11
+  9.61333333e+09 1.24226667e+11]
+ [1.01153684e+10 4.38153333e+11 1.01153684e+10 4.38153333e+11
+  8.49333333e+09 1.24226667e+11]
+ [8.04042105e+09 2.52864774e+11 8.04042105e+09 2.52864774e+11
+  7.37333333e+09 1.24226667e+11]
+ [5.96547368e+09 1.56070041e+11 5.96547368e+09 1.56070041e+11
+  6.25333333e+09 1.24226667e+11]
+ [3.89052632e+09 1.03522222e+11 3.89052632e+09 1.03522222e+11
+  5.13333333e+09 1.24226667e+11]]</t>
         </is>
       </c>
       <c r="E776" t="inlineStr"/>
@@ -19773,9 +19768,9 @@
       </c>
       <c r="D777" t="inlineStr">
         <is>
-          <t>[3.19822531 3.19822532 3.19822533 3.19822529 3.19822529 3.19822529
- 3.19822526 3.19822526 3.19822527 3.19822527 3.19822527 3.19822527
- 3.19822527 3.19822527 3.19822527 3.19822527 3.19822527 3.19822527]</t>
+          <t>[2.82726365 2.82726365 2.82726365 2.82726365 2.82726365 2.82726365
+ 2.82726365 2.82726365 2.82726365 2.82726365 2.82726365 2.82726365
+ 2.82726365 2.82726365 2.82726365 2.82726365 2.82726365 2.82726365]</t>
         </is>
       </c>
       <c r="E777" t="inlineStr"/>
@@ -19798,9 +19793,9 @@
       </c>
       <c r="D778" t="inlineStr">
         <is>
-          <t>[1.81995474 1.81995474 1.81995475 1.81995473 1.81995472 1.81995472
- 1.81995471 1.81995471 1.81995471 1.81995471 1.81995472 1.81995472
- 1.81995472 1.81995472 1.81995472 1.81995472 1.81995472 1.81995472]</t>
+          <t>[1.60945991 1.60945991 1.60945991 1.60945991 1.60945991 1.60945991
+ 1.60945991 1.60945991 1.60945991 1.60945991 1.60945991 1.60945991
+ 1.60945991 1.60945991 1.60945991 1.60945991 1.60945991 1.60945991]</t>
         </is>
       </c>
       <c r="E778" t="inlineStr"/>
@@ -19823,9 +19818,9 @@
       </c>
       <c r="D779" t="inlineStr">
         <is>
-          <t>[1.81995474 1.81995474 1.81995475 1.81995473 1.81995472 1.81995472
- 1.81995471 1.81995471 1.81995471 1.81995471 1.81995472 1.81995472
- 1.81995472 1.81995472 1.81995472 1.81995472 1.81995472 1.81995472]</t>
+          <t>[1.60945991 1.60945991 1.60945991 1.60945991 1.60945991 1.60945991
+ 1.60945991 1.60945991 1.60945991 1.60945991 1.60945991 1.60945991
+ 1.60945991 1.60945991 1.60945991 1.60945991 1.60945991 1.60945991]</t>
         </is>
       </c>
       <c r="E779" t="inlineStr"/>
@@ -19848,9 +19843,9 @@
       </c>
       <c r="D780" t="inlineStr">
         <is>
-          <t>[61.03869951 61.03870008 61.03870064 61.03870009 61.03870008 61.03870008
- 61.03869957 61.0386999  61.03870023 61.03870043 61.03870051 61.0387006
- 61.03870064 61.03870064 61.03870064 61.03870064 61.03870064 61.03870064]</t>
+          <t>[42.16788031 42.16788031 42.16788031 42.16788031 42.16788031 42.16788031
+ 42.16788031 42.16788031 42.16788031 42.16788031 42.16788031 42.16788031
+ 42.16788031 42.16788031 42.16788031 42.16788031 42.16788031 42.16788031]</t>
         </is>
       </c>
       <c r="E780" t="inlineStr"/>
@@ -19873,9 +19868,9 @@
       </c>
       <c r="D781" t="inlineStr">
         <is>
-          <t>[61.03869951 61.03870008 61.03870064 61.03870009 61.03870008 61.03870008
- 61.03869957 61.0386999  61.03870023 61.03870043 61.03870051 61.0387006
- 61.03870064 61.03870064 61.03870064 61.03870064 61.03870064 61.03870064]</t>
+          <t>[42.16788031 42.16788031 42.16788031 42.16788031 42.16788031 42.16788031
+ 42.16788031 42.16788031 42.16788031 42.16788031 42.16788031 42.16788031
+ 42.16788031 42.16788031 42.16788031 42.16788031 42.16788031 42.16788031]</t>
         </is>
       </c>
       <c r="E781" t="inlineStr"/>
@@ -19898,10 +19893,9 @@
       </c>
       <c r="D782" t="inlineStr">
         <is>
-          <t>[122.07739902 122.07740015 122.07740128 122.07740017 122.07740017
- 122.07740016 122.07739914 122.07739979 122.07740045 122.07740086
- 122.07740103 122.07740119 122.07740128 122.07740128 122.07740128
- 122.07740128 122.07740128 122.07740128]</t>
+          <t>[84.33576062 84.33576062 84.33576062 84.33576062 84.33576062 84.33576062
+ 84.33576062 84.33576062 84.33576062 84.33576062 84.33576062 84.33576062
+ 84.33576062 84.33576062 84.33576062 84.33576062 84.33576062 84.33576062]</t>
         </is>
       </c>
       <c r="E782" t="inlineStr"/>
@@ -20096,8 +20090,8 @@
       </c>
       <c r="D789" t="inlineStr">
         <is>
-          <t>[0.94618249 0.94618249 0.94618249 0.58490872 0.5689426  0.55297649
- 0.43411361 0.40083242 0.36755123 0.32301245 0.28601711 0.24902177]</t>
+          <t>[1.36522064 1.36522064 1.36522064 0.90560184 0.90560184 0.90560184
+ 0.53235467 0.48928031 0.44620596 0.40417875 0.3631987  0.32221864]</t>
         </is>
       </c>
       <c r="E789" t="inlineStr"/>
@@ -20120,8 +20114,8 @@
       </c>
       <c r="D790" t="inlineStr">
         <is>
-          <t>[0.53736216 0.53736216 0.53736216 0.33208718 0.32302691 0.31396663
- 0.246462   0.22757595 0.20868991 0.1834094  0.16241572 0.14142205]</t>
+          <t>[0.77588055 0.77588055 0.77588055 0.51440855 0.51440855 0.51440855
+ 0.30228401 0.27784068 0.25339736 0.22954829 0.20629348 0.1830387 ]</t>
         </is>
       </c>
       <c r="E790" t="inlineStr"/>
@@ -20144,8 +20138,8 @@
       </c>
       <c r="D791" t="inlineStr">
         <is>
-          <t>[0.53736216 0.53736216 0.53736216 0.33208718 0.32302691 0.31396663
- 0.246462   0.22757595 0.20868991 0.1834094  0.16241572 0.14142205]</t>
+          <t>[0.77588055 0.77588055 0.77588055 0.51440855 0.51440855 0.51440855
+ 0.30228401 0.27784068 0.25339736 0.22954829 0.20629348 0.1830387 ]</t>
         </is>
       </c>
       <c r="E791" t="inlineStr"/>
@@ -20168,8 +20162,8 @@
       </c>
       <c r="D792" t="inlineStr">
         <is>
-          <t>[18.21653576 18.21653576 18.21653576 10.97480022 10.10038065  9.27368651
-  6.5619429   5.16548199  3.98268614  2.85428299  1.98159786  1.30783145]</t>
+          <t>[20.51034657 20.51034657 20.51034657 13.63623474 13.63623474 13.63623474
+  7.41761468  5.75883264  4.36784824  3.24625145  2.35556408  1.64480557]</t>
         </is>
       </c>
       <c r="E792" t="inlineStr"/>
@@ -20192,8 +20186,8 @@
       </c>
       <c r="D793" t="inlineStr">
         <is>
-          <t>[18.21653576 18.21653576 18.21653576 10.97480022 10.10038065  9.27368651
-  6.5619429   5.16548199  3.98268614  2.85428299  1.98159786  1.30783145]</t>
+          <t>[20.51034657 20.51034657 20.51034657 13.63623474 13.63623474 13.63623474
+  7.41761468  5.75883264  4.36784824  3.24625145  2.35556408  1.64480557]</t>
         </is>
       </c>
       <c r="E793" t="inlineStr"/>
@@ -20216,8 +20210,8 @@
       </c>
       <c r="D794" t="inlineStr">
         <is>
-          <t>[36.43307152 36.43307152 36.43307152 21.94960044 20.2007613  18.54737303
- 13.12388581 10.33096399  7.96537229  5.70856597  3.96319571  2.6156629 ]</t>
+          <t>[41.02069314 41.02069314 41.02069314 27.27246948 27.27246948 27.27246948
+ 14.83522936 11.51766529  8.73569649  6.4925029   4.71112815  3.28961114]</t>
         </is>
       </c>
       <c r="E794" t="inlineStr"/>
@@ -20311,9 +20305,9 @@
       </c>
       <c r="D798" t="inlineStr">
         <is>
-          <t>[12.43319278 12.43319278 12.43319278 12.43319278 12.09875903 11.76432528
- 11.42989152 10.58683885  9.74378618  8.90073352  7.93776698  6.97480044
-  6.01183391]</t>
+          <t>[11.         11.         11.         11.         11.         11.
+ 11.         10.14573254  9.29146508  8.43719762  7.62446508  6.81173254
+  5.999     ]</t>
         </is>
       </c>
       <c r="E798" t="inlineStr"/>
@@ -20336,8 +20330,8 @@
       </c>
       <c r="D799" t="inlineStr">
         <is>
-          <t>[0.02268044 0.02268044 0.02268044 0.0142022  0.0142022  0.0142022
- 0.01174385 0.01174385 0.01174385 0.01142884 0.01142884 0.01142884]</t>
+          <t>[0.03704602 0.03704602 0.03704602 0.02454602 0.02454602 0.02454602
+ 0.015      0.015      0.015      0.015      0.015      0.015     ]</t>
         </is>
       </c>
       <c r="E799" t="inlineStr"/>
@@ -20442,9 +20436,9 @@
       </c>
       <c r="D803" t="inlineStr">
         <is>
-          <t>[[ 2937712.61868186]
- [    8738.15973293]
- [-6852023.41514668]]</t>
+          <t>[[ 2937712.61868119]
+ [    8738.15973297]
+ [-6848706.78611806]]</t>
         </is>
       </c>
       <c r="E803" t="inlineStr"/>
@@ -20467,9 +20461,9 @@
       </c>
       <c r="D804" t="inlineStr">
         <is>
-          <t>[[  -693051.31929932]
- [-10698679.77813959]
- [  6202619.90349961]]</t>
+          <t>[[  -693049.02198225]
+ [-10698118.56522999]
+ [  6202628.40378762]]</t>
         </is>
       </c>
       <c r="E804" t="inlineStr"/>
@@ -20494,7 +20488,7 @@
         <is>
           <t>[[ 2.93771262e+06]
  [ 8.73815973e+03]
- [-1.32797998e+07]]</t>
+ [-1.60239663e+07]]</t>
         </is>
       </c>
       <c r="E805" t="inlineStr"/>
@@ -20517,9 +20511,9 @@
       </c>
       <c r="D806" t="inlineStr">
         <is>
-          <t>[[-1.99795861e+06]
- [ 4.17157365e+08]
- [ 6.20261990e+06]]</t>
+          <t>[[-1.99040414e+06]
+ [ 4.16036103e+08]
+ [ 6.20262840e+06]]</t>
         </is>
       </c>
       <c r="E806" t="inlineStr"/>
@@ -20542,8 +20536,7 @@
       </c>
       <c r="D807" t="inlineStr">
         <is>
-          <t>[1932303.53344269 1932303.53344269 3864607.06688539       0.
-       0.               0.        ]</t>
+          <t>[1512500. 1512500. 3025000.       0.       0.       0.]</t>
         </is>
       </c>
       <c r="E807" t="inlineStr"/>
@@ -20635,7 +20628,7 @@
       </c>
       <c r="D811" t="inlineStr">
         <is>
-          <t>[1582276.02618533]</t>
+          <t>[1863893.14461053]</t>
         </is>
       </c>
       <c r="E811" t="inlineStr"/>
@@ -20658,7 +20651,7 @@
       </c>
       <c r="D812" t="inlineStr">
         <is>
-          <t>[-4.05086724e+00 -5.75340287e-02  1.19067704e+02]</t>
+          <t>[-3.43879688e+00 -4.87769543e-02  1.08586804e+02]</t>
         </is>
       </c>
       <c r="E812" t="inlineStr"/>
@@ -20681,8 +20674,8 @@
       </c>
       <c r="D813" t="inlineStr">
         <is>
-          <t>[2.67789309e+10 2.66479953e+10 2.87413124e+08 5.45298788e+02
- 1.42357390e+07 1.70112235e+05]</t>
+          <t>[2.77998103e+10 2.76688774e+10 2.91824291e+08 5.41253437e+02
+ 1.42357768e+07 1.69892134e+05]</t>
         </is>
       </c>
       <c r="E813" t="inlineStr"/>
@@ -20705,7 +20698,7 @@
       </c>
       <c r="D814" t="inlineStr">
         <is>
-          <t>[948730.45601897]</t>
+          <t>[948395.20225366]</t>
         </is>
       </c>
       <c r="E814" t="inlineStr"/>
@@ -20728,8 +20721,8 @@
       </c>
       <c r="D815" t="inlineStr">
         <is>
-          <t>[4.16145597e+08 2.85209942e+08 2.66318468e+08 5.45298788e+02
- 1.42357390e+07 1.70112235e+05]</t>
+          <t>[4.16137377e+08 2.85204500e+08 2.66306105e+08 5.41253437e+02
+ 1.42357768e+07 1.69892134e+05]</t>
         </is>
       </c>
       <c r="E815" t="inlineStr"/>
@@ -20752,7 +20745,7 @@
       </c>
       <c r="D816" t="inlineStr">
         <is>
-          <t>[-6.75596538 -0.09595424  4.59635591]</t>
+          <t>[-6.75831121 -0.09586197  4.59784122]</t>
         </is>
       </c>
       <c r="E816" t="inlineStr"/>
@@ -20860,22 +20853,22 @@
           <t>[[      0.        ]
  [      0.        ]
  [      0.        ]
- [ -96476.17864374]
- [ -96918.90641228]
- [ -98252.45317392]
- [-100493.08222435]
- [-103668.49141771]
- [-107818.75539867]
- [-112997.76167827]
- [-126739.70475695]
- [-145701.26866961]
- [-171147.80374315]
- [   -823.5777459 ]
- [   -975.41988459]
- [  -1078.61829036]
- [  -1121.04796468]
- [  -1159.34049127]
- [  -1194.35831773]]</t>
+ [ -76069.22818689]
+ [ -76419.81487525]
+ [ -77475.80310771]
+ [ -79250.00595527]
+ [ -81764.21915156]
+ [ -85049.92502601]
+ [ -89149.36708317]
+ [-100022.09247963]
+ [-115010.75107985]
+ [-135096.15327474]
+ [   -729.03380056]
+ [   -860.22223859]
+ [   -948.63122849]
+ [   -984.81920533]
+ [  -1017.40258925]
+ [  -1047.13860747]]</t>
         </is>
       </c>
       <c r="E819" t="inlineStr"/>
@@ -20968,19 +20961,19 @@
       </c>
       <c r="D822" t="inlineStr">
         <is>
-          <t>[[-1194.35831793]
- [-1383.12123005]
- [-1520.0360783 ]
- [-1630.33839234]
- [-1702.39934959]
- [-1745.83564963]
- [-1769.36073776]
- [-1656.41637192]
- [-1541.20608233]
- [-1424.89609618]
- [-1286.67078696]
- [-1148.94963207]
- [-1009.46782915]]</t>
+          <t>[[-1047.13860747]
+ [-1206.50615946]
+ [-1321.22697622]
+ [-1413.18203997]
+ [-1521.16636429]
+ [-1611.52120343]
+ [-1689.9826881 ]
+ [-1577.44859314]
+ [-1462.79921589]
+ [-1346.96753088]
+ [-1235.47743344]
+ [-1122.7238536 ]
+ [-1007.39469272]]</t>
         </is>
       </c>
       <c r="E822" t="inlineStr"/>
@@ -21003,24 +20996,24 @@
       </c>
       <c r="D823" t="inlineStr">
         <is>
-          <t>[[-30864958.05892271]
- [-28418655.72279194]
- [-25494796.31560946]
- [-24927528.30954945]
- [-24358794.88436977]
- [-23787112.76743618]
- [-23210962.41189525]
- [-22628768.37714505]
- [-22038877.69836496]
- [-20827876.76860004]
- [-19562915.0646145 ]
- [-18224680.00700015]
- [-17125493.13030683]
- [-16307090.67233429]
- [-15488267.39749782]
- [-15078735.616838  ]
- [-14669137.24039033]
- [-14259478.38294327]]</t>
+          <t>[[-31382933.60572527]
+ [-29220377.4202503 ]
+ [-26681278.57779996]
+ [-26195049.09792418]
+ [-25707659.17822146]
+ [-25217934.3538649 ]
+ [-24724671.59440338]
+ [-24226623.89946392]
+ [-23722483.46359737]
+ [-22689498.48284507]
+ [-21613842.23395953]
+ [-20480313.78278517]
+ [-19535350.16482344]
+ [-18811875.83046557]
+ [-18088039.16038318]
+ [-17726018.03288104]
+ [-17363940.16900643]
+ [-17001810.89178082]]</t>
         </is>
       </c>
       <c r="E823" t="inlineStr"/>
@@ -21043,24 +21036,24 @@
       </c>
       <c r="D824" t="inlineStr">
         <is>
-          <t>[[-4287675.1062514 ]
- [-9675747.18425554]
- [-9141966.53219583]
- [ 2937868.0744099 ]
- [ 2937887.43833755]
- [ 2937907.20027249]
- [ 2937927.51793594]
- [ 2937948.55828181]
- [ 2937970.50137138]
- [ 2938297.32986391]
- [ 2938400.46865128]
- [ 2938519.67141279]
- [ 2938508.7310815 ]
- [ 2938305.37617278]
- [ 2938352.08983176]
- [ 2938049.51684787]
- [ 2938060.76107747]
- [ 2938071.86522336]]</t>
+          <t>[[ -4210855.43635316]
+ [-10581542.00927647]
+ [-10762624.78937486]
+ [  2937893.23518746]
+ [  2937917.24348308]
+ [  2937941.66015962]
+ [  2937966.6655294 ]
+ [  2937992.45003189]
+ [  2938019.21846435]
+ [  2938409.53328339]
+ [  2938533.5548034 ]
+ [  2938675.41310321]
+ [  2938672.35500581]
+ [  2938453.9058319 ]
+ [  2938513.76281309]
+ [  2938135.18037434]
+ [  2938149.58681751]
+ [  2938163.8130602 ]]</t>
         </is>
       </c>
       <c r="E824" t="inlineStr"/>
@@ -21083,24 +21076,24 @@
       </c>
       <c r="D825" t="inlineStr">
         <is>
-          <t>[[-19311.2728004 ]
- [-44055.15630401]
- [-43401.66221738]
- [  8738.84513643]
- [  8738.93264621]
- [  8739.02220588]
- [  8739.11453407]
- [  8739.21039549]
- [  8739.31061874]
- [  8740.77753112]
- [  8741.25185308]
- [  8741.80217173]
- [  8741.76694867]
- [  8740.85607376]
- [  8741.07998453]
- [  8739.7027525 ]
- [  8739.75740488]
- [  8739.81163647]]</t>
+          <t>[[-18926.93904879]
+ [-47999.73899011]
+ [-50598.43595645]
+ [  8738.95748773]
+ [  8739.0659091 ]
+ [  8739.17649763]
+ [  8739.29007447]
+ [  8739.4075115 ]
+ [  8739.52975091]
+ [  8741.28347379]
+ [  8741.85396788]
+ [  8742.50921599]
+ [  8742.51216155]
+ [  8741.53446968]
+ [  8741.821103  ]
+ [  8740.09652134]
+ [  8740.16647329]
+ [  8740.23588232]]</t>
         </is>
       </c>
       <c r="E825" t="inlineStr"/>
@@ -21123,24 +21116,24 @@
       </c>
       <c r="D826" t="inlineStr">
         <is>
-          <t>[[ -270135.10690784]
- [-1034215.96902661]
- [-1896618.98795587]
- [-2210480.07733276]
- [-2195803.80243047]
- [-2181117.92609376]
- [-2166423.11259315]
- [-2151720.03403106]
- [-2137009.37361443]
- [-2107563.7252418 ]
- [-2078095.54129637]
- [-2048611.06438685]
- [-2019117.02931423]
- [-1989613.62717169]
- [-1960098.69927508]
- [-1945340.52860142]
- [-1930580.88020426]
- [-1915820.11316682]]</t>
+          <t>[[ -211404.32813679]
+ [ -971127.24038956]
+ [-1918853.49075981]
+ [-2213131.7312537 ]
+ [-2198406.11494587]
+ [-2183664.89534501]
+ [-2168908.91883141]
+ [-2154139.0398403 ]
+ [-2139356.12459077]
+ [-2109749.48727753]
+ [-2080100.55485891]
+ [-2050417.11970005]
+ [-2020707.50844461]
+ [-1990972.73658889]
+ [-1961211.14865152]
+ [-1946324.91980058]
+ [-1931433.85135309]
+ [-1916538.4250802 ]]</t>
         </is>
       </c>
       <c r="E826" t="inlineStr"/>
@@ -21163,24 +21156,24 @@
       </c>
       <c r="D827" t="inlineStr">
         <is>
-          <t>[[6.10697685e+07]
- [2.31904874e+08]
- [4.20197803e+08]
- [4.88917394e+08]
- [4.83995722e+08]
- [4.79071947e+08]
- [4.74146227e+08]
- [4.69218717e+08]
- [4.64289577e+08]
- [4.54426072e+08]
- [4.44557844e+08]
- [4.34686306e+08]
- [4.24812970e+08]
- [4.14937891e+08]
- [4.05060612e+08]
- [4.00121943e+08]
- [3.95183035e+08]
- [3.90243968e+08]]</t>
+          <t>[[4.78143311e+07]
+ [2.17945864e+08]
+ [4.25547478e+08]
+ [4.89900144e+08]
+ [4.84967371e+08]
+ [4.80031172e+08]
+ [4.75091747e+08]
+ [4.70149298e+08]
+ [4.65204029e+08]
+ [4.55304689e+08]
+ [4.45396374e+08]
+ [4.35480870e+08]
+ [4.25560070e+08]
+ [4.15634236e+08]
+ [4.05703050e+08]
+ [4.00736473e+08]
+ [3.95768979e+08]
+ [3.90800678e+08]]</t>
         </is>
       </c>
       <c r="E827" t="inlineStr"/>
@@ -21203,24 +21196,24 @@
       </c>
       <c r="D828" t="inlineStr">
         <is>
-          <t>[[1022713.60290049]
- [2234939.75423931]
- [3861324.10304055]
- [6203243.4777016 ]
- [6203229.60159681]
- [6203215.68970833]
- [6203201.70575424]
- [6203187.61256605]
- [6203173.37160875]
- [6203158.94245176]
- [6203129.32069455]
- [6203098.37932884]
- [6203065.6460096 ]
- [6203038.7600833 ]
- [6203018.74224808]
- [6202998.71424911]
- [6202988.69735952]
- [6202978.67887341]]</t>
+          <t>[[1021791.72786407]
+ [2233388.57866221]
+ [3859869.04664001]
+ [6203366.63871219]
+ [6203353.18382747]
+ [6203339.6968898 ]
+ [6203326.14540026]
+ [6203312.49607012]
+ [6203298.71439446]
+ [6203284.76418654]
+ [6203256.18037247]
+ [6203226.41607814]
+ [6203195.05072138]
+ [6203168.90329987]
+ [6203148.88470107]
+ [6203128.85620565]
+ [6203118.83916223]
+ [6203108.82058125]]</t>
         </is>
       </c>
       <c r="E828" t="inlineStr"/>
@@ -21272,12 +21265,12 @@
       </c>
       <c r="D830" t="inlineStr">
         <is>
-          <t>[12.43319258 12.43319262 12.43319266 12.4331927  12.4331927  12.4331927
- 12.4331927  12.43319272 12.43319274 12.43319276 12.43319277 12.43319277
- 12.43319278 12.43319278 12.43319278 12.43319278 12.43319278 12.43319278
- 12.43319278 12.43319278 12.43319278 12.43319278 12.09875903 11.76432528
- 11.42989152 10.58683885  9.74378618  8.90073352  7.93776698  6.97480044
-  6.01183391]</t>
+          <t>[11.         11.         11.         11.         11.         11.
+ 11.         11.         11.         11.         11.         11.
+ 11.         11.         11.         11.         11.         11.
+ 11.         11.         11.         11.         11.         11.
+ 11.         10.14573254  9.29146508  8.43719762  7.62446508  6.81173254
+  5.999     ]</t>
         </is>
       </c>
       <c r="E830" t="inlineStr"/>
@@ -21303,8 +21296,8 @@
           <t>[0.077      0.077      0.077      0.077      0.077      0.077
  0.077      0.077      0.077      0.077      0.077      0.077
  0.077      0.077      0.077      0.077      0.077      0.077
- 0.02268044 0.02268044 0.02268044 0.0142022  0.0142022  0.0142022
- 0.01174385 0.01174385 0.01174385 0.01142884 0.01142884 0.01142884]</t>
+ 0.03704602 0.03704602 0.03704602 0.02454602 0.02454602 0.02454602
+ 0.015      0.015      0.015      0.015      0.015      0.015     ]</t>
         </is>
       </c>
       <c r="E831" t="inlineStr"/>
@@ -21452,11 +21445,11 @@
       </c>
       <c r="D837" t="inlineStr">
         <is>
-          <t>[3.19822531 3.19822532 3.19822533 3.19822529 3.19822529 3.19822529
- 3.19822526 3.19822526 3.19822527 3.19822527 3.19822527 3.19822527
- 3.19822527 3.19822527 3.19822527 3.19822527 3.19822527 3.19822527
- 0.94618249 0.94618249 0.94618249 0.58490872 0.5689426  0.55297649
- 0.43411361 0.40083242 0.36755123 0.32301245 0.28601711 0.24902177]</t>
+          <t>[2.82726365 2.82726365 2.82726365 2.82726365 2.82726365 2.82726365
+ 2.82726365 2.82726365 2.82726365 2.82726365 2.82726365 2.82726365
+ 2.82726365 2.82726365 2.82726365 2.82726365 2.82726365 2.82726365
+ 1.36522064 1.36522064 1.36522064 0.90560184 0.90560184 0.90560184
+ 0.53235467 0.48928031 0.44620596 0.40417875 0.3631987  0.32221864]</t>
         </is>
       </c>
       <c r="E837" t="inlineStr"/>
@@ -21479,11 +21472,11 @@
       </c>
       <c r="D838" t="inlineStr">
         <is>
-          <t>[1.81995474 1.81995474 1.81995475 1.81995473 1.81995472 1.81995472
- 1.81995471 1.81995471 1.81995471 1.81995471 1.81995472 1.81995472
- 1.81995472 1.81995472 1.81995472 1.81995472 1.81995472 1.81995472
- 0.53736216 0.53736216 0.53736216 0.33208718 0.32302691 0.31396663
- 0.246462   0.22757595 0.20868991 0.1834094  0.16241572 0.14142205]</t>
+          <t>[1.60945991 1.60945991 1.60945991 1.60945991 1.60945991 1.60945991
+ 1.60945991 1.60945991 1.60945991 1.60945991 1.60945991 1.60945991
+ 1.60945991 1.60945991 1.60945991 1.60945991 1.60945991 1.60945991
+ 0.77588055 0.77588055 0.77588055 0.51440855 0.51440855 0.51440855
+ 0.30228401 0.27784068 0.25339736 0.22954829 0.20629348 0.1830387 ]</t>
         </is>
       </c>
       <c r="E838" t="inlineStr"/>
@@ -21506,11 +21499,11 @@
       </c>
       <c r="D839" t="inlineStr">
         <is>
-          <t>[1.81995474 1.81995474 1.81995475 1.81995473 1.81995472 1.81995472
- 1.81995471 1.81995471 1.81995471 1.81995471 1.81995472 1.81995472
- 1.81995472 1.81995472 1.81995472 1.81995472 1.81995472 1.81995472
- 0.53736216 0.53736216 0.53736216 0.33208718 0.32302691 0.31396663
- 0.246462   0.22757595 0.20868991 0.1834094  0.16241572 0.14142205]</t>
+          <t>[1.60945991 1.60945991 1.60945991 1.60945991 1.60945991 1.60945991
+ 1.60945991 1.60945991 1.60945991 1.60945991 1.60945991 1.60945991
+ 1.60945991 1.60945991 1.60945991 1.60945991 1.60945991 1.60945991
+ 0.77588055 0.77588055 0.77588055 0.51440855 0.51440855 0.51440855
+ 0.30228401 0.27784068 0.25339736 0.22954829 0.20629348 0.1830387 ]</t>
         </is>
       </c>
       <c r="E839" t="inlineStr"/>
@@ -21533,11 +21526,11 @@
       </c>
       <c r="D840" t="inlineStr">
         <is>
-          <t>[61.03869951 61.03870008 61.03870064 61.03870009 61.03870008 61.03870008
- 61.03869957 61.0386999  61.03870023 61.03870043 61.03870051 61.0387006
- 61.03870064 61.03870064 61.03870064 61.03870064 61.03870064 61.03870064
- 18.21653576 18.21653576 18.21653576 10.97480022 10.10038065  9.27368651
-  6.5619429   5.16548199  3.98268614  2.85428299  1.98159786  1.30783145]</t>
+          <t>[42.16788031 42.16788031 42.16788031 42.16788031 42.16788031 42.16788031
+ 42.16788031 42.16788031 42.16788031 42.16788031 42.16788031 42.16788031
+ 42.16788031 42.16788031 42.16788031 42.16788031 42.16788031 42.16788031
+ 20.51034657 20.51034657 20.51034657 13.63623474 13.63623474 13.63623474
+  7.41761468  5.75883264  4.36784824  3.24625145  2.35556408  1.64480557]</t>
         </is>
       </c>
       <c r="E840" t="inlineStr"/>
@@ -21560,11 +21553,11 @@
       </c>
       <c r="D841" t="inlineStr">
         <is>
-          <t>[61.03869951 61.03870008 61.03870064 61.03870009 61.03870008 61.03870008
- 61.03869957 61.0386999  61.03870023 61.03870043 61.03870051 61.0387006
- 61.03870064 61.03870064 61.03870064 61.03870064 61.03870064 61.03870064
- 18.21653576 18.21653576 18.21653576 10.97480022 10.10038065  9.27368651
-  6.5619429   5.16548199  3.98268614  2.85428299  1.98159786  1.30783145]</t>
+          <t>[42.16788031 42.16788031 42.16788031 42.16788031 42.16788031 42.16788031
+ 42.16788031 42.16788031 42.16788031 42.16788031 42.16788031 42.16788031
+ 42.16788031 42.16788031 42.16788031 42.16788031 42.16788031 42.16788031
+ 20.51034657 20.51034657 20.51034657 13.63623474 13.63623474 13.63623474
+  7.41761468  5.75883264  4.36784824  3.24625145  2.35556408  1.64480557]</t>
         </is>
       </c>
       <c r="E841" t="inlineStr"/>
@@ -21587,12 +21580,11 @@
       </c>
       <c r="D842" t="inlineStr">
         <is>
-          <t>[122.07739902 122.07740015 122.07740128 122.07740017 122.07740017
- 122.07740016 122.07739914 122.07739979 122.07740045 122.07740086
- 122.07740103 122.07740119 122.07740128 122.07740128 122.07740128
- 122.07740128 122.07740128 122.07740128  36.43307152  36.43307152
-  36.43307152  21.94960044  20.2007613   18.54737303  13.12388581
-  10.33096399   7.96537229   5.70856597   3.96319571   2.6156629 ]</t>
+          <t>[84.33576062 84.33576062 84.33576062 84.33576062 84.33576062 84.33576062
+ 84.33576062 84.33576062 84.33576062 84.33576062 84.33576062 84.33576062
+ 84.33576062 84.33576062 84.33576062 84.33576062 84.33576062 84.33576062
+ 41.02069314 41.02069314 41.02069314 27.27246948 27.27246948 27.27246948
+ 14.83522936 11.51766529  8.73569649  6.4925029   4.71112815  3.28961114]</t>
         </is>
       </c>
       <c r="E842" t="inlineStr"/>
@@ -21615,36 +21607,36 @@
       </c>
       <c r="D843" t="inlineStr">
         <is>
-          <t>[[-3.08649581e+07]
- [-2.84186557e+07]
- [-2.54947963e+07]
- [-2.49275283e+07]
- [-2.43587949e+07]
- [-2.37871128e+07]
- [-2.32109624e+07]
- [-2.26287684e+07]
- [-2.20388777e+07]
- [-2.08278768e+07]
- [-1.95629151e+07]
- [-1.82246800e+07]
- [-1.71254931e+07]
- [-1.63070907e+07]
- [-1.54882674e+07]
- [-1.50787356e+07]
- [-1.46691372e+07]
- [-1.42594784e+07]
- [-1.24246246e+07]
- [-1.15693188e+07]
- [-1.07121407e+07]
- [-9.94402417e+06]
- [-9.19467088e+06]
- [-8.46462997e+06]
- [-8.11677718e+06]
- [-7.79470512e+06]
- [-7.49909741e+06]
- [-7.25591247e+06]
- [-7.04018831e+06]
- [-9.28412192e-09]]</t>
+          <t>[[-3.13829336e+07]
+ [-2.92203774e+07]
+ [-2.66812786e+07]
+ [-2.61950491e+07]
+ [-2.57076592e+07]
+ [-2.52179344e+07]
+ [-2.47246716e+07]
+ [-2.42266239e+07]
+ [-2.37224835e+07]
+ [-2.26894985e+07]
+ [-2.16138422e+07]
+ [-2.04803138e+07]
+ [-1.95353502e+07]
+ [-1.88118758e+07]
+ [-1.80880392e+07]
+ [-1.77260180e+07]
+ [-1.73639402e+07]
+ [-1.70018109e+07]
+ [-1.47964203e+07]
+ [-1.35707466e+07]
+ [-1.23434972e+07]
+ [-1.11718395e+07]
+ [-9.99853987e+06]
+ [-8.82361140e+06]
+ [-8.40201125e+06]
+ [-8.01337559e+06]
+ [-7.65865596e+06]
+ [-7.35851029e+06]
+ [-7.08853194e+06]
+ [-5.41331246e-09]]</t>
         </is>
       </c>
       <c r="E843" t="inlineStr"/>
@@ -21667,36 +21659,36 @@
       </c>
       <c r="D844" t="inlineStr">
         <is>
-          <t>[[-4.28767511e+06]
- [-9.67574718e+06]
- [-9.14196653e+06]
- [ 2.93786807e+06]
- [ 2.93788744e+06]
- [ 2.93790720e+06]
- [ 2.93792752e+06]
- [ 2.93794856e+06]
- [ 2.93797050e+06]
- [ 2.93829733e+06]
- [ 2.93840047e+06]
- [ 2.93851967e+06]
- [ 2.93850873e+06]
- [ 2.93830538e+06]
- [ 2.93835209e+06]
- [ 2.93804952e+06]
- [ 2.93806076e+06]
- [ 2.93807187e+06]
- [ 2.93875222e+06]
- [ 2.93923806e+06]
- [ 2.93968034e+06]
- [ 2.94006725e+06]
- [ 2.94070849e+06]
- [ 2.94121500e+06]
- [ 2.93958972e+06]
- [ 2.93959964e+06]
- [ 2.93956929e+06]
- [ 2.93932181e+06]
- [ 2.93917746e+06]
- [ 1.25413061e+03]]</t>
+          <t>[[-4.21085544e+06]
+ [-1.05815420e+07]
+ [-1.07626248e+07]
+ [ 2.93789324e+06]
+ [ 2.93791724e+06]
+ [ 2.93794166e+06]
+ [ 2.93796667e+06]
+ [ 2.93799245e+06]
+ [ 2.93801922e+06]
+ [ 2.93840953e+06]
+ [ 2.93853355e+06]
+ [ 2.93867541e+06]
+ [ 2.93867236e+06]
+ [ 2.93845391e+06]
+ [ 2.93851376e+06]
+ [ 2.93813518e+06]
+ [ 2.93814959e+06]
+ [ 2.93816381e+06]
+ [ 2.93960683e+06]
+ [ 2.94022565e+06]
+ [ 2.94078727e+06]
+ [ 2.94139117e+06]
+ [ 2.94223982e+06]
+ [ 2.94291181e+06]
+ [ 2.93977617e+06]
+ [ 2.93977476e+06]
+ [ 2.93972962e+06]
+ [ 2.93950838e+06]
+ [ 2.93936732e+06]
+ [ 1.44611726e+03]]</t>
         </is>
       </c>
       <c r="E844" t="inlineStr"/>
@@ -21719,36 +21711,36 @@
       </c>
       <c r="D845" t="inlineStr">
         <is>
-          <t>[[-1.93112728e+04]
- [-4.40551563e+04]
- [-4.34016622e+04]
- [ 8.73884514e+03]
- [ 8.73893265e+03]
- [ 8.73902221e+03]
- [ 8.73911453e+03]
- [ 8.73921040e+03]
- [ 8.73931062e+03]
- [ 8.74077753e+03]
- [ 8.74125185e+03]
- [ 8.74180217e+03]
- [ 8.74176695e+03]
- [ 8.74085607e+03]
- [ 8.74107998e+03]
- [ 8.73970275e+03]
- [ 8.73975740e+03]
- [ 8.73981164e+03]
- [ 8.74300490e+03]
- [ 8.74547992e+03]
- [ 8.74783142e+03]
- [ 8.75013835e+03]
- [ 8.75414154e+03]
- [ 8.75780653e+03]
- [ 8.74921103e+03]
- [ 8.74986691e+03]
- [ 8.75048405e+03]
- [ 8.74982815e+03]
- [ 8.75018943e+03]
- [ 1.12230183e+01]]</t>
+          <t>[[-1.89269390e+04]
+ [-4.79997390e+04]
+ [-5.05984360e+04]
+ [ 8.73895749e+03]
+ [ 8.73906591e+03]
+ [ 8.73917650e+03]
+ [ 8.73929007e+03]
+ [ 8.73940751e+03]
+ [ 8.73952975e+03]
+ [ 8.74128347e+03]
+ [ 8.74185397e+03]
+ [ 8.74250922e+03]
+ [ 8.74251216e+03]
+ [ 8.74153447e+03]
+ [ 8.74182110e+03]
+ [ 8.74009652e+03]
+ [ 8.74016647e+03]
+ [ 8.74023588e+03]
+ [ 8.74697658e+03]
+ [ 8.75012562e+03]
+ [ 8.75310859e+03]
+ [ 8.75660163e+03]
+ [ 8.76180517e+03]
+ [ 8.76647986e+03]
+ [ 8.74991127e+03]
+ [ 8.75057528e+03]
+ [ 8.75120238e+03]
+ [ 8.75087633e+03]
+ [ 8.75139292e+03]
+ [ 1.25421848e+01]]</t>
         </is>
       </c>
       <c r="E845" t="inlineStr"/>
@@ -21771,36 +21763,36 @@
       </c>
       <c r="D846" t="inlineStr">
         <is>
-          <t>[[-2.70135107e+05]
- [-1.03421597e+06]
- [-1.89661899e+06]
- [-2.21048008e+06]
- [-2.19580380e+06]
- [-2.18111793e+06]
- [-2.16642311e+06]
- [-2.15172003e+06]
- [-2.13700937e+06]
- [-2.10756373e+06]
- [-2.07809554e+06]
- [-2.04861106e+06]
- [-2.01911703e+06]
- [-1.98961363e+06]
- [-1.96009870e+06]
- [-1.94534053e+06]
- [-1.93058088e+06]
- [-1.91582011e+06]
- [-1.81259460e+06]
- [-1.70864514e+06]
- [-1.60413384e+06]
- [-1.45362528e+06]
- [-1.30161955e+06]
- [-1.14844147e+06]
- [-1.05610354e+06]
- [-9.63254410e+05]
- [-8.69810584e+05]
- [-7.81950224e+05]
- [-6.93260945e+05]
- [-2.57051488e-04]]</t>
+          <t>[[-2.11404328e+05]
+ [-9.71127240e+05]
+ [-1.91885349e+06]
+ [-2.21313173e+06]
+ [-2.19840611e+06]
+ [-2.18366490e+06]
+ [-2.16890892e+06]
+ [-2.15413904e+06]
+ [-2.13935612e+06]
+ [-2.10974949e+06]
+ [-2.08010055e+06]
+ [-2.05041712e+06]
+ [-2.02070751e+06]
+ [-1.99097274e+06]
+ [-1.96121115e+06]
+ [-1.94632492e+06]
+ [-1.93143385e+06]
+ [-1.91653843e+06]
+ [-1.81238416e+06]
+ [-1.70754952e+06]
+ [-1.60223086e+06]
+ [-1.45081971e+06]
+ [-1.29837891e+06]
+ [-1.14541231e+06]
+ [-1.05352970e+06]
+ [-9.61208983e+05]
+ [-8.68367019e+05]
+ [-7.81160755e+05]
+ [-6.93283318e+05]
+ [-2.90809020e-04]]</t>
         </is>
       </c>
       <c r="E846" t="inlineStr"/>
@@ -21823,36 +21815,36 @@
       </c>
       <c r="D847" t="inlineStr">
         <is>
-          <t>[[ 6.10697685e+07]
- [ 2.31904874e+08]
- [ 4.20197803e+08]
- [ 4.88917394e+08]
- [ 4.83995722e+08]
- [ 4.79071947e+08]
- [ 4.74146227e+08]
- [ 4.69218717e+08]
- [ 4.64289577e+08]
- [ 4.54426072e+08]
- [ 4.44557844e+08]
- [ 4.34686306e+08]
- [ 4.24812970e+08]
- [ 4.14937891e+08]
- [ 4.05060612e+08]
- [ 4.00121943e+08]
- [ 3.95183035e+08]
- [ 3.90243968e+08]
- [ 3.55752629e+08]
- [ 3.21121235e+08]
- [ 2.86387725e+08]
- [ 2.36561019e+08]
- [ 1.86504183e+08]
- [ 1.36302999e+08]
- [ 1.06150657e+08]
- [ 7.59621779e+07]
- [ 4.57459154e+07]
- [ 1.75318300e+07]
- [-1.06754104e+07]
- [ 2.87247846e-02]]</t>
+          <t>[[ 4.78143311e+07]
+ [ 2.17945864e+08]
+ [ 4.25547478e+08]
+ [ 4.89900144e+08]
+ [ 4.84967371e+08]
+ [ 4.80031172e+08]
+ [ 4.75091747e+08]
+ [ 4.70149298e+08]
+ [ 4.65204029e+08]
+ [ 4.55304689e+08]
+ [ 4.45396374e+08]
+ [ 4.35480870e+08]
+ [ 4.25560070e+08]
+ [ 4.15634236e+08]
+ [ 4.05703050e+08]
+ [ 4.00736473e+08]
+ [ 3.95768979e+08]
+ [ 3.90800678e+08]
+ [ 3.56109318e+08]
+ [ 3.21287996e+08]
+ [ 2.86381678e+08]
+ [ 2.36358848e+08]
+ [ 1.86190505e+08]
+ [ 1.35984458e+08]
+ [ 1.05881339e+08]
+ [ 7.57518243e+07]
+ [ 4.56028141e+07]
+ [ 1.74590309e+07]
+ [-1.06712733e+07]
+ [ 3.35310406e-02]]</t>
         </is>
       </c>
       <c r="E847" t="inlineStr"/>
@@ -21875,36 +21867,36 @@
       </c>
       <c r="D848" t="inlineStr">
         <is>
-          <t>[[ 1.02271360e+06]
- [ 2.23493975e+06]
- [ 3.86132410e+06]
- [ 6.20324348e+06]
- [ 6.20322960e+06]
- [ 6.20321569e+06]
- [ 6.20320171e+06]
- [ 6.20318761e+06]
- [ 6.20317337e+06]
- [ 6.20315894e+06]
- [ 6.20312932e+06]
- [ 6.20309838e+06]
- [ 6.20306565e+06]
- [ 6.20303876e+06]
- [ 6.20301874e+06]
- [ 6.20299871e+06]
- [ 6.20298870e+06]
- [ 6.20297868e+06]
- [ 6.20371781e+06]
- [ 6.20364717e+06]
- [ 6.20357644e+06]
- [ 6.20405272e+06]
- [ 6.20398729e+06]
- [ 6.20392074e+06]
- [ 6.20414541e+06]
- [ 6.20420419e+06]
- [ 6.20427911e+06]
- [ 6.20443633e+06]
- [ 6.20460481e+06]
- [-2.42057874e-09]]</t>
+          <t>[[1021791.72786407]
+ [2233388.57866221]
+ [3859869.04664001]
+ [6203366.63871219]
+ [6203353.18382747]
+ [6203339.6968898 ]
+ [6203326.14540026]
+ [6203312.49607012]
+ [6203298.71439446]
+ [6203284.76418654]
+ [6203256.18037247]
+ [6203226.41607814]
+ [6203195.05072138]
+ [6203168.90329987]
+ [6203148.88470107]
+ [6203128.85620565]
+ [6203118.83916223]
+ [6203108.82058125]
+ [6203546.4370591 ]
+ [6203476.24734387]
+ [6203406.00671574]
+ [6203694.70069634]
+ [6203593.47092828]
+ [6203492.10260778]
+ [6203925.10122524]
+ [6203971.85573349]
+ [6204033.4191168 ]
+ [6204110.87211309]
+ [6204213.51282672]
+ [      0.        ]]</t>
         </is>
       </c>
       <c r="E848" t="inlineStr"/>
@@ -22049,7 +22041,7 @@
       </c>
       <c r="D853" t="inlineStr">
         <is>
-          <t>[12.43319258]</t>
+          <t>[11.]</t>
         </is>
       </c>
       <c r="E853" t="inlineStr"/>
@@ -26244,7 +26236,7 @@
       </c>
       <c r="D961" t="inlineStr">
         <is>
-          <t>[40744.68649193]</t>
+          <t>[40682.04562332]</t>
         </is>
       </c>
       <c r="E961" t="inlineStr"/>
@@ -26796,7 +26788,7 @@
       </c>
       <c r="D985" t="inlineStr">
         <is>
-          <t>[118159.59082661]</t>
+          <t>[117977.93230762]</t>
         </is>
       </c>
       <c r="E985" t="inlineStr"/>
@@ -26819,7 +26811,7 @@
       </c>
       <c r="D986" t="inlineStr">
         <is>
-          <t>[210180.82554253]</t>
+          <t>[209392.02038664]</t>
         </is>
       </c>
       <c r="E986" t="inlineStr"/>
@@ -26842,7 +26834,7 @@
       </c>
       <c r="D987" t="inlineStr">
         <is>
-          <t>[25322.99102922]</t>
+          <t>[25227.95426345]</t>
         </is>
       </c>
       <c r="E987" t="inlineStr"/>
@@ -26980,7 +26972,7 @@
       </c>
       <c r="D993" t="inlineStr">
         <is>
-          <t>[41635.75328293]</t>
+          <t>[41458.177152]</t>
         </is>
       </c>
       <c r="E993" t="inlineStr"/>
@@ -27003,7 +26995,7 @@
       </c>
       <c r="D994" t="inlineStr">
         <is>
-          <t>[711971.38113803]</t>
+          <t>[708934.8292992]</t>
         </is>
       </c>
       <c r="E994" t="inlineStr"/>
@@ -27141,7 +27133,7 @@
       </c>
       <c r="D1000" t="inlineStr">
         <is>
-          <t>[9685300.48985011]</t>
+          <t>[9681293.47433639]</t>
         </is>
       </c>
       <c r="E1000" t="inlineStr"/>
@@ -27164,7 +27156,7 @@
       </c>
       <c r="D1001" t="inlineStr">
         <is>
-          <t>[655082.151415]</t>
+          <t>[654746.89764968]</t>
         </is>
       </c>
       <c r="E1001" t="inlineStr"/>
@@ -27187,7 +27179,7 @@
       </c>
       <c r="D1002" t="inlineStr">
         <is>
-          <t>[2070237.733636]</t>
+          <t>[2641221.08348016]</t>
         </is>
       </c>
       <c r="E1002" t="inlineStr"/>
@@ -27210,7 +27202,7 @@
       </c>
       <c r="D1003" t="inlineStr">
         <is>
-          <t>[633545.57016637]</t>
+          <t>[915497.94235688]</t>
         </is>
       </c>
       <c r="E1003" t="inlineStr"/>
@@ -27233,7 +27225,7 @@
       </c>
       <c r="D1004" t="inlineStr">
         <is>
-          <t>[15355279.23859381]</t>
+          <t>[15922255.57292426]</t>
         </is>
       </c>
       <c r="E1004" t="inlineStr"/>
@@ -27256,7 +27248,7 @@
       </c>
       <c r="D1005" t="inlineStr">
         <is>
-          <t>[1023.68528257]</t>
+          <t>[1061.48370486]</t>
         </is>
       </c>
       <c r="E1005" t="inlineStr"/>
@@ -27279,7 +27271,7 @@
       </c>
       <c r="D1006" t="inlineStr">
         <is>
-          <t>[1582276.02618533]</t>
+          <t>[1863893.14461054]</t>
         </is>
       </c>
       <c r="E1006" t="inlineStr"/>
@@ -27348,7 +27340,7 @@
       </c>
       <c r="D1009" t="inlineStr">
         <is>
-          <t>[2070237.733636]</t>
+          <t>[2641221.08348016]</t>
         </is>
       </c>
       <c r="E1009" t="inlineStr"/>
@@ -27371,7 +27363,7 @@
       </c>
       <c r="D1010" t="inlineStr">
         <is>
-          <t>[2070237.733636]</t>
+          <t>[2641221.08348016]</t>
         </is>
       </c>
       <c r="E1010" t="inlineStr"/>
@@ -27421,7 +27413,7 @@
       </c>
       <c r="D1012" t="inlineStr">
         <is>
-          <t>[0.23805298]</t>
+          <t>[0.25955646]</t>
         </is>
       </c>
       <c r="E1012" t="inlineStr"/>
@@ -27569,9 +27561,9 @@
       </c>
       <c r="D1017" t="inlineStr">
         <is>
-          <t>[1194.35831793 1383.12123005 1520.0360783  1630.33839234 1702.39934959
- 1745.83564963 1769.36073776 1656.41637192 1541.20608233 1424.89609618
- 1286.67078696 1148.94963207 1009.46782915]</t>
+          <t>[1047.13860747 1206.50615946 1321.22697622 1413.18203997 1521.16636429
+ 1611.52120343 1689.9826881  1577.44859314 1462.79921589 1346.96753088
+ 1235.47743344 1122.7238536  1007.39469272]</t>
         </is>
       </c>
       <c r="E1017" t="inlineStr"/>
@@ -27809,9 +27801,9 @@
       </c>
       <c r="D1027" t="inlineStr">
         <is>
-          <t>[12.43319278 12.43319278 12.43319278 12.43319278 12.09875903 11.76432528
- 11.42989152 10.58683885  9.74378618  8.90073352  7.93776698  6.97480044
-  6.01183391]</t>
+          <t>[11.         11.         11.         11.         11.         11.
+ 11.         10.14573254  9.29146508  8.43719762  7.62446508  6.81173254
+  5.999     ]</t>
         </is>
       </c>
       <c r="E1027" t="inlineStr"/>
@@ -27905,9 +27897,9 @@
       </c>
       <c r="D1031" t="inlineStr">
         <is>
-          <t>[1194.35831793 1383.12123005 1520.0360783  1630.33839234 1702.39934959
- 1745.83564963 1769.36073776 1656.41637192 1541.20608233 1424.89609618
- 1286.67078696 1148.94963207 1009.46782915]</t>
+          <t>[1047.13860747 1206.50615946 1321.22697622 1413.18203997 1521.16636429
+ 1611.52120343 1689.9826881  1577.44859314 1462.79921589 1346.96753088
+ 1235.47743344 1122.7238536  1007.39469272]</t>
         </is>
       </c>
       <c r="E1031" t="inlineStr"/>
@@ -28047,10 +28039,10 @@
       </c>
       <c r="D1037" t="inlineStr">
         <is>
-          <t>[-1194.35831793 -1383.12123005 -1520.0360783  -1630.33839234
- -1702.39934959 -1745.83564963 -1769.36073776 -1656.41637192
- -1541.20608233 -1424.89609618 -1286.67078696 -1148.94963207
- -1009.46782915]</t>
+          <t>[-1047.13860747 -1206.50615946 -1321.22697622 -1413.18203997
+ -1521.16636429 -1611.52120343 -1689.9826881  -1577.44859314
+ -1462.79921589 -1346.96753088 -1235.47743344 -1122.7238536
+ -1007.39469272]</t>
         </is>
       </c>
       <c r="E1037" t="inlineStr"/>
@@ -28098,7 +28090,7 @@
       </c>
       <c r="D1039" t="inlineStr">
         <is>
-          <t>[12.43319278 12.43319278 11.42989152  8.90073352  6.01183391]</t>
+          <t>[11.         11.         11.          8.43719762  5.999     ]</t>
         </is>
       </c>
       <c r="E1039" t="inlineStr"/>
@@ -28121,7 +28113,7 @@
       </c>
       <c r="D1040" t="inlineStr">
         <is>
-          <t>[0.02268044 0.0142022  0.01174385 0.01142884]</t>
+          <t>[0.03704602 0.02454602 0.015      0.015     ]</t>
         </is>
       </c>
       <c r="E1040" t="inlineStr"/>
@@ -28186,7 +28178,7 @@
       </c>
       <c r="D1043" t="inlineStr">
         <is>
-          <t>[12.43319278 12.43319278 11.42989152  8.90073352  6.01183391]</t>
+          <t>[11.         11.         11.          8.43719762  5.999     ]</t>
         </is>
       </c>
       <c r="E1043" t="inlineStr"/>
@@ -28209,7 +28201,7 @@
       </c>
       <c r="D1044" t="inlineStr">
         <is>
-          <t>[0.02268044 0.0142022  0.01174385 0.01142884]</t>
+          <t>[0.03704602 0.02454602 0.015      0.015     ]</t>
         </is>
       </c>
       <c r="E1044" t="inlineStr"/>
@@ -28445,8 +28437,8 @@
       </c>
       <c r="D1054" t="inlineStr">
         <is>
-          <t>[0.02268044 0.02268044 0.02268044 0.0142022  0.0142022  0.0142022
- 0.01174385 0.01174385 0.01174385 0.01142884 0.01142884 0.01142884]</t>
+          <t>[0.03704602 0.03704602 0.03704602 0.02454602 0.02454602 0.02454602
+ 0.015      0.015      0.015      0.015      0.015      0.015     ]</t>
         </is>
       </c>
       <c r="E1054" t="inlineStr"/>
@@ -28629,8 +28621,8 @@
       </c>
       <c r="D1062" t="inlineStr">
         <is>
-          <t>[0.94618249 0.94618249 0.94618249 0.58490872 0.5689426  0.55297649
- 0.43411361 0.40083242 0.36755123 0.32301245 0.28601711 0.24902177]</t>
+          <t>[1.36522064 1.36522064 1.36522064 0.90560184 0.90560184 0.90560184
+ 0.53235467 0.48928031 0.44620596 0.40417875 0.3631987  0.32221864]</t>
         </is>
       </c>
       <c r="E1062" t="inlineStr"/>
@@ -28653,8 +28645,8 @@
       </c>
       <c r="D1063" t="inlineStr">
         <is>
-          <t>[0.53736216 0.53736216 0.53736216 0.33208718 0.32302691 0.31396663
- 0.246462   0.22757595 0.20868991 0.1834094  0.16241572 0.14142205]</t>
+          <t>[0.77588055 0.77588055 0.77588055 0.51440855 0.51440855 0.51440855
+ 0.30228401 0.27784068 0.25339736 0.22954829 0.20629348 0.1830387 ]</t>
         </is>
       </c>
       <c r="E1063" t="inlineStr"/>
@@ -28677,8 +28669,8 @@
       </c>
       <c r="D1064" t="inlineStr">
         <is>
-          <t>[0.53736216 0.53736216 0.53736216 0.33208718 0.32302691 0.31396663
- 0.246462   0.22757595 0.20868991 0.1834094  0.16241572 0.14142205]</t>
+          <t>[0.77588055 0.77588055 0.77588055 0.51440855 0.51440855 0.51440855
+ 0.30228401 0.27784068 0.25339736 0.22954829 0.20629348 0.1830387 ]</t>
         </is>
       </c>
       <c r="E1064" t="inlineStr"/>
@@ -28701,8 +28693,8 @@
       </c>
       <c r="D1065" t="inlineStr">
         <is>
-          <t>[18.21653576 18.21653576 18.21653576 10.97480022 10.10038065  9.27368651
-  6.5619429   5.16548199  3.98268614  2.85428299  1.98159786  1.30783145]</t>
+          <t>[20.51034657 20.51034657 20.51034657 13.63623474 13.63623474 13.63623474
+  7.41761468  5.75883264  4.36784824  3.24625145  2.35556408  1.64480557]</t>
         </is>
       </c>
       <c r="E1065" t="inlineStr"/>
@@ -28725,8 +28717,8 @@
       </c>
       <c r="D1066" t="inlineStr">
         <is>
-          <t>[18.21653576 18.21653576 18.21653576 10.97480022 10.10038065  9.27368651
-  6.5619429   5.16548199  3.98268614  2.85428299  1.98159786  1.30783145]</t>
+          <t>[20.51034657 20.51034657 20.51034657 13.63623474 13.63623474 13.63623474
+  7.41761468  5.75883264  4.36784824  3.24625145  2.35556408  1.64480557]</t>
         </is>
       </c>
       <c r="E1066" t="inlineStr"/>
@@ -28749,8 +28741,8 @@
       </c>
       <c r="D1067" t="inlineStr">
         <is>
-          <t>[36.43307152 36.43307152 36.43307152 21.94960044 20.2007613  18.54737303
- 13.12388581 10.33096399  7.96537229  5.70856597  3.96319571  2.6156629 ]</t>
+          <t>[41.02069314 41.02069314 41.02069314 27.27246948 27.27246948 27.27246948
+ 14.83522936 11.51766529  8.73569649  6.4925029   4.71112815  3.28961114]</t>
         </is>
       </c>
       <c r="E1067" t="inlineStr"/>
@@ -28844,18 +28836,18 @@
       </c>
       <c r="D1071" t="inlineStr">
         <is>
-          <t>[[-12424493.96445168]
- [-11567315.90867195]
- [-10708716.70243445]
- [ -9939102.5408792 ]
- [ -9188800.75887687]
- [ -8458209.94418813]
- [ -8110797.75989555]
- [ -7789849.89910452]
- [ -7495382.97098192]
- [ -7253368.60800501]
- [ -7038913.48567827]
- [ -6852023.41514668]]</t>
+          <t>[[-14798292.56825814]
+ [-13571043.21304842]
+ [-12342605.7624031 ]
+ [-11169306.11376033]
+ [ -9994377.65101596]
+ [ -8818062.82256066]
+ [ -8396630.56117327]
+ [ -8009114.313065  ]
+ [ -7655530.35177437]
+ [ -7356430.09865088]
+ [ -7087483.01786644]
+ [ -6848706.78611807]]</t>
         </is>
       </c>
       <c r="E1071" t="inlineStr"/>
@@ -28878,18 +28870,18 @@
       </c>
       <c r="D1072" t="inlineStr">
         <is>
-          <t>[[2938018.77579359]
- [2938542.70434824]
- [2939021.17174863]
- [2939535.34787985]
- [2940271.6797646 ]
- [2940876.52443576]
- [2939466.58132607]
- [2939519.48248597]
- [2939540.79103078]
- [2939346.10074771]
- [2939257.39195786]
- [2939105.6723517 ]]</t>
+          <t>[[2938093.0942055 ]
+ [2938756.98414304]
+ [2939362.219396  ]
+ [2940101.51301573]
+ [2941046.01576116]
+ [2941814.07622364]
+ [2939418.19759871]
+ [2939480.31883221]
+ [2939509.36543433]
+ [2939375.07469066]
+ [2939311.05425586]
+ [2939179.97255777]]</t>
         </is>
       </c>
       <c r="E1072" t="inlineStr"/>
@@ -28912,18 +28904,18 @@
       </c>
       <c r="D1073" t="inlineStr">
         <is>
-          <t>[[8739.58645666]
- [8742.18032585]
- [8744.64150541]
- [8747.46569284]
- [8751.78993619]
- [8755.78670426]
- [8748.36225993]
- [8749.17142327]
- [8749.98157447]
- [8749.55569918]
- [8750.11686928]
- [8750.73732409]]</t>
+          <t>[[8739.94464966]
+ [8743.22808406]
+ [8746.33847542]
+ [8750.35521564]
+ [8755.85109703]
+ [8760.81870218]
+ [8747.98787607]
+ [8748.89533764]
+ [8749.81432152]
+ [8749.86110649]
+ [8750.67106629]
+ [8751.5040194 ]]</t>
         </is>
       </c>
       <c r="E1073" t="inlineStr"/>
@@ -28946,18 +28938,18 @@
       </c>
       <c r="D1074" t="inlineStr">
         <is>
-          <t>[[-1895967.67854187]
- [-1793134.95649589]
- [-1689627.63340031]
- [-1540366.5427006 ]
- [-1389407.40610272]
- [-1237084.09112017]
- [-1145157.46878092]
- [-1052641.55066725]
- [ -959440.9017181 ]
- [ -871708.77650697]
- [ -783022.88684266]
- [ -693053.21390811]]</t>
+          <t>[[-1888386.48672705]
+ [-1785487.91031429]
+ [-1681910.24849253]
+ [-1532689.09306266]
+ [-1382138.8212363 ]
+ [-1230781.17824629]
+ [-1139703.52631309]
+ [-1048094.79168117]
+ [ -955862.3877201 ]
+ [ -869119.57920815]
+ [ -781584.72184847]
+ [ -693050.9436865 ]]</t>
         </is>
       </c>
       <c r="E1074" t="inlineStr"/>
@@ -28980,18 +28972,18 @@
       </c>
       <c r="D1075" t="inlineStr">
         <is>
-          <t>[[ 3.82930922e+08]
- [ 3.48534853e+08]
- [ 3.14008789e+08]
- [ 2.64430342e+08]
- [ 2.14567935e+08]
- [ 1.64510120e+08]
- [ 1.34417411e+08]
- [ 1.04266592e+08]
- [ 7.40621403e+07]
- [ 4.58301887e+07]
- [ 1.75676648e+07]
- [-1.06986727e+07]]</t>
+          <t>[[ 3.81804698e+08]
+ [ 3.47395603e+08]
+ [ 3.12855732e+08]
+ [ 2.63285025e+08]
+ [ 2.13495625e+08]
+ [ 1.63601430e+08]
+ [ 1.33648032e+08]
+ [ 1.03643420e+08]
+ [ 7.35912041e+07]
+ [ 4.55080905e+07]
+ [ 1.74033690e+07]
+ [-1.06981116e+07]]</t>
         </is>
       </c>
       <c r="E1075" t="inlineStr"/>
@@ -29014,18 +29006,18 @@
       </c>
       <c r="D1076" t="inlineStr">
         <is>
-          <t>[[6203717.88615875]
- [6203647.15719027]
- [6203576.27502052]
- [6204052.26146427]
- [6203986.61349759]
- [6203919.90884194]
- [6204144.2502335 ]
- [6204203.02240594]
- [6204278.07435875]
- [6204435.43446649]
- [6204604.11795298]
- [6204831.59792228]]</t>
+          <t>[[6203546.59686211]
+ [6203476.35464087]
+ [6203406.02371596]
+ [6203694.62367541]
+ [6203593.25204919]
+ [6203491.74301523]
+ [6203924.28564837]
+ [6203970.99519364]
+ [6204032.67180185]
+ [6204110.26695085]
+ [6204213.06461511]
+ [6204349.33868203]]</t>
         </is>
       </c>
       <c r="E1076" t="inlineStr"/>
@@ -29129,7 +29121,7 @@
       </c>
       <c r="D1080" t="inlineStr">
         <is>
-          <t>[948730.45601897]</t>
+          <t>[948395.20225366]</t>
         </is>
       </c>
       <c r="E1080" t="inlineStr"/>
@@ -29152,8 +29144,8 @@
       </c>
       <c r="D1081" t="inlineStr">
         <is>
-          <t>[4.16145597e+08 2.85209942e+08 2.66318468e+08 5.45298788e+02
- 1.42357390e+07 1.70112235e+05]</t>
+          <t>[4.16137377e+08 2.85204500e+08 2.66306105e+08 5.41253437e+02
+ 1.42357768e+07 1.69892134e+05]</t>
         </is>
       </c>
       <c r="E1081" t="inlineStr"/>
@@ -29176,7 +29168,7 @@
       </c>
       <c r="D1082" t="inlineStr">
         <is>
-          <t>[-6.75596538 -0.09595424  4.59635591]</t>
+          <t>[-6.75831121 -0.09586197  4.59784122]</t>
         </is>
       </c>
       <c r="E1082" t="inlineStr"/>
@@ -29199,9 +29191,9 @@
       </c>
       <c r="D1083" t="inlineStr">
         <is>
-          <t>[[ 2937712.61868186]
- [    8738.15973293]
- [-6852023.41514668]]</t>
+          <t>[[ 2937712.61868119]
+ [    8738.15973297]
+ [-6848706.78611806]]</t>
         </is>
       </c>
       <c r="E1083" t="inlineStr"/>
@@ -29224,9 +29216,9 @@
       </c>
       <c r="D1084" t="inlineStr">
         <is>
-          <t>[[  -693051.31929932]
- [-10698679.77813959]
- [  6202619.90349961]]</t>
+          <t>[[  -693049.02198225]
+ [-10698118.56522999]
+ [  6202628.40378762]]</t>
         </is>
       </c>
       <c r="E1084" t="inlineStr"/>
@@ -29319,19 +29311,19 @@
       </c>
       <c r="D1087" t="inlineStr">
         <is>
-          <t>[[-1194.35831793]
- [-1383.12123005]
- [-1520.0360783 ]
- [-1630.33839234]
- [-1702.39934959]
- [-1745.83564963]
- [-1769.36073776]
- [-1656.41637192]
- [-1541.20608233]
- [-1424.89609618]
- [-1286.67078696]
- [-1148.94963207]
- [-1009.46782915]]</t>
+          <t>[[-1047.13860747]
+ [-1206.50615946]
+ [-1321.22697622]
+ [-1413.18203997]
+ [-1521.16636429]
+ [-1611.52120343]
+ [-1689.9826881 ]
+ [-1577.44859314]
+ [-1462.79921589]
+ [-1346.96753088]
+ [-1235.47743344]
+ [-1122.7238536 ]
+ [-1007.39469272]]</t>
         </is>
       </c>
       <c r="E1087" t="inlineStr"/>
@@ -29354,7 +29346,7 @@
       </c>
       <c r="D1088" t="inlineStr">
         <is>
-          <t>[633545.57016637]</t>
+          <t>[915497.94235688]</t>
         </is>
       </c>
       <c r="E1088" t="inlineStr"/>
@@ -29377,7 +29369,7 @@
       </c>
       <c r="D1089" t="inlineStr">
         <is>
-          <t>[54.86318598]</t>
+          <t>[53.31244884]</t>
         </is>
       </c>
       <c r="E1089" t="inlineStr"/>
@@ -29400,7 +29392,7 @@
       </c>
       <c r="D1090" t="inlineStr">
         <is>
-          <t>[2.87434085e+09 2.87434085e+09 2.10946556e+07 0.00000000e+00
+          <t>[3.90352860e+09 3.90352860e+09 2.55181855e+07 0.00000000e+00
  0.00000000e+00 0.00000000e+00]</t>
         </is>
       </c>
@@ -30535,7 +30527,7 @@
       </c>
       <c r="D1122" t="inlineStr">
         <is>
-          <t>[0.08527951]</t>
+          <t>[0.08526162]</t>
         </is>
       </c>
       <c r="E1122" t="inlineStr">
@@ -30612,7 +30604,7 @@
       </c>
       <c r="D1125" t="inlineStr">
         <is>
-          <t>[-201.58011351]</t>
+          <t>[-201.50047285]</t>
         </is>
       </c>
       <c r="E1125" t="inlineStr">
@@ -30639,7 +30631,7 @@
       </c>
       <c r="D1126" t="inlineStr">
         <is>
-          <t>[-0.04527951]</t>
+          <t>[-0.04526162]</t>
         </is>
       </c>
       <c r="E1126" t="inlineStr">
@@ -30666,7 +30658,7 @@
       </c>
       <c r="D1127" t="inlineStr">
         <is>
-          <t>[0.11627951]</t>
+          <t>[0.11626162]</t>
         </is>
       </c>
       <c r="E1127" t="inlineStr">
@@ -30689,7 +30681,7 @@
       <c r="C1128" t="inlineStr"/>
       <c r="D1128" t="inlineStr">
         <is>
-          <t>[0.46904585]</t>
+          <t>[0.46914426]</t>
         </is>
       </c>
       <c r="E1128" t="inlineStr">
@@ -30712,7 +30704,7 @@
       <c r="C1129" t="inlineStr"/>
       <c r="D1129" t="inlineStr">
         <is>
-          <t>[2.13198775]</t>
+          <t>[2.13154053]</t>
         </is>
       </c>
       <c r="E1129" t="inlineStr">
@@ -30735,7 +30727,7 @@
       <c r="C1130" t="inlineStr"/>
       <c r="D1130" t="inlineStr">
         <is>
-          <t>[-0.53095415]</t>
+          <t>[-0.53085574]</t>
         </is>
       </c>
       <c r="E1130" t="inlineStr">
@@ -30758,7 +30750,7 @@
       <c r="C1131" t="inlineStr"/>
       <c r="D1131" t="inlineStr">
         <is>
-          <t>[-1.13198775]</t>
+          <t>[-1.13154053]</t>
         </is>
       </c>
       <c r="E1131" t="inlineStr">
@@ -30785,7 +30777,7 @@
       </c>
       <c r="D1132" t="inlineStr">
         <is>
-          <t>[0.15137113]</t>
+          <t>[0.15133938]</t>
         </is>
       </c>
       <c r="E1132" t="inlineStr">
@@ -30812,7 +30804,7 @@
       </c>
       <c r="D1133" t="inlineStr">
         <is>
-          <t>[6.67428242e+08]</t>
+          <t>[6.43895896e+08]</t>
         </is>
       </c>
       <c r="E1133" t="inlineStr">
@@ -30839,7 +30831,7 @@
       </c>
       <c r="D1134" t="inlineStr">
         <is>
-          <t>[1.98567824e+09]</t>
+          <t>[1.9621459e+09]</t>
         </is>
       </c>
       <c r="E1134" t="inlineStr">
@@ -30866,7 +30858,7 @@
       </c>
       <c r="D1135" t="inlineStr">
         <is>
-          <t>[3309.46373715]</t>
+          <t>[3270.24316034]</t>
         </is>
       </c>
       <c r="E1135" t="inlineStr">
@@ -30893,7 +30885,7 @@
       </c>
       <c r="D1136" t="inlineStr">
         <is>
-          <t>[9583.65065355]</t>
+          <t>[9318.33098688]</t>
         </is>
       </c>
       <c r="E1136" t="inlineStr">
@@ -30920,7 +30912,7 @@
       </c>
       <c r="D1137" t="inlineStr">
         <is>
-          <t>[2.26761307e+08]</t>
+          <t>[2.22702758e+08]</t>
         </is>
       </c>
       <c r="E1137" t="inlineStr">
@@ -31196,7 +31188,7 @@
       </c>
       <c r="D1149" t="inlineStr">
         <is>
-          <t>[-0.00271229]</t>
+          <t>[-0.00272017]</t>
         </is>
       </c>
       <c r="E1149" t="inlineStr"/>
@@ -31242,7 +31234,7 @@
       </c>
       <c r="D1151" t="inlineStr">
         <is>
-          <t>[-0.01004922]</t>
+          <t>[-0.01004748]</t>
         </is>
       </c>
       <c r="E1151" t="inlineStr"/>
@@ -32739,7 +32731,7 @@
       </c>
       <c r="D1219" t="inlineStr">
         <is>
-          <t>[0.77085131]</t>
+          <t>[0.77726827]</t>
         </is>
       </c>
       <c r="E1219" t="inlineStr"/>
@@ -33729,7 +33721,7 @@
       </c>
       <c r="D1263" t="inlineStr">
         <is>
-          <t>[40744.68649193]</t>
+          <t>[40682.04562332]</t>
         </is>
       </c>
       <c r="E1263" t="inlineStr"/>
@@ -33752,7 +33744,7 @@
       </c>
       <c r="D1264" t="inlineStr">
         <is>
-          <t>[629759.16038578]</t>
+          <t>[629518.94338623]</t>
         </is>
       </c>
       <c r="E1264" t="inlineStr"/>
@@ -33775,7 +33767,7 @@
       </c>
       <c r="D1265" t="inlineStr">
         <is>
-          <t>[-4.00856592 -0.14455481  4.24788548]</t>
+          <t>[-4.0100317  -0.14441985  4.24929628]</t>
         </is>
       </c>
       <c r="E1265" t="inlineStr"/>
@@ -33798,8 +33790,8 @@
       </c>
       <c r="D1266" t="inlineStr">
         <is>
-          <t>[9237297.96498973 8631985.56037314 8212572.41294666  351357.58105076
- 1747846.44607415 -201644.25549949]</t>
+          <t>[9224591.7065202  8617359.4381421  8195565.50925527  351066.13395713
+ 1743279.89239704 -201547.34092704]</t>
         </is>
       </c>
       <c r="E1266" t="inlineStr"/>
@@ -33822,8 +33814,8 @@
       </c>
       <c r="D1267" t="inlineStr">
         <is>
-          <t>[8814511.87686733 7833634.24310452 7836029.11922337  364918.65313538
- 1349340.97881219 -216014.95122578]</t>
+          <t>[8803003.80975138 7821243.20066854 7820064.33954427  364572.15542238
+ 1345889.31715709 -215859.21949914]</t>
         </is>
       </c>
       <c r="E1267" t="inlineStr"/>
@@ -33846,8 +33838,8 @@
       </c>
       <c r="D1268" t="inlineStr">
         <is>
-          <t>[2.01913801e+07 2.93166915e+07 1.79685371e+07 1.74622983e-10
- 1.20728352e+07 1.70690089e+05]</t>
+          <t>[ 2.01830545e+07  2.93110515e+07  1.79560819e+07 -5.82076609e-11
+  1.20727743e+07  1.70465683e+05]</t>
         </is>
       </c>
       <c r="E1268" t="inlineStr"/>
@@ -33870,7 +33862,7 @@
       </c>
       <c r="D1269" t="inlineStr">
         <is>
-          <t>[0.0018126]</t>
+          <t>[0.00181797]</t>
         </is>
       </c>
       <c r="E1269" t="inlineStr"/>
@@ -33893,7 +33885,7 @@
       </c>
       <c r="D1270" t="inlineStr">
         <is>
-          <t>[0.00137458]</t>
+          <t>[0.00137871]</t>
         </is>
       </c>
       <c r="E1270" t="inlineStr"/>
@@ -33916,7 +33908,7 @@
       </c>
       <c r="D1271" t="inlineStr">
         <is>
-          <t>[0.00131203]</t>
+          <t>[0.00131597]</t>
         </is>
       </c>
       <c r="E1271" t="inlineStr"/>
@@ -33939,7 +33931,7 @@
       </c>
       <c r="D1272" t="inlineStr">
         <is>
-          <t>[-1.44546224e-05]</t>
+          <t>[-1.47956489e-05]</t>
         </is>
       </c>
       <c r="E1272" t="inlineStr"/>
@@ -33962,7 +33954,7 @@
       </c>
       <c r="D1273" t="inlineStr">
         <is>
-          <t>[5.15795072e-06]</t>
+          <t>[4.81692903e-06]</t>
         </is>
       </c>
       <c r="E1273" t="inlineStr"/>
@@ -33985,7 +33977,7 @@
       </c>
       <c r="D1274" t="inlineStr">
         <is>
-          <t>[7.40265534e-06]</t>
+          <t>[7.74367548e-06]</t>
         </is>
       </c>
       <c r="E1274" t="inlineStr"/>
@@ -34008,9 +34000,9 @@
       </c>
       <c r="D1275" t="inlineStr">
         <is>
-          <t>[[ 2937712.61868186]
- [    8738.15973293]
- [-6852023.41514668]]</t>
+          <t>[[ 2937712.61868119]
+ [    8738.15973297]
+ [-6848706.78611806]]</t>
         </is>
       </c>
       <c r="E1275" t="inlineStr"/>
@@ -34033,9 +34025,9 @@
       </c>
       <c r="D1276" t="inlineStr">
         <is>
-          <t>[[  -693051.31929932]
- [-10698679.77813959]
- [  6202619.90349961]]</t>
+          <t>[[  -693049.02198225]
+ [-10698118.56522999]
+ [  6202628.40378762]]</t>
         </is>
       </c>
       <c r="E1276" t="inlineStr"/>
@@ -34058,21 +34050,21 @@
       </c>
       <c r="D1277" t="inlineStr">
         <is>
-          <t>[[15082338.2594748 ]
- [16388117.07427479]
- [17863991.99184396]
- [19605314.033081  ]
- [21720279.60337992]
- [24336082.75579819]
- [27591010.16782531]
- [31572279.53411295]
- [36083183.5267652 ]
- [40099387.19115417]
- [41673317.17006324]
- [22562400.74393529]
- [22934257.16231703]
- [ 8414807.06053328]
- [ 4014557.03078893]]</t>
+          <t>[[15133044.79996403]
+ [16443738.54062173]
+ [17924691.7055814 ]
+ [19671378.03594278]
+ [21791946.31879954]
+ [24413177.24006078]
+ [27672106.78274573]
+ [31652878.78418851]
+ [36152722.59578992]
+ [40141585.61140601]
+ [41684736.58128898]
+ [22562408.18779118]
+ [22934263.02721984]
+ [ 8414811.21324994]
+ [ 4014557.03078895]]</t>
         </is>
       </c>
       <c r="E1277" t="inlineStr"/>
@@ -34095,21 +34087,21 @@
       </c>
       <c r="D1278" t="inlineStr">
         <is>
-          <t>[[ 9385850.82790276]
- [ 7166251.82582442]
- [ 4875518.27880153]
- [ 2857557.55626509]
- [ 6285688.21817323]
- [10571049.71616164]
- [16082495.42514378]
- [23243118.46113677]
- [32282908.85254042]
- [42355258.9391781 ]
- [50047907.93309543]
- [26439553.3828228 ]
- [15050532.29587209]
- [14286544.02096995]
- [14163428.50495662]]</t>
+          <t>[[ 9411266.71327287]
+ [ 7187031.32300797]
+ [ 4891520.49578788]
+ [ 2868457.9925917 ]
+ [ 6303590.58501308]
+ [10596799.65701233]
+ [16116353.4184942 ]
+ [23283333.17630208]
+ [32322905.05704056]
+ [42382227.91307   ]
+ [50055577.43174925]
+ [26439553.38080154]
+ [15050532.29385312]
+ [14286544.01424126]
+ [14163428.49822817]]</t>
         </is>
       </c>
       <c r="E1278" t="inlineStr"/>
@@ -34132,17 +34124,17 @@
       </c>
       <c r="D1279" t="inlineStr">
         <is>
-          <t>[[ 5889224.70389233]
- [ 6665911.59259797]
- [ 7611376.61178677]
- [ 8773243.14755652]
- [10212907.79127074]
- [12031320.93875824]
- [14398473.32825225]
- [17566255.79558679]
- [21724848.06784956]
- [26327577.63052446]
- [29555425.32788894]
+          <t>[[ 5921121.08569216]
+ [ 6701289.26775222]
+ [ 7650305.27620352]
+ [ 8816020.68033213]
+ [10259964.77622651]
+ [12083055.86120621]
+ [14454793.35965358]
+ [17625087.80522383]
+ [21778513.06785512]
+ [26361160.0461743 ]
+ [29565352.31016183]
  [       0.        ]
  [       0.        ]
  [       0.        ]
@@ -34165,19 +34157,19 @@
       <c r="C1280" t="inlineStr"/>
       <c r="D1280" t="inlineStr">
         <is>
-          <t>[[0.07569785]
- [0.06844991]
- [0.06395718]
- [0.06410392]
- [0.07867981]
- [0.10102474]
- [0.13281885]
- [0.17621677]
- [0.23216988]
- [0.29457999]
- [0.34123767]
- [0.1847312 ]
- [0.12563928]
+          <t>[[0.07591901]
+ [0.06866394]
+ [0.0641693 ]
+ [0.0643194 ]
+ [0.07892909]
+ [0.10131275]
+ [0.13314629]
+ [0.17656942]
+ [0.23249842]
+ [0.29479222]
+ [0.34129696]
+ [0.18473121]
+ [0.12563929]
  [0.09457699]
  [0.08995042]]</t>
         </is>
@@ -34198,7 +34190,7 @@
       <c r="C1281" t="inlineStr"/>
       <c r="D1281" t="inlineStr">
         <is>
-          <t>[0.00165638]</t>
+          <t>[0.00169546]</t>
         </is>
       </c>
       <c r="E1281" t="inlineStr"/>
@@ -34217,7 +34209,7 @@
       <c r="C1282" t="inlineStr"/>
       <c r="D1282" t="inlineStr">
         <is>
-          <t>[6.61275733e-05]</t>
+          <t>[6.17555003e-05]</t>
         </is>
       </c>
       <c r="E1282" t="inlineStr"/>
@@ -34236,7 +34228,7 @@
       <c r="C1283" t="inlineStr"/>
       <c r="D1283" t="inlineStr">
         <is>
-          <t>[23.02620325]</t>
+          <t>[23.09535556]</t>
         </is>
       </c>
       <c r="E1283" t="inlineStr"/>
@@ -34255,7 +34247,7 @@
       <c r="C1284" t="inlineStr"/>
       <c r="D1284" t="inlineStr">
         <is>
-          <t>[0.01299166]</t>
+          <t>[0.01359015]</t>
         </is>
       </c>
       <c r="E1284" t="inlineStr"/>
@@ -34301,7 +34293,7 @@
       </c>
       <c r="D1286" t="inlineStr">
         <is>
-          <t>[948730.45601897]</t>
+          <t>[948395.20225366]</t>
         </is>
       </c>
       <c r="E1286" t="inlineStr"/>
@@ -34324,7 +34316,7 @@
       </c>
       <c r="D1287" t="inlineStr">
         <is>
-          <t>[-6.75596538 -0.09595424  4.59635591]</t>
+          <t>[-6.75831121 -0.09586197  4.59784122]</t>
         </is>
       </c>
       <c r="E1287" t="inlineStr"/>
@@ -34347,8 +34339,8 @@
       </c>
       <c r="D1288" t="inlineStr">
         <is>
-          <t>[4.16145597e+08 2.85209942e+08 2.66318468e+08 5.45298788e+02
- 1.42357390e+07 1.70112235e+05]</t>
+          <t>[4.16137377e+08 2.85204500e+08 2.66306105e+08 5.41253437e+02
+ 1.42357768e+07 1.69892134e+05]</t>
         </is>
       </c>
       <c r="E1288" t="inlineStr"/>
@@ -34423,11 +34415,11 @@
       </c>
       <c r="D1291" t="inlineStr">
         <is>
-          <t>[     0.              0.              0.          96476.17864374
-  96918.90641228  98252.45317392 100493.08222435 103668.49141771
- 107818.75539867 112997.76167827 126739.70475695 145701.26866961
- 171147.80374315    823.5777459     975.41988459   1078.61829036
-   1121.04796468   1159.34049127   1194.35831773]</t>
+          <t>[     0.              0.              0.          76069.22818689
+  76419.81487525  77475.80310771  79250.00595527  81764.21915156
+  85049.92502601  89149.36708317 100022.09247963 115010.75107985
+ 135096.15327474    729.03380056    860.22223859    948.63122849
+    984.81920533   1017.40258925   1047.13860747]</t>
         </is>
       </c>
       <c r="E1291" t="inlineStr"/>
@@ -34677,10 +34669,10 @@
       </c>
       <c r="D1301" t="inlineStr">
         <is>
-          <t>[     0.              0.              0.          96476.17864374
-  96918.90641228  98252.45317392 100493.08222435 103668.49141771
- 107818.75539867 112997.76167827 126739.70475695 145701.26866961
- 171147.80374315      0.              0.              0.
+          <t>[     0.              0.              0.          76069.22818689
+  76419.81487525  77475.80310771  79250.00595527  81764.21915156
+  85049.92502601  89149.36708317 100022.09247963 115010.75107985
+ 135096.15327474      0.              0.              0.
       0.              0.              0.        ]</t>
         </is>
       </c>
@@ -34880,8 +34872,8 @@
         <is>
           <t>[   0.            0.            0.            0.            0.
     0.            0.            0.            0.            0.
-    0.            0.            0.          823.5777459   975.41988459
- 1078.61829036 1121.04796468 1159.34049127 1194.35831773]</t>
+    0.            0.            0.          729.03380056  860.22223859
+  948.63122849  984.81920533 1017.40258925 1047.13860747]</t>
         </is>
       </c>
       <c r="E1309" t="inlineStr"/>
@@ -35071,11 +35063,11 @@
       </c>
       <c r="D1317" t="inlineStr">
         <is>
-          <t>[      0.               0.               0.          -96476.17864374
-  -96918.90641228  -98252.45317392 -100493.08222435 -103668.49141771
- -107818.75539867 -112997.76167827 -126739.70475695 -145701.26866961
- -171147.80374315    -823.5777459     -975.41988459   -1078.61829036
-   -1121.04796468   -1159.34049127   -1194.35831773]</t>
+          <t>[      0.               0.               0.          -76069.22818689
+  -76419.81487525  -77475.80310771  -79250.00595527  -81764.21915156
+  -85049.92502601  -89149.36708317 -100022.09247963 -115010.75107985
+ -135096.15327474    -729.03380056    -860.22223859    -948.63122849
+    -984.81920533   -1017.40258925   -1047.13860747]</t>
         </is>
       </c>
       <c r="E1317" t="inlineStr"/>
@@ -35121,8 +35113,8 @@
       <c r="C1319" t="inlineStr"/>
       <c r="D1319" t="inlineStr">
         <is>
-          <t>[161.4700302  161.47003319 161.47003544 161.47003598 161.47003609
- 161.47003609]</t>
+          <t>[142.85714286 142.85714286 142.85714286 142.85714286 142.85714286
+ 142.85714286]</t>
         </is>
       </c>
       <c r="E1319" t="inlineStr"/>
@@ -35141,7 +35133,7 @@
       <c r="C1320" t="inlineStr"/>
       <c r="D1320" t="inlineStr">
         <is>
-          <t>[0.99999999 1.         0.99999999 1.         1.         1.        ]</t>
+          <t>[1. 1. 1. 1. 1. 1.]</t>
         </is>
       </c>
       <c r="E1320" t="inlineStr"/>
@@ -35160,7 +35152,7 @@
       <c r="C1321" t="inlineStr"/>
       <c r="D1321" t="inlineStr">
         <is>
-          <t>[1.00000001 1.         1.00000001 1.         1.         1.        ]</t>
+          <t>[1. 1. 1. 1. 1. 1.]</t>
         </is>
       </c>
       <c r="E1321" t="inlineStr"/>
@@ -35179,7 +35171,7 @@
       <c r="C1322" t="inlineStr"/>
       <c r="D1322" t="inlineStr">
         <is>
-          <t>[0.99999999 0.99999999 1.         1.         1.        ]</t>
+          <t>[1. 1. 1. 1. 1.]</t>
         </is>
       </c>
       <c r="E1322" t="inlineStr"/>
@@ -35223,10 +35215,8 @@
       </c>
       <c r="D1324" t="inlineStr">
         <is>
-          <t>[6.21659629 6.21659631 6.21659633 6.21659635 6.21659635 6.21659635
- 6.21659635 6.21659636 6.21659637 6.21659638 6.21659638 6.21659639
- 6.21659639 6.21659639 6.21659639 6.21659639 6.21659639 6.21659639
- 6.21659639]</t>
+          <t>[5.5 5.5 5.5 5.5 5.5 5.5 5.5 5.5 5.5 5.5 5.5 5.5 5.5 5.5 5.5 5.5 5.5 5.5
+ 5.5]</t>
         </is>
       </c>
       <c r="E1324" t="inlineStr"/>
@@ -35249,7 +35239,7 @@
       </c>
       <c r="D1325" t="inlineStr">
         <is>
-          <t>[  0.           0.         -24.99999986]</t>
+          <t>[  0.   0. -25.]</t>
         </is>
       </c>
       <c r="E1325" t="inlineStr"/>
@@ -35272,7 +35262,7 @@
       </c>
       <c r="D1326" t="inlineStr">
         <is>
-          <t>[6070.51048865]</t>
+          <t>[4751.65888855]</t>
         </is>
       </c>
       <c r="E1326" t="inlineStr"/>
@@ -35295,7 +35285,7 @@
       </c>
       <c r="D1327" t="inlineStr">
         <is>
-          <t>[61017664.84818722]</t>
+          <t>[47761243.48631424]</t>
         </is>
       </c>
       <c r="E1327" t="inlineStr"/>
@@ -35337,7 +35327,7 @@
       </c>
       <c r="D1329" t="inlineStr">
         <is>
-          <t>[121.4102117]</t>
+          <t>[95.03317777]</t>
         </is>
       </c>
       <c r="E1329" t="inlineStr"/>
@@ -35360,7 +35350,7 @@
       </c>
       <c r="D1330" t="inlineStr">
         <is>
-          <t>[1173.00690535]</t>
+          <t>[718.68840689]</t>
         </is>
       </c>
       <c r="E1330" t="inlineStr"/>
@@ -35383,7 +35373,7 @@
       </c>
       <c r="D1331" t="inlineStr">
         <is>
-          <t>[1173.00690535]</t>
+          <t>[718.68840689]</t>
         </is>
       </c>
       <c r="E1331" t="inlineStr"/>
@@ -35406,8 +35396,8 @@
       </c>
       <c r="D1332" t="inlineStr">
         <is>
-          <t>[6.22227325e+06 6.22227325e+06 3.28337599e+05 1.29637240e+09
- 1.29637240e+09 0.00000000e+00]</t>
+          <t>[4.87045036e+06 4.87045036e+06 2.27379167e+05 1.01472840e+09
+ 1.01472840e+09 0.00000000e+00]</t>
         </is>
       </c>
       <c r="E1332" t="inlineStr"/>
@@ -35479,10 +35469,8 @@
       </c>
       <c r="D1335" t="inlineStr">
         <is>
-          <t>[12.43319258 12.43319262 12.43319266 12.4331927  12.4331927  12.4331927
- 12.4331927  12.43319272 12.43319274 12.43319276 12.43319277 12.43319277
- 12.43319278 12.43319278 12.43319278 12.43319278 12.43319278 12.43319278
- 12.43319278]</t>
+          <t>[11. 11. 11. 11. 11. 11. 11. 11. 11. 11. 11. 11. 11. 11. 11. 11. 11. 11.
+ 11.]</t>
         </is>
       </c>
       <c r="E1335" t="inlineStr"/>
@@ -35736,8 +35724,8 @@
       </c>
       <c r="D1346" t="inlineStr">
         <is>
-          <t>[24946.15748256 24946.15725121 24946.15703844 24946.15712251
- 24946.15713978 24946.15713979]</t>
+          <t>[22052.65645424 22052.65645424 22052.65645424 22052.65645424
+ 22052.65645424 22052.65645424]</t>
         </is>
       </c>
       <c r="E1346" t="inlineStr">
@@ -35764,8 +35752,8 @@
       </c>
       <c r="D1347" t="inlineStr">
         <is>
-          <t>[476101.86060254 476101.86064991 476101.85919272 476101.86400614
- 476101.86499502 476101.8649954 ]</t>
+          <t>[328909.46641625 328909.46641625 328909.46641625 328909.46641625
+ 328909.46641625 328909.46641625]</t>
         </is>
       </c>
       <c r="E1347" t="inlineStr">
@@ -35792,8 +35780,8 @@
       </c>
       <c r="D1348" t="inlineStr">
         <is>
-          <t>[476101.86060254 476101.86064991 476101.85919272 476101.86400614
- 476101.86499502 476101.8649954 ]</t>
+          <t>[328909.46641625 328909.46641625 328909.46641625 328909.46641625
+ 328909.46641625 328909.46641625]</t>
         </is>
       </c>
       <c r="E1348" t="inlineStr">
@@ -35820,8 +35808,8 @@
       </c>
       <c r="D1349" t="inlineStr">
         <is>
-          <t>[1.14091028e+13 1.14091028e+13 1.14091028e+13 1.14091029e+13
- 1.14091029e+13 1.14091029e+13]</t>
+          <t>[7.88184679e+12 7.88184679e+12 7.88184679e+12 7.88184679e+12
+ 7.88184679e+12 7.88184679e+12]</t>
         </is>
       </c>
       <c r="E1349" t="inlineStr">
@@ -35848,8 +35836,8 @@
       </c>
       <c r="D1350" t="inlineStr">
         <is>
-          <t>[1.14091028e+13 1.14091028e+13 1.14091028e+13 1.14091029e+13
- 1.14091029e+13 1.14091029e+13]</t>
+          <t>[7.88184679e+12 7.88184679e+12 7.88184679e+12 7.88184679e+12
+ 7.88184679e+12 7.88184679e+12]</t>
         </is>
       </c>
       <c r="E1350" t="inlineStr">
@@ -35876,8 +35864,8 @@
       </c>
       <c r="D1351" t="inlineStr">
         <is>
-          <t>[9.04741853e+12 9.04741854e+12 9.04741851e+12 9.04741860e+12
- 9.04741862e+12 9.04741862e+12]</t>
+          <t>[6.2503045e+12 6.2503045e+12 6.2503045e+12 6.2503045e+12 6.2503045e+12
+ 6.2503045e+12]</t>
         </is>
       </c>
       <c r="E1351" t="inlineStr">
@@ -35904,8 +35892,8 @@
       </c>
       <c r="D1352" t="inlineStr">
         <is>
-          <t>[5.97799125e+11 5.97799119e+11 5.97799114e+11 5.97799116e+11
- 5.97799117e+11 5.97799117e+11]</t>
+          <t>[5.28460495e+11 5.28460495e+11 5.28460495e+11 5.28460495e+11
+ 5.28460495e+11 5.28460495e+11]</t>
         </is>
       </c>
       <c r="E1352" t="inlineStr">
@@ -36013,12 +36001,12 @@
       </c>
       <c r="D1356" t="inlineStr">
         <is>
-          <t>[[0.         0.         0.33456054 0.10897608 0.10897608 0.        ]
- [0.         0.         0.33456055 0.10897608 0.10897608 0.        ]
- [0.         0.         0.33456055 0.10897608 0.10897608 0.        ]
- [0.         0.         0.33456055 0.10897608 0.10897608 0.        ]
- [0.         0.         0.33456055 0.10897608 0.10897608 0.        ]
- [0.         0.         0.33456055 0.10897608 0.10897608 0.        ]]</t>
+          <t>[[0.         0.         0.37845781 0.1395612  0.1395612  0.        ]
+ [0.         0.         0.37845781 0.1395612  0.1395612  0.        ]
+ [0.         0.         0.37845781 0.1395612  0.1395612  0.        ]
+ [0.         0.         0.37845781 0.1395612  0.1395612  0.        ]
+ [0.         0.         0.37845781 0.1395612  0.1395612  0.        ]
+ [0.         0.         0.37845781 0.1395612  0.1395612  0.        ]]</t>
         </is>
       </c>
       <c r="E1356" t="inlineStr"/>
@@ -36041,12 +36029,12 @@
       </c>
       <c r="D1357" t="inlineStr">
         <is>
-          <t>[[0.54946421 0.54946421 0.         0.         0.         0.05448804]
- [0.54946422 0.54946422 0.         0.         0.         0.05448804]
- [0.54946422 0.54946422 0.         0.         0.         0.05448804]
- [0.54946422 0.54946422 0.         0.         0.         0.05448804]
- [0.54946422 0.54946422 0.         0.         0.         0.05448804]
- [0.54946422 0.54946422 0.         0.         0.         0.05448804]]</t>
+          <t>[[0.62132644 0.62132644 0.         0.         0.         0.0697806 ]
+ [0.62132644 0.62132644 0.         0.         0.         0.0697806 ]
+ [0.62132644 0.62132644 0.         0.         0.         0.0697806 ]
+ [0.62132644 0.62132644 0.         0.         0.         0.0697806 ]
+ [0.62132644 0.62132644 0.         0.         0.         0.0697806 ]
+ [0.62132644 0.62132644 0.         0.         0.         0.0697806 ]]</t>
         </is>
       </c>
       <c r="E1357" t="inlineStr"/>
@@ -36069,7 +36057,7 @@
       </c>
       <c r="D1358" t="inlineStr">
         <is>
-          <t>[1189.99671226]</t>
+          <t>[1117.59337048]</t>
         </is>
       </c>
       <c r="E1358" t="inlineStr"/>
@@ -36092,7 +36080,7 @@
       </c>
       <c r="D1359" t="inlineStr">
         <is>
-          <t>[3961795.23695627]</t>
+          <t>[3506890.31747133]</t>
         </is>
       </c>
       <c r="E1359" t="inlineStr"/>
@@ -36115,7 +36103,7 @@
       </c>
       <c r="D1360" t="inlineStr">
         <is>
-          <t>[1621500.22424683]</t>
+          <t>[1433422.66952573]</t>
         </is>
       </c>
       <c r="E1360" t="inlineStr"/>
@@ -36138,7 +36126,7 @@
       </c>
       <c r="D1361" t="inlineStr">
         <is>
-          <t>[32.4999999]</t>
+          <t>[32.5]</t>
         </is>
       </c>
       <c r="E1361" t="inlineStr"/>
@@ -36161,7 +36149,7 @@
       </c>
       <c r="D1362" t="inlineStr">
         <is>
-          <t>[2.31455943e+09 2.31455943e+09 6.18932421e+07 0.00000000e+00
+          <t>[2.04011604e+09 2.04011604e+09 4.27582306e+07 0.00000000e+00
  0.00000000e+00 0.00000000e+00]</t>
         </is>
       </c>
@@ -36185,9 +36173,7 @@
       </c>
       <c r="D1363" t="inlineStr">
         <is>
-          <t>[12.4331926  12.43319264 12.43319268 12.4331927  12.4331927  12.4331927
- 12.43319271 12.43319273 12.43319275 12.43319276 12.43319277 12.43319278
- 12.43319278 12.43319278 12.43319278 12.43319278 12.43319278 12.43319278]</t>
+          <t>[11. 11. 11. 11. 11. 11. 11. 11. 11. 11. 11. 11. 11. 11. 11. 11. 11. 11.]</t>
         </is>
       </c>
       <c r="E1363" t="inlineStr"/>
@@ -36259,7 +36245,7 @@
       </c>
       <c r="D1366" t="inlineStr">
         <is>
-          <t>[1721500.22424683]</t>
+          <t>[1533422.66952573]</t>
         </is>
       </c>
       <c r="E1366" t="inlineStr"/>
@@ -36282,7 +36268,7 @@
       </c>
       <c r="D1367" t="inlineStr">
         <is>
-          <t>[4461795.23695627]</t>
+          <t>[4006890.31747133]</t>
         </is>
       </c>
       <c r="E1367" t="inlineStr"/>
@@ -36305,7 +36291,7 @@
       </c>
       <c r="D1368" t="inlineStr">
         <is>
-          <t>[34.38788813]</t>
+          <t>[34.61944173]</t>
         </is>
       </c>
       <c r="E1368" t="inlineStr"/>
@@ -36328,7 +36314,7 @@
       </c>
       <c r="D1369" t="inlineStr">
         <is>
-          <t>[2.73899173e+09 2.73899173e+09 6.57578491e+07 0.00000000e+00
+          <t>[2.46412854e+09 2.46412854e+09 4.57832306e+07 0.00000000e+00
  0.00000000e+00 0.00000000e+00]</t>
         </is>
       </c>
@@ -36352,7 +36338,7 @@
       </c>
       <c r="D1370" t="inlineStr">
         <is>
-          <t>[2355045.79441319]</t>
+          <t>[2448920.61188261]</t>
         </is>
       </c>
       <c r="E1370" t="inlineStr"/>
@@ -36375,7 +36361,7 @@
       </c>
       <c r="D1371" t="inlineStr">
         <is>
-          <t>[6532032.97059227]</t>
+          <t>[6648111.40095149]</t>
         </is>
       </c>
       <c r="E1371" t="inlineStr"/>
@@ -36425,7 +36411,7 @@
       </c>
       <c r="D1373" t="inlineStr">
         <is>
-          <t>[0.23381253]</t>
+          <t>[0.2333355]</t>
         </is>
       </c>
       <c r="E1373" t="inlineStr"/>
@@ -36448,7 +36434,7 @@
       </c>
       <c r="D1374" t="inlineStr">
         <is>
-          <t>[0.23588212]</t>
+          <t>[0.23501575]</t>
         </is>
       </c>
       <c r="E1374" t="inlineStr"/>
@@ -36471,7 +36457,7 @@
       </c>
       <c r="D1375" t="inlineStr">
         <is>
-          <t>[0.23381253 0.23588212 0.83186228 1.04272162 1.21320395 2.56417802]</t>
+          <t>[0.2333355  0.23501575 0.89139777 1.04665065 1.19414941 2.24590798]</t>
         </is>
       </c>
       <c r="E1375" t="inlineStr"/>
@@ -36494,7 +36480,7 @@
       </c>
       <c r="D1376" t="inlineStr">
         <is>
-          <t>[0.23588212 1.21320395 2.62273806]</t>
+          <t>[0.23501575 1.19414941 2.3404198 ]</t>
         </is>
       </c>
       <c r="E1376" t="inlineStr"/>
@@ -36517,7 +36503,7 @@
       </c>
       <c r="D1377" t="inlineStr">
         <is>
-          <t>[0.23381253 1.04272162 2.56417802]</t>
+          <t>[0.2333355  1.04665065 2.24590798]</t>
         </is>
       </c>
       <c r="E1377" t="inlineStr"/>
@@ -36540,7 +36526,7 @@
       </c>
       <c r="D1378" t="inlineStr">
         <is>
-          <t>[3.95156712 0.         0.        ]</t>
+          <t>[4.35011464 0.         0.        ]</t>
         </is>
       </c>
       <c r="E1378" t="inlineStr"/>
@@ -36559,9 +36545,9 @@
       <c r="C1379" t="inlineStr"/>
       <c r="D1379" t="inlineStr">
         <is>
-          <t>[[  0.37418561   0.40949198   1.83647257  -2.51421417   0.89406401]
- [ -2.32936363  -1.15662978   0.57229668   2.70915617   1.20454057]
- [ -4.63243572   1.08465953  10.44816732   4.79233972 -10.69273085]]</t>
+          <t>[[  0.66779999   0.65236208  -0.17831291  -0.25872629   0.11687714]
+ [ -2.81637661  -0.38833448   6.65085776  -6.03759313   3.59144647]
+ [ -5.01725815   2.80142876  17.20729422 -11.3690811   -2.62238374]]</t>
         </is>
       </c>
       <c r="E1379" t="inlineStr"/>
@@ -36580,9 +36566,9 @@
       <c r="C1380" t="inlineStr"/>
       <c r="D1380" t="inlineStr">
         <is>
-          <t>[[  0.36932478   0.40572793   1.83525807  -2.51562608   0.90531531]
- [ -2.5360369   -1.43175883   0.52325458   1.67411776   2.77042339]
- [ -4.40816044   0.87972196   9.12015727   5.91738315 -10.50910194]]</t>
+          <t>[[ 0.66116744  0.64879806 -0.16409865 -0.28036153  0.13449468]
+ [-2.92911749 -0.63047148  6.9148477  -7.2963385   4.94107977]
+ [-4.6597009   2.30993805 15.07674393 -8.99652246 -2.73045861]]</t>
         </is>
       </c>
       <c r="E1380" t="inlineStr"/>
@@ -36601,9 +36587,9 @@
       <c r="C1381" t="inlineStr"/>
       <c r="D1381" t="inlineStr">
         <is>
-          <t>[[ 0.08966604  3.11852355 -4.79078134  4.97922106 -2.39662931]
- [ 0.          0.          0.          0.          0.        ]
- [ 0.          0.          0.          0.          0.        ]]</t>
+          <t>[[  0.18509892   3.48710014 -11.29398205  16.91530335  -8.29352035]
+ [  0.           0.           0.           0.           0.        ]
+ [  0.           0.           0.           0.           0.        ]]</t>
         </is>
       </c>
       <c r="E1381" t="inlineStr"/>
@@ -36622,9 +36608,9 @@
       <c r="C1382" t="inlineStr"/>
       <c r="D1382" t="inlineStr">
         <is>
-          <t>[[ 0.84246413  0.89666986 -1.84193632  1.82410023 -0.7212979 ]
- [-1.79301928  4.98945449 -9.34092597 10.15967307 -3.01518232]
- [-0.09956839  0.59936448  5.20074053 -4.87426323  0.17372661]]</t>
+          <t>[[  0.87891778   1.51510905  -4.10737192   4.39285468  -1.67950958]
+ [ -1.27158743   5.71657899 -11.79919694  12.67267348  -4.3184681 ]
+ [  0.48159994   0.80728185   3.2516093   -3.28166073  -0.25883036]]</t>
         </is>
       </c>
       <c r="E1382" t="inlineStr"/>
@@ -36643,9 +36629,9 @@
       <c r="C1383" t="inlineStr"/>
       <c r="D1383" t="inlineStr">
         <is>
-          <t>[[  0.8293464    0.9190787   -1.88848806   1.87113684  -0.73107388]
- [ -2.02115516   5.47860229 -10.61534692  11.30021043  -3.14231064]
- [ -0.20777955   0.85371535   4.3035143   -3.79870735  -0.15074275]]</t>
+          <t>[[  0.86470309   1.5457344   -4.17199525   4.45768675  -1.69612899]
+ [ -1.44736764   6.19217699 -13.08587206  13.87427942  -4.53321671]
+ [  0.27045002   1.35763402   1.50716501  -1.23968482  -0.89556422]]</t>
         </is>
       </c>
       <c r="E1383" t="inlineStr"/>
@@ -36664,7 +36650,7 @@
       <c r="C1384" t="inlineStr"/>
       <c r="D1384" t="inlineStr">
         <is>
-          <t>[[  -6.70991363   52.29780786 -130.08517246  139.32686633  -53.82958809]
+          <t>[[  -5.71355222   45.77430066 -121.77384587  139.021238    -56.30814057]
  [   0.            0.            0.            0.            0.        ]
  [   0.            0.            0.            0.            0.        ]]</t>
         </is>
@@ -36689,37 +36675,37 @@
       </c>
       <c r="D1385" t="inlineStr">
         <is>
-          <t>[[1.85840468e-04]
- [3.19828806e-04]
- [5.02202307e-05]
- [2.74710031e-03]
- [3.65821618e-03]
- [4.68059821e-03]
- [5.81312542e-03]
- [7.05467638e-03]
- [8.40412919e-03]
- [9.86036153e-03]
- [1.30886805e-02]
- [1.67306412e-02]
- [2.07772523e-02]
- [2.52195186e-02]
- [3.00484533e-02]
- [3.52550716e-02]
- [3.79971971e-02]
- [4.08303702e-02]
- [4.37534663e-02]
- [7.20138459e-02]
- [1.13446665e-01]
- [1.66769197e-01]
- [2.68467901e-01]
- [4.01085409e-01]
- [5.60208210e-01]
- [6.67595496e-01]
- [7.84108450e-01]
- [9.08999265e-01]
- [1.03178869e+00]
- [1.15775117e+00]
- [1.28139018e+00]]</t>
+          <t>[[1.86610508e-04]
+ [3.89885729e-04]
+ [1.79419270e-05]
+ [3.52160426e-03]
+ [4.75687438e-03]
+ [6.15353352e-03]
+ [7.70995540e-03]
+ [9.42451260e-03]
+ [1.12955766e-02]
+ [1.33215180e-02]
+ [1.78315195e-02]
+ [2.29414542e-02]
+ [2.86382546e-02]
+ [3.49088424e-02]
+ [4.17401452e-02]
+ [4.91190881e-02]
+ [5.30098279e-02]
+ [5.70325676e-02]
+ [6.11856702e-02]
+ [9.71020647e-02]
+ [1.44728737e-01]
+ [2.02920261e-01]
+ [3.07077407e-01]
+ [4.35092457e-01]
+ [5.81900766e-01]
+ [6.79334027e-01]
+ [7.84873362e-01]
+ [8.97963222e-01]
+ [1.00901406e+00]
+ [1.12276386e+00]
+ [1.23468018e+00]]</t>
         </is>
       </c>
       <c r="E1385" t="inlineStr"/>
@@ -36742,7 +36728,7 @@
       </c>
       <c r="D1386" t="inlineStr">
         <is>
-          <t>[1.28139018]</t>
+          <t>[1.23468018]</t>
         </is>
       </c>
       <c r="E1386" t="inlineStr"/>
@@ -36765,24 +36751,24 @@
       </c>
       <c r="D1387" t="inlineStr">
         <is>
-          <t>[[-30864958.05892271]
- [-28418655.72279194]
- [-25494796.31560946]
- [-24927528.30954945]
- [-24358794.88436977]
- [-23787112.76743618]
- [-23210962.41189525]
- [-22628768.37714505]
- [-22038877.69836496]
- [-20827876.76860004]
- [-19562915.0646145 ]
- [-18224680.00700015]
- [-17125493.13030683]
- [-16307090.67233429]
- [-15488267.39749782]
- [-15078735.616838  ]
- [-14669137.24039033]
- [-14259478.38294327]]</t>
+          <t>[[-31382933.60572527]
+ [-29220377.4202503 ]
+ [-26681278.57779996]
+ [-26195049.09792418]
+ [-25707659.17822146]
+ [-25217934.3538649 ]
+ [-24724671.59440338]
+ [-24226623.89946392]
+ [-23722483.46359737]
+ [-22689498.48284507]
+ [-21613842.23395953]
+ [-20480313.78278517]
+ [-19535350.16482344]
+ [-18811875.83046557]
+ [-18088039.16038318]
+ [-17726018.03288104]
+ [-17363940.16900643]
+ [-17001810.89178082]]</t>
         </is>
       </c>
       <c r="E1387" t="inlineStr"/>
@@ -36805,24 +36791,24 @@
       </c>
       <c r="D1388" t="inlineStr">
         <is>
-          <t>[[-4287675.1062514 ]
- [-9675747.18425554]
- [-9141966.53219583]
- [ 2937868.0744099 ]
- [ 2937887.43833755]
- [ 2937907.20027249]
- [ 2937927.51793594]
- [ 2937948.55828181]
- [ 2937970.50137138]
- [ 2938297.32986391]
- [ 2938400.46865128]
- [ 2938519.67141279]
- [ 2938508.7310815 ]
- [ 2938305.37617278]
- [ 2938352.08983176]
- [ 2938049.51684787]
- [ 2938060.76107747]
- [ 2938071.86522336]]</t>
+          <t>[[ -4210855.43635316]
+ [-10581542.00927647]
+ [-10762624.78937486]
+ [  2937893.23518746]
+ [  2937917.24348308]
+ [  2937941.66015962]
+ [  2937966.6655294 ]
+ [  2937992.45003189]
+ [  2938019.21846435]
+ [  2938409.53328339]
+ [  2938533.5548034 ]
+ [  2938675.41310321]
+ [  2938672.35500581]
+ [  2938453.9058319 ]
+ [  2938513.76281309]
+ [  2938135.18037434]
+ [  2938149.58681751]
+ [  2938163.8130602 ]]</t>
         </is>
       </c>
       <c r="E1388" t="inlineStr"/>
@@ -36845,24 +36831,24 @@
       </c>
       <c r="D1389" t="inlineStr">
         <is>
-          <t>[[-19311.2728004 ]
- [-44055.15630401]
- [-43401.66221738]
- [  8738.84513643]
- [  8738.93264621]
- [  8739.02220588]
- [  8739.11453407]
- [  8739.21039549]
- [  8739.31061874]
- [  8740.77753112]
- [  8741.25185308]
- [  8741.80217173]
- [  8741.76694867]
- [  8740.85607376]
- [  8741.07998453]
- [  8739.7027525 ]
- [  8739.75740488]
- [  8739.81163647]]</t>
+          <t>[[-18926.93904879]
+ [-47999.73899011]
+ [-50598.43595645]
+ [  8738.95748773]
+ [  8739.0659091 ]
+ [  8739.17649763]
+ [  8739.29007447]
+ [  8739.4075115 ]
+ [  8739.52975091]
+ [  8741.28347379]
+ [  8741.85396788]
+ [  8742.50921599]
+ [  8742.51216155]
+ [  8741.53446968]
+ [  8741.821103  ]
+ [  8740.09652134]
+ [  8740.16647329]
+ [  8740.23588232]]</t>
         </is>
       </c>
       <c r="E1389" t="inlineStr"/>
@@ -36885,24 +36871,24 @@
       </c>
       <c r="D1390" t="inlineStr">
         <is>
-          <t>[[ -270135.10690784]
- [-1034215.96902661]
- [-1896618.98795587]
- [-2210480.07733276]
- [-2195803.80243047]
- [-2181117.92609376]
- [-2166423.11259315]
- [-2151720.03403106]
- [-2137009.37361443]
- [-2107563.7252418 ]
- [-2078095.54129637]
- [-2048611.06438685]
- [-2019117.02931423]
- [-1989613.62717169]
- [-1960098.69927508]
- [-1945340.52860142]
- [-1930580.88020426]
- [-1915820.11316682]]</t>
+          <t>[[ -211404.32813679]
+ [ -971127.24038956]
+ [-1918853.49075981]
+ [-2213131.7312537 ]
+ [-2198406.11494587]
+ [-2183664.89534501]
+ [-2168908.91883141]
+ [-2154139.0398403 ]
+ [-2139356.12459077]
+ [-2109749.48727753]
+ [-2080100.55485891]
+ [-2050417.11970005]
+ [-2020707.50844461]
+ [-1990972.73658889]
+ [-1961211.14865152]
+ [-1946324.91980058]
+ [-1931433.85135309]
+ [-1916538.4250802 ]]</t>
         </is>
       </c>
       <c r="E1390" t="inlineStr"/>
@@ -36925,24 +36911,24 @@
       </c>
       <c r="D1391" t="inlineStr">
         <is>
-          <t>[[6.10697685e+07]
- [2.31904874e+08]
- [4.20197803e+08]
- [4.88917394e+08]
- [4.83995722e+08]
- [4.79071947e+08]
- [4.74146227e+08]
- [4.69218717e+08]
- [4.64289577e+08]
- [4.54426072e+08]
- [4.44557844e+08]
- [4.34686306e+08]
- [4.24812970e+08]
- [4.14937891e+08]
- [4.05060612e+08]
- [4.00121943e+08]
- [3.95183035e+08]
- [3.90243968e+08]]</t>
+          <t>[[4.78143311e+07]
+ [2.17945864e+08]
+ [4.25547478e+08]
+ [4.89900144e+08]
+ [4.84967371e+08]
+ [4.80031172e+08]
+ [4.75091747e+08]
+ [4.70149298e+08]
+ [4.65204029e+08]
+ [4.55304689e+08]
+ [4.45396374e+08]
+ [4.35480870e+08]
+ [4.25560070e+08]
+ [4.15634236e+08]
+ [4.05703050e+08]
+ [4.00736473e+08]
+ [3.95768979e+08]
+ [3.90800678e+08]]</t>
         </is>
       </c>
       <c r="E1391" t="inlineStr"/>
@@ -36965,24 +36951,24 @@
       </c>
       <c r="D1392" t="inlineStr">
         <is>
-          <t>[[1022713.60290049]
- [2234939.75423931]
- [3861324.10304055]
- [6203243.4777016 ]
- [6203229.60159681]
- [6203215.68970833]
- [6203201.70575424]
- [6203187.61256605]
- [6203173.37160875]
- [6203158.94245176]
- [6203129.32069455]
- [6203098.37932884]
- [6203065.6460096 ]
- [6203038.7600833 ]
- [6203018.74224808]
- [6202998.71424911]
- [6202988.69735952]
- [6202978.67887341]]</t>
+          <t>[[1021791.72786407]
+ [2233388.57866221]
+ [3859869.04664001]
+ [6203366.63871219]
+ [6203353.18382747]
+ [6203339.6968898 ]
+ [6203326.14540026]
+ [6203312.49607012]
+ [6203298.71439446]
+ [6203284.76418654]
+ [6203256.18037247]
+ [6203226.41607814]
+ [6203195.05072138]
+ [6203168.90329987]
+ [6203148.88470107]
+ [6203128.85620565]
+ [6203118.83916223]
+ [6203108.82058125]]</t>
         </is>
       </c>
       <c r="E1392" t="inlineStr"/>
@@ -37005,9 +36991,9 @@
       </c>
       <c r="D1393" t="inlineStr">
         <is>
-          <t>[[ 2.93786807e+06]
- [ 8.73884514e+03]
- [-2.54947963e+07]]</t>
+          <t>[[ 2.93789324e+06]
+ [ 8.73895749e+03]
+ [-2.66812786e+07]]</t>
         </is>
       </c>
       <c r="E1393" t="inlineStr"/>
@@ -37030,9 +37016,9 @@
       </c>
       <c r="D1394" t="inlineStr">
         <is>
-          <t>[[-2.22514609e+06]
- [ 4.93836811e+08]
- [ 6.20324348e+06]]</t>
+          <t>[[-2.22784090e+06]
+ [ 4.94829290e+08]
+ [ 6.20336664e+06]]</t>
         </is>
       </c>
       <c r="E1394" t="inlineStr"/>
@@ -37084,12 +37070,12 @@
       </c>
       <c r="D1396" t="inlineStr">
         <is>
-          <t>[12.43319258 12.43319262 12.43319266 12.4331927  12.4331927  12.4331927
- 12.4331927  12.43319272 12.43319274 12.43319276 12.43319277 12.43319277
- 12.43319278 12.43319278 12.43319278 12.43319278 12.43319278 12.43319278
- 12.43319278 12.43319278 12.43319278 12.43319278 12.09875903 11.76432528
- 11.42989152 10.58683885  9.74378618  8.90073352  7.93776698  6.97480044
-  6.01183391]</t>
+          <t>[11.         11.         11.         11.         11.         11.
+ 11.         11.         11.         11.         11.         11.
+ 11.         11.         11.         11.         11.         11.
+ 11.         11.         11.         11.         11.         11.
+ 11.         10.14573254  9.29146508  8.43719762  7.62446508  6.81173254
+  5.999     ]</t>
         </is>
       </c>
       <c r="E1396" t="inlineStr"/>
@@ -37115,8 +37101,8 @@
           <t>[0.077      0.077      0.077      0.077      0.077      0.077
  0.077      0.077      0.077      0.077      0.077      0.077
  0.077      0.077      0.077      0.077      0.077      0.077
- 0.02268044 0.02268044 0.02268044 0.0142022  0.0142022  0.0142022
- 0.01174385 0.01174385 0.01174385 0.01142884 0.01142884 0.01142884]</t>
+ 0.03704602 0.03704602 0.03704602 0.02454602 0.02454602 0.02454602
+ 0.015      0.015      0.015      0.015      0.015      0.015     ]</t>
         </is>
       </c>
       <c r="E1397" t="inlineStr"/>
@@ -37215,11 +37201,11 @@
       </c>
       <c r="D1401" t="inlineStr">
         <is>
-          <t>[3.19822531 3.19822532 3.19822533 3.19822529 3.19822529 3.19822529
- 3.19822526 3.19822526 3.19822527 3.19822527 3.19822527 3.19822527
- 3.19822527 3.19822527 3.19822527 3.19822527 3.19822527 3.19822527
- 0.94618249 0.94618249 0.94618249 0.58490872 0.5689426  0.55297649
- 0.43411361 0.40083242 0.36755123 0.32301245 0.28601711 0.24902177]</t>
+          <t>[2.82726365 2.82726365 2.82726365 2.82726365 2.82726365 2.82726365
+ 2.82726365 2.82726365 2.82726365 2.82726365 2.82726365 2.82726365
+ 2.82726365 2.82726365 2.82726365 2.82726365 2.82726365 2.82726365
+ 1.36522064 1.36522064 1.36522064 0.90560184 0.90560184 0.90560184
+ 0.53235467 0.48928031 0.44620596 0.40417875 0.3631987  0.32221864]</t>
         </is>
       </c>
       <c r="E1401" t="inlineStr"/>
@@ -37242,11 +37228,11 @@
       </c>
       <c r="D1402" t="inlineStr">
         <is>
-          <t>[1.81995474 1.81995474 1.81995475 1.81995473 1.81995472 1.81995472
- 1.81995471 1.81995471 1.81995471 1.81995471 1.81995472 1.81995472
- 1.81995472 1.81995472 1.81995472 1.81995472 1.81995472 1.81995472
- 0.53736216 0.53736216 0.53736216 0.33208718 0.32302691 0.31396663
- 0.246462   0.22757595 0.20868991 0.1834094  0.16241572 0.14142205]</t>
+          <t>[1.60945991 1.60945991 1.60945991 1.60945991 1.60945991 1.60945991
+ 1.60945991 1.60945991 1.60945991 1.60945991 1.60945991 1.60945991
+ 1.60945991 1.60945991 1.60945991 1.60945991 1.60945991 1.60945991
+ 0.77588055 0.77588055 0.77588055 0.51440855 0.51440855 0.51440855
+ 0.30228401 0.27784068 0.25339736 0.22954829 0.20629348 0.1830387 ]</t>
         </is>
       </c>
       <c r="E1402" t="inlineStr"/>
@@ -37269,11 +37255,11 @@
       </c>
       <c r="D1403" t="inlineStr">
         <is>
-          <t>[1.81995474 1.81995474 1.81995475 1.81995473 1.81995472 1.81995472
- 1.81995471 1.81995471 1.81995471 1.81995471 1.81995472 1.81995472
- 1.81995472 1.81995472 1.81995472 1.81995472 1.81995472 1.81995472
- 0.53736216 0.53736216 0.53736216 0.33208718 0.32302691 0.31396663
- 0.246462   0.22757595 0.20868991 0.1834094  0.16241572 0.14142205]</t>
+          <t>[1.60945991 1.60945991 1.60945991 1.60945991 1.60945991 1.60945991
+ 1.60945991 1.60945991 1.60945991 1.60945991 1.60945991 1.60945991
+ 1.60945991 1.60945991 1.60945991 1.60945991 1.60945991 1.60945991
+ 0.77588055 0.77588055 0.77588055 0.51440855 0.51440855 0.51440855
+ 0.30228401 0.27784068 0.25339736 0.22954829 0.20629348 0.1830387 ]</t>
         </is>
       </c>
       <c r="E1403" t="inlineStr"/>
@@ -37296,12 +37282,11 @@
       </c>
       <c r="D1404" t="inlineStr">
         <is>
-          <t>[122.07739902 122.07740015 122.07740128 122.07740017 122.07740017
- 122.07740016 122.07739914 122.07739979 122.07740045 122.07740086
- 122.07740103 122.07740119 122.07740128 122.07740128 122.07740128
- 122.07740128 122.07740128 122.07740128  36.43307152  36.43307152
-  36.43307152  21.94960044  20.2007613   18.54737303  13.12388581
-  10.33096399   7.96537229   5.70856597   3.96319571   2.6156629 ]</t>
+          <t>[84.33576062 84.33576062 84.33576062 84.33576062 84.33576062 84.33576062
+ 84.33576062 84.33576062 84.33576062 84.33576062 84.33576062 84.33576062
+ 84.33576062 84.33576062 84.33576062 84.33576062 84.33576062 84.33576062
+ 41.02069314 41.02069314 41.02069314 27.27246948 27.27246948 27.27246948
+ 14.83522936 11.51766529  8.73569649  6.4925029   4.71112815  3.28961114]</t>
         </is>
       </c>
       <c r="E1404" t="inlineStr"/>
@@ -37324,11 +37309,11 @@
       </c>
       <c r="D1405" t="inlineStr">
         <is>
-          <t>[61.03869951 61.03870008 61.03870064 61.03870009 61.03870008 61.03870008
- 61.03869957 61.0386999  61.03870023 61.03870043 61.03870051 61.0387006
- 61.03870064 61.03870064 61.03870064 61.03870064 61.03870064 61.03870064
- 18.21653576 18.21653576 18.21653576 10.97480022 10.10038065  9.27368651
-  6.5619429   5.16548199  3.98268614  2.85428299  1.98159786  1.30783145]</t>
+          <t>[42.16788031 42.16788031 42.16788031 42.16788031 42.16788031 42.16788031
+ 42.16788031 42.16788031 42.16788031 42.16788031 42.16788031 42.16788031
+ 42.16788031 42.16788031 42.16788031 42.16788031 42.16788031 42.16788031
+ 20.51034657 20.51034657 20.51034657 13.63623474 13.63623474 13.63623474
+  7.41761468  5.75883264  4.36784824  3.24625145  2.35556408  1.64480557]</t>
         </is>
       </c>
       <c r="E1405" t="inlineStr"/>
@@ -37351,11 +37336,11 @@
       </c>
       <c r="D1406" t="inlineStr">
         <is>
-          <t>[61.03869951 61.03870008 61.03870064 61.03870009 61.03870008 61.03870008
- 61.03869957 61.0386999  61.03870023 61.03870043 61.03870051 61.0387006
- 61.03870064 61.03870064 61.03870064 61.03870064 61.03870064 61.03870064
- 18.21653576 18.21653576 18.21653576 10.97480022 10.10038065  9.27368651
-  6.5619429   5.16548199  3.98268614  2.85428299  1.98159786  1.30783145]</t>
+          <t>[42.16788031 42.16788031 42.16788031 42.16788031 42.16788031 42.16788031
+ 42.16788031 42.16788031 42.16788031 42.16788031 42.16788031 42.16788031
+ 42.16788031 42.16788031 42.16788031 42.16788031 42.16788031 42.16788031
+ 20.51034657 20.51034657 20.51034657 13.63623474 13.63623474 13.63623474
+  7.41761468  5.75883264  4.36784824  3.24625145  2.35556408  1.64480557]</t>
         </is>
       </c>
       <c r="E1406" t="inlineStr"/>
@@ -37480,36 +37465,36 @@
       </c>
       <c r="D1410" t="inlineStr">
         <is>
-          <t>[[-3.08649581e+07]
- [-2.84186557e+07]
- [-2.54947963e+07]
- [-2.49275283e+07]
- [-2.43587949e+07]
- [-2.37871128e+07]
- [-2.32109624e+07]
- [-2.26287684e+07]
- [-2.20388777e+07]
- [-2.08278768e+07]
- [-1.95629151e+07]
- [-1.82246800e+07]
- [-1.71254931e+07]
- [-1.63070907e+07]
- [-1.54882674e+07]
- [-1.50787356e+07]
- [-1.46691372e+07]
- [-1.42594784e+07]
- [-1.24246246e+07]
- [-1.15693188e+07]
- [-1.07121407e+07]
- [-9.94402417e+06]
- [-9.19467088e+06]
- [-8.46462997e+06]
- [-8.11677718e+06]
- [-7.79470512e+06]
- [-7.49909741e+06]
- [-7.25591247e+06]
- [-7.04018831e+06]
- [-9.28412192e-09]]</t>
+          <t>[[-3.13829336e+07]
+ [-2.92203774e+07]
+ [-2.66812786e+07]
+ [-2.61950491e+07]
+ [-2.57076592e+07]
+ [-2.52179344e+07]
+ [-2.47246716e+07]
+ [-2.42266239e+07]
+ [-2.37224835e+07]
+ [-2.26894985e+07]
+ [-2.16138422e+07]
+ [-2.04803138e+07]
+ [-1.95353502e+07]
+ [-1.88118758e+07]
+ [-1.80880392e+07]
+ [-1.77260180e+07]
+ [-1.73639402e+07]
+ [-1.70018109e+07]
+ [-1.47964203e+07]
+ [-1.35707466e+07]
+ [-1.23434972e+07]
+ [-1.11718395e+07]
+ [-9.99853987e+06]
+ [-8.82361140e+06]
+ [-8.40201125e+06]
+ [-8.01337559e+06]
+ [-7.65865596e+06]
+ [-7.35851029e+06]
+ [-7.08853194e+06]
+ [-5.41331246e-09]]</t>
         </is>
       </c>
       <c r="E1410" t="inlineStr"/>
@@ -37532,36 +37517,36 @@
       </c>
       <c r="D1411" t="inlineStr">
         <is>
-          <t>[[-4.28767511e+06]
- [-9.67574718e+06]
- [-9.14196653e+06]
- [ 2.93786807e+06]
- [ 2.93788744e+06]
- [ 2.93790720e+06]
- [ 2.93792752e+06]
- [ 2.93794856e+06]
- [ 2.93797050e+06]
- [ 2.93829733e+06]
- [ 2.93840047e+06]
- [ 2.93851967e+06]
- [ 2.93850873e+06]
- [ 2.93830538e+06]
- [ 2.93835209e+06]
- [ 2.93804952e+06]
- [ 2.93806076e+06]
- [ 2.93807187e+06]
- [ 2.93875222e+06]
- [ 2.93923806e+06]
- [ 2.93968034e+06]
- [ 2.94006725e+06]
- [ 2.94070849e+06]
- [ 2.94121500e+06]
- [ 2.93958972e+06]
- [ 2.93959964e+06]
- [ 2.93956929e+06]
- [ 2.93932181e+06]
- [ 2.93917746e+06]
- [ 1.25413061e+03]]</t>
+          <t>[[-4.21085544e+06]
+ [-1.05815420e+07]
+ [-1.07626248e+07]
+ [ 2.93789324e+06]
+ [ 2.93791724e+06]
+ [ 2.93794166e+06]
+ [ 2.93796667e+06]
+ [ 2.93799245e+06]
+ [ 2.93801922e+06]
+ [ 2.93840953e+06]
+ [ 2.93853355e+06]
+ [ 2.93867541e+06]
+ [ 2.93867236e+06]
+ [ 2.93845391e+06]
+ [ 2.93851376e+06]
+ [ 2.93813518e+06]
+ [ 2.93814959e+06]
+ [ 2.93816381e+06]
+ [ 2.93960683e+06]
+ [ 2.94022565e+06]
+ [ 2.94078727e+06]
+ [ 2.94139117e+06]
+ [ 2.94223982e+06]
+ [ 2.94291181e+06]
+ [ 2.93977617e+06]
+ [ 2.93977476e+06]
+ [ 2.93972962e+06]
+ [ 2.93950838e+06]
+ [ 2.93936732e+06]
+ [ 1.44611726e+03]]</t>
         </is>
       </c>
       <c r="E1411" t="inlineStr"/>
@@ -37584,36 +37569,36 @@
       </c>
       <c r="D1412" t="inlineStr">
         <is>
-          <t>[[-1.93112728e+04]
- [-4.40551563e+04]
- [-4.34016622e+04]
- [ 8.73884514e+03]
- [ 8.73893265e+03]
- [ 8.73902221e+03]
- [ 8.73911453e+03]
- [ 8.73921040e+03]
- [ 8.73931062e+03]
- [ 8.74077753e+03]
- [ 8.74125185e+03]
- [ 8.74180217e+03]
- [ 8.74176695e+03]
- [ 8.74085607e+03]
- [ 8.74107998e+03]
- [ 8.73970275e+03]
- [ 8.73975740e+03]
- [ 8.73981164e+03]
- [ 8.74300490e+03]
- [ 8.74547992e+03]
- [ 8.74783142e+03]
- [ 8.75013835e+03]
- [ 8.75414154e+03]
- [ 8.75780653e+03]
- [ 8.74921103e+03]
- [ 8.74986691e+03]
- [ 8.75048405e+03]
- [ 8.74982815e+03]
- [ 8.75018943e+03]
- [ 1.12230183e+01]]</t>
+          <t>[[-1.89269390e+04]
+ [-4.79997390e+04]
+ [-5.05984360e+04]
+ [ 8.73895749e+03]
+ [ 8.73906591e+03]
+ [ 8.73917650e+03]
+ [ 8.73929007e+03]
+ [ 8.73940751e+03]
+ [ 8.73952975e+03]
+ [ 8.74128347e+03]
+ [ 8.74185397e+03]
+ [ 8.74250922e+03]
+ [ 8.74251216e+03]
+ [ 8.74153447e+03]
+ [ 8.74182110e+03]
+ [ 8.74009652e+03]
+ [ 8.74016647e+03]
+ [ 8.74023588e+03]
+ [ 8.74697658e+03]
+ [ 8.75012562e+03]
+ [ 8.75310859e+03]
+ [ 8.75660163e+03]
+ [ 8.76180517e+03]
+ [ 8.76647986e+03]
+ [ 8.74991127e+03]
+ [ 8.75057528e+03]
+ [ 8.75120238e+03]
+ [ 8.75087633e+03]
+ [ 8.75139292e+03]
+ [ 1.25421848e+01]]</t>
         </is>
       </c>
       <c r="E1412" t="inlineStr"/>
@@ -37636,36 +37621,36 @@
       </c>
       <c r="D1413" t="inlineStr">
         <is>
-          <t>[[-2.70135107e+05]
- [-1.03421597e+06]
- [-1.89661899e+06]
- [-2.21048008e+06]
- [-2.19580380e+06]
- [-2.18111793e+06]
- [-2.16642311e+06]
- [-2.15172003e+06]
- [-2.13700937e+06]
- [-2.10756373e+06]
- [-2.07809554e+06]
- [-2.04861106e+06]
- [-2.01911703e+06]
- [-1.98961363e+06]
- [-1.96009870e+06]
- [-1.94534053e+06]
- [-1.93058088e+06]
- [-1.91582011e+06]
- [-1.81259460e+06]
- [-1.70864514e+06]
- [-1.60413384e+06]
- [-1.45362528e+06]
- [-1.30161955e+06]
- [-1.14844147e+06]
- [-1.05610354e+06]
- [-9.63254410e+05]
- [-8.69810584e+05]
- [-7.81950224e+05]
- [-6.93260945e+05]
- [-2.57051488e-04]]</t>
+          <t>[[-2.11404328e+05]
+ [-9.71127240e+05]
+ [-1.91885349e+06]
+ [-2.21313173e+06]
+ [-2.19840611e+06]
+ [-2.18366490e+06]
+ [-2.16890892e+06]
+ [-2.15413904e+06]
+ [-2.13935612e+06]
+ [-2.10974949e+06]
+ [-2.08010055e+06]
+ [-2.05041712e+06]
+ [-2.02070751e+06]
+ [-1.99097274e+06]
+ [-1.96121115e+06]
+ [-1.94632492e+06]
+ [-1.93143385e+06]
+ [-1.91653843e+06]
+ [-1.81238416e+06]
+ [-1.70754952e+06]
+ [-1.60223086e+06]
+ [-1.45081971e+06]
+ [-1.29837891e+06]
+ [-1.14541231e+06]
+ [-1.05352970e+06]
+ [-9.61208983e+05]
+ [-8.68367019e+05]
+ [-7.81160755e+05]
+ [-6.93283318e+05]
+ [-2.90809020e-04]]</t>
         </is>
       </c>
       <c r="E1413" t="inlineStr"/>
@@ -37688,36 +37673,36 @@
       </c>
       <c r="D1414" t="inlineStr">
         <is>
-          <t>[[ 6.10697685e+07]
- [ 2.31904874e+08]
- [ 4.20197803e+08]
- [ 4.88917394e+08]
- [ 4.83995722e+08]
- [ 4.79071947e+08]
- [ 4.74146227e+08]
- [ 4.69218717e+08]
- [ 4.64289577e+08]
- [ 4.54426072e+08]
- [ 4.44557844e+08]
- [ 4.34686306e+08]
- [ 4.24812970e+08]
- [ 4.14937891e+08]
- [ 4.05060612e+08]
- [ 4.00121943e+08]
- [ 3.95183035e+08]
- [ 3.90243968e+08]
- [ 3.55752629e+08]
- [ 3.21121235e+08]
- [ 2.86387725e+08]
- [ 2.36561019e+08]
- [ 1.86504183e+08]
- [ 1.36302999e+08]
- [ 1.06150657e+08]
- [ 7.59621779e+07]
- [ 4.57459154e+07]
- [ 1.75318300e+07]
- [-1.06754104e+07]
- [ 2.87247846e-02]]</t>
+          <t>[[ 4.78143311e+07]
+ [ 2.17945864e+08]
+ [ 4.25547478e+08]
+ [ 4.89900144e+08]
+ [ 4.84967371e+08]
+ [ 4.80031172e+08]
+ [ 4.75091747e+08]
+ [ 4.70149298e+08]
+ [ 4.65204029e+08]
+ [ 4.55304689e+08]
+ [ 4.45396374e+08]
+ [ 4.35480870e+08]
+ [ 4.25560070e+08]
+ [ 4.15634236e+08]
+ [ 4.05703050e+08]
+ [ 4.00736473e+08]
+ [ 3.95768979e+08]
+ [ 3.90800678e+08]
+ [ 3.56109318e+08]
+ [ 3.21287996e+08]
+ [ 2.86381678e+08]
+ [ 2.36358848e+08]
+ [ 1.86190505e+08]
+ [ 1.35984458e+08]
+ [ 1.05881339e+08]
+ [ 7.57518243e+07]
+ [ 4.56028141e+07]
+ [ 1.74590309e+07]
+ [-1.06712733e+07]
+ [ 3.35310406e-02]]</t>
         </is>
       </c>
       <c r="E1414" t="inlineStr"/>
@@ -37740,36 +37725,36 @@
       </c>
       <c r="D1415" t="inlineStr">
         <is>
-          <t>[[ 1.02271360e+06]
- [ 2.23493975e+06]
- [ 3.86132410e+06]
- [ 6.20324348e+06]
- [ 6.20322960e+06]
- [ 6.20321569e+06]
- [ 6.20320171e+06]
- [ 6.20318761e+06]
- [ 6.20317337e+06]
- [ 6.20315894e+06]
- [ 6.20312932e+06]
- [ 6.20309838e+06]
- [ 6.20306565e+06]
- [ 6.20303876e+06]
- [ 6.20301874e+06]
- [ 6.20299871e+06]
- [ 6.20298870e+06]
- [ 6.20297868e+06]
- [ 6.20371781e+06]
- [ 6.20364717e+06]
- [ 6.20357644e+06]
- [ 6.20405272e+06]
- [ 6.20398729e+06]
- [ 6.20392074e+06]
- [ 6.20414541e+06]
- [ 6.20420419e+06]
- [ 6.20427911e+06]
- [ 6.20443633e+06]
- [ 6.20460481e+06]
- [-2.42057874e-09]]</t>
+          <t>[[1021791.72786407]
+ [2233388.57866221]
+ [3859869.04664001]
+ [6203366.63871219]
+ [6203353.18382747]
+ [6203339.6968898 ]
+ [6203326.14540026]
+ [6203312.49607012]
+ [6203298.71439446]
+ [6203284.76418654]
+ [6203256.18037247]
+ [6203226.41607814]
+ [6203195.05072138]
+ [6203168.90329987]
+ [6203148.88470107]
+ [6203128.85620565]
+ [6203118.83916223]
+ [6203108.82058125]
+ [6203546.4370591 ]
+ [6203476.24734387]
+ [6203406.00671574]
+ [6203694.70069634]
+ [6203593.47092828]
+ [6203492.10260778]
+ [6203925.10122524]
+ [6203971.85573349]
+ [6204033.4191168 ]
+ [6204110.87211309]
+ [6204213.51282672]
+ [      0.        ]]</t>
         </is>
       </c>
       <c r="E1415" t="inlineStr"/>
@@ -37792,24 +37777,24 @@
       </c>
       <c r="D1416" t="inlineStr">
         <is>
-          <t>[[-3430830.13269656]
- [14733246.49194359]
- [34824692.77930371]
- [42001006.33272069]
- [41677575.88012084]
- [41354853.38274143]
- [41033330.18423427]
- [40713513.93925726]
- [40395938.17131224]
- [39770016.31801598]
- [39160485.58280127]
- [38573528.53846747]
- [37911644.37261116]
- [37161788.98281767]
- [36411841.10853807]
- [36036901.77486604]
- [35661958.97109397]
- [35287018.94468419]]</t>
+          <t>[[-4863575.28876549]
+ [18091970.5296537 ]
+ [46068021.00911895]
+ [54633671.99890029]
+ [54162672.52062462]
+ [53692052.00222481]
+ [53222262.14273102]
+ [52753770.32298778]
+ [52287065.66561576]
+ [51361246.13886677]
+ [50449348.75004029]
+ [49556983.29284342]
+ [48597231.75951172]
+ [47558483.40317109]
+ [46519165.12768738]
+ [45999414.03047546]
+ [45479563.42152934]
+ [44959625.75960959]]</t>
         </is>
       </c>
       <c r="E1416" t="inlineStr"/>
@@ -37832,24 +37817,24 @@
       </c>
       <c r="D1417" t="inlineStr">
         <is>
-          <t>[[2408027.9846871 ]
- [5430342.65185988]
- [5219871.79067538]
- [1930150.77823378]
- [1930160.711539  ]
- [1930170.86171514]
- [1930181.33315708]
- [1930192.17247913]
- [1930203.50030652]
- [1930382.34517082]
- [1930437.50731547]
- [1930501.42892533]
- [1930493.75016401]
- [1930380.64377745]
- [1930405.29211501]
- [1930238.01767672]
- [1930243.68596894]
- [1930249.27720853]]</t>
+          <t>[[2682978.92837306]
+ [6720311.07541739]
+ [6938900.61290472]
+ [2229954.57221824]
+ [2229968.6118743 ]
+ [2229982.90318075]
+ [2229997.55605201]
+ [2230012.68664329]
+ [2230028.41995147]
+ [2230270.02526766]
+ [2230345.21972281]
+ [2230431.41976288]
+ [2230427.47419209]
+ [2230290.03951998]
+ [2230325.92508716]
+ [2230089.39349204]
+ [2230097.69141917]
+ [2230105.87728219]]</t>
         </is>
       </c>
       <c r="E1417" t="inlineStr"/>
@@ -37874,22 +37859,22 @@
         <is>
           <t>[[-0.00000000e+00]
  [-0.00000000e+00]
- [-8.62823433e+06]
- [-1.65869550e+07]
- [-1.52530628e+07]
- [-1.39295256e+07]
- [-1.26165689e+07]
- [-1.13145347e+07]
- [-1.00238879e+07]
- [-8.11553029e+06]
- [-5.61189687e+06]
- [-3.16976039e+06]
- [-9.86450020e+05]
- [-8.27672964e+03]
- [-9.42164160e+03]
- [-1.00658760e+04]
- [-1.04189913e+04]
- [-1.07376845e+04]]</t>
+ [-7.62744710e+06]
+ [-1.46630371e+07]
+ [-1.34838628e+07]
+ [-1.23138424e+07]
+ [-1.11531752e+07]
+ [-1.00021637e+07]
+ [-8.86121885e+06]
+ [-7.17421127e+06]
+ [-4.96097388e+06]
+ [-2.80210040e+06]
+ [-8.72031843e+05]
+ [-7.31671312e+03]
+ [-8.32882693e+03]
+ [-8.89833667e+03]
+ [-9.21049424e+03]
+ [-9.49222222e+03]]</t>
         </is>
       </c>
       <c r="E1418" t="inlineStr"/>
@@ -37948,24 +37933,24 @@
       <c r="C1420" t="inlineStr"/>
       <c r="D1420" t="inlineStr">
         <is>
-          <t>[[0.02747258]
- [0.08891767]
- [0.20784575]
- [0.26661946]
- [0.26020981]
- [0.25391434]
- [0.24773993]
- [0.24169416]
- [0.23578532]
- [0.22643814]
- [0.21558024]
- [0.20546606]
- [0.19615111]
- [0.18982497]
- [0.1860286 ]
- [0.18413086]
- [0.18223268]
- [0.1803346 ]]</t>
+          <t>[[0.03421881]
+ [0.10943546]
+ [0.26316173]
+ [0.32236443]
+ [0.31607361]
+ [0.30986794]
+ [0.30375215]
+ [0.29773146]
+ [0.29181155]
+ [0.28198655]
+ [0.27085114]
+ [0.26025809]
+ [0.25023246]
+ [0.24274325]
+ [0.23747662]
+ [0.2348431 ]
+ [0.23220882]
+ [0.22957424]]</t>
         </is>
       </c>
       <c r="E1420" t="inlineStr"/>
@@ -37984,24 +37969,24 @@
       <c r="C1421" t="inlineStr"/>
       <c r="D1421" t="inlineStr">
         <is>
-          <t>[[0.05664122]
- [0.07319288]
- [0.17725083]
- [0.06258995]
- [0.05855002]
- [0.05461105]
- [0.05078812]
- [0.04710048]
- [0.04357254]
- [0.05746496]
- [0.04711406]
- [0.03853565]
- [0.0318377 ]
- [0.02902355]
- [0.02794532]
- [0.02413067]
- [0.02363532]
- [0.02314269]]</t>
+          <t>[[0.06035805]
+ [0.08212112]
+ [0.16812257]
+ [0.05906388]
+ [0.05581885]
+ [0.05269484]
+ [0.04970738]
+ [0.04687469]
+ [0.04421779]
+ [0.05743741]
+ [0.04969942]
+ [0.04253105]
+ [0.03712454]
+ [0.03487363]
+ [0.03384373]
+ [0.03012532]
+ [0.02963807]
+ [0.0291525 ]]</t>
         </is>
       </c>
       <c r="E1421" t="inlineStr"/>
@@ -38020,24 +38005,24 @@
       <c r="C1422" t="inlineStr"/>
       <c r="D1422" t="inlineStr">
         <is>
-          <t>[[0.08229585]
- [0.16366106]
- [0.25288002]
- [0.28627694]
- [0.28284193]
- [0.27940124]
- [0.27595236]
- [0.27249267]
- [0.26901942]
- [0.26201826]
- [0.25492431]
- [0.24770541]
- [0.24089582]
- [0.23456628]
- [0.22823614]
- [0.22507131]
- [0.22190654]
- [0.2187419 ]]</t>
+          <t>[[0.08667075]
+ [0.18699286]
+ [0.3094655 ]
+ [0.34797066]
+ [0.34402692]
+ [0.34007731]
+ [0.33611968]
+ [0.33215182]
+ [0.32817138]
+ [0.32016048]
+ [0.31206634]
+ [0.30386156]
+ [0.29601176]
+ [0.28857832]
+ [0.28114285]
+ [0.27742503]
+ [0.27370703]
+ [0.26998892]]</t>
         </is>
       </c>
       <c r="E1422" t="inlineStr"/>
@@ -38060,36 +38045,36 @@
       </c>
       <c r="D1423" t="inlineStr">
         <is>
-          <t>[[-3.43083013e+06]
- [ 1.47332465e+07]
- [ 3.48246928e+07]
- [ 4.20010063e+07]
- [ 4.16775759e+07]
- [ 4.13548534e+07]
- [ 4.10333302e+07]
- [ 4.07135139e+07]
- [ 4.03959382e+07]
- [ 3.97700163e+07]
- [ 3.91604856e+07]
- [ 3.85735285e+07]
- [ 3.79116444e+07]
- [ 3.71617890e+07]
- [ 3.64118411e+07]
- [ 3.60369018e+07]
- [ 3.56619590e+07]
- [ 3.52870189e+07]
- [ 1.08274816e+08]
- [ 9.73603961e+07]
- [ 8.64131126e+07]
- [ 1.15197619e+08]
- [ 9.40000504e+07]
- [ 6.99217499e+07]
- [ 7.03466233e+07]
- [ 5.53038801e+07]
- [ 3.31454678e+07]
- [ 3.41917870e+06]
- [-4.48774339e+06]
- [ 7.13113710e-02]]</t>
+          <t>[[-4.86357529e+06]
+ [ 1.80919705e+07]
+ [ 4.60680210e+07]
+ [ 5.46336720e+07]
+ [ 5.41626725e+07]
+ [ 5.36920520e+07]
+ [ 5.32222621e+07]
+ [ 5.27537703e+07]
+ [ 5.22870657e+07]
+ [ 5.13612461e+07]
+ [ 5.04493488e+07]
+ [ 4.95569833e+07]
+ [ 4.85972318e+07]
+ [ 4.75584834e+07]
+ [ 4.65191651e+07]
+ [ 4.59994140e+07]
+ [ 4.54795634e+07]
+ [ 4.49596258e+07]
+ [ 8.46564480e+07]
+ [ 7.62166193e+07]
+ [ 6.77551574e+07]
+ [ 8.29977291e+07]
+ [ 6.40586049e+07]
+ [ 4.51061616e+07]
+ [ 5.96811935e+07]
+ [ 4.75466051e+07]
+ [ 2.91187650e+07]
+ [ 3.41128617e+06]
+ [-3.13262108e+06]
+ [ 6.52924037e-02]]</t>
         </is>
       </c>
       <c r="E1423" t="inlineStr"/>
@@ -38112,36 +38097,36 @@
       </c>
       <c r="D1424" t="inlineStr">
         <is>
-          <t>[[2.40802798e+06]
- [5.43034265e+06]
- [5.21987179e+06]
- [1.93015078e+06]
- [1.93016071e+06]
- [1.93017086e+06]
- [1.93018133e+06]
- [1.93019217e+06]
- [1.93020350e+06]
- [1.93038235e+06]
- [1.93043751e+06]
- [1.93050143e+06]
- [1.93049375e+06]
- [1.93038064e+06]
- [1.93040529e+06]
- [1.93023802e+06]
- [1.93024369e+06]
- [1.93024928e+06]
- [6.52741669e+06]
- [6.52830877e+06]
- [6.52911977e+06]
- [1.05868271e+07]
- [1.09358294e+07]
- [1.13075252e+07]
- [1.45292350e+07]
- [1.59694235e+07]
- [1.77164700e+07]
- [2.06013773e+07]
- [2.39333272e+07]
- [8.86835399e+03]]</t>
+          <t>[[2.68297893e+06]
+ [6.72031108e+06]
+ [6.93890061e+06]
+ [2.22995457e+06]
+ [2.22996861e+06]
+ [2.22998290e+06]
+ [2.22999756e+06]
+ [2.23001269e+06]
+ [2.23002842e+06]
+ [2.23027003e+06]
+ [2.23034522e+06]
+ [2.23043142e+06]
+ [2.23042747e+06]
+ [2.23029004e+06]
+ [2.23032593e+06]
+ [2.23008939e+06]
+ [2.23009769e+06]
+ [2.23010588e+06]
+ [4.62051635e+06]
+ [4.62130452e+06]
+ [4.62201896e+06]
+ [6.96912157e+06]
+ [6.97075094e+06]
+ [6.97203686e+06]
+ [1.19359821e+07]
+ [1.31982940e+07]
+ [1.47490097e+07]
+ [1.66427314e+07]
+ [1.90013934e+07]
+ [7.90090664e+03]]</t>
         </is>
       </c>
       <c r="E1424" t="inlineStr"/>
@@ -38166,34 +38151,34 @@
         <is>
           <t>[[-0.00000000e+00]
  [-0.00000000e+00]
- [-8.62823433e+06]
- [-1.65869550e+07]
- [-1.52530628e+07]
- [-1.39295256e+07]
- [-1.26165689e+07]
- [-1.13145347e+07]
- [-1.00238879e+07]
- [-8.11553029e+06]
- [-5.61189687e+06]
- [-3.16976039e+06]
- [-9.86450020e+05]
- [-8.27672964e+03]
- [-9.42164160e+03]
- [-1.00658760e+04]
- [-1.04189913e+04]
- [-1.07376845e+04]
- [-3.98710652e+04]
- [-4.45444458e+04]
- [-4.80066165e+04]
- [-8.08806463e+04]
- [-8.36210080e+04]
- [-8.53129585e+04]
- [-1.01247604e+05]
- [-9.55510006e+04]
- [-8.93897465e+04]
- [-8.44464679e+04]
- [-7.59873548e+04]
- [-6.71636498e+04]]</t>
+ [-7.62744710e+06]
+ [-1.46630371e+07]
+ [-1.34838628e+07]
+ [-1.23138424e+07]
+ [-1.11531752e+07]
+ [-1.00021637e+07]
+ [-8.86121885e+06]
+ [-7.17421127e+06]
+ [-4.96097388e+06]
+ [-2.80210040e+06]
+ [-8.72031843e+05]
+ [-7.31671312e+03]
+ [-8.32882693e+03]
+ [-8.89833667e+03]
+ [-9.21049424e+03]
+ [-9.49222222e+03]
+ [-2.15628251e+04]
+ [-2.40902542e+04]
+ [-2.59626441e+04]
+ [-4.19220451e+04]
+ [-4.45587382e+04]
+ [-4.67728979e+04]
+ [-7.61063437e+04]
+ [-7.14938326e+04]
+ [-6.65186810e+04]
+ [-6.13419322e+04]
+ [-5.60164177e+04]
+ [-5.04509517e+04]]</t>
         </is>
       </c>
       <c r="E1425" t="inlineStr"/>
@@ -38264,36 +38249,36 @@
       <c r="C1427" t="inlineStr"/>
       <c r="D1427" t="inlineStr">
         <is>
-          <t>[[2.74725756e-02]
- [8.89176742e-02]
- [2.07845751e-01]
- [2.66619463e-01]
- [2.60209810e-01]
- [2.53914340e-01]
- [2.47739934e-01]
- [2.41694163e-01]
- [2.35785322e-01]
- [2.26438139e-01]
- [2.15580235e-01]
- [2.05466062e-01]
- [1.96151106e-01]
- [1.89824969e-01]
- [1.86028596e-01]
- [1.84130863e-01]
- [1.82232683e-01]
- [1.80334604e-01]
- [5.53884682e-01]
- [4.98709662e-01]
- [4.43449142e-01]
- [5.93586100e-01]
- [4.87994100e-01]
- [3.69587749e-01]
- [3.80301499e-01]
- [3.14770416e-01]
- [2.29940159e-01]
- [1.82368412e-01]
- [2.12085037e-01]
- [3.50479999e-04]]</t>
+          <t>[[3.42188084e-02]
+ [1.09435456e-01]
+ [2.63161734e-01]
+ [3.22364429e-01]
+ [3.16073612e-01]
+ [3.09867943e-01]
+ [3.03752154e-01]
+ [2.97731455e-01]
+ [2.91811550e-01]
+ [2.81986553e-01]
+ [2.70851142e-01]
+ [2.60258086e-01]
+ [2.50232460e-01]
+ [2.42743252e-01]
+ [2.37476615e-01]
+ [2.34843103e-01]
+ [2.32208821e-01]
+ [2.29574236e-01]
+ [4.32618290e-01]
+ [3.89903822e-01]
+ [3.47130659e-01]
+ [4.26753214e-01]
+ [3.31712291e-01]
+ [2.37648848e-01]
+ [3.21477774e-01]
+ [2.68534887e-01]
+ [1.97177397e-01]
+ [1.47678774e-01]
+ [1.68162183e-01]
+ [2.65915747e-04]]</t>
         </is>
       </c>
       <c r="E1427" t="inlineStr"/>
@@ -38312,36 +38297,36 @@
       <c r="C1428" t="inlineStr"/>
       <c r="D1428" t="inlineStr">
         <is>
-          <t>[[0.05664122]
- [0.07319288]
- [0.17725083]
- [0.06258995]
- [0.05855002]
- [0.05461105]
- [0.05078812]
- [0.04710048]
- [0.04357254]
- [0.05746496]
- [0.04711406]
- [0.03853565]
- [0.0318377 ]
- [0.02902355]
- [0.02794532]
- [0.02413067]
- [0.02363532]
- [0.02314269]
- [0.33292759]
- [0.32224293]
- [0.31142453]
- [0.9695806 ]
- [0.94504766]
- [0.92174641]
- [1.192465  ]
- [1.18495032]
- [1.18385806]
- [1.23953585]
- [1.26193079]
- [0.01250871]]</t>
+          <t>[[0.06035805]
+ [0.08212112]
+ [0.16812257]
+ [0.05906388]
+ [0.05581885]
+ [0.05269484]
+ [0.04970738]
+ [0.04687469]
+ [0.04421779]
+ [0.05743741]
+ [0.04969942]
+ [0.04253105]
+ [0.03712454]
+ [0.03487363]
+ [0.03384373]
+ [0.03012532]
+ [0.02963807]
+ [0.0291525 ]
+ [0.1307868 ]
+ [0.12510051]
+ [0.11942936]
+ [0.30034012]
+ [0.28819339]
+ [0.27603073]
+ [0.6954709 ]
+ [0.69205038]
+ [0.69329883]
+ [0.68424173]
+ [0.6967776 ]
+ [0.00623054]]</t>
         </is>
       </c>
       <c r="E1428" t="inlineStr"/>
@@ -38360,36 +38345,36 @@
       <c r="C1429" t="inlineStr"/>
       <c r="D1429" t="inlineStr">
         <is>
-          <t>[[1.30473913e-01]
- [2.34994022e-01]
- [3.48430928e-01]
- [3.91264633e-01]
- [3.86113387e-01]
- [3.80956944e-01]
- [3.75790264e-01]
- [3.70608141e-01]
- [3.65405156e-01]
- [3.54909335e-01]
- [3.44254637e-01]
- [3.33378767e-01]
- [3.23332161e-01]
- [3.14246036e-01]
- [3.05174119e-01]
- [3.00644111e-01]
- [2.96117964e-01]
- [2.91595744e-01]
- [9.20298713e-01]
- [8.30876119e-01]
- [7.41950177e-01]
- [1.04913690e+00]
- [8.97411299e-01]
- [7.26002641e-01]
- [8.17349451e-01]
- [7.65747247e-01]
- [6.81785936e-01]
- [5.89811799e-01]
- [7.17708630e-01]
- [4.38595836e-10]]</t>
+          <t>[[1.89939381e-01]
+ [3.73264658e-01]
+ [5.94876553e-01]
+ [6.64698667e-01]
+ [6.56421539e-01]
+ [6.48141543e-01]
+ [6.39852301e-01]
+ [6.31547262e-01]
+ [6.23219623e-01]
+ [6.06461864e-01]
+ [5.89519709e-01]
+ [5.72316255e-01]
+ [5.56188701e-01]
+ [5.41296811e-01]
+ [5.26436001e-01]
+ [5.19018516e-01]
+ [5.11609392e-01]
+ [5.04208761e-01]
+ [9.65163913e-01]
+ [8.68321534e-01]
+ [7.72273745e-01]
+ [9.90351621e-01]
+ [7.90622517e-01]
+ [5.93867072e-01]
+ [8.85838285e-01]
+ [8.23269721e-01]
+ [7.18374753e-01]
+ [5.62710974e-01]
+ [6.36156242e-01]
+ [5.31266386e-10]]</t>
         </is>
       </c>
       <c r="E1429" t="inlineStr"/>
@@ -38478,26 +38463,26 @@
       </c>
       <c r="D1433" t="inlineStr">
         <is>
-          <t>[[2.30719502e+10 6.04489020e+12 2.30719502e+10 6.04489020e+12
-  1.58821565e+10 1.79384436e+11]
- [2.09970029e+10 4.38691536e+12 2.09970029e+10 4.38691536e+12
-  1.47621565e+10 1.79384436e+11]
- [1.89220555e+10 3.08291584e+12 1.89220555e+10 3.08291584e+12
-  1.36421565e+10 1.79384436e+11]
- [1.68471081e+10 2.08864470e+12 1.68471081e+10 2.08864470e+12
-  1.25221565e+10 1.79384436e+11]
- [1.47721607e+10 1.35985505e+12 1.47721607e+10 1.35985505e+12
-  1.14021565e+10 1.79384436e+11]
- [1.26972134e+10 8.52299963e+11 1.26972134e+10 8.52299963e+11
-  1.02821565e+10 1.79384436e+11]
- [1.06222660e+10 5.21732532e+11 1.06222660e+10 5.21732532e+11
-  9.16215654e+09 1.79384436e+11]
- [8.54731864e+09 3.23905842e+11 8.54731864e+09 3.23905842e+11
-  8.04215654e+09 1.79384436e+11]
- [6.47237127e+09 2.14572979e+11 6.47237127e+09 2.14572979e+11
-  6.92215654e+09 1.79384436e+11]
- [4.39742390e+09 1.49487030e+11 4.39742390e+09 1.49487030e+11
-  5.80215654e+09 1.79384436e+11]]</t>
+          <t>[[2.25650526e+10 5.88608222e+12 2.25650526e+10 5.88608222e+12
+  1.52133333e+10 1.24226667e+11]
+ [2.04901053e+10 4.24064551e+12 2.04901053e+10 4.24064551e+12
+  1.40933333e+10 1.24226667e+11]
+ [1.84151579e+10 2.94918412e+12 1.84151579e+10 2.94918412e+12
+  1.29733333e+10 1.24226667e+11]
+ [1.63402105e+10 1.96745111e+12 1.63402105e+10 1.96745111e+12
+  1.18533333e+10 1.24226667e+11]
+ [1.42652632e+10 1.25119959e+12 1.42652632e+10 1.25119959e+12
+  1.07333333e+10 1.24226667e+11]
+ [1.21903158e+10 7.56182634e+11 1.21903158e+10 7.56182634e+11
+  9.61333333e+09 1.24226667e+11]
+ [1.01153684e+10 4.38153333e+11 1.01153684e+10 4.38153333e+11
+  8.49333333e+09 1.24226667e+11]
+ [8.04042105e+09 2.52864774e+11 8.04042105e+09 2.52864774e+11
+  7.37333333e+09 1.24226667e+11]
+ [5.96547368e+09 1.56070041e+11 5.96547368e+09 1.56070041e+11
+  6.25333333e+09 1.24226667e+11]
+ [3.89052632e+09 1.03522222e+11 3.89052632e+09 1.03522222e+11
+  5.13333333e+09 1.24226667e+11]]</t>
         </is>
       </c>
       <c r="E1433" t="inlineStr"/>
@@ -43309,7 +43294,7 @@
       <c r="C1593" t="inlineStr"/>
       <c r="D1593" t="inlineStr">
         <is>
-          <t>[-0.10101499]</t>
+          <t>[-0.07736117]</t>
         </is>
       </c>
       <c r="E1593" t="inlineStr">
@@ -43332,7 +43317,7 @@
       <c r="C1594" t="inlineStr"/>
       <c r="D1594" t="inlineStr">
         <is>
-          <t>[-0.09328992]</t>
+          <t>[-0.11264305]</t>
         </is>
       </c>
       <c r="E1594" t="inlineStr">
@@ -43355,7 +43340,7 @@
       <c r="C1595" t="inlineStr"/>
       <c r="D1595" t="inlineStr">
         <is>
-          <t>[1.08139499]</t>
+          <t>[1.05395174]</t>
         </is>
       </c>
       <c r="E1595" t="inlineStr"/>
@@ -43378,7 +43363,7 @@
       </c>
       <c r="D1596" t="inlineStr">
         <is>
-          <t>[27.52072582]</t>
+          <t>[28.23732221]</t>
         </is>
       </c>
       <c r="E1596" t="inlineStr"/>
@@ -43401,9 +43386,9 @@
       </c>
       <c r="D1597" t="inlineStr">
         <is>
-          <t>[1194.35831793 1383.12123005 1520.0360783  1630.33839234 1702.39934959
- 1745.83564963 1769.36073776 1656.41637192 1541.20608233 1424.89609618
- 1286.67078696 1148.94963207 1009.46782915]</t>
+          <t>[1047.13860747 1206.50615946 1321.22697622 1413.18203997 1521.16636429
+ 1611.52120343 1689.9826881  1577.44859314 1462.79921589 1346.96753088
+ 1235.47743344 1122.7238536  1007.39469272]</t>
         </is>
       </c>
       <c r="E1597" t="inlineStr"/>
@@ -43522,9 +43507,9 @@
       </c>
       <c r="D1602" t="inlineStr">
         <is>
-          <t>[1194.35831793 1383.12123005 1520.0360783  1630.33839234 1702.39934959
- 1745.83564963 1769.36073776 1656.41637192 1541.20608233 1424.89609618
- 1286.67078696 1148.94963207 1009.46782915]</t>
+          <t>[1047.13860747 1206.50615946 1321.22697622 1413.18203997 1521.16636429
+ 1611.52120343 1689.9826881  1577.44859314 1462.79921589 1346.96753088
+ 1235.47743344 1122.7238536  1007.39469272]</t>
         </is>
       </c>
       <c r="E1602" t="inlineStr"/>
@@ -43712,10 +43697,10 @@
       </c>
       <c r="D1610" t="inlineStr">
         <is>
-          <t>[-1194.35831793 -1383.12123005 -1520.0360783  -1630.33839234
- -1702.39934959 -1745.83564963 -1769.36073776 -1656.41637192
- -1541.20608233 -1424.89609618 -1286.67078696 -1148.94963207
- -1009.46782915]</t>
+          <t>[-1047.13860747 -1206.50615946 -1321.22697622 -1413.18203997
+ -1521.16636429 -1611.52120343 -1689.9826881  -1577.44859314
+ -1462.79921589 -1346.96753088 -1235.47743344 -1122.7238536
+ -1007.39469272]</t>
         </is>
       </c>
       <c r="E1610" t="inlineStr"/>
@@ -43759,7 +43744,7 @@
       <c r="C1612" t="inlineStr"/>
       <c r="D1612" t="inlineStr">
         <is>
-          <t>[548.19001728 840.11957466 865.58606981 652.40952981]</t>
+          <t>[296.9279511  448.13775152 647.90658728 481.20658728]</t>
         </is>
       </c>
       <c r="E1612" t="inlineStr"/>
@@ -43778,7 +43763,7 @@
       <c r="C1613" t="inlineStr"/>
       <c r="D1613" t="inlineStr">
         <is>
-          <t>[1.         0.91930462 0.77872423 0.67543129]</t>
+          <t>[1.         1.         0.76701797 0.71101807]</t>
         </is>
       </c>
       <c r="E1613" t="inlineStr"/>
@@ -43797,7 +43782,7 @@
       <c r="C1614" t="inlineStr"/>
       <c r="D1614" t="inlineStr">
         <is>
-          <t>[1.         0.91930462 0.77872423 0.67543129]</t>
+          <t>[1.         1.         0.76701797 0.71101807]</t>
         </is>
       </c>
       <c r="E1614" t="inlineStr"/>
@@ -43816,7 +43801,7 @@
       <c r="C1615" t="inlineStr"/>
       <c r="D1615" t="inlineStr">
         <is>
-          <t>[0.62618683 0.82690382 0.97317659]</t>
+          <t>[0.66258187 0.61109693 1.        ]</t>
         </is>
       </c>
       <c r="E1615" t="inlineStr"/>
@@ -43859,9 +43844,9 @@
       </c>
       <c r="D1617" t="inlineStr">
         <is>
-          <t>[6.21659639 6.21659639 6.21659639 6.21659639 6.04937951 5.88216264
- 5.71494576 5.29341943 4.87189309 4.45036676 3.96888349 3.48740022
- 3.00591695]</t>
+          <t>[5.5        5.5        5.5        5.5        5.5        5.5
+ 5.5        5.07286627 4.64573254 4.21859881 3.81223254 3.40586627
+ 2.9995    ]</t>
         </is>
       </c>
       <c r="E1617" t="inlineStr"/>
@@ -44112,9 +44097,9 @@
       </c>
       <c r="D1628" t="inlineStr">
         <is>
-          <t>[12.43319278 12.43319278 12.43319278 12.43319278 12.09875903 11.76432528
- 11.42989152 10.58683885  9.74378618  8.90073352  7.93776698  6.97480044
-  6.01183391]</t>
+          <t>[11.         11.         11.         11.         11.         11.
+ 11.         10.14573254  9.29146508  8.43719762  7.62446508  6.81173254
+  5.999     ]</t>
         </is>
       </c>
       <c r="E1628" t="inlineStr"/>
@@ -44367,7 +44352,7 @@
       </c>
       <c r="D1639" t="inlineStr">
         <is>
-          <t>[7380.22340843 4437.75229644 3126.49285032 2230.93346263]</t>
+          <t>[10648.72097702  7063.69437519  3816.38644497  2832.94983622]</t>
         </is>
       </c>
       <c r="E1639" t="inlineStr">
@@ -44394,7 +44379,7 @@
       </c>
       <c r="D1640" t="inlineStr">
         <is>
-          <t>[142088.97893518  78782.96905178  40290.75954232  15456.46328398]</t>
+          <t>[159980.70324944 106362.63097469  44918.8946239   18373.39980402]</t>
         </is>
       </c>
       <c r="E1640" t="inlineStr">
@@ -44421,7 +44406,7 @@
       </c>
       <c r="D1641" t="inlineStr">
         <is>
-          <t>[142088.97893518  78782.96905178  40290.75954232  15456.46328398]</t>
+          <t>[159980.70324944 106362.63097469  44918.8946239   18373.39980402]</t>
         </is>
       </c>
       <c r="E1641" t="inlineStr">
@@ -44448,7 +44433,7 @@
       </c>
       <c r="D1642" t="inlineStr">
         <is>
-          <t>[3.40495996e+12 1.88792162e+12 9.65510653e+11 3.70392123e+11]</t>
+          <t>[3.83370964e+12 2.54882892e+12 1.07641732e+12 4.40292351e+11]</t>
         </is>
       </c>
       <c r="E1642" t="inlineStr">
@@ -44475,7 +44460,7 @@
       </c>
       <c r="D1643" t="inlineStr">
         <is>
-          <t>[3.40495996e+12 1.88792162e+12 9.65510653e+11 3.70392123e+11]</t>
+          <t>[3.83370964e+12 2.54882892e+12 1.07641732e+12 4.40292351e+11]</t>
         </is>
       </c>
       <c r="E1643" t="inlineStr">
@@ -44502,7 +44487,7 @@
       </c>
       <c r="D1644" t="inlineStr">
         <is>
-          <t>[2.70013324e+12 1.49712184e+12 7.65649948e+11 2.93720953e+11]</t>
+          <t>[3.04013174e+12 2.02122134e+12 8.53598932e+11 3.49151834e+11]</t>
         </is>
       </c>
       <c r="E1644" t="inlineStr">
@@ -44529,7 +44514,7 @@
       </c>
       <c r="D1645" t="inlineStr">
         <is>
-          <t>[1.76856540e+11 1.06344412e+11 7.49219470e+10 5.34611422e+10]</t>
+          <t>[2.55181428e+11 1.69271373e+11 9.14542642e+10 6.78876069e+10]</t>
         </is>
       </c>
       <c r="E1645" t="inlineStr">
@@ -44637,10 +44622,10 @@
       </c>
       <c r="D1649" t="inlineStr">
         <is>
-          <t>[[0.         0.         1.13086008 0.36514946 0.36514946 0.        ]
- [0.         0.         1.88068181 0.63199351 0.63199351 0.        ]
- [0.         0.         2.66944477 1.05284312 1.05284312 0.        ]
- [0.         0.         3.74103493 2.01307837 2.01307837 0.        ]]</t>
+          <t>[[0.         0.         0.7837561  0.28692835 0.28692835 0.        ]
+ [0.         0.         1.1815347  0.43157075 0.43157075 0.        ]
+ [0.         0.         2.18688545 0.90286533 0.90286533 0.        ]
+ [0.         0.         2.94604581 1.63938774 1.63938774 0.        ]]</t>
         </is>
       </c>
       <c r="E1649" t="inlineStr"/>
@@ -44663,10 +44648,10 @@
       </c>
       <c r="D1650" t="inlineStr">
         <is>
-          <t>[[1.86094236 1.86094236 0.         0.         0.         0.18257473]
- [3.09571733 3.09571733 0.         0.         0.         0.31599676]
- [4.39413739 4.39413739 0.         0.         0.         0.52642156]
- [6.15703966 6.15703966 0.         0.         0.         1.00653919]]</t>
+          <t>[[1.28885818 1.28885818 0.         0.         0.         0.14346418]
+ [1.94398012 1.94398012 0.         0.         0.         0.21578537]
+ [3.59918503 3.59918503 0.         0.         0.         0.45143267]
+ [4.84746304 4.84746304 0.         0.         0.         0.81969387]]</t>
         </is>
       </c>
       <c r="E1650" t="inlineStr"/>
@@ -44689,7 +44674,7 @@
       </c>
       <c r="D1651" t="inlineStr">
         <is>
-          <t>[460.59260108]</t>
+          <t>[545.34763021]</t>
         </is>
       </c>
       <c r="E1651" t="inlineStr"/>
@@ -44712,7 +44697,7 @@
       </c>
       <c r="D1652" t="inlineStr">
         <is>
-          <t>[2070237.733636]</t>
+          <t>[2641221.08348016]</t>
         </is>
       </c>
       <c r="E1652" t="inlineStr"/>
@@ -44735,8 +44720,8 @@
       </c>
       <c r="D1653" t="inlineStr">
         <is>
-          <t>[12.43319278 12.43319278 12.43319278 12.2659759  11.93154215 11.5971084
- 11.00836519 10.16531252  9.32225985  8.41925025  7.45628371  6.49331718]</t>
+          <t>[11.         11.         11.         11.         11.         11.
+ 10.57286627  9.71859881  8.86433135  8.03083135  7.21809881  6.40536627]</t>
         </is>
       </c>
       <c r="E1653" t="inlineStr"/>
@@ -44759,8 +44744,8 @@
       </c>
       <c r="D1654" t="inlineStr">
         <is>
-          <t>[0.02426807 0.02426807 0.02426807 0.01519635 0.01519635 0.01519635
- 0.01256592 0.01256592 0.01256592 0.01222886 0.01222886 0.01222886]</t>
+          <t>[0.03963925 0.03963925 0.03963925 0.02626425 0.02626425 0.02626425
+ 0.01605    0.01605    0.01605    0.01605    0.01605    0.01605   ]</t>
         </is>
       </c>
       <c r="E1654" t="inlineStr"/>
@@ -44807,18 +44792,18 @@
       </c>
       <c r="D1656" t="inlineStr">
         <is>
-          <t>[[ 1.17549877e+08]
- [ 1.06717739e+08]
- [ 9.58427461e+07]
- [ 1.30780107e+08]
- [ 1.10586145e+08]
- [ 8.75702982e+07]
- [ 9.40703427e+07]
- [ 8.31657795e+07]
- [ 6.62930150e+07]
- [ 4.51492681e+07]
- [ 8.47418346e+06]
- [-9.00907447e+05]]</t>
+          <t>[[91545497.02296528]
+ [83217362.09310402]
+ [74855032.76619   ]
+ [93860857.06996822]
+ [75076348.50750633]
+ [56251160.87987726]
+ [79479973.88350855]
+ [71089551.8395518 ]
+ [57524204.76816204]
+ [38100073.59556699]
+ [ 7177175.37192378]
+ [ -380350.38643383]]</t>
         </is>
       </c>
       <c r="E1656" t="inlineStr"/>
@@ -44841,18 +44826,18 @@
       </c>
       <c r="D1657" t="inlineStr">
         <is>
-          <t>[[ 6526051.80097976]
- [ 6527014.74334974]
- [ 6527893.05863165]
- [10585225.23398001]
- [10934476.90770043]
- [11306446.88721351]
- [14528734.90492196]
- [15969070.66021359]
- [17716332.76160139]
- [20601509.01614601]
- [23933818.70183559]
- [28484274.21863022]]</t>
+          <t>[[ 4618565.3617661 ]
+ [ 4619411.61256428]
+ [ 4620182.25357079]
+ [ 6966614.46124954]
+ [ 6968430.13601119]
+ [ 6969902.78123822]
+ [11934797.52206955]
+ [13197233.86666567]
+ [14748140.034954  ]
+ [16642150.2877056 ]
+ [19001120.34863703]
+ [22098167.782423  ]]</t>
         </is>
       </c>
       <c r="E1657" t="inlineStr"/>
@@ -44875,18 +44860,18 @@
       </c>
       <c r="D1658" t="inlineStr">
         <is>
-          <t>[[ -39871.06522598]
- [ -44544.44584478]
- [ -48006.61650948]
- [ -80880.64626616]
- [ -83621.00796926]
- [ -85312.95852844]
- [-101247.60401447]
- [ -95551.00063874]
- [ -89389.74654568]
- [ -84446.46794922]
- [ -75987.3548033 ]
- [ -67163.64978675]]</t>
+          <t>[[-21562.82510284]
+ [-24090.25416329]
+ [-25962.64408058]
+ [-41922.04507804]
+ [-44558.73824492]
+ [-46772.89787408]
+ [-76106.34369623]
+ [-71493.83259044]
+ [-66518.68104861]
+ [-61341.93222479]
+ [-56016.41771685]
+ [-50450.95173218]]</t>
         </is>
       </c>
       <c r="E1658" t="inlineStr"/>
@@ -44939,18 +44924,18 @@
       <c r="C1660" t="inlineStr"/>
       <c r="D1660" t="inlineStr">
         <is>
-          <t>[[0.6008303 ]
- [0.54601879]
- [0.4910501 ]
- [0.67198217]
- [0.57094687]
- [0.45668129]
- [0.49560681]
- [0.44607522]
- [0.37181105]
- [0.29291077]
- [0.21527772]
- [0.25101011]]</t>
+          <t>[[0.46751721]
+ [0.42533624]
+ [0.38301973]
+ [0.48150128]
+ [0.38692591]
+ [0.2927792 ]
+ [0.41794972]
+ [0.38003729]
+ [0.3203324 ]
+ [0.24315652]
+ [0.17138173]
+ [0.19471253]]</t>
         </is>
       </c>
       <c r="E1660" t="inlineStr"/>
@@ -44969,18 +44954,18 @@
       <c r="C1661" t="inlineStr"/>
       <c r="D1661" t="inlineStr">
         <is>
-          <t>[[0.33289125]
- [0.32218381]
- [0.31134855]
- [0.96930783]
- [0.94475584]
- [0.92145192]
- [1.19209887]
- [1.18466448]
- [1.18365203]
- [1.23940002]
- [1.26188076]
- [1.30150203]]</t>
+          <t>[[0.13077059]
+ [0.12507732]
+ [0.11940111]
+ [0.30024993]
+ [0.28809049]
+ [0.27591793]
+ [0.69525837]
+ [0.69188358]
+ [0.69317797]
+ [0.68416473]
+ [0.69674074]
+ [0.71774978]]</t>
         </is>
       </c>
       <c r="E1661" t="inlineStr"/>
@@ -44999,18 +44984,18 @@
       <c r="C1662" t="inlineStr"/>
       <c r="D1662" t="inlineStr">
         <is>
-          <t>[[6.27313109]
- [5.71121111]
- [5.14949385]
- [7.25814511]
- [6.29884292]
- [5.21385201]
- [5.87928701]
- [5.52325718]
- [4.924078  ]
- [4.25178222]
- [2.81011758]
- [2.7714533 ]]</t>
+          <t>[[1.6814209 ]
+ [1.52745361]
+ [1.37370635]
+ [1.76882803]
+ [1.44614089]
+ [1.125151  ]
+ [1.68484521]
+ [1.62269851]
+ [1.50231568]
+ [1.29293725]
+ [0.87228248]
+ [0.87980646]]</t>
         </is>
       </c>
       <c r="E1662" t="inlineStr"/>
@@ -45126,7 +45111,7 @@
       </c>
       <c r="D1667" t="inlineStr">
         <is>
-          <t>[0.23805298]</t>
+          <t>[0.25955646]</t>
         </is>
       </c>
       <c r="E1667" t="inlineStr"/>
@@ -45149,7 +45134,7 @@
       </c>
       <c r="D1668" t="inlineStr">
         <is>
-          <t>[0.24090703]</t>
+          <t>[0.26258491]</t>
         </is>
       </c>
       <c r="E1668" t="inlineStr"/>
@@ -45172,7 +45157,7 @@
       </c>
       <c r="D1669" t="inlineStr">
         <is>
-          <t>[0.23805298 0.24090703 0.7347042  0.93879701 1.1054521  3.21346928]</t>
+          <t>[0.25955646 0.26258491 0.80552134 1.00977249 1.18148233 2.99601311]</t>
         </is>
       </c>
       <c r="E1669" t="inlineStr"/>
@@ -45191,12 +45176,9 @@
       <c r="C1670" t="inlineStr"/>
       <c r="D1670" t="inlineStr">
         <is>
-          <t>[[ 9.52369755e-01 -4.03494950e-02  3.03672064e-01 -3.61193458e-01
-   1.45501135e-01]
- [ 1.87882188e+01  9.93077342e+00 -7.67210496e+01  1.06363909e+02
-  -5.73618512e+01]
- [-1.02684633e+02  2.53369462e+02 -4.08541880e+02  4.74351007e+02
-  -2.15493956e+02]]</t>
+          <t>[[   0.95370789    0.71444579   -2.23966961    2.48763358   -0.91611765]
+ [  32.07796397  -18.24000225  -32.86601025   67.9069538   -47.87890528]
+ [ -81.84546017  223.85243216 -380.25417998  427.97402637 -188.72681838]]</t>
         </is>
       </c>
       <c r="E1670" t="inlineStr"/>
@@ -45215,12 +45197,9 @@
       <c r="C1671" t="inlineStr"/>
       <c r="D1671" t="inlineStr">
         <is>
-          <t>[[ 9.43103270e-01 -5.75079534e-02  3.78960767e-01 -4.62170107e-01
-   1.97614024e-01]
- [ 1.05637216e+01  8.43751488e+00 -5.03080516e+01  6.88990585e+01
-  -3.65922434e+01]
- [-1.00808838e+02  2.46563473e+02 -3.96728340e+02  4.60527035e+02
-  -2.08553329e+02]]</t>
+          <t>[[   0.94225053    0.70875365   -2.19139441    2.41476137   -0.87437115]
+ [  15.5691054    -4.34433339  -27.76058053   47.8892385   -30.35342999]
+ [ -79.62599304  215.70460065 -366.23898678  411.89225749 -180.73187832]]</t>
         </is>
       </c>
       <c r="E1671" t="inlineStr"/>
@@ -45239,7 +45218,7 @@
       <c r="C1672" t="inlineStr"/>
       <c r="D1672" t="inlineStr">
         <is>
-          <t>[[  5.29768364 -17.70034467  30.05716881 -24.22948086   7.57497309]
+          <t>[[  5.60317695 -20.07936531  34.04621964 -26.19404926   7.62401798]
  [  0.           0.           0.           0.           0.        ]
  [  0.           0.           0.           0.           0.        ]]</t>
         </is>
@@ -45264,7 +45243,7 @@
       </c>
       <c r="D1673" t="inlineStr">
         <is>
-          <t>[0.24090703 1.1054521  3.25063408]</t>
+          <t>[0.26258491 1.18148233 3.04837299]</t>
         </is>
       </c>
       <c r="E1673" t="inlineStr"/>
@@ -45287,7 +45266,7 @@
       </c>
       <c r="D1674" t="inlineStr">
         <is>
-          <t>[0.23805298 0.93879701 3.21346928]</t>
+          <t>[0.25955646 1.00977249 2.99601311]</t>
         </is>
       </c>
       <c r="E1674" t="inlineStr"/>
@@ -45310,7 +45289,7 @@
       </c>
       <c r="D1675" t="inlineStr">
         <is>
-          <t>[4.04578663 0.         0.        ]</t>
+          <t>[4.67293364 0.         0.        ]</t>
         </is>
       </c>
       <c r="E1675" t="inlineStr"/>
@@ -45334,18 +45313,18 @@
       <c r="D1676" t="inlineStr">
         <is>
           <t>[[0.        ]
- [0.00831366]
- [0.0308064 ]
- [0.06620418]
- [0.14475937]
- [0.25788086]
- [0.40150327]
- [0.50191016]
- [0.61386635]
- [0.73731953]
- [0.86255331]
- [0.99618329]
- [1.13442422]]</t>
+ [0.00720843]
+ [0.02697251]
+ [0.05816035]
+ [0.12570078]
+ [0.21981742]
+ [0.3354838 ]
+ [0.41598733]
+ [0.50671946]
+ [0.60778482]
+ [0.71095588]
+ [0.82126163]
+ [0.93529371]]</t>
         </is>
       </c>
       <c r="E1676" t="inlineStr"/>
@@ -45368,7 +45347,7 @@
       </c>
       <c r="D1677" t="inlineStr">
         <is>
-          <t>[1.13442422]</t>
+          <t>[0.93529371]</t>
         </is>
       </c>
       <c r="E1677" t="inlineStr"/>
@@ -45391,18 +45370,18 @@
       </c>
       <c r="D1678" t="inlineStr">
         <is>
-          <t>[[-12424493.96445168]
- [-11567315.90867195]
- [-10708716.70243445]
- [ -9939102.5408792 ]
- [ -9188800.75887687]
- [ -8458209.94418813]
- [ -8110797.75989555]
- [ -7789849.89910452]
- [ -7495382.97098192]
- [ -7253368.60800501]
- [ -7038913.48567827]
- [ -6852023.41514668]]</t>
+          <t>[[-14798292.56825814]
+ [-13571043.21304842]
+ [-12342605.7624031 ]
+ [-11169306.11376033]
+ [ -9994377.65101596]
+ [ -8818062.82256066]
+ [ -8396630.56117327]
+ [ -8009114.313065  ]
+ [ -7655530.35177437]
+ [ -7356430.09865088]
+ [ -7087483.01786644]
+ [ -6848706.78611807]]</t>
         </is>
       </c>
       <c r="E1678" t="inlineStr"/>
@@ -45425,18 +45404,18 @@
       </c>
       <c r="D1679" t="inlineStr">
         <is>
-          <t>[[2938018.77579359]
- [2938542.70434824]
- [2939021.17174863]
- [2939535.34787985]
- [2940271.6797646 ]
- [2940876.52443576]
- [2939466.58132607]
- [2939519.48248597]
- [2939540.79103078]
- [2939346.10074771]
- [2939257.39195786]
- [2939105.6723517 ]]</t>
+          <t>[[2938093.0942055 ]
+ [2938756.98414304]
+ [2939362.219396  ]
+ [2940101.51301573]
+ [2941046.01576116]
+ [2941814.07622364]
+ [2939418.19759871]
+ [2939480.31883221]
+ [2939509.36543433]
+ [2939375.07469066]
+ [2939311.05425586]
+ [2939179.97255777]]</t>
         </is>
       </c>
       <c r="E1679" t="inlineStr"/>
@@ -45459,18 +45438,18 @@
       </c>
       <c r="D1680" t="inlineStr">
         <is>
-          <t>[[8739.58645666]
- [8742.18032585]
- [8744.64150541]
- [8747.46569284]
- [8751.78993619]
- [8755.78670426]
- [8748.36225993]
- [8749.17142327]
- [8749.98157447]
- [8749.55569918]
- [8750.11686928]
- [8750.73732409]]</t>
+          <t>[[8739.94464966]
+ [8743.22808406]
+ [8746.33847542]
+ [8750.35521564]
+ [8755.85109703]
+ [8760.81870218]
+ [8747.98787607]
+ [8748.89533764]
+ [8749.81432152]
+ [8749.86110649]
+ [8750.67106629]
+ [8751.5040194 ]]</t>
         </is>
       </c>
       <c r="E1680" t="inlineStr"/>
@@ -45493,18 +45472,18 @@
       </c>
       <c r="D1681" t="inlineStr">
         <is>
-          <t>[[-1895967.67854187]
- [-1793134.95649589]
- [-1689627.63340031]
- [-1540366.5427006 ]
- [-1389407.40610272]
- [-1237084.09112017]
- [-1145157.46878092]
- [-1052641.55066725]
- [ -959440.9017181 ]
- [ -871708.77650697]
- [ -783022.88684266]
- [ -693053.21390811]]</t>
+          <t>[[-1888386.48672705]
+ [-1785487.91031429]
+ [-1681910.24849253]
+ [-1532689.09306266]
+ [-1382138.8212363 ]
+ [-1230781.17824629]
+ [-1139703.52631309]
+ [-1048094.79168117]
+ [ -955862.3877201 ]
+ [ -869119.57920815]
+ [ -781584.72184847]
+ [ -693050.9436865 ]]</t>
         </is>
       </c>
       <c r="E1681" t="inlineStr"/>
@@ -45527,18 +45506,18 @@
       </c>
       <c r="D1682" t="inlineStr">
         <is>
-          <t>[[ 3.82930922e+08]
- [ 3.48534853e+08]
- [ 3.14008789e+08]
- [ 2.64430342e+08]
- [ 2.14567935e+08]
- [ 1.64510120e+08]
- [ 1.34417411e+08]
- [ 1.04266592e+08]
- [ 7.40621403e+07]
- [ 4.58301887e+07]
- [ 1.75676648e+07]
- [-1.06986727e+07]]</t>
+          <t>[[ 3.81804698e+08]
+ [ 3.47395603e+08]
+ [ 3.12855732e+08]
+ [ 2.63285025e+08]
+ [ 2.13495625e+08]
+ [ 1.63601430e+08]
+ [ 1.33648032e+08]
+ [ 1.03643420e+08]
+ [ 7.35912041e+07]
+ [ 4.55080905e+07]
+ [ 1.74033690e+07]
+ [-1.06981116e+07]]</t>
         </is>
       </c>
       <c r="E1682" t="inlineStr"/>
@@ -45561,18 +45540,18 @@
       </c>
       <c r="D1683" t="inlineStr">
         <is>
-          <t>[[6203717.88615875]
- [6203647.15719027]
- [6203576.27502052]
- [6204052.26146427]
- [6203986.61349759]
- [6203919.90884194]
- [6204144.2502335 ]
- [6204203.02240594]
- [6204278.07435875]
- [6204435.43446649]
- [6204604.11795298]
- [6204831.59792228]]</t>
+          <t>[[6203546.59686211]
+ [6203476.35464087]
+ [6203406.02371596]
+ [6203694.62367541]
+ [6203593.25204919]
+ [6203491.74301523]
+ [6203924.28564837]
+ [6203970.99519364]
+ [6204032.67180185]
+ [6204110.26695085]
+ [6204213.06461511]
+ [6204349.33868203]]</t>
         </is>
       </c>
       <c r="E1683" t="inlineStr"/>
@@ -45597,7 +45576,7 @@
         <is>
           <t>[[ 2.93771262e+06]
  [ 8.73815973e+03]
- [-1.32797998e+07]]</t>
+ [-1.60239663e+07]]</t>
         </is>
       </c>
       <c r="E1684" t="inlineStr"/>
@@ -45620,9 +45599,9 @@
       </c>
       <c r="D1685" t="inlineStr">
         <is>
-          <t>[[-1.99795861e+06]
- [ 4.17157365e+08]
- [ 6.20261990e+06]]</t>
+          <t>[[-1.99040414e+06]
+ [ 4.16036103e+08]
+ [ 6.20262840e+06]]</t>
         </is>
       </c>
       <c r="E1685" t="inlineStr"/>
@@ -45645,7 +45624,7 @@
       </c>
       <c r="D1686" t="inlineStr">
         <is>
-          <t>[1582276.02618533]</t>
+          <t>[1863893.14461053]</t>
         </is>
       </c>
       <c r="E1686" t="inlineStr"/>
@@ -45668,7 +45647,7 @@
       </c>
       <c r="D1687" t="inlineStr">
         <is>
-          <t>[-4.05086724e+00 -5.75340287e-02  1.19067704e+02]</t>
+          <t>[-3.43879688e+00 -4.87769543e-02  1.08586804e+02]</t>
         </is>
       </c>
       <c r="E1687" t="inlineStr"/>
@@ -45691,8 +45670,8 @@
       </c>
       <c r="D1688" t="inlineStr">
         <is>
-          <t>[2.67789309e+10 2.66479953e+10 2.87413124e+08 5.45298788e+02
- 1.42357390e+07 1.70112235e+05]</t>
+          <t>[2.77998103e+10 2.76688774e+10 2.91824291e+08 5.41253437e+02
+ 1.42357768e+07 1.69892134e+05]</t>
         </is>
       </c>
       <c r="E1688" t="inlineStr"/>
@@ -51118,7 +51097,7 @@
       </c>
       <c r="D1860" t="inlineStr">
         <is>
-          <t>[3.26622204]</t>
+          <t>[2.8838056]</t>
         </is>
       </c>
       <c r="E1860" t="inlineStr"/>
@@ -53957,8 +53936,7 @@
       </c>
       <c r="D1981" t="inlineStr">
         <is>
-          <t>[12.43319258 12.4331927  12.4331927  12.43319276 12.43319278 12.43319278
- 12.43319278]</t>
+          <t>[11. 11. 11. 11. 11. 11. 11.]</t>
         </is>
       </c>
       <c r="E1981" t="inlineStr">
@@ -54943,7 +54921,7 @@
       </c>
       <c r="D2018" t="inlineStr">
         <is>
-          <t>[12.43319278 12.43319278 11.42989152  8.90073352  6.01183391]</t>
+          <t>[11.         11.         11.          8.43719762  5.999     ]</t>
         </is>
       </c>
       <c r="E2018" t="inlineStr">
@@ -54993,7 +54971,7 @@
       </c>
       <c r="D2020" t="inlineStr">
         <is>
-          <t>[[0.02921938 0.01614151 0.01226288 0.01122482 0.01163286]]</t>
+          <t>[[0.04       0.03409205 0.015      0.015      0.015     ]]</t>
         </is>
       </c>
       <c r="E2020" t="inlineStr">

--- a/examples/99_tower_gbf/15mw/20m/outputs_mono/mono_turb_output.xlsx
+++ b/examples/99_tower_gbf/15mw/20m/outputs_mono/mono_turb_output.xlsx
@@ -1249,7 +1249,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>[10.95292028]</t>
+          <t>[8.]</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -3435,7 +3435,7 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>[2.57112109]</t>
+          <t>[2.81245332]</t>
         </is>
       </c>
       <c r="E127" t="inlineStr"/>
@@ -3670,7 +3670,7 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>[10.95292028 10.83211603  7.71264753  5.999       5.999     ]</t>
+          <t>[8. 8. 8. 6. 6.]</t>
         </is>
       </c>
       <c r="E138" t="inlineStr"/>
@@ -4140,8 +4140,7 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>[[0.06673466 0.07017685 0.08122882 0.07493146 0.06861607 0.0682954
-  0.07382415]]</t>
+          <t>[[0.07 0.07 0.07 0.07 0.07 0.07 0.07]]</t>
         </is>
       </c>
       <c r="E160" t="inlineStr"/>
@@ -4164,8 +4163,7 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>[10.95292028 10.95292028 10.95292028 10.95292028 10.95292028 10.95292028
- 10.95292028]</t>
+          <t>[8. 8. 8. 8. 8. 8. 8.]</t>
         </is>
       </c>
       <c r="E161" t="inlineStr"/>
@@ -4577,7 +4575,7 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>[10.95292028]</t>
+          <t>[8.]</t>
         </is>
       </c>
       <c r="E178" t="inlineStr"/>
@@ -4600,7 +4598,7 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>[10.95292028]</t>
+          <t>[8.]</t>
         </is>
       </c>
       <c r="E179" t="inlineStr"/>
@@ -6454,7 +6452,7 @@
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>[[0.05392518 0.055      0.03772382 0.035      0.035     ]]</t>
+          <t>[[0.04531985 0.025      0.025      0.025      0.025     ]]</t>
         </is>
       </c>
       <c r="E249" t="inlineStr"/>
@@ -6477,7 +6475,7 @@
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>[10.95292028 10.83211603  7.71264753  5.999       5.999     ]</t>
+          <t>[8. 8. 8. 6. 6.]</t>
         </is>
       </c>
       <c r="E250" t="inlineStr"/>
@@ -9844,7 +9842,7 @@
  [  0.   0.  50.]
  [  0.   0. 100.]
  [  0.   0. 130.]
- [  0.   0. 158.]]</t>
+ [  0.   0. 150.]]</t>
         </is>
       </c>
       <c r="E351" t="inlineStr">
@@ -10161,7 +10159,7 @@
       </c>
       <c r="D363" t="inlineStr">
         <is>
-          <t>[[  0.   0. -50.]
+          <t>[[  0.   0. -65.]
  [  0.   0. -20.]
  [  0.   0. -15.]
  [  0.   0. -10.]
@@ -10393,7 +10391,7 @@
       </c>
       <c r="D373" t="inlineStr">
         <is>
-          <t>[5.999]</t>
+          <t>[6.]</t>
         </is>
       </c>
       <c r="E373" t="inlineStr"/>
@@ -13981,7 +13979,7 @@
       </c>
       <c r="D532" t="inlineStr">
         <is>
-          <t>[1133.02532619]</t>
+          <t>[1030.57715003]</t>
         </is>
       </c>
       <c r="E532" t="inlineStr"/>
@@ -14004,7 +14002,7 @@
       </c>
       <c r="D533" t="inlineStr">
         <is>
-          <t>[3251.5469839]</t>
+          <t>[3210.70466927]</t>
         </is>
       </c>
       <c r="E533" t="inlineStr"/>
@@ -14104,7 +14102,7 @@
       </c>
       <c r="D537" t="inlineStr">
         <is>
-          <t>[1133.02532619]</t>
+          <t>[1030.57715003]</t>
         </is>
       </c>
       <c r="E537" t="inlineStr">
@@ -14185,7 +14183,7 @@
       </c>
       <c r="D540" t="inlineStr">
         <is>
-          <t>[1444.10228274]</t>
+          <t>[773.79746012]</t>
         </is>
       </c>
       <c r="E540" t="inlineStr">
@@ -14239,7 +14237,7 @@
       </c>
       <c r="D542" t="inlineStr">
         <is>
-          <t>[654.74691929]</t>
+          <t>[654.77302046]</t>
         </is>
       </c>
       <c r="E542" t="inlineStr">
@@ -14293,7 +14291,7 @@
       </c>
       <c r="D544" t="inlineStr">
         <is>
-          <t>[65.]</t>
+          <t>[80.]</t>
         </is>
       </c>
       <c r="E544" t="inlineStr">
@@ -14320,7 +14318,7 @@
       </c>
       <c r="D545" t="inlineStr">
         <is>
-          <t>[1406.87048261]</t>
+          <t>[1264.36587139]</t>
         </is>
       </c>
       <c r="E545" t="inlineStr">
@@ -14347,7 +14345,7 @@
       </c>
       <c r="D546" t="inlineStr">
         <is>
-          <t>[3727427.67086679]</t>
+          <t>[3377410.15457617]</t>
         </is>
       </c>
       <c r="E546" t="inlineStr">
@@ -14420,7 +14418,7 @@
       </c>
       <c r="D549" t="inlineStr">
         <is>
-          <t>[85.92637669]</t>
+          <t>[84.12394204]</t>
         </is>
       </c>
       <c r="E549" t="inlineStr"/>
@@ -14466,10 +14464,10 @@
       </c>
       <c r="D551" t="inlineStr">
         <is>
-          <t>[   0.            0.            0.            0.            0.
-    0.            0.            0.            0.            0.
-    0.            0.            0.          725.98199857  856.53680979
-  944.49389292  980.49147554 1012.90085059 1042.475991  ]</t>
+          <t>[  0.           0.           0.           0.           0.
+   0.           0.           0.           0.           0.
+   0.           0.           0.         535.64204485 631.18750462
+ 694.49669585 720.17030309 743.170808   764.0675664 ]</t>
         </is>
       </c>
       <c r="E551" t="inlineStr"/>
@@ -14564,7 +14562,7 @@
       </c>
       <c r="D555" t="inlineStr">
         <is>
-          <t>[-50.         -40.         -30.         -20.         -18.33333333
+          <t>[-65.         -50.         -35.         -20.         -18.33333333
  -16.66666667 -15.         -13.33333333 -11.66666667 -10.
   -6.66666667  -3.33333333   0.           3.33333333   6.66666667
   10.          11.66666667  13.33333333  15.        ]</t>
@@ -14613,11 +14611,11 @@
       </c>
       <c r="D557" t="inlineStr">
         <is>
-          <t>[     0.              0.              0.          75440.28890807
-  75788.04009913  76835.48728778  78595.33854367  81089.21000551
-  84348.32254325  88414.56536989  99199.09450595 114065.71646705
- 133986.5696797       0.              0.              0.
-      0.              0.              0.        ]</t>
+          <t>[    0.             0.             0.         41219.63874899
+ 41413.55011127 41997.65358401 42979.11485504 44370.07455178
+ 46187.96657769 48456.00867933 54468.8941471  62745.24639729
+ 73799.67525922     0.             0.             0.
+     0.             0.             0.        ]</t>
         </is>
       </c>
       <c r="E557" t="inlineStr"/>
@@ -14713,7 +14711,7 @@
       </c>
       <c r="D561" t="inlineStr">
         <is>
-          <t>[-50.         -40.         -30.         -20.         -18.33333333
+          <t>[-65.         -50.         -35.         -20.         -18.33333333
  -16.66666667 -15.         -13.33333333 -11.66666667 -10.
   -6.66666667  -3.33333333   0.           3.33333333   6.66666667
   10.          11.66666667  13.33333333  15.        ]</t>
@@ -14762,7 +14760,7 @@
       </c>
       <c r="D563" t="inlineStr">
         <is>
-          <t>[-50.         -40.         -30.         -20.         -18.33333333
+          <t>[-65.         -50.         -35.         -20.         -18.33333333
  -16.66666667 -15.         -13.33333333 -11.66666667 -10.
   -6.66666667  -3.33333333   0.           3.33333333   6.66666667
   10.          11.66666667  13.33333333  15.        ]</t>
@@ -14867,10 +14865,7 @@
       </c>
       <c r="D567" t="inlineStr">
         <is>
-          <t>[10.95292028 10.95292028 10.95292028 10.95292028 10.95292028 10.95292028
- 10.95292028 10.95292028 10.95292028 10.95292028 10.95292028 10.95292028
- 10.95292028 10.95292028 10.95292028 10.95292028 10.95292028 10.95292028
- 10.95292028]</t>
+          <t>[8. 8. 8. 8. 8. 8. 8. 8. 8. 8. 8. 8. 8. 8. 8. 8. 8. 8. 8.]</t>
         </is>
       </c>
       <c r="E567" t="inlineStr"/>
@@ -14965,7 +14960,7 @@
       </c>
       <c r="D571" t="inlineStr">
         <is>
-          <t>[  0.   0. -50.]</t>
+          <t>[  0.   0. -65.]</t>
         </is>
       </c>
       <c r="E571" t="inlineStr"/>
@@ -15011,9 +15006,9 @@
       </c>
       <c r="D573" t="inlineStr">
         <is>
-          <t>[0.         0.15384615 0.30769231 0.46153846 0.48717949 0.51282051
- 0.53846154 0.56410256 0.58974359 0.61538462 0.66666667 0.71794872
- 0.76923077 0.82051282 0.87179487 0.92307692 0.94871795 0.97435897
+          <t>[0.         0.1875     0.375      0.5625     0.58333333 0.60416667
+ 0.625      0.64583333 0.66666667 0.6875     0.72916667 0.77083333
+ 0.8125     0.85416667 0.89583333 0.9375     0.95833333 0.97916667
  1.        ]</t>
         </is>
       </c>
@@ -15037,11 +15032,11 @@
       </c>
       <c r="D574" t="inlineStr">
         <is>
-          <t>[     0.              0.              0.          75440.28890807
-  75788.04009913  76835.48728778  78595.33854367  81089.21000551
-  84348.32254325  88414.56536989  99199.09450595 114065.71646705
- 133986.5696797     725.98199857    856.53680979    944.49389292
-    980.49147554   1012.90085059   1042.475991  ]</t>
+          <t>[    0.             0.             0.         41219.63874899
+ 41413.55011127 41997.65358401 42979.11485504 44370.07455178
+ 46187.96657769 48456.00867933 54468.8941471  62745.24639729
+ 73799.67525922   535.64204485   631.18750462   694.49669585
+   720.17030309   743.170808     764.0675664 ]</t>
         </is>
       </c>
       <c r="E574" t="inlineStr"/>
@@ -15183,11 +15178,11 @@
       </c>
       <c r="D580" t="inlineStr">
         <is>
-          <t>[      0.               0.               0.          -75440.28890807
-  -75788.04009913  -76835.48728778  -78595.33854367  -81089.21000551
-  -84348.32254325  -88414.56536989  -99199.09450595 -114065.71646705
- -133986.5696797     -725.98199857    -856.53680979    -944.49389292
-    -980.49147554   -1012.90085059   -1042.475991  ]</t>
+          <t>[     0.              0.              0.         -41219.63874899
+ -41413.55011127 -41997.65358401 -42979.11485504 -44370.07455178
+ -46187.96657769 -48456.00867933 -54468.8941471  -62745.24639729
+ -73799.67525922   -535.64204485   -631.18750462   -694.49669585
+   -720.17030309   -743.170808     -764.0675664 ]</t>
         </is>
       </c>
       <c r="E580" t="inlineStr"/>
@@ -15237,8 +15232,7 @@
       </c>
       <c r="D582" t="inlineStr">
         <is>
-          <t>[-30.         -26.66666667 -23.33333333 -20.         -16.66666667
- -13.33333333 -10.          -6.66666667  -3.33333333  -0.        ]</t>
+          <t>[-45. -40. -35. -30. -25. -20. -15. -10.  -5.  -0.]</t>
         </is>
       </c>
       <c r="E582" t="inlineStr"/>
@@ -15261,26 +15255,26 @@
       </c>
       <c r="D583" t="inlineStr">
         <is>
-          <t>[[2.25484013e+10 5.88128600e+12 2.25484013e+10 5.88128600e+12
-  1.51913628e+10 1.22638423e+11]
- [2.04734539e+10 4.23623515e+12 2.04734539e+10 4.23623515e+12
-  1.40713628e+10 1.22638423e+11]
- [1.83985065e+10 2.94515960e+12 1.83985065e+10 2.94515960e+12
-  1.29513628e+10 1.22638423e+11]
- [1.63235592e+10 1.96381245e+12 1.63235592e+10 1.96381245e+12
-  1.18313628e+10 1.22638423e+11]
- [1.42486118e+10 1.24794678e+12 1.42486118e+10 1.24794678e+12
-  1.07113628e+10 1.22638423e+11]
- [1.21736644e+10 7.53315681e+11 1.21736644e+10 7.53315681e+11
-  9.59136280e+09 1.22638423e+11]
- [1.00987171e+10 4.35672235e+11 1.00987171e+10 4.35672235e+11
-  8.47136280e+09 1.22638423e+11]
- [8.02376970e+09 2.50769529e+11 8.02376970e+09 2.50769529e+11
-  7.35136280e+09 1.22638423e+11]
- [5.94882233e+09 1.54360651e+11 5.94882233e+09 1.54360651e+11
-  6.23136280e+09 1.22638423e+11]
- [3.87387496e+09 1.02198686e+11 3.87387496e+09 1.02198686e+11
-  5.11136280e+09 1.22638423e+11]]</t>
+          <t>[[3.08412632e+10 1.85063822e+13 3.08412632e+10 1.85063822e+13
+  1.88533333e+10 4.77866667e+10]
+ [2.77288421e+10 1.30696533e+13 2.77288421e+10 1.30696533e+13
+  1.71733333e+10 4.77866667e+10]
+ [2.46164211e+10 8.82759111e+12 2.46164211e+10 8.82759111e+12
+  1.54933333e+10 4.77866667e+10]
+ [2.15040000e+10 5.63086222e+12 2.15040000e+10 5.63086222e+12
+  1.38133333e+10 4.77866667e+10]
+ [1.83915789e+10 3.33013333e+12 1.83915789e+10 3.33013333e+12
+  1.21333333e+10 4.77866667e+10]
+ [1.52791579e+10 1.77607111e+12 1.52791579e+10 1.77607111e+12
+  1.04533333e+10 4.77866667e+10]
+ [1.21667368e+10 8.19342222e+11 1.21667368e+10 8.19342222e+11
+  8.77333333e+09 4.77866667e+10]
+ [9.05431579e+09 3.10613333e+11 9.05431579e+09 3.10613333e+11
+  7.09333333e+09 4.77866667e+10]
+ [5.94189474e+09 1.00551111e+11 5.94189474e+09 1.00551111e+11
+  5.41333333e+09 4.77866667e+10]
+ [2.82947368e+09 3.98222222e+10 2.82947368e+09 3.98222222e+10
+  3.73333333e+09 4.77866667e+10]]</t>
         </is>
       </c>
       <c r="E583" t="inlineStr"/>
@@ -15303,9 +15297,9 @@
       </c>
       <c r="D584" t="inlineStr">
         <is>
-          <t>[[  0.           0.         -50.        ]
- [  0.           0.         -40.        ]
- [  0.           0.         -30.        ]
+          <t>[[  0.           0.         -65.        ]
+ [  0.           0.         -50.        ]
+ [  0.           0.         -35.        ]
  [  0.           0.         -20.        ]
  [  0.           0.         -18.33333333]
  [  0.           0.         -16.66666667]
@@ -15344,9 +15338,9 @@
       </c>
       <c r="D585" t="inlineStr">
         <is>
-          <t>[2.50467086 2.50467086 2.50467086 2.7679841  2.7679841  2.7679841
- 2.85428356 2.85428356 2.85428356 2.62527042 2.62527042 2.62527042
- 2.50467029 2.50467029 2.50467029 2.59932533 2.59932533 2.59932533]</t>
+          <t>[1.86597095 1.86597095 1.86597095 1.86597095 1.86597095 1.86597095
+ 1.86597095 1.86597095 1.86597095 1.86597095 1.86597095 1.86597095
+ 1.86597095 1.86597095 1.86597095 1.86597095 1.86597095 1.86597095]</t>
         </is>
       </c>
       <c r="E585" t="inlineStr"/>
@@ -15369,9 +15363,9 @@
       </c>
       <c r="D586" t="inlineStr">
         <is>
-          <t>[1.42532402 1.42532402 1.42532402 1.57564951 1.57564951 1.57564951
- 1.62493864 1.62493864 1.62493864 1.49416248 1.49416248 1.49416248
- 1.42532369 1.42532369 1.42532369 1.47935129 1.47935129 1.47935129]</t>
+          <t>[1.06310121 1.06310121 1.06310121 1.06310121 1.06310121 1.06310121
+ 1.06310121 1.06310121 1.06310121 1.06310121 1.06310121 1.06310121
+ 1.06310121 1.06310121 1.06310121 1.06310121 1.06310121 1.06310121]</t>
         </is>
       </c>
       <c r="E586" t="inlineStr"/>
@@ -15394,9 +15388,9 @@
       </c>
       <c r="D587" t="inlineStr">
         <is>
-          <t>[1.42532402 1.42532402 1.42532402 1.57564951 1.57564951 1.57564951
- 1.62493864 1.62493864 1.62493864 1.49416248 1.49416248 1.49416248
- 1.42532369 1.42532369 1.42532369 1.47935129 1.47935129 1.47935129]</t>
+          <t>[1.06310121 1.06310121 1.06310121 1.06310121 1.06310121 1.06310121
+ 1.06310121 1.06310121 1.06310121 1.06310121 1.06310121 1.06310121
+ 1.06310121 1.06310121 1.06310121 1.06310121 1.06310121 1.06310121]</t>
         </is>
       </c>
       <c r="E587" t="inlineStr"/>
@@ -15419,9 +15413,9 @@
       </c>
       <c r="D588" t="inlineStr">
         <is>
-          <t>[37.09300265 37.09300265 37.09300265 40.9383431  40.9383431  40.9383431
- 42.19638823 42.19638823 42.19638823 38.85547929 38.85547929 38.85547929
- 37.09299436 37.09299436 37.09299436 38.47649286 38.47649286 38.47649286]</t>
+          <t>[14.66881746 14.66881746 14.66881746 14.66881746 14.66881746 14.66881746
+ 14.66881746 14.66881746 14.66881746 14.66881746 14.66881746 14.66881746
+ 14.66881746 14.66881746 14.66881746 14.66881746 14.66881746 14.66881746]</t>
         </is>
       </c>
       <c r="E588" t="inlineStr"/>
@@ -15444,9 +15438,9 @@
       </c>
       <c r="D589" t="inlineStr">
         <is>
-          <t>[37.09300265 37.09300265 37.09300265 40.9383431  40.9383431  40.9383431
- 42.19638823 42.19638823 42.19638823 38.85547929 38.85547929 38.85547929
- 37.09299436 37.09299436 37.09299436 38.47649286 38.47649286 38.47649286]</t>
+          <t>[14.66881746 14.66881746 14.66881746 14.66881746 14.66881746 14.66881746
+ 14.66881746 14.66881746 14.66881746 14.66881746 14.66881746 14.66881746
+ 14.66881746 14.66881746 14.66881746 14.66881746 14.66881746 14.66881746]</t>
         </is>
       </c>
       <c r="E589" t="inlineStr"/>
@@ -15469,9 +15463,9 @@
       </c>
       <c r="D590" t="inlineStr">
         <is>
-          <t>[74.18600531 74.18600531 74.18600531 81.87668621 81.87668621 81.87668621
- 84.39277645 84.39277645 84.39277645 77.71095858 77.71095858 77.71095858
- 74.18598871 74.18598871 74.18598871 76.95298572 76.95298572 76.95298572]</t>
+          <t>[29.33763493 29.33763493 29.33763493 29.33763493 29.33763493 29.33763493
+ 29.33763493 29.33763493 29.33763493 29.33763493 29.33763493 29.33763493
+ 29.33763493 29.33763493 29.33763493 29.33763493 29.33763493 29.33763493]</t>
         </is>
       </c>
       <c r="E590" t="inlineStr"/>
@@ -15567,9 +15561,8 @@
       </c>
       <c r="D594" t="inlineStr">
         <is>
-          <t>[0.06845575 0.06845575 0.06845575 0.07570283 0.07570283 0.07570283
- 0.07808014 0.07808014 0.07808014 0.07177377 0.07177377 0.07177377
- 0.06845574 0.06845574 0.06845574 0.07105978 0.07105978 0.07105978]</t>
+          <t>[0.07 0.07 0.07 0.07 0.07 0.07 0.07 0.07 0.07 0.07 0.07 0.07 0.07 0.07
+ 0.07 0.07 0.07 0.07]</t>
         </is>
       </c>
       <c r="E594" t="inlineStr"/>
@@ -15682,17 +15675,17 @@
       <c r="D598" t="inlineStr">
         <is>
           <t>[[  0.           0.          15.        ]
- [  0.           0.          26.61331002]
- [  0.           0.          38.22662005]
- [  0.           0.          49.83993007]
- [  0.           0.          66.43037296]
- [  0.           0.          83.02081585]
- [  0.           0.          99.61125874]
- [  0.           0.         109.56552448]
- [  0.           0.         119.51979021]
- [  0.           0.         129.47405594]
- [  0.           0.         138.76470396]
- [  0.           0.         148.05535198]
+ [  0.           0.          27.30150617]
+ [  0.           0.          39.60301235]
+ [  0.           0.          51.90451852]
+ [  0.           0.          69.47809877]
+ [  0.           0.          87.05167901]
+ [  0.           0.         104.62525926]
+ [  0.           0.         115.16940741]
+ [  0.           0.         125.71355556]
+ [  0.           0.         136.2577037 ]
+ [  0.           0.         143.2871358 ]
+ [  0.           0.         150.3165679 ]
  [  0.           0.         157.346     ]]</t>
         </is>
       </c>
@@ -15716,8 +15709,8 @@
       </c>
       <c r="D599" t="inlineStr">
         <is>
-          <t>[1.99156242 1.98419029 1.97681817 1.59988794 1.43783597 1.275784
- 0.90336776 0.83354765 0.76372753 0.70168037 0.70168037 0.70168037]</t>
+          <t>[0.94136625 0.94136625 0.94136625 0.67019989 0.67019989 0.67019989
+ 0.64218735 0.58616228 0.53013722 0.50212468 0.50212468 0.50212468]</t>
         </is>
       </c>
       <c r="E599" t="inlineStr"/>
@@ -15740,8 +15733,8 @@
       </c>
       <c r="D600" t="inlineStr">
         <is>
-          <t>[1.13267115 1.12848786 1.12430457 0.90971073 0.81775445 0.72579902
- 0.51375671 0.47413756 0.43451871 0.39922621 0.39922621 0.39922621]</t>
+          <t>[0.53524481 0.53524481 0.53524481 0.38084559 0.38084559 0.38084559
+ 0.36494957 0.33315762 0.3013658  0.28546995 0.28546995 0.28546995]</t>
         </is>
       </c>
       <c r="E600" t="inlineStr"/>
@@ -15764,8 +15757,8 @@
       </c>
       <c r="D601" t="inlineStr">
         <is>
-          <t>[1.13267115 1.12848786 1.12430457 0.90971073 0.81775445 0.72579902
- 0.51375671 0.47413756 0.43451871 0.39922621 0.39922621 0.39922621]</t>
+          <t>[0.53524481 0.53524481 0.53524481 0.38084559 0.38084559 0.38084559
+ 0.36494957 0.33315762 0.3013658  0.28546995 0.28546995 0.28546995]</t>
         </is>
       </c>
       <c r="E601" t="inlineStr"/>
@@ -15788,8 +15781,8 @@
       </c>
       <c r="D602" t="inlineStr">
         <is>
-          <t>[29.4604091  29.13446496 28.81093388 21.07645891 15.29886088 10.68723803
-  6.16813172  4.84566067  3.72717177  3.11989206  3.11989206  3.11989206]</t>
+          <t>[7.46502418 7.46502418 7.46502418 5.32819383 5.32819383 5.32819383
+ 4.68762206 3.56469098 2.63714733 2.24080985 2.24080985 2.24080985]</t>
         </is>
       </c>
       <c r="E602" t="inlineStr"/>
@@ -15812,8 +15805,8 @@
       </c>
       <c r="D603" t="inlineStr">
         <is>
-          <t>[29.4604091  29.13446496 28.81093388 21.07645891 15.29886088 10.68723803
-  6.16813172  4.84566067  3.72717177  3.11989206  3.11989206  3.11989206]</t>
+          <t>[7.46502418 7.46502418 7.46502418 5.32819383 5.32819383 5.32819383
+ 4.68762206 3.56469098 2.63714733 2.24080985 2.24080985 2.24080985]</t>
         </is>
       </c>
       <c r="E603" t="inlineStr"/>
@@ -15836,8 +15829,8 @@
       </c>
       <c r="D604" t="inlineStr">
         <is>
-          <t>[58.92081819 58.26892992 57.62186776 42.15291783 30.59772176 21.37447606
- 12.33626345  9.69132133  7.45434353  6.23978412  6.23978412  6.23978412]</t>
+          <t>[14.93004837 14.93004837 14.93004837 10.65638765 10.65638765 10.65638765
+  9.37524411  7.12938196  5.27429466  4.48161969  4.48161969  4.48161969]</t>
         </is>
       </c>
       <c r="E604" t="inlineStr"/>
@@ -15931,9 +15924,9 @@
       </c>
       <c r="D608" t="inlineStr">
         <is>
-          <t>[10.95292028 10.91265219 10.87238411 10.83211603  9.79229319  8.75247036
-  7.71264753  7.14143168  6.57021584  5.999       5.999       5.999
-  5.999     ]</t>
+          <t>[8.         8.         8.         8.         8.         8.
+ 8.         7.33333333 6.66666667 6.         6.         6.
+ 6.        ]</t>
         </is>
       </c>
       <c r="E608" t="inlineStr"/>
@@ -15956,8 +15949,8 @@
       </c>
       <c r="D609" t="inlineStr">
         <is>
-          <t>[0.05446259 0.05446259 0.05446259 0.04636191 0.04636191 0.04636191
- 0.03636191 0.03636191 0.03636191 0.035      0.035      0.035     ]</t>
+          <t>[0.03515992 0.03515992 0.03515992 0.025      0.025      0.025
+ 0.025      0.025      0.025      0.025      0.025      0.025     ]</t>
         </is>
       </c>
       <c r="E609" t="inlineStr"/>
@@ -16005,17 +15998,17 @@
       <c r="D611" t="inlineStr">
         <is>
           <t>[[135.7193516 ]
- [155.74123287]
- [169.88212701]
- [181.04996942]
- [193.97594653]
- [204.63727934]
- [213.7833591 ]
- [218.72660661]
- [223.33944433]
- [227.66891335]
- [231.48712289]
- [235.11571637]
+ [156.69843521]
+ [171.33048609]
+ [182.82227714]
+ [196.0755203 ]
+ [206.97905056]
+ [216.31799319]
+ [221.36083569]
+ [226.06408979]
+ [230.47643609]
+ [233.27575427]
+ [235.97256769]
  [238.57517091]]</t>
         </is>
       </c>
@@ -16064,7 +16057,7 @@
         <is>
           <t>[[ 2.93771295e+06]
  [ 8.73816952e+03]
- [-8.98577631e+06]]</t>
+ [-8.98603452e+06]]</t>
         </is>
       </c>
       <c r="E613" t="inlineStr"/>
@@ -16087,9 +16080,9 @@
       </c>
       <c r="D614" t="inlineStr">
         <is>
-          <t>[[  -692939.78155346]
- [-38693034.48001503]
- [  6202666.24461834]]</t>
+          <t>[[  -692940.008576  ]
+ [-38693074.08051626]
+ [  6202665.53278366]]</t>
         </is>
       </c>
       <c r="E614" t="inlineStr"/>
@@ -16114,7 +16107,7 @@
         <is>
           <t>[[ 2.93771295e+06]
  [ 8.73816952e+03]
- [-2.33118721e+07]]</t>
+ [-1.67211844e+07]]</t>
         </is>
       </c>
       <c r="E615" t="inlineStr"/>
@@ -16137,9 +16130,9 @@
       </c>
       <c r="D616" t="inlineStr">
         <is>
-          <t>[[-2.00110854e+06]
- [ 3.87977046e+08]
- [ 6.20266624e+06]]</t>
+          <t>[[-2.09815008e+06]
+ [ 4.03766567e+08]
+ [ 6.20266553e+06]]</t>
         </is>
       </c>
       <c r="E616" t="inlineStr"/>
@@ -16162,8 +16155,7 @@
       </c>
       <c r="D617" t="inlineStr">
         <is>
-          <t>[1499580.78309093 1499580.78309093 2999161.56618186       0.
-       0.               0.        ]</t>
+          <t>[ 800000.  800000. 1600000.       0.       0.       0.]</t>
         </is>
       </c>
       <c r="E617" t="inlineStr"/>
@@ -16232,7 +16224,7 @@
       </c>
       <c r="D620" t="inlineStr">
         <is>
-          <t>[30.]</t>
+          <t>[45.]</t>
         </is>
       </c>
       <c r="E620" t="inlineStr"/>
@@ -16255,7 +16247,7 @@
       </c>
       <c r="D621" t="inlineStr">
         <is>
-          <t>[2392497.50765147]</t>
+          <t>[1722218.78619622]</t>
         </is>
       </c>
       <c r="E621" t="inlineStr"/>
@@ -16278,7 +16270,7 @@
       </c>
       <c r="D622" t="inlineStr">
         <is>
-          <t>[-2.67902058e+00 -3.80000524e-02  9.79360890e+01]</t>
+          <t>[-3.72168348e+00 -5.27948928e-02  1.17321402e+02]</t>
         </is>
       </c>
       <c r="E622" t="inlineStr"/>
@@ -16301,8 +16293,8 @@
       </c>
       <c r="D623" t="inlineStr">
         <is>
-          <t>[3.05819290e+10 3.04509961e+10 2.98008858e+08 5.41253411e+02
- 1.42357775e+07 1.69892134e+05]</t>
+          <t>[2.82272670e+10 2.80963339e+10 2.77519285e+08 5.41567843e+02
+ 1.42357746e+07 1.69909285e+05]</t>
         </is>
       </c>
       <c r="E623" t="inlineStr"/>
@@ -16325,7 +16317,7 @@
       </c>
       <c r="D624" t="inlineStr">
         <is>
-          <t>[948395.22490771]</t>
+          <t>[948421.32607936]</t>
         </is>
       </c>
       <c r="E624" t="inlineStr"/>
@@ -16348,8 +16340,8 @@
       </c>
       <c r="D625" t="inlineStr">
         <is>
-          <t>[4.16137377e+08 2.85204501e+08 2.66306106e+08 5.41253411e+02
- 1.42357775e+07 1.69892134e+05]</t>
+          <t>[4.16138017e+08 2.85204924e+08 2.66307067e+08 5.41567843e+02
+ 1.42357746e+07 1.69909285e+05]</t>
         </is>
       </c>
       <c r="E625" t="inlineStr"/>
@@ -16372,7 +16364,7 @@
       </c>
       <c r="D626" t="inlineStr">
         <is>
-          <t>[-6.7583112  -0.09586197  4.59784123]</t>
+          <t>[-6.75812851 -0.09586916  4.59772556]</t>
         </is>
       </c>
       <c r="E626" t="inlineStr"/>
@@ -16477,25 +16469,25 @@
       </c>
       <c r="D629" t="inlineStr">
         <is>
-          <t>[[      0.        ]
- [      0.        ]
- [      0.        ]
- [ -75440.28890807]
- [ -75788.04009913]
- [ -76835.48728778]
- [ -78595.33854367]
- [ -81089.21000551]
- [ -84348.32254325]
- [ -88414.56536989]
- [ -99199.09450595]
- [-114065.71646705]
- [-133986.5696797 ]
- [   -725.98199857]
- [   -856.53680979]
- [   -944.49389292]
- [   -980.49147554]
- [  -1012.90085059]
- [  -1042.475991  ]]</t>
+          <t>[[     0.        ]
+ [     0.        ]
+ [     0.        ]
+ [-41219.63874899]
+ [-41413.55011127]
+ [-41997.65358401]
+ [-42979.11485504]
+ [-44370.07455178]
+ [-46187.96657769]
+ [-48456.00867933]
+ [-54468.8941471 ]
+ [-62745.24639729]
+ [-73799.67525922]
+ [  -535.64204485]
+ [  -631.18750462]
+ [  -694.49669585]
+ [  -720.17030309]
+ [  -743.170808  ]
+ [  -764.0675664 ]]</t>
         </is>
       </c>
       <c r="E629" t="inlineStr"/>
@@ -16588,19 +16580,19 @@
       </c>
       <c r="D632" t="inlineStr">
         <is>
-          <t>[[-1042.475991  ]
- [-1196.20798661]
- [-1304.3790757 ]
- [-1389.07318696]
- [-1337.06049449]
- [-1255.22189119]
- [-1154.30127998]
- [-1094.70919237]
- [-1030.65298879]
- [ -962.19898835]
- [ -978.02680667]
- [ -993.06340443]
- [-1007.39507288]]</t>
+          <t>[[ -764.0675664 ]
+ [ -879.89721404]
+ [ -960.79254611]
+ [-1024.48836201]
+ [-1098.19816289]
+ [-1159.08690457]
+ [-1211.44283474]
+ [-1136.90215108]
+ [-1057.80219044]
+ [ -973.99389388]
+ [ -985.59734665]
+ [ -996.77327326]
+ [-1007.55661265]]</t>
         </is>
       </c>
       <c r="E632" t="inlineStr"/>
@@ -16623,10 +16615,10 @@
       </c>
       <c r="D633" t="inlineStr">
         <is>
-          <t>[ 0.         10.         20.         30.         31.66666667 33.33333333
- 35.         36.66666667 38.33333333 40.         43.33333333 46.66666667
- 50.         53.33333333 56.66666667 60.         61.66666667 63.33333333
- 65.        ]</t>
+          <t>[ 0.         15.         30.         45.         46.66666667 48.33333333
+ 50.         51.66666667 53.33333333 55.         58.33333333 61.66666667
+ 65.         68.33333333 71.66666667 75.         76.66666667 78.33333333
+ 80.        ]</t>
         </is>
       </c>
       <c r="E633" t="inlineStr"/>
@@ -16722,24 +16714,24 @@
       </c>
       <c r="D637" t="inlineStr">
         <is>
-          <t>[[-37659768.49559436]
- [-35743961.40046109]
- [-33454724.88885747]
- [-32977092.55573377]
- [-32498309.18004898]
- [-32017209.79736612]
- [-31521599.44810367]
- [-31021242.88680022]
- [-30514842.91699108]
- [-29535929.43401596]
- [-28514691.54384048]
- [-27436054.33105656]
- [-26575176.39456691]
- [-25933963.00122879]
- [-25292389.06315684]
- [-24959433.00240117]
- [-24626420.50588604]
- [-24293356.87206104]]</t>
+          <t>[[-28431712.70980915]
+ [-26290808.5460415 ]
+ [-23843848.54277119]
+ [-23537797.92365013]
+ [-23231105.44164764]
+ [-22923121.37060168]
+ [-22613180.05153665]
+ [-22300591.42997131]
+ [-21984631.9164622 ]
+ [-21339049.3427664 ]
+ [-20669889.53269256]
+ [-19968833.93401692]
+ [-19370424.18932707]
+ [-18892742.43969426]
+ [-18414798.57995193]
+ [-18175753.23928136]
+ [-17936667.74250199]
+ [-17697546.03041898]]</t>
         </is>
       </c>
       <c r="E637" t="inlineStr"/>
@@ -16762,24 +16754,24 @@
       </c>
       <c r="D638" t="inlineStr">
         <is>
-          <t>[[ -3639905.17226285]
- [ -9766709.24345015]
- [-10502998.69683866]
- [  2937895.62223617]
- [  2937918.64562052]
- [  2937942.07646666]
- [  2937971.30894677]
- [  2937995.90384744]
- [  2938021.44852153]
- [  2938375.08718981]
- [  2938496.15972302]
- [  2938635.07884158]
- [  2938602.52462055]
- [  2938380.05762982]
- [  2938436.57663856]
- [  2938109.46777968]
- [  2938123.03665618]
- [  2938136.42275469]]</t>
+          <t>[[  -673240.70429312]
+ [ -5853014.43516075]
+ [-17878119.93044607]
+ [  2937992.49094482]
+ [  2938036.05474188]
+ [  2938080.11373301]
+ [  2938124.9539485 ]
+ [  2938170.87626565]
+ [  2938218.20287829]
+ [  2938870.35609262]
+ [  2939084.55341983]
+ [  2939325.34065462]
+ [  2939350.99942475]
+ [  2939052.54129501]
+ [  2939166.81363423]
+ [  2938481.84510185]
+ [  2938509.32530548]
+ [  2938536.454204  ]]</t>
         </is>
       </c>
       <c r="E638" t="inlineStr"/>
@@ -16802,24 +16794,24 @@
       </c>
       <c r="D639" t="inlineStr">
         <is>
-          <t>[[-17422.37460075]
- [-47229.20390934]
- [-52852.39682291]
- [  8739.02719333]
- [  8739.1380311 ]
- [  8739.25121977]
- [  8739.39257945]
- [  8739.51217349]
- [  8739.63676917]
- [  8741.32838012]
- [  8741.92400094]
- [  8742.61076359]
- [  8742.47333762]
- [  8741.41265188]
- [  8741.70437172]
- [  8740.11364313]
- [  8740.18485216]
- [  8740.2555071 ]]</t>
+          <t>[[ -3222.20966085]
+ [-28132.4201787 ]
+ [-87853.40294574]
+ [  8739.4958468 ]
+ [  8739.70653964]
+ [  8739.92037255]
+ [  8740.13874243]
+ [  8740.36312804]
+ [  8740.59512207]
+ [  8743.74403432]
+ [  8744.80355094]
+ [  8746.00084505]
+ [  8746.15883579]
+ [  8744.73070813]
+ [  8745.3206998 ]
+ [  8741.96360401]
+ [  8742.10770042]
+ [  8742.25071774]]</t>
         </is>
       </c>
       <c r="E639" t="inlineStr"/>
@@ -16842,24 +16834,24 @@
       </c>
       <c r="D640" t="inlineStr">
         <is>
-          <t>[[ -185744.6987324 ]
- [ -922877.17495226]
- [-1912924.12264541]
- [-2233722.8407644 ]
- [-2218937.3171156 ]
- [-2204130.5449188 ]
- [-2189303.89668055]
- [-2174458.60097659]
- [-2159595.56974702]
- [-2129810.12497625]
- [-2099955.73298634]
- [-2070040.85491078]
- [-2040072.28236072]
- [-2010048.86981045]
- [-1979969.02975364]
- [-1964913.08147426]
- [-1949845.97787964]
- [-1934768.25667114]]</t>
+          <t>[[  -20313.49059307]
+ [ -322469.555858  ]
+ [-2088712.05320619]
+ [-2386901.82991791]
+ [-2371945.68545704]
+ [-2356942.46957804]
+ [-2341893.91362375]
+ [-2326801.76097523]
+ [-2311667.77334416]
+ [-2281272.09016161]
+ [-2250729.05772015]
+ [-2220054.19857306]
+ [-2189263.87293147]
+ [-2158362.71566788]
+ [-2127350.89743344]
+ [-2111812.90560035]
+ [-2096251.35387866]
+ [-2080667.32370623]]</t>
         </is>
       </c>
       <c r="E640" t="inlineStr"/>
@@ -16882,24 +16874,24 @@
       </c>
       <c r="D641" t="inlineStr">
         <is>
-          <t>[[3.95348550e+07]
- [1.94704553e+08]
- [3.98043888e+08]
- [4.63804980e+08]
- [4.58861662e+08]
- [4.53913969e+08]
- [4.48962219e+08]
- [4.44006669e+08]
- [4.39047528e+08]
- [4.29117181e+08]
- [4.19173115e+08]
- [4.09217201e+08]
- [3.99250924e+08]
- [3.89274206e+08]
- [3.79286820e+08]
- [3.74290218e+08]
- [3.69291580e+08]
- [3.64291025e+08]]</t>
+          <t>[[4.27378765e+06]
+ [6.78909709e+07]
+ [4.32821846e+08]
+ [4.93419434e+08]
+ [4.88440731e+08]
+ [4.83452357e+08]
+ [4.78454709e+08]
+ [4.73448187e+08]
+ [4.68433191e+08]
+ [4.58377453e+08]
+ [4.48292356e+08]
+ [4.38181339e+08]
+ [4.28047979e+08]
+ [4.17893423e+08]
+ [4.07717903e+08]
+ [4.02624254e+08]
+ [3.97526264e+08]
+ [3.92424178e+08]]</t>
         </is>
       </c>
       <c r="E641" t="inlineStr"/>
@@ -16922,24 +16914,24 @@
       </c>
       <c r="D642" t="inlineStr">
         <is>
-          <t>[[ 976232.407753  ]
- [2155994.04084283]
- [3785261.29216983]
- [6203611.75276307]
- [6203598.25173683]
- [6203584.71823353]
- [6203543.75648983]
- [6203530.17115424]
- [6203516.45577904]
- [6203575.54211905]
- [6203546.36779593]
- [6203515.93238117]
- [6203523.1567296 ]
- [6203496.26527367]
- [6203476.2356846 ]
- [6203427.42521465]
- [6203417.40360754]
- [6203407.38033416]]</t>
+          <t>[[ 807731.22048394]
+ [1864353.46951233]
+ [3495465.11370389]
+ [6203665.17968211]
+ [6203652.34655136]
+ [6203639.48655966]
+ [6203626.57246373]
+ [6203613.57635254]
+ [6203600.46929285]
+ [6203587.22094555]
+ [6203560.15150724]
+ [6203532.09371887]
+ [6203502.69881628]
+ [6203477.60802218]
+ [6203457.5793924 ]
+ [6203437.53990203]
+ [6203427.51712744]
+ [6203417.49270156]]</t>
         </is>
       </c>
       <c r="E642" t="inlineStr"/>
@@ -16962,12 +16954,12 @@
       </c>
       <c r="D643" t="inlineStr">
         <is>
-          <t>[-50.         -40.         -30.         -20.         -18.33333333
+          <t>[-65.         -50.         -35.         -20.         -18.33333333
  -16.66666667 -15.         -13.33333333 -11.66666667 -10.
   -6.66666667  -3.33333333   0.           3.33333333   6.66666667
-  10.          11.66666667  13.33333333  15.          26.61331002
-  38.22662005  49.83993007  66.43037296  83.02081585  99.61125874
- 109.56552448 119.51979021 129.47405594 138.76470396 148.05535198
+  10.          11.66666667  13.33333333  15.          27.30150617
+  39.60301235  51.90451852  69.47809877  87.05167901 104.62525926
+ 115.16940741 125.71355556 136.2577037  143.2871358  150.3165679
  157.346     ]</t>
         </is>
       </c>
@@ -16991,12 +16983,12 @@
       </c>
       <c r="D644" t="inlineStr">
         <is>
-          <t>[10.95292028 10.95292028 10.95292028 10.95292028 10.95292028 10.95292028
- 10.95292028 10.95292028 10.95292028 10.95292028 10.95292028 10.95292028
- 10.95292028 10.95292028 10.95292028 10.95292028 10.95292028 10.95292028
- 10.95292028 10.91265219 10.87238411 10.83211603  9.79229319  8.75247036
-  7.71264753  7.14143168  6.57021584  5.999       5.999       5.999
-  5.999     ]</t>
+          <t>[8.         8.         8.         8.         8.         8.
+ 8.         8.         8.         8.         8.         8.
+ 8.         8.         8.         8.         8.         8.
+ 8.         8.         8.         8.         8.         8.
+ 8.         7.33333333 6.66666667 6.         6.         6.
+ 6.        ]</t>
         </is>
       </c>
       <c r="E644" t="inlineStr"/>
@@ -17019,11 +17011,11 @@
       </c>
       <c r="D645" t="inlineStr">
         <is>
-          <t>[0.06845575 0.06845575 0.06845575 0.07570283 0.07570283 0.07570283
- 0.07808014 0.07808014 0.07808014 0.07177377 0.07177377 0.07177377
- 0.06845574 0.06845574 0.06845574 0.07105978 0.07105978 0.07105978
- 0.05446259 0.05446259 0.05446259 0.04636191 0.04636191 0.04636191
- 0.03636191 0.03636191 0.03636191 0.035      0.035      0.035     ]</t>
+          <t>[0.07       0.07       0.07       0.07       0.07       0.07
+ 0.07       0.07       0.07       0.07       0.07       0.07
+ 0.07       0.07       0.07       0.07       0.07       0.07
+ 0.03515992 0.03515992 0.03515992 0.025      0.025      0.025
+ 0.025      0.025      0.025      0.025      0.025      0.025     ]</t>
         </is>
       </c>
       <c r="E645" t="inlineStr"/>
@@ -17171,11 +17163,11 @@
       </c>
       <c r="D651" t="inlineStr">
         <is>
-          <t>[2.50467086 2.50467086 2.50467086 2.7679841  2.7679841  2.7679841
- 2.85428356 2.85428356 2.85428356 2.62527042 2.62527042 2.62527042
- 2.50467029 2.50467029 2.50467029 2.59932533 2.59932533 2.59932533
- 1.99156242 1.98419029 1.97681817 1.59988794 1.43783597 1.275784
- 0.90336776 0.83354765 0.76372753 0.70168037 0.70168037 0.70168037]</t>
+          <t>[1.86597095 1.86597095 1.86597095 1.86597095 1.86597095 1.86597095
+ 1.86597095 1.86597095 1.86597095 1.86597095 1.86597095 1.86597095
+ 1.86597095 1.86597095 1.86597095 1.86597095 1.86597095 1.86597095
+ 0.94136625 0.94136625 0.94136625 0.67019989 0.67019989 0.67019989
+ 0.64218735 0.58616228 0.53013722 0.50212468 0.50212468 0.50212468]</t>
         </is>
       </c>
       <c r="E651" t="inlineStr"/>
@@ -17198,11 +17190,11 @@
       </c>
       <c r="D652" t="inlineStr">
         <is>
-          <t>[1.42532402 1.42532402 1.42532402 1.57564951 1.57564951 1.57564951
- 1.62493864 1.62493864 1.62493864 1.49416248 1.49416248 1.49416248
- 1.42532369 1.42532369 1.42532369 1.47935129 1.47935129 1.47935129
- 1.13267115 1.12848786 1.12430457 0.90971073 0.81775445 0.72579902
- 0.51375671 0.47413756 0.43451871 0.39922621 0.39922621 0.39922621]</t>
+          <t>[1.06310121 1.06310121 1.06310121 1.06310121 1.06310121 1.06310121
+ 1.06310121 1.06310121 1.06310121 1.06310121 1.06310121 1.06310121
+ 1.06310121 1.06310121 1.06310121 1.06310121 1.06310121 1.06310121
+ 0.53524481 0.53524481 0.53524481 0.38084559 0.38084559 0.38084559
+ 0.36494957 0.33315762 0.3013658  0.28546995 0.28546995 0.28546995]</t>
         </is>
       </c>
       <c r="E652" t="inlineStr"/>
@@ -17225,11 +17217,11 @@
       </c>
       <c r="D653" t="inlineStr">
         <is>
-          <t>[1.42532402 1.42532402 1.42532402 1.57564951 1.57564951 1.57564951
- 1.62493864 1.62493864 1.62493864 1.49416248 1.49416248 1.49416248
- 1.42532369 1.42532369 1.42532369 1.47935129 1.47935129 1.47935129
- 1.13267115 1.12848786 1.12430457 0.90971073 0.81775445 0.72579902
- 0.51375671 0.47413756 0.43451871 0.39922621 0.39922621 0.39922621]</t>
+          <t>[1.06310121 1.06310121 1.06310121 1.06310121 1.06310121 1.06310121
+ 1.06310121 1.06310121 1.06310121 1.06310121 1.06310121 1.06310121
+ 1.06310121 1.06310121 1.06310121 1.06310121 1.06310121 1.06310121
+ 0.53524481 0.53524481 0.53524481 0.38084559 0.38084559 0.38084559
+ 0.36494957 0.33315762 0.3013658  0.28546995 0.28546995 0.28546995]</t>
         </is>
       </c>
       <c r="E653" t="inlineStr"/>
@@ -17252,11 +17244,11 @@
       </c>
       <c r="D654" t="inlineStr">
         <is>
-          <t>[37.09300265 37.09300265 37.09300265 40.9383431  40.9383431  40.9383431
- 42.19638823 42.19638823 42.19638823 38.85547929 38.85547929 38.85547929
- 37.09299436 37.09299436 37.09299436 38.47649286 38.47649286 38.47649286
- 29.4604091  29.13446496 28.81093388 21.07645891 15.29886088 10.68723803
-  6.16813172  4.84566067  3.72717177  3.11989206  3.11989206  3.11989206]</t>
+          <t>[14.66881746 14.66881746 14.66881746 14.66881746 14.66881746 14.66881746
+ 14.66881746 14.66881746 14.66881746 14.66881746 14.66881746 14.66881746
+ 14.66881746 14.66881746 14.66881746 14.66881746 14.66881746 14.66881746
+  7.46502418  7.46502418  7.46502418  5.32819383  5.32819383  5.32819383
+  4.68762206  3.56469098  2.63714733  2.24080985  2.24080985  2.24080985]</t>
         </is>
       </c>
       <c r="E654" t="inlineStr"/>
@@ -17279,11 +17271,11 @@
       </c>
       <c r="D655" t="inlineStr">
         <is>
-          <t>[37.09300265 37.09300265 37.09300265 40.9383431  40.9383431  40.9383431
- 42.19638823 42.19638823 42.19638823 38.85547929 38.85547929 38.85547929
- 37.09299436 37.09299436 37.09299436 38.47649286 38.47649286 38.47649286
- 29.4604091  29.13446496 28.81093388 21.07645891 15.29886088 10.68723803
-  6.16813172  4.84566067  3.72717177  3.11989206  3.11989206  3.11989206]</t>
+          <t>[14.66881746 14.66881746 14.66881746 14.66881746 14.66881746 14.66881746
+ 14.66881746 14.66881746 14.66881746 14.66881746 14.66881746 14.66881746
+ 14.66881746 14.66881746 14.66881746 14.66881746 14.66881746 14.66881746
+  7.46502418  7.46502418  7.46502418  5.32819383  5.32819383  5.32819383
+  4.68762206  3.56469098  2.63714733  2.24080985  2.24080985  2.24080985]</t>
         </is>
       </c>
       <c r="E655" t="inlineStr"/>
@@ -17306,11 +17298,11 @@
       </c>
       <c r="D656" t="inlineStr">
         <is>
-          <t>[74.18600531 74.18600531 74.18600531 81.87668621 81.87668621 81.87668621
- 84.39277645 84.39277645 84.39277645 77.71095858 77.71095858 77.71095858
- 74.18598871 74.18598871 74.18598871 76.95298572 76.95298572 76.95298572
- 58.92081819 58.26892992 57.62186776 42.15291783 30.59772176 21.37447606
- 12.33626345  9.69132133  7.45434353  6.23978412  6.23978412  6.23978412]</t>
+          <t>[29.33763493 29.33763493 29.33763493 29.33763493 29.33763493 29.33763493
+ 29.33763493 29.33763493 29.33763493 29.33763493 29.33763493 29.33763493
+ 29.33763493 29.33763493 29.33763493 29.33763493 29.33763493 29.33763493
+ 14.93004837 14.93004837 14.93004837 10.65638765 10.65638765 10.65638765
+  9.37524411  7.12938196  5.27429466  4.48161969  4.48161969  4.48161969]</t>
         </is>
       </c>
       <c r="E656" t="inlineStr"/>
@@ -17333,36 +17325,36 @@
       </c>
       <c r="D657" t="inlineStr">
         <is>
-          <t>[[-3.76597685e+07]
- [-3.57439614e+07]
- [-3.34547249e+07]
- [-3.29770926e+07]
- [-3.24983092e+07]
- [-3.20172098e+07]
- [-3.15215994e+07]
- [-3.10212429e+07]
- [-3.05148429e+07]
- [-2.95359294e+07]
- [-2.85146915e+07]
- [-2.74360543e+07]
- [-2.65751764e+07]
- [-2.59339630e+07]
- [-2.52923891e+07]
- [-2.49594330e+07]
- [-2.46264205e+07]
- [-2.42933569e+07]
- [-2.15316439e+07]
- [-1.97562287e+07]
- [-1.79858565e+07]
- [-1.59334913e+07]
- [-1.40865005e+07]
- [-1.24462516e+07]
- [-1.17465588e+07]
- [-1.11008176e+07]
- [-1.05088465e+07]
- [-1.00010424e+07]
- [-9.49348031e+06]
- [ 1.28347892e-08]]</t>
+          <t>[[-2.84317127e+07]
+ [-2.62908085e+07]
+ [-2.38438485e+07]
+ [-2.35377979e+07]
+ [-2.32311054e+07]
+ [-2.29231214e+07]
+ [-2.26131801e+07]
+ [-2.23005914e+07]
+ [-2.19846319e+07]
+ [-2.13390493e+07]
+ [-2.06698895e+07]
+ [-1.99688339e+07]
+ [-1.93704242e+07]
+ [-1.88927424e+07]
+ [-1.84147986e+07]
+ [-1.81757532e+07]
+ [-1.79366677e+07]
+ [-1.76975460e+07]
+ [-1.58218439e+07]
+ [-1.49260694e+07]
+ [-1.40290970e+07]
+ [-1.31109498e+07]
+ [-1.21916074e+07]
+ [-1.12710940e+07]
+ [-1.07407875e+07]
+ [-1.02557818e+07]
+ [-9.81676307e+06]
+ [-9.53971248e+06]
+ [-9.26291313e+06]
+ [-1.08266249e-08]]</t>
         </is>
       </c>
       <c r="E657" t="inlineStr"/>
@@ -17385,36 +17377,36 @@
       </c>
       <c r="D658" t="inlineStr">
         <is>
-          <t>[[-3.63990517e+06]
- [-9.76670924e+06]
- [-1.05029987e+07]
- [ 2.93789562e+06]
- [ 2.93791865e+06]
- [ 2.93794208e+06]
- [ 2.93797131e+06]
- [ 2.93799590e+06]
- [ 2.93802145e+06]
- [ 2.93837509e+06]
- [ 2.93849616e+06]
- [ 2.93863508e+06]
- [ 2.93860252e+06]
- [ 2.93838006e+06]
- [ 2.93843658e+06]
- [ 2.93810947e+06]
- [ 2.93812304e+06]
- [ 2.93813642e+06]
- [ 2.94032958e+06]
- [ 2.94090040e+06]
- [ 2.94141380e+06]
- [ 2.94278258e+06]
- [ 2.94317327e+06]
- [ 2.94341070e+06]
- [ 2.94045984e+06]
- [ 2.94047802e+06]
- [ 2.94041337e+06]
- [ 2.94009430e+06]
- [ 2.94005285e+06]
- [ 2.26055052e+03]]</t>
+          <t>[[-6.73240704e+05]
+ [-5.85301444e+06]
+ [-1.78781199e+07]
+ [ 2.93799249e+06]
+ [ 2.93803605e+06]
+ [ 2.93808011e+06]
+ [ 2.93812495e+06]
+ [ 2.93817088e+06]
+ [ 2.93821820e+06]
+ [ 2.93887036e+06]
+ [ 2.93908455e+06]
+ [ 2.93932534e+06]
+ [ 2.93935100e+06]
+ [ 2.93905254e+06]
+ [ 2.93916681e+06]
+ [ 2.93848185e+06]
+ [ 2.93850933e+06]
+ [ 2.93853645e+06]
+ [ 2.94156303e+06]
+ [ 2.94287349e+06]
+ [ 2.94404925e+06]
+ [ 2.94574470e+06]
+ [ 2.94743415e+06]
+ [ 2.94869951e+06]
+ [ 2.94446496e+06]
+ [ 2.94412334e+06]
+ [ 2.94366625e+06]
+ [ 2.94149387e+06]
+ [ 2.94145375e+06]
+ [ 3.68844521e+03]]</t>
         </is>
       </c>
       <c r="E658" t="inlineStr"/>
@@ -17437,36 +17429,36 @@
       </c>
       <c r="D659" t="inlineStr">
         <is>
-          <t>[[-1.74223746e+04]
- [-4.72292039e+04]
- [-5.28523968e+04]
- [ 8.73902719e+03]
- [ 8.73913803e+03]
- [ 8.73925122e+03]
- [ 8.73939258e+03]
- [ 8.73951217e+03]
- [ 8.73963677e+03]
- [ 8.74132838e+03]
- [ 8.74192400e+03]
- [ 8.74261076e+03]
- [ 8.74247334e+03]
- [ 8.74141265e+03]
- [ 8.74170437e+03]
- [ 8.74011364e+03]
- [ 8.74018485e+03]
- [ 8.74025551e+03]
- [ 8.75120114e+03]
- [ 8.75437643e+03]
- [ 8.75738889e+03]
- [ 8.76534998e+03]
- [ 8.76894258e+03]
- [ 8.77255380e+03]
- [ 8.75608857e+03]
- [ 8.75784721e+03]
- [ 8.75958840e+03]
- [ 8.75967961e+03]
- [ 8.76262551e+03]
- [ 2.57522375e+01]]</t>
+          <t>[[-3.22220966e+03]
+ [-2.81324202e+04]
+ [-8.78534029e+04]
+ [ 8.73949585e+03]
+ [ 8.73970654e+03]
+ [ 8.73992037e+03]
+ [ 8.74013874e+03]
+ [ 8.74036313e+03]
+ [ 8.74059512e+03]
+ [ 8.74374403e+03]
+ [ 8.74480355e+03]
+ [ 8.74600085e+03]
+ [ 8.74615884e+03]
+ [ 8.74473071e+03]
+ [ 8.74532070e+03]
+ [ 8.74196360e+03]
+ [ 8.74210770e+03]
+ [ 8.74225072e+03]
+ [ 8.75752996e+03]
+ [ 8.76478980e+03]
+ [ 8.77164749e+03]
+ [ 8.78213525e+03]
+ [ 8.79391961e+03]
+ [ 8.80435921e+03]
+ [ 8.78072624e+03]
+ [ 8.78048125e+03]
+ [ 8.78011977e+03]
+ [ 8.76676112e+03]
+ [ 8.76839464e+03]
+ [ 3.09485094e+01]]</t>
         </is>
       </c>
       <c r="E659" t="inlineStr"/>
@@ -17489,36 +17481,36 @@
       </c>
       <c r="D660" t="inlineStr">
         <is>
-          <t>[[-1.85744699e+05]
- [-9.22877175e+05]
- [-1.91292412e+06]
- [-2.23372284e+06]
- [-2.21893732e+06]
- [-2.20413054e+06]
- [-2.18930390e+06]
- [-2.17445860e+06]
- [-2.15959557e+06]
- [-2.12981012e+06]
- [-2.09995573e+06]
- [-2.07004085e+06]
- [-2.04007228e+06]
- [-2.01004887e+06]
- [-1.97996903e+06]
- [-1.96491308e+06]
- [-1.94984598e+06]
- [-1.93476826e+06]
- [-1.82933096e+06]
- [-1.72328621e+06]
- [-1.61682537e+06]
- [-1.46395825e+06]
- [-1.31018352e+06]
- [-1.15542095e+06]
- [-1.06208779e+06]
- [-9.67982348e+05]
- [-8.73007652e+05]
- [-7.83556203e+05]
- [-6.93420381e+05]
- [-6.62698140e-04]]</t>
+          <t>[[-2.03134906e+04]
+ [-3.22469556e+05]
+ [-2.08871205e+06]
+ [-2.38690183e+06]
+ [-2.37194569e+06]
+ [-2.35694247e+06]
+ [-2.34189391e+06]
+ [-2.32680176e+06]
+ [-2.31166777e+06]
+ [-2.28127209e+06]
+ [-2.25072906e+06]
+ [-2.22005420e+06]
+ [-2.18926387e+06]
+ [-2.15836272e+06]
+ [-2.12735090e+06]
+ [-2.11181291e+06]
+ [-2.09625135e+06]
+ [-2.08066732e+06]
+ [-1.96428792e+06]
+ [-1.84522593e+06]
+ [-1.72402678e+06]
+ [-1.54687055e+06]
+ [-1.36536743e+06]
+ [-1.18099839e+06]
+ [-1.06977816e+06]
+ [-9.57892666e+05]
+ [-8.45103136e+05]
+ [-7.69442256e+05]
+ [-6.93375950e+05]
+ [-2.67199344e-04]]</t>
         </is>
       </c>
       <c r="E660" t="inlineStr"/>
@@ -17541,36 +17533,36 @@
       </c>
       <c r="D661" t="inlineStr">
         <is>
-          <t>[[ 3.95348550e+07]
- [ 1.94704553e+08]
- [ 3.98043888e+08]
- [ 4.63804980e+08]
- [ 4.58861662e+08]
- [ 4.53913969e+08]
- [ 4.48962219e+08]
- [ 4.44006669e+08]
- [ 4.39047528e+08]
- [ 4.29117181e+08]
- [ 4.19173115e+08]
- [ 4.09217201e+08]
- [ 3.99250924e+08]
- [ 3.89274206e+08]
- [ 3.79286820e+08]
- [ 3.74290218e+08]
- [ 3.69291580e+08]
- [ 3.64291025e+08]
- [ 3.29379644e+08]
- [ 2.94365123e+08]
- [ 2.59289263e+08]
- [ 2.09078253e+08]
- [ 1.58777983e+08]
- [ 1.08417311e+08]
- [ 7.82013236e+07]
- [ 4.79575970e+07]
- [ 1.77071694e+07]
- [-1.05013563e+07]
- [-3.86511103e+07]
- [ 5.81741729e-02]]</t>
+          <t>[[ 4.27378765e+06]
+ [ 6.78909709e+07]
+ [ 4.32821846e+08]
+ [ 4.93419434e+08]
+ [ 4.88440731e+08]
+ [ 4.83452357e+08]
+ [ 4.78454709e+08]
+ [ 4.73448187e+08]
+ [ 4.68433191e+08]
+ [ 4.58377453e+08]
+ [ 4.48292356e+08]
+ [ 4.38181339e+08]
+ [ 4.28047979e+08]
+ [ 4.17893423e+08]
+ [ 4.07717903e+08]
+ [ 4.02624254e+08]
+ [ 3.97526264e+08]
+ [ 3.92424178e+08]
+ [ 3.54518635e+08]
+ [ 3.16137590e+08]
+ [ 2.77405142e+08]
+ [ 2.21468798e+08]
+ [ 1.64970743e+08]
+ [ 1.08231252e+08]
+ [ 7.42283667e+07]
+ [ 4.02606708e+07]
+ [ 6.35411882e+06]
+ [-1.61786836e+07]
+ [-3.86412646e+07]
+ [ 3.18440452e-02]]</t>
         </is>
       </c>
       <c r="E661" t="inlineStr"/>
@@ -17593,35 +17585,35 @@
       </c>
       <c r="D662" t="inlineStr">
         <is>
-          <t>[[ 976232.407753  ]
- [2155994.04084283]
- [3785261.29216983]
- [6203611.75276307]
- [6203598.25173683]
- [6203584.71823353]
- [6203543.75648983]
- [6203530.17115424]
- [6203516.45577904]
- [6203575.54211905]
- [6203546.36779593]
- [6203515.93238117]
- [6203523.1567296 ]
- [6203496.26527367]
- [6203476.2356846 ]
- [6203427.42521465]
- [6203417.40360754]
- [6203407.38033416]
- [6203581.97669593]
- [6203515.14844253]
- [6203448.04749739]
- [6203545.688918  ]
- [6203533.14165987]
- [6203530.00173873]
- [6203744.085564  ]
- [6203768.70407526]
- [6203803.35168508]
- [6203837.90833668]
- [6203781.28151446]
+          <t>[[ 807731.22048394]
+ [1864353.46951233]
+ [3495465.11370389]
+ [6203665.17968211]
+ [6203652.34655136]
+ [6203639.48655966]
+ [6203626.57246373]
+ [6203613.57635254]
+ [6203600.46929285]
+ [6203587.22094555]
+ [6203560.15150724]
+ [6203532.09371887]
+ [6203502.69881628]
+ [6203477.60802218]
+ [6203457.5793924 ]
+ [6203437.53990203]
+ [6203427.51712744]
+ [6203417.49270156]
+ [6204054.84514783]
+ [6203980.44180232]
+ [6203905.98161357]
+ [6204303.27371889]
+ [6204196.06380413]
+ [6204088.71803165]
+ [6204038.64365428]
+ [6204099.11896091]
+ [6204179.06465726]
+ [6204195.10155977]
+ [6204151.92342882]
  [      0.        ]]</t>
         </is>
       </c>
@@ -17664,17 +17656,17 @@
  [1.27775357e+02]
  [1.31936564e+02]
  [1.35719352e+02]
- [1.55741233e+02]
- [1.69882127e+02]
- [1.81049969e+02]
- [1.93975947e+02]
- [2.04637279e+02]
- [2.13783359e+02]
- [2.18726607e+02]
- [2.23339444e+02]
- [2.27668913e+02]
- [2.31487123e+02]
- [2.35115716e+02]
+ [1.56698435e+02]
+ [1.71330486e+02]
+ [1.82822277e+02]
+ [1.96075520e+02]
+ [2.06979051e+02]
+ [2.16317993e+02]
+ [2.21360836e+02]
+ [2.26064090e+02]
+ [2.30476436e+02]
+ [2.33275754e+02]
+ [2.35972568e+02]
  [2.38575171e+02]]</t>
         </is>
       </c>
@@ -17721,7 +17713,7 @@
       </c>
       <c r="D665" t="inlineStr">
         <is>
-          <t>[40682.04562332]</t>
+          <t>[40686.9261128]</t>
         </is>
       </c>
       <c r="E665" t="inlineStr"/>
@@ -18273,7 +18265,7 @@
       </c>
       <c r="D689" t="inlineStr">
         <is>
-          <t>[117977.93230762]</t>
+          <t>[117992.08572713]</t>
         </is>
       </c>
       <c r="E689" t="inlineStr"/>
@@ -18296,7 +18288,7 @@
       </c>
       <c r="D690" t="inlineStr">
         <is>
-          <t>[209392.02038664]</t>
+          <t>[209453.42241018]</t>
         </is>
       </c>
       <c r="E690" t="inlineStr"/>
@@ -18319,7 +18311,7 @@
       </c>
       <c r="D691" t="inlineStr">
         <is>
-          <t>[25227.95426345]</t>
+          <t>[25235.35209761]</t>
         </is>
       </c>
       <c r="E691" t="inlineStr"/>
@@ -18457,7 +18449,7 @@
       </c>
       <c r="D697" t="inlineStr">
         <is>
-          <t>[41458.177152]</t>
+          <t>[41472.]</t>
         </is>
       </c>
       <c r="E697" t="inlineStr"/>
@@ -18480,7 +18472,7 @@
       </c>
       <c r="D698" t="inlineStr">
         <is>
-          <t>[708934.8292992]</t>
+          <t>[709171.2]</t>
         </is>
       </c>
       <c r="E698" t="inlineStr"/>
@@ -18618,7 +18610,7 @@
       </c>
       <c r="D704" t="inlineStr">
         <is>
-          <t>[9681293.55277508]</t>
+          <t>[9681605.47891894]</t>
         </is>
       </c>
       <c r="E704" t="inlineStr"/>
@@ -18641,7 +18633,7 @@
       </c>
       <c r="D705" t="inlineStr">
         <is>
-          <t>[654746.91928556]</t>
+          <t>[654773.0204572]</t>
         </is>
       </c>
       <c r="E705" t="inlineStr"/>
@@ -18664,7 +18656,7 @@
       </c>
       <c r="D706" t="inlineStr">
         <is>
-          <t>[3714345.30241618]</t>
+          <t>[2177310.73386569]</t>
         </is>
       </c>
       <c r="E706" t="inlineStr"/>
@@ -18687,7 +18679,7 @@
       </c>
       <c r="D707" t="inlineStr">
         <is>
-          <t>[1444102.28274376]</t>
+          <t>[773797.46011687]</t>
         </is>
       </c>
       <c r="E707" t="inlineStr"/>
@@ -18710,7 +18702,7 @@
       </c>
       <c r="D708" t="inlineStr">
         <is>
-          <t>[16995379.89280074]</t>
+          <t>[15458657.25039411]</t>
         </is>
       </c>
       <c r="E708" t="inlineStr"/>
@@ -18733,7 +18725,7 @@
       </c>
       <c r="D709" t="inlineStr">
         <is>
-          <t>[1133.02532619]</t>
+          <t>[1030.57715003]</t>
         </is>
       </c>
       <c r="E709" t="inlineStr"/>
@@ -18756,7 +18748,7 @@
       </c>
       <c r="D710" t="inlineStr">
         <is>
-          <t>[2392497.50765147]</t>
+          <t>[1722218.78619622]</t>
         </is>
       </c>
       <c r="E710" t="inlineStr"/>
@@ -18825,7 +18817,7 @@
       </c>
       <c r="D713" t="inlineStr">
         <is>
-          <t>[3714345.30241618]</t>
+          <t>[2177310.73386569]</t>
         </is>
       </c>
       <c r="E713" t="inlineStr"/>
@@ -18848,7 +18840,7 @@
       </c>
       <c r="D714" t="inlineStr">
         <is>
-          <t>[3714345.30241618]</t>
+          <t>[2177310.73386569]</t>
         </is>
       </c>
       <c r="E714" t="inlineStr"/>
@@ -18898,7 +18890,7 @@
       </c>
       <c r="D716" t="inlineStr">
         <is>
-          <t>[0.27366129]</t>
+          <t>[0.16287437]</t>
         </is>
       </c>
       <c r="E716" t="inlineStr"/>
@@ -19020,9 +19012,9 @@
       <c r="D720" t="inlineStr">
         <is>
           <t>[[  0.           0.          15.        ]
- [  0.           0.          49.83993007]
- [  0.           0.          99.61125874]
- [  0.           0.         129.47405594]
+ [  0.           0.          51.90451852]
+ [  0.           0.         104.62525926]
+ [  0.           0.         136.2577037 ]
  [  0.           0.         157.346     ]]</t>
         </is>
       </c>
@@ -19046,9 +19038,9 @@
       </c>
       <c r="D721" t="inlineStr">
         <is>
-          <t>[1042.475991   1196.20798661 1304.3790757  1389.07318696 1337.06049449
- 1255.22189119 1154.30127998 1094.70919237 1030.65298879  962.19898835
-  978.02680667  993.06340443 1007.39507288]</t>
+          <t>[ 764.0675664   879.89721404  960.79254611 1024.48836201 1098.19816289
+ 1159.08690457 1211.44283474 1136.90215108 1057.80219044  973.99389388
+  985.59734665  996.77327326 1007.55661265]</t>
         </is>
       </c>
       <c r="E721" t="inlineStr"/>
@@ -19117,9 +19109,9 @@
       </c>
       <c r="D724" t="inlineStr">
         <is>
-          <t>[135.7193516  155.74123287 169.88212701 181.04996942 193.97594653
- 204.63727934 213.7833591  218.72660661 223.33944433 227.66891335
- 231.48712289 235.11571637 238.57517091]</t>
+          <t>[135.7193516  156.69843521 171.33048609 182.82227714 196.0755203
+ 206.97905056 216.31799319 221.36083569 226.06408979 230.47643609
+ 233.27575427 235.97256769 238.57517091]</t>
         </is>
       </c>
       <c r="E724" t="inlineStr"/>
@@ -19142,9 +19134,9 @@
       </c>
       <c r="D725" t="inlineStr">
         <is>
-          <t>[ 15.          26.61331002  38.22662005  49.83993007  66.43037296
-  83.02081585  99.61125874 109.56552448 119.51979021 129.47405594
- 138.76470396 148.05535198 157.346     ]</t>
+          <t>[ 15.          27.30150617  39.60301235  51.90451852  69.47809877
+  87.05167901 104.62525926 115.16940741 125.71355556 136.2577037
+ 143.2871358  150.3165679  157.346     ]</t>
         </is>
       </c>
       <c r="E725" t="inlineStr"/>
@@ -19190,9 +19182,9 @@
       </c>
       <c r="D727" t="inlineStr">
         <is>
-          <t>[ 15.          26.61331002  38.22662005  49.83993007  66.43037296
-  83.02081585  99.61125874 109.56552448 119.51979021 129.47405594
- 138.76470396 148.05535198 157.346     ]</t>
+          <t>[ 15.          27.30150617  39.60301235  51.90451852  69.47809877
+  87.05167901 104.62525926 115.16940741 125.71355556 136.2577037
+ 143.2871358  150.3165679  157.346     ]</t>
         </is>
       </c>
       <c r="E727" t="inlineStr"/>
@@ -19261,8 +19253,8 @@
       </c>
       <c r="D730" t="inlineStr">
         <is>
-          <t>[14.88565131 15.94588977 16.65408583 17.19278299 17.79593838 18.27844853
- 18.68245315 18.89721312 19.09543997 19.27963559 19.44063167 19.59240654
+          <t>[14.88565131 15.99481728 16.72492878 17.27672858 17.89198978 18.38273594
+ 18.79287721 19.01066664 19.21156496 19.39814576 19.51559311 19.62807517
  19.73601994]</t>
         </is>
       </c>
@@ -19286,9 +19278,9 @@
       </c>
       <c r="D731" t="inlineStr">
         <is>
-          <t>[10.95292028 10.91265219 10.87238411 10.83211603  9.79229319  8.75247036
-  7.71264753  7.14143168  6.57021584  5.999       5.999       5.999
-  5.999     ]</t>
+          <t>[8.         8.         8.         8.         8.         8.
+ 8.         7.33333333 6.66666667 6.         6.         6.
+ 6.        ]</t>
         </is>
       </c>
       <c r="E731" t="inlineStr"/>
@@ -19357,8 +19349,8 @@
       </c>
       <c r="D734" t="inlineStr">
         <is>
-          <t>[0.         0.08158508 0.16317016 0.24475524 0.36130536 0.47785548
- 0.59440559 0.66433566 0.73426573 0.8041958  0.86946387 0.93473193
+          <t>[0.         0.08641975 0.17283951 0.25925926 0.38271605 0.50617284
+ 0.62962963 0.7037037  0.77777778 0.85185185 0.90123457 0.95061728
  1.        ]</t>
         </is>
       </c>
@@ -19382,9 +19374,9 @@
       </c>
       <c r="D735" t="inlineStr">
         <is>
-          <t>[1042.475991   1196.20798661 1304.3790757  1389.07318696 1337.06049449
- 1255.22189119 1154.30127998 1094.70919237 1030.65298879  962.19898835
-  978.02680667  993.06340443 1007.39507288]</t>
+          <t>[ 764.0675664   879.89721404  960.79254611 1024.48836201 1098.19816289
+ 1159.08690457 1211.44283474 1136.90215108 1057.80219044  973.99389388
+  985.59734665  996.77327326 1007.55661265]</t>
         </is>
       </c>
       <c r="E735" t="inlineStr"/>
@@ -19453,9 +19445,9 @@
       </c>
       <c r="D738" t="inlineStr">
         <is>
-          <t>[135.7193516  155.74123287 169.88212701 181.04996942 193.97594653
- 204.63727934 213.7833591  218.72660661 223.33944433 227.66891335
- 231.48712289 235.11571637 238.57517091]</t>
+          <t>[135.7193516  156.69843521 171.33048609 182.82227714 196.0755203
+ 206.97905056 216.31799319 221.36083569 226.06408979 230.47643609
+ 233.27575427 235.97256769 238.57517091]</t>
         </is>
       </c>
       <c r="E738" t="inlineStr"/>
@@ -19524,10 +19516,10 @@
       </c>
       <c r="D741" t="inlineStr">
         <is>
-          <t>[-1042.475991   -1196.20798661 -1304.3790757  -1389.07318696
- -1337.06049449 -1255.22189119 -1154.30127998 -1094.70919237
- -1030.65298879  -962.19898835  -978.02680667  -993.06340443
- -1007.39507288]</t>
+          <t>[ -764.0675664   -879.89721404  -960.79254611 -1024.48836201
+ -1098.19816289 -1159.08690457 -1211.44283474 -1136.90215108
+ -1057.80219044  -973.99389388  -985.59734665  -996.77327326
+ -1007.55661265]</t>
         </is>
       </c>
       <c r="E741" t="inlineStr"/>
@@ -19550,9 +19542,9 @@
       </c>
       <c r="D742" t="inlineStr">
         <is>
-          <t>[135.7193516  155.74123287 169.88212701 181.04996942 193.97594653
- 204.63727934 213.7833591  218.72660661 223.33944433 227.66891335
- 231.48712289 235.11571637 238.57517091]</t>
+          <t>[135.7193516  156.69843521 171.33048609 182.82227714 196.0755203
+ 206.97905056 216.31799319 221.36083569 226.06408979 230.47643609
+ 233.27575427 235.97256769 238.57517091]</t>
         </is>
       </c>
       <c r="E742" t="inlineStr"/>
@@ -19575,9 +19567,9 @@
       </c>
       <c r="D743" t="inlineStr">
         <is>
-          <t>[  0.          11.61331002  23.22662005  34.83993007  51.43037296
-  68.02081585  84.61125874  94.56552448 104.51979021 114.47405594
- 123.76470396 133.05535198 142.346     ]</t>
+          <t>[  0.          12.30150617  24.60301235  36.90451852  54.47809877
+  72.05167901  89.62525926 100.16940741 110.71355556 121.2577037
+ 128.2871358  135.3165679  142.346     ]</t>
         </is>
       </c>
       <c r="E743" t="inlineStr"/>
@@ -19600,8 +19592,8 @@
       </c>
       <c r="D744" t="inlineStr">
         <is>
-          <t>[0.05446259 0.05446259 0.05446259 0.04636191 0.04636191 0.04636191
- 0.03636191 0.03636191 0.03636191 0.035      0.035      0.035     ]</t>
+          <t>[0.03515992 0.03515992 0.03515992 0.025      0.025      0.025
+ 0.025      0.025      0.025      0.025      0.025      0.025     ]</t>
         </is>
       </c>
       <c r="E744" t="inlineStr"/>
@@ -19742,8 +19734,8 @@
       </c>
       <c r="D750" t="inlineStr">
         <is>
-          <t>[1.99156242 1.98419029 1.97681817 1.59988794 1.43783597 1.275784
- 0.90336776 0.83354765 0.76372753 0.70168037 0.70168037 0.70168037]</t>
+          <t>[0.94136625 0.94136625 0.94136625 0.67019989 0.67019989 0.67019989
+ 0.64218735 0.58616228 0.53013722 0.50212468 0.50212468 0.50212468]</t>
         </is>
       </c>
       <c r="E750" t="inlineStr"/>
@@ -19766,8 +19758,8 @@
       </c>
       <c r="D751" t="inlineStr">
         <is>
-          <t>[1.13267115 1.12848786 1.12430457 0.90971073 0.81775445 0.72579902
- 0.51375671 0.47413756 0.43451871 0.39922621 0.39922621 0.39922621]</t>
+          <t>[0.53524481 0.53524481 0.53524481 0.38084559 0.38084559 0.38084559
+ 0.36494957 0.33315762 0.3013658  0.28546995 0.28546995 0.28546995]</t>
         </is>
       </c>
       <c r="E751" t="inlineStr"/>
@@ -19790,8 +19782,8 @@
       </c>
       <c r="D752" t="inlineStr">
         <is>
-          <t>[1.13267115 1.12848786 1.12430457 0.90971073 0.81775445 0.72579902
- 0.51375671 0.47413756 0.43451871 0.39922621 0.39922621 0.39922621]</t>
+          <t>[0.53524481 0.53524481 0.53524481 0.38084559 0.38084559 0.38084559
+ 0.36494957 0.33315762 0.3013658  0.28546995 0.28546995 0.28546995]</t>
         </is>
       </c>
       <c r="E752" t="inlineStr"/>
@@ -19814,8 +19806,8 @@
       </c>
       <c r="D753" t="inlineStr">
         <is>
-          <t>[29.4604091  29.13446496 28.81093388 21.07645891 15.29886088 10.68723803
-  6.16813172  4.84566067  3.72717177  3.11989206  3.11989206  3.11989206]</t>
+          <t>[7.46502418 7.46502418 7.46502418 5.32819383 5.32819383 5.32819383
+ 4.68762206 3.56469098 2.63714733 2.24080985 2.24080985 2.24080985]</t>
         </is>
       </c>
       <c r="E753" t="inlineStr"/>
@@ -19838,8 +19830,8 @@
       </c>
       <c r="D754" t="inlineStr">
         <is>
-          <t>[29.4604091  29.13446496 28.81093388 21.07645891 15.29886088 10.68723803
-  6.16813172  4.84566067  3.72717177  3.11989206  3.11989206  3.11989206]</t>
+          <t>[7.46502418 7.46502418 7.46502418 5.32819383 5.32819383 5.32819383
+ 4.68762206 3.56469098 2.63714733 2.24080985 2.24080985 2.24080985]</t>
         </is>
       </c>
       <c r="E754" t="inlineStr"/>
@@ -19862,8 +19854,8 @@
       </c>
       <c r="D755" t="inlineStr">
         <is>
-          <t>[58.92081819 58.26892992 57.62186776 42.15291783 30.59772176 21.37447606
- 12.33626345  9.69132133  7.45434353  6.23978412  6.23978412  6.23978412]</t>
+          <t>[14.93004837 14.93004837 14.93004837 10.65638765 10.65638765 10.65638765
+  9.37524411  7.12938196  5.27429466  4.48161969  4.48161969  4.48161969]</t>
         </is>
       </c>
       <c r="E755" t="inlineStr"/>
@@ -19957,8 +19949,8 @@
       </c>
       <c r="D759" t="inlineStr">
         <is>
-          <t>[11.61331002 11.61331002 11.61331002 16.59044289 16.59044289 16.59044289
-  9.95426573  9.95426573  9.95426573  9.29064802  9.29064802  9.29064802]</t>
+          <t>[12.30150617 12.30150617 12.30150617 17.57358025 17.57358025 17.57358025
+ 10.54414815 10.54414815 10.54414815  7.0294321   7.0294321   7.0294321 ]</t>
         </is>
       </c>
       <c r="E759" t="inlineStr"/>
@@ -19981,18 +19973,18 @@
       </c>
       <c r="D760" t="inlineStr">
         <is>
-          <t>[[-21529908.32708937]
- [-19752987.55157984]
- [-17981506.73380483]
- [-15928873.0970923 ]
- [-14082981.50723458]
- [-12444233.4506605 ]
- [-11745331.58280429]
- [-11100199.67678794]
- [-10508881.4474522 ]
- [-10001319.38229696]
- [ -9493615.37584772]
- [ -8985776.30844629]]</t>
+          <t>[[-15825409.94452397]
+ [-14928437.5716555 ]
+ [-14030584.74683796]
+ [-13111242.26497845]
+ [-12190728.92008965]
+ [-11269230.46898924]
+ [-10739039.70396253]
+ [-10254835.92416168]
+ [ -9816667.5003503 ]
+ [ -9539868.15269817]
+ [ -9262989.54291176]
+ [ -8986034.52447547]]</t>
         </is>
       </c>
       <c r="E760" t="inlineStr"/>
@@ -20015,18 +20007,18 @@
       </c>
       <c r="D761" t="inlineStr">
         <is>
-          <t>[[2938072.96746462]
- [2938695.00668892]
- [2939259.05695811]
- [2940362.43428595]
- [2941105.82008848]
- [2941717.95857186]
- [2939812.17176358]
- [2939962.27321582]
- [2940037.00427416]
- [2939872.08188809]
- [2939938.72958409]
- [2939899.07923565]]</t>
+          <t>[[2938467.40851566]
+ [2939825.95130812]
+ [2941049.86777214]
+ [2942765.20082649]
+ [2944581.69639173]
+ [2945982.63444853]
+ [2942967.13068615]
+ [2942807.6666633 ]
+ [2942553.45245483]
+ [2940846.35194885]
+ [2940859.39481385]
+ [2940824.22250044]]</t>
         </is>
       </c>
       <c r="E761" t="inlineStr"/>
@@ -20049,18 +20041,18 @@
       </c>
       <c r="D762" t="inlineStr">
         <is>
-          <t>[[8739.98425859]
- [8743.32394634]
- [8746.49743045]
- [8752.95381041]
- [8758.1125831 ]
- [8763.36896229]
- [8752.39677868]
- [8754.69681763]
- [8756.99976119]
- [8757.77951072]
- [8761.08460836]
- [8764.05241999]]</t>
+          <t>[[8742.06921928]
+ [8749.42559293]
+ [8756.37963841]
+ [8766.74131302]
+ [8778.87029027]
+ [8789.69801122]
+ [8772.47213588]
+ [8773.06731377]
+ [8773.64968602]
+ [8762.8627152 ]
+ [8764.69882265]
+ [8766.37425601]]</t>
         </is>
       </c>
       <c r="E762" t="inlineStr"/>
@@ -20083,18 +20075,18 @@
       </c>
       <c r="D763" t="inlineStr">
         <is>
-          <t>[[-1899081.44731704]
- [-1796151.72846891]
- [-1692515.77392953]
- [-1543255.88926401]
- [-1392579.12357596]
- [-1240428.67675869]
- [-1148396.43211853]
- [-1055426.56797305]
- [ -961410.63439206]
- [ -872683.97231411]
- [ -783114.4024976 ]
- [ -692941.935305  ]]</t>
+          <t>[[-1988874.73220415]
+ [-1876496.2229188 ]
+ [-1761554.64962428]
+ [-1592683.85756738]
+ [-1418750.75252001]
+ [-1241234.5302352 ]
+ [-1133718.61376536]
+ [-1025269.4415967 ]
+ [ -915633.23947936]
+ [ -841896.99032765]
+ [ -767624.59183133]
+ [ -692940.93637841]]</t>
         </is>
       </c>
       <c r="E763" t="inlineStr"/>
@@ -20117,18 +20109,18 @@
       </c>
       <c r="D764" t="inlineStr">
         <is>
-          <t>[[ 3.53751748e+08]
- [ 3.19358783e+08]
- [ 2.84841770e+08]
- [ 2.35335016e+08]
- [ 1.85626196e+08]
- [ 1.35747073e+08]
- [ 1.05759380e+08]
- [ 7.57017003e+07]
- [ 4.55908368e+07]
- [ 1.74671057e+07]
- [-1.06406634e+07]
- [-3.86931089e+07]]</t>
+          <t>[[ 3.67283460e+08]
+ [ 3.30228040e+08]
+ [ 2.92724814e+08]
+ [ 2.38391874e+08]
+ [ 1.83328090e+08]
+ [ 1.27857797e+08]
+ [ 9.45268854e+07]
+ [ 6.11697695e+07]
+ [ 2.78067170e+07]
+ [ 5.59419373e+06]
+ [-1.65800450e+07]
+ [-3.86931097e+07]]</t>
         </is>
       </c>
       <c r="E764" t="inlineStr"/>
@@ -20151,18 +20143,18 @@
       </c>
       <c r="D765" t="inlineStr">
         <is>
-          <t>[[6203581.94323231]
- [6203515.0800082 ]
- [6203447.91922262]
- [6203545.47619768]
- [6203532.89036133]
- [6203529.7859318 ]
- [6203743.91076617]
- [6203768.58887698]
- [6203803.28837458]
- [6203837.91223762]
- [6203781.31240357]
- [6203724.69777438]]</t>
+          <t>[[6204055.20021407]
+ [6203980.73823082]
+ [6203906.17846163]
+ [6204303.44743804]
+ [6204196.09794963]
+ [6204088.61546411]
+ [6204038.41657645]
+ [6204098.8856325 ]
+ [6204178.9250367 ]
+ [6204195.086665  ]
+ [6204151.94768982]
+ [6204108.79696184]]</t>
         </is>
       </c>
       <c r="E765" t="inlineStr"/>
@@ -20186,17 +20178,17 @@
       <c r="D766" t="inlineStr">
         <is>
           <t>[[135.7193516 ]
- [155.74123287]
- [169.88212701]
- [181.04996942]
- [193.97594653]
- [204.63727934]
- [213.7833591 ]
- [218.72660661]
- [223.33944433]
- [227.66891335]
- [231.48712289]
- [235.11571637]
+ [156.69843521]
+ [171.33048609]
+ [182.82227714]
+ [196.0755203 ]
+ [206.97905056]
+ [216.31799319]
+ [221.36083569]
+ [226.06408979]
+ [230.47643609]
+ [233.27575427]
+ [235.97256769]
  [238.57517091]]</t>
         </is>
       </c>
@@ -20221,17 +20213,17 @@
       <c r="D767" t="inlineStr">
         <is>
           <t>[[  0.           0.          15.        ]
- [  0.           0.          26.61331002]
- [  0.           0.          38.22662005]
- [  0.           0.          49.83993007]
- [  0.           0.          66.43037296]
- [  0.           0.          83.02081585]
- [  0.           0.          99.61125874]
- [  0.           0.         109.56552448]
- [  0.           0.         119.51979021]
- [  0.           0.         129.47405594]
- [  0.           0.         138.76470396]
- [  0.           0.         148.05535198]
+ [  0.           0.          27.30150617]
+ [  0.           0.          39.60301235]
+ [  0.           0.          51.90451852]
+ [  0.           0.          69.47809877]
+ [  0.           0.          87.05167901]
+ [  0.           0.         104.62525926]
+ [  0.           0.         115.16940741]
+ [  0.           0.         125.71355556]
+ [  0.           0.         136.2577037 ]
+ [  0.           0.         143.2871358 ]
+ [  0.           0.         150.3165679 ]
  [  0.           0.         157.346     ]]</t>
         </is>
       </c>
@@ -20255,7 +20247,7 @@
       </c>
       <c r="D768" t="inlineStr">
         <is>
-          <t>[948395.22490771]</t>
+          <t>[948421.32607936]</t>
         </is>
       </c>
       <c r="E768" t="inlineStr"/>
@@ -20278,8 +20270,8 @@
       </c>
       <c r="D769" t="inlineStr">
         <is>
-          <t>[4.16137377e+08 2.85204501e+08 2.66306106e+08 5.41253411e+02
- 1.42357775e+07 1.69892134e+05]</t>
+          <t>[4.16138017e+08 2.85204924e+08 2.66307067e+08 5.41567843e+02
+ 1.42357746e+07 1.69909285e+05]</t>
         </is>
       </c>
       <c r="E769" t="inlineStr"/>
@@ -20302,7 +20294,7 @@
       </c>
       <c r="D770" t="inlineStr">
         <is>
-          <t>[-6.7583112  -0.09586197  4.59784123]</t>
+          <t>[-6.75812851 -0.09586916  4.59772556]</t>
         </is>
       </c>
       <c r="E770" t="inlineStr"/>
@@ -20327,7 +20319,7 @@
         <is>
           <t>[[ 2.93771295e+06]
  [ 8.73816952e+03]
- [-8.98577631e+06]]</t>
+ [-8.98603452e+06]]</t>
         </is>
       </c>
       <c r="E771" t="inlineStr"/>
@@ -20350,9 +20342,9 @@
       </c>
       <c r="D772" t="inlineStr">
         <is>
-          <t>[[  -692939.78155346]
- [-38693034.48001503]
- [  6202666.24461834]]</t>
+          <t>[[  -692940.008576  ]
+ [-38693074.08051626]
+ [  6202665.53278366]]</t>
         </is>
       </c>
       <c r="E772" t="inlineStr"/>
@@ -20445,19 +20437,19 @@
       </c>
       <c r="D775" t="inlineStr">
         <is>
-          <t>[[-1042.475991  ]
- [-1196.20798661]
- [-1304.3790757 ]
- [-1389.07318696]
- [-1337.06049449]
- [-1255.22189119]
- [-1154.30127998]
- [-1094.70919237]
- [-1030.65298879]
- [ -962.19898835]
- [ -978.02680667]
- [ -993.06340443]
- [-1007.39507288]]</t>
+          <t>[[ -764.0675664 ]
+ [ -879.89721404]
+ [ -960.79254611]
+ [-1024.48836201]
+ [-1098.19816289]
+ [-1159.08690457]
+ [-1211.44283474]
+ [-1136.90215108]
+ [-1057.80219044]
+ [ -973.99389388]
+ [ -985.59734665]
+ [ -996.77327326]
+ [-1007.55661265]]</t>
         </is>
       </c>
       <c r="E775" t="inlineStr"/>
@@ -20480,7 +20472,7 @@
       </c>
       <c r="D776" t="inlineStr">
         <is>
-          <t>[1444102.28274376]</t>
+          <t>[773797.46011687]</t>
         </is>
       </c>
       <c r="E776" t="inlineStr"/>
@@ -20503,7 +20495,7 @@
       </c>
       <c r="D777" t="inlineStr">
         <is>
-          <t>[55.89983769]</t>
+          <t>[62.62910201]</t>
         </is>
       </c>
       <c r="E777" t="inlineStr"/>
@@ -20526,7 +20518,7 @@
       </c>
       <c r="D778" t="inlineStr">
         <is>
-          <t>[6.68564669e+09 6.68564669e+09 3.17027517e+07 0.00000000e+00
+          <t>[4.33033788e+09 4.33033788e+09 1.12122179e+07 0.00000000e+00
  0.00000000e+00 0.00000000e+00]</t>
         </is>
       </c>
@@ -20550,8 +20542,7 @@
       </c>
       <c r="D779" t="inlineStr">
         <is>
-          <t>[10.95292028 10.95292028 10.95292028 10.95292028 10.95292028 10.95292028
- 10.95292028]</t>
+          <t>[8. 8. 8. 8. 8. 8. 8.]</t>
         </is>
       </c>
       <c r="E779" t="inlineStr"/>
@@ -20574,7 +20565,7 @@
       </c>
       <c r="D780" t="inlineStr">
         <is>
-          <t>[0.06845575 0.07570283 0.07808014 0.07177377 0.06845574 0.07105978]</t>
+          <t>[0.07 0.07 0.07 0.07 0.07 0.07]</t>
         </is>
       </c>
       <c r="E780" t="inlineStr"/>
@@ -20593,8 +20584,7 @@
       <c r="C781" t="inlineStr"/>
       <c r="D781" t="inlineStr">
         <is>
-          <t>[0.         0.46153846 0.53846154 0.61538462 0.76923077 0.92307692
- 1.        ]</t>
+          <t>[0.     0.5625 0.625  0.6875 0.8125 0.9375 1.    ]</t>
         </is>
       </c>
       <c r="E781" t="inlineStr"/>
@@ -20617,7 +20607,7 @@
       </c>
       <c r="D782" t="inlineStr">
         <is>
-          <t>[65.]</t>
+          <t>[80.]</t>
         </is>
       </c>
       <c r="E782" t="inlineStr"/>
@@ -20640,8 +20630,7 @@
       </c>
       <c r="D783" t="inlineStr">
         <is>
-          <t>[10.95292028 10.95292028 10.95292028 10.95292028 10.95292028 10.95292028
- 10.95292028]</t>
+          <t>[8. 8. 8. 8. 8. 8. 8.]</t>
         </is>
       </c>
       <c r="E783" t="inlineStr"/>
@@ -20664,7 +20653,7 @@
       </c>
       <c r="D784" t="inlineStr">
         <is>
-          <t>[0.06845575 0.07570283 0.07808014 0.07177377 0.06845574 0.07105978]</t>
+          <t>[0.07 0.07 0.07 0.07 0.07 0.07]</t>
         </is>
       </c>
       <c r="E784" t="inlineStr"/>
@@ -20817,8 +20806,7 @@
       <c r="C791" t="inlineStr"/>
       <c r="D791" t="inlineStr">
         <is>
-          <t>[0.         0.46153846 0.53846154 0.61538462 0.76923077 0.92307692
- 1.        ]</t>
+          <t>[0.     0.5625 0.625  0.6875 0.8125 0.9375 1.    ]</t>
         </is>
       </c>
       <c r="E791" t="inlineStr"/>
@@ -20837,7 +20825,7 @@
       <c r="C792" t="inlineStr"/>
       <c r="D792" t="inlineStr">
         <is>
-          <t>[0.46153846]</t>
+          <t>[0.5625]</t>
         </is>
       </c>
       <c r="E792" t="inlineStr"/>
@@ -20903,7 +20891,7 @@
       </c>
       <c r="D795" t="inlineStr">
         <is>
-          <t>[1306870.48260719]</t>
+          <t>[1164365.87139489]</t>
         </is>
       </c>
       <c r="E795" t="inlineStr"/>
@@ -20926,7 +20914,7 @@
       </c>
       <c r="D796" t="inlineStr">
         <is>
-          <t>[3227427.67086679]</t>
+          <t>[2877410.15457617]</t>
         </is>
       </c>
       <c r="E796" t="inlineStr"/>
@@ -20949,7 +20937,7 @@
       </c>
       <c r="D797" t="inlineStr">
         <is>
-          <t>[32.72688078]</t>
+          <t>[40.]</t>
         </is>
       </c>
       <c r="E797" t="inlineStr"/>
@@ -20972,7 +20960,7 @@
       </c>
       <c r="D798" t="inlineStr">
         <is>
-          <t>[1.87136959e+09 1.87136959e+09 3.86931626e+07 0.00000000e+00
+          <t>[2.49313387e+09 2.49313387e+09 1.83066842e+07 0.00000000e+00
  0.00000000e+00 0.00000000e+00]</t>
         </is>
       </c>
@@ -20996,7 +20984,7 @@
       </c>
       <c r="D799" t="inlineStr">
         <is>
-          <t>[1444102.28274376]</t>
+          <t>[773797.46011687]</t>
         </is>
       </c>
       <c r="E799" t="inlineStr"/>
@@ -21019,7 +21007,7 @@
       </c>
       <c r="D800" t="inlineStr">
         <is>
-          <t>[3714345.30241618]</t>
+          <t>[2177310.73386569]</t>
         </is>
       </c>
       <c r="E800" t="inlineStr"/>
@@ -21042,7 +21030,7 @@
       </c>
       <c r="D801" t="inlineStr">
         <is>
-          <t>[65.]</t>
+          <t>[80.]</t>
         </is>
       </c>
       <c r="E801" t="inlineStr"/>
@@ -21088,7 +21076,7 @@
       </c>
       <c r="D803" t="inlineStr">
         <is>
-          <t>[-50.]</t>
+          <t>[-65.]</t>
         </is>
       </c>
       <c r="E803" t="inlineStr"/>
@@ -21111,7 +21099,7 @@
       </c>
       <c r="D804" t="inlineStr">
         <is>
-          <t>[10.95292028]</t>
+          <t>[8.]</t>
         </is>
       </c>
       <c r="E804" t="inlineStr"/>
@@ -22826,7 +22814,7 @@
       </c>
       <c r="D840" t="inlineStr">
         <is>
-          <t>[10.95292028 10.83211603  7.71264753  5.999       5.999     ]</t>
+          <t>[8. 8. 8. 6. 6.]</t>
         </is>
       </c>
       <c r="E840" t="inlineStr"/>
@@ -22849,7 +22837,7 @@
       </c>
       <c r="D841" t="inlineStr">
         <is>
-          <t>[0.05446259 0.04636191 0.03636191 0.035     ]</t>
+          <t>[0.03515992 0.025      0.025      0.025     ]</t>
         </is>
       </c>
       <c r="E841" t="inlineStr"/>
@@ -22868,7 +22856,7 @@
       <c r="C842" t="inlineStr"/>
       <c r="D842" t="inlineStr">
         <is>
-          <t>[0.         0.24475524 0.59440559 0.8041958  1.        ]</t>
+          <t>[0.         0.25925926 0.62962963 0.85185185 1.        ]</t>
         </is>
       </c>
       <c r="E842" t="inlineStr"/>
@@ -22914,7 +22902,7 @@
       </c>
       <c r="D844" t="inlineStr">
         <is>
-          <t>[10.95292028 10.83211603  7.71264753  5.999       5.999     ]</t>
+          <t>[8. 8. 8. 6. 6.]</t>
         </is>
       </c>
       <c r="E844" t="inlineStr"/>
@@ -22937,7 +22925,7 @@
       </c>
       <c r="D845" t="inlineStr">
         <is>
-          <t>[0.05446259 0.04636191 0.03636191 0.035     ]</t>
+          <t>[0.03515992 0.025      0.025      0.025     ]</t>
         </is>
       </c>
       <c r="E845" t="inlineStr"/>
@@ -23090,7 +23078,7 @@
       <c r="C852" t="inlineStr"/>
       <c r="D852" t="inlineStr">
         <is>
-          <t>[0.         0.24475524 0.59440559 0.8041958  1.        ]</t>
+          <t>[0.         0.25925926 0.62962963 0.85185185 1.        ]</t>
         </is>
       </c>
       <c r="E852" t="inlineStr"/>
@@ -24268,9 +24256,9 @@
       <c r="D886" t="inlineStr">
         <is>
           <t>[[  0.           0.          15.        ]
- [  0.           0.          49.83993007]
- [  0.           0.          99.61125874]
- [  0.           0.         129.47405594]
+ [  0.           0.          51.90451852]
+ [  0.           0.         104.62525926]
+ [  0.           0.         136.2577037 ]
  [  0.           0.         157.346     ]]</t>
         </is>
       </c>
@@ -24530,7 +24518,7 @@
       </c>
       <c r="D897" t="inlineStr">
         <is>
-          <t>[0.00718846]</t>
+          <t>[0.00718672]</t>
         </is>
       </c>
       <c r="E897" t="inlineStr"/>
@@ -24622,7 +24610,7 @@
       </c>
       <c r="D901" t="inlineStr">
         <is>
-          <t>[0.02944534]</t>
+          <t>[0.02944651]</t>
         </is>
       </c>
       <c r="E901" t="inlineStr"/>
@@ -25256,7 +25244,7 @@
       </c>
       <c r="D929" t="inlineStr">
         <is>
-          <t>[0.00311439]</t>
+          <t>[0.00311352]</t>
         </is>
       </c>
       <c r="E929" t="inlineStr"/>
@@ -25279,7 +25267,7 @@
       </c>
       <c r="D930" t="inlineStr">
         <is>
-          <t>[0.00090783]</t>
+          <t>[0.0009076]</t>
         </is>
       </c>
       <c r="E930" t="inlineStr"/>
@@ -27126,7 +27114,7 @@
       </c>
       <c r="D1010" t="inlineStr">
         <is>
-          <t>[0.     4.8745 1.875 ]</t>
+          <t>[0.    4.875 1.875]</t>
         </is>
       </c>
       <c r="E1010" t="inlineStr"/>
@@ -27195,7 +27183,7 @@
       </c>
       <c r="D1013" t="inlineStr">
         <is>
-          <t>[ 0.     -4.8745  1.875 ]</t>
+          <t>[ 0.    -4.875  1.875]</t>
         </is>
       </c>
       <c r="E1013" t="inlineStr"/>
@@ -27241,7 +27229,7 @@
       </c>
       <c r="D1015" t="inlineStr">
         <is>
-          <t>[25227.95426345]</t>
+          <t>[25235.35209761]</t>
         </is>
       </c>
       <c r="E1015" t="inlineStr"/>
@@ -27310,7 +27298,7 @@
       </c>
       <c r="D1018" t="inlineStr">
         <is>
-          <t>[33949.45548704]</t>
+          <t>[33954.33597653]</t>
         </is>
       </c>
       <c r="E1018" t="inlineStr"/>
@@ -27333,7 +27321,7 @@
       </c>
       <c r="D1019" t="inlineStr">
         <is>
-          <t>[-0.88537221  0.          2.40318707]</t>
+          <t>[-0.88533715  0.          2.40314516]</t>
         </is>
       </c>
       <c r="E1019" t="inlineStr"/>
@@ -27356,8 +27344,8 @@
       </c>
       <c r="D1020" t="inlineStr">
         <is>
-          <t>[388014.25589214 426867.9023198  247893.0889835       0.
-  87517.08492439      0.        ]</t>
+          <t>[388100.94902959 426951.50388173 247988.45095814      0.
+  87515.58729723      0.        ]</t>
         </is>
       </c>
       <c r="E1020" t="inlineStr"/>
@@ -27449,7 +27437,7 @@
       </c>
       <c r="D1024" t="inlineStr">
         <is>
-          <t>[41458.177152]</t>
+          <t>[41472.]</t>
         </is>
       </c>
       <c r="E1024" t="inlineStr"/>
@@ -27495,7 +27483,7 @@
       </c>
       <c r="D1026" t="inlineStr">
         <is>
-          <t>[497337.83469174 497337.83469174 994664.61386957]</t>
+          <t>[497669.5296 497669.5296 995328.    ]</t>
         </is>
       </c>
       <c r="E1026" t="inlineStr"/>
@@ -27681,8 +27669,8 @@
       </c>
       <c r="D1034" t="inlineStr">
         <is>
-          <t>[-2.9995     -3.00741147 -3.03098483 -3.06974018 -3.12288859 -3.18934811
- -3.2677658  -3.35654532 -3.45387936 -3.55778649 -3.66615146 -3.77676827]</t>
+          <t>[-3.         -3.00790638 -3.03146457 -3.070195   -3.12330922 -3.18972598
+ -3.26809323 -3.35681564 -3.45408707 -3.55792736 -3.66622262 -3.77676827]</t>
         </is>
       </c>
       <c r="E1034" t="inlineStr"/>
@@ -27729,8 +27717,8 @@
       </c>
       <c r="D1036" t="inlineStr">
         <is>
-          <t>[ 2.9995      2.93052736  2.72501352  2.38714216  1.92379135  1.34439359
-  0.66074374 -0.11324105 -0.9618047  -1.86767288 -2.81240475 -3.77676827]</t>
+          <t>[ 3.          2.93102227  2.72549327  2.38759697  1.92421198  1.34477147
+  0.66107117 -0.11297073 -0.96159699 -1.86753202 -2.81233359 -3.77676827]</t>
         </is>
       </c>
       <c r="E1036" t="inlineStr"/>
@@ -27777,8 +27765,8 @@
       </c>
       <c r="D1038" t="inlineStr">
         <is>
-          <t>[5.999      5.9461874  5.78927314 5.53288369 5.18494688 4.75714325
- 4.26586323 3.73421034 3.19612251 2.70412972 2.3389862  2.2       ]</t>
+          <t>[6.         5.94717584 5.79022711 5.53378083 5.1857657  4.75786351
+ 4.26646632 3.73467992 3.19644643 2.70430582 2.33903815 2.2       ]</t>
         </is>
       </c>
       <c r="E1038" t="inlineStr"/>
@@ -27993,7 +27981,7 @@
       </c>
       <c r="D1047" t="inlineStr">
         <is>
-          <t>[136801.54355707]</t>
+          <t>[136822.76423923]</t>
         </is>
       </c>
       <c r="E1047" t="inlineStr"/>
@@ -28131,7 +28119,7 @@
       </c>
       <c r="D1053" t="inlineStr">
         <is>
-          <t>[654746.91928556]</t>
+          <t>[654773.0204572]</t>
         </is>
       </c>
       <c r="E1053" t="inlineStr"/>
@@ -28154,7 +28142,7 @@
       </c>
       <c r="D1054" t="inlineStr">
         <is>
-          <t>[-3.85552185 -0.13885522  4.08556732]</t>
+          <t>[-3.85537294 -0.13886393  4.08542019]</t>
         </is>
       </c>
       <c r="E1054" t="inlineStr"/>
@@ -28177,8 +28165,8 @@
       </c>
       <c r="D1055" t="inlineStr">
         <is>
-          <t>[2.01661599e+07 2.92791485e+07 1.79410345e+07 5.41253411e+02
- 1.20568495e+07 1.69892134e+05]</t>
+          <t>[2.01667992e+07 2.92795715e+07 1.79419955e+07 5.41567843e+02
+ 1.20568466e+07 1.69909285e+05]</t>
         </is>
       </c>
       <c r="E1055" t="inlineStr"/>
@@ -30727,7 +30715,7 @@
       </c>
       <c r="D1130" t="inlineStr">
         <is>
-          <t>[0.08592638]</t>
+          <t>[0.08412394]</t>
         </is>
       </c>
       <c r="E1130" t="inlineStr">
@@ -30804,7 +30792,7 @@
       </c>
       <c r="D1133" t="inlineStr">
         <is>
-          <t>[-204.45985713]</t>
+          <t>[-196.43558964]</t>
         </is>
       </c>
       <c r="E1133" t="inlineStr">
@@ -30831,7 +30819,7 @@
       </c>
       <c r="D1134" t="inlineStr">
         <is>
-          <t>[-0.04592638]</t>
+          <t>[-0.04412394]</t>
         </is>
       </c>
       <c r="E1134" t="inlineStr">
@@ -30858,7 +30846,7 @@
       </c>
       <c r="D1135" t="inlineStr">
         <is>
-          <t>[0.11692638]</t>
+          <t>[0.11512394]</t>
         </is>
       </c>
       <c r="E1135" t="inlineStr">
@@ -30881,7 +30869,7 @@
       <c r="C1136" t="inlineStr"/>
       <c r="D1136" t="inlineStr">
         <is>
-          <t>[0.4655148]</t>
+          <t>[0.47548889]</t>
         </is>
       </c>
       <c r="E1136" t="inlineStr">
@@ -30904,7 +30892,7 @@
       <c r="C1137" t="inlineStr"/>
       <c r="D1137" t="inlineStr">
         <is>
-          <t>[2.14815942]</t>
+          <t>[2.10309855]</t>
         </is>
       </c>
       <c r="E1137" t="inlineStr">
@@ -30927,7 +30915,7 @@
       <c r="C1138" t="inlineStr"/>
       <c r="D1138" t="inlineStr">
         <is>
-          <t>[-0.5344852]</t>
+          <t>[-0.52451111]</t>
         </is>
       </c>
       <c r="E1138" t="inlineStr">
@@ -30950,7 +30938,7 @@
       <c r="C1139" t="inlineStr"/>
       <c r="D1139" t="inlineStr">
         <is>
-          <t>[-1.14815942]</t>
+          <t>[-1.10309855]</t>
         </is>
       </c>
       <c r="E1139" t="inlineStr">
@@ -30977,7 +30965,7 @@
       </c>
       <c r="D1140" t="inlineStr">
         <is>
-          <t>[0.15251932]</t>
+          <t>[0.14932]</t>
         </is>
       </c>
       <c r="E1140" t="inlineStr">
@@ -31004,7 +30992,7 @@
       </c>
       <c r="D1141" t="inlineStr">
         <is>
-          <t>[6.3267819e+08]</t>
+          <t>[6.08172802e+08]</t>
         </is>
       </c>
       <c r="E1141" t="inlineStr">
@@ -31031,7 +31019,7 @@
       </c>
       <c r="D1142" t="inlineStr">
         <is>
-          <t>[1.95092819e+09]</t>
+          <t>[1.9264228e+09]</t>
         </is>
       </c>
       <c r="E1142" t="inlineStr">
@@ -31058,7 +31046,7 @@
       </c>
       <c r="D1143" t="inlineStr">
         <is>
-          <t>[3251.5469839]</t>
+          <t>[3210.70466927]</t>
         </is>
       </c>
       <c r="E1143" t="inlineStr">
@@ -31085,7 +31073,7 @@
       </c>
       <c r="D1144" t="inlineStr">
         <is>
-          <t>[9318.33098688]</t>
+          <t>[8231.09765355]</t>
         </is>
       </c>
       <c r="E1144" t="inlineStr">
@@ -31112,7 +31100,7 @@
       </c>
       <c r="D1145" t="inlineStr">
         <is>
-          <t>[2.22702758e+08]</t>
+          <t>[2.1432687e+08]</t>
         </is>
       </c>
       <c r="E1145" t="inlineStr">
@@ -31139,11 +31127,11 @@
       </c>
       <c r="D1146" t="inlineStr">
         <is>
-          <t>[     0.              0.              0.          75440.28890807
-  75788.04009913  76835.48728778  78595.33854367  81089.21000551
-  84348.32254325  88414.56536989  99199.09450595 114065.71646705
- 133986.5696797     725.98199857    856.53680979    944.49389292
-    980.49147554   1012.90085059   1042.475991  ]</t>
+          <t>[    0.             0.             0.         41219.63874899
+ 41413.55011127 41997.65358401 42979.11485504 44370.07455178
+ 46187.96657769 48456.00867933 54468.8941471  62745.24639729
+ 73799.67525922   535.64204485   631.18750462   694.49669585
+   720.17030309   743.170808     764.0675664 ]</t>
         </is>
       </c>
       <c r="E1146" t="inlineStr"/>
@@ -31393,11 +31381,11 @@
       </c>
       <c r="D1156" t="inlineStr">
         <is>
-          <t>[     0.              0.              0.          75440.28890807
-  75788.04009913  76835.48728778  78595.33854367  81089.21000551
-  84348.32254325  88414.56536989  99199.09450595 114065.71646705
- 133986.5696797       0.              0.              0.
-      0.              0.              0.        ]</t>
+          <t>[    0.             0.             0.         41219.63874899
+ 41413.55011127 41997.65358401 42979.11485504 44370.07455178
+ 46187.96657769 48456.00867933 54468.8941471  62745.24639729
+ 73799.67525922     0.             0.             0.
+     0.             0.             0.        ]</t>
         </is>
       </c>
       <c r="E1156" t="inlineStr"/>
@@ -31519,7 +31507,7 @@
       </c>
       <c r="D1161" t="inlineStr">
         <is>
-          <t>[-50.         -40.         -30.         -20.         -18.33333333
+          <t>[-65.         -50.         -35.         -20.         -18.33333333
  -16.66666667 -15.         -13.33333333 -11.66666667 -10.
   -6.66666667  -3.33333333   0.           3.33333333   6.66666667
   10.          11.66666667  13.33333333  15.        ]</t>
@@ -31594,10 +31582,10 @@
       </c>
       <c r="D1164" t="inlineStr">
         <is>
-          <t>[   0.            0.            0.            0.            0.
-    0.            0.            0.            0.            0.
-    0.            0.            0.          725.98199857  856.53680979
-  944.49389292  980.49147554 1012.90085059 1042.475991  ]</t>
+          <t>[  0.           0.           0.           0.           0.
+   0.           0.           0.           0.           0.
+   0.           0.           0.         535.64204485 631.18750462
+ 694.49669585 720.17030309 743.170808   764.0675664 ]</t>
         </is>
       </c>
       <c r="E1164" t="inlineStr"/>
@@ -31692,7 +31680,7 @@
       </c>
       <c r="D1168" t="inlineStr">
         <is>
-          <t>[-50.         -40.         -30.         -20.         -18.33333333
+          <t>[-65.         -50.         -35.         -20.         -18.33333333
  -16.66666667 -15.         -13.33333333 -11.66666667 -10.
   -6.66666667  -3.33333333   0.           3.33333333   6.66666667
   10.          11.66666667  13.33333333  15.        ]</t>
@@ -31787,11 +31775,11 @@
       </c>
       <c r="D1172" t="inlineStr">
         <is>
-          <t>[      0.               0.               0.          -75440.28890807
-  -75788.04009913  -76835.48728778  -78595.33854367  -81089.21000551
-  -84348.32254325  -88414.56536989  -99199.09450595 -114065.71646705
- -133986.5696797     -725.98199857    -856.53680979    -944.49389292
-    -980.49147554   -1012.90085059   -1042.475991  ]</t>
+          <t>[     0.              0.              0.         -41219.63874899
+ -41413.55011127 -41997.65358401 -42979.11485504 -44370.07455178
+ -46187.96657769 -48456.00867933 -54468.8941471  -62745.24639729
+ -73799.67525922   -535.64204485   -631.18750462   -694.49669585
+   -720.17030309   -743.170808     -764.0675664 ]</t>
         </is>
       </c>
       <c r="E1172" t="inlineStr"/>
@@ -31841,11 +31829,11 @@
       </c>
       <c r="D1174" t="inlineStr">
         <is>
-          <t>[10.         10.         10.          1.66666667  1.66666667  1.66666667
+          <t>[15.         15.         15.          1.66666667  1.66666667  1.66666667
   1.66666667  1.66666667  1.66666667  3.33333333  3.33333333  3.33333333
   3.33333333  3.33333333  3.33333333  1.66666667  1.66666667  1.66666667
- 11.61331002 11.61331002 11.61331002 16.59044289 16.59044289 16.59044289
-  9.95426573  9.95426573  9.95426573  9.29064802  9.29064802  9.29064802]</t>
+ 12.30150617 12.30150617 12.30150617 17.57358025 17.57358025 17.57358025
+ 10.54414815 10.54414815 10.54414815  7.0294321   7.0294321   7.0294321 ]</t>
         </is>
       </c>
       <c r="E1174" t="inlineStr"/>
@@ -31868,7 +31856,7 @@
       </c>
       <c r="D1175" t="inlineStr">
         <is>
-          <t>[0.23124374]</t>
+          <t>[0.13712427]</t>
         </is>
       </c>
       <c r="E1175" t="inlineStr"/>
@@ -31891,7 +31879,7 @@
       </c>
       <c r="D1176" t="inlineStr">
         <is>
-          <t>[0.23281649]</t>
+          <t>[0.13789404]</t>
         </is>
       </c>
       <c r="E1176" t="inlineStr"/>
@@ -31914,7 +31902,7 @@
       </c>
       <c r="D1177" t="inlineStr">
         <is>
-          <t>[0.23124374 0.23281649 0.90330525 0.96464625 1.06860689 2.08418524]</t>
+          <t>[0.13712427 0.13789404 0.6615706  0.82903304 0.92937298 1.79089716]</t>
         </is>
       </c>
       <c r="E1177" t="inlineStr"/>
@@ -31937,7 +31925,7 @@
       </c>
       <c r="D1178" t="inlineStr">
         <is>
-          <t>[0.23281649 1.06860689 2.22194497]</t>
+          <t>[0.13789404 0.92937298 1.89111866]</t>
         </is>
       </c>
       <c r="E1178" t="inlineStr"/>
@@ -31960,7 +31948,7 @@
       </c>
       <c r="D1179" t="inlineStr">
         <is>
-          <t>[0.23124374 0.96464625 2.08418524]</t>
+          <t>[0.13712427 0.82903304 1.79089716]</t>
         </is>
       </c>
       <c r="E1179" t="inlineStr"/>
@@ -31983,7 +31971,7 @@
       </c>
       <c r="D1180" t="inlineStr">
         <is>
-          <t>[4.72131638 0.         0.        ]</t>
+          <t>[3.97808291 0.         0.        ]</t>
         </is>
       </c>
       <c r="E1180" t="inlineStr"/>
@@ -32002,9 +31990,9 @@
       <c r="C1181" t="inlineStr"/>
       <c r="D1181" t="inlineStr">
         <is>
-          <t>[[ 0.89996428  0.70633998 -2.81094085  3.92102639 -1.7163898 ]
- [-2.60487033  0.73280903  1.00390956  3.24564125 -1.37748951]
- [-5.11536754  4.06371647 15.60227925 -7.7264836  -5.82414458]]</t>
+          <t>[[  0.67490754   1.00471436  -0.67300086  -0.10700292   0.10038187]
+ [ -3.91122383  -2.02047028  16.08830418 -13.68941098   4.53280092]
+ [ -6.05801561   1.82649555  35.89395584 -42.47414049  11.81170471]]</t>
         </is>
       </c>
       <c r="E1181" t="inlineStr"/>
@@ -32023,9 +32011,9 @@
       <c r="C1182" t="inlineStr"/>
       <c r="D1182" t="inlineStr">
         <is>
-          <t>[[ 0.89157129  0.70499773 -2.80160876  3.9086954  -1.70365565]
- [-2.68070552  0.61616415  1.00378711  2.6026162  -0.54186194]
- [-4.54006261  3.31637191 11.50334349 -2.59388614 -6.68576665]]</t>
+          <t>[[  0.67079162   1.00105223  -0.66036763  -0.11772277   0.10624655]
+ [ -4.00922104  -2.31901642  15.86344739 -13.43653263   4.9013227 ]
+ [ -5.70801129   1.1317177   32.63399948 -36.77931888   9.72161298]]</t>
         </is>
       </c>
       <c r="E1182" t="inlineStr"/>
@@ -32044,9 +32032,9 @@
       <c r="C1183" t="inlineStr"/>
       <c r="D1183" t="inlineStr">
         <is>
-          <t>[[ -0.36880205   9.2140604  -34.08450129  50.23936762 -24.00012468]
- [  0.           0.           0.           0.           0.        ]
- [  0.           0.           0.           0.           0.        ]]</t>
+          <t>[[ 0.07897704  2.37023404  2.56096218 -7.50886622  3.49869296]
+ [ 0.          0.          0.          0.          0.        ]
+ [ 0.          0.          0.          0.          0.        ]]</t>
         </is>
       </c>
       <c r="E1183" t="inlineStr"/>
@@ -32065,12 +32053,9 @@
       <c r="C1184" t="inlineStr"/>
       <c r="D1184" t="inlineStr">
         <is>
-          <t>[[ 1.00534880e+00  1.05108728e-01 -8.27172037e-01  1.13375967e+00
-  -4.17045161e-01]
- [ 4.49159445e+01 -3.48781162e+00 -4.25171286e+01  2.05648470e+00
-   3.25109418e-02]
- [-8.87105669e-01  5.05510803e-01  4.19121543e+00 -3.00909257e+00
-   1.99472005e-01]]</t>
+          <t>[[  0.847534     0.21097196   0.21127789  -0.4092697    0.13948585]
+ [ 11.67595999   1.06965767 -24.23860026  17.1973746   -4.70439201]
+ [ -1.28136904   0.34522568   6.7861866   -6.47771368   1.62767043]]</t>
         </is>
       </c>
       <c r="E1184" t="inlineStr"/>
@@ -32089,9 +32074,9 @@
       <c r="C1185" t="inlineStr"/>
       <c r="D1185" t="inlineStr">
         <is>
-          <t>[[ 1.00141646  0.10547269 -0.82687373  1.13568607 -0.41570149]
- [ 9.94630366 -0.61475885 -8.06432421  0.36529618 -0.63251678]
- [-1.05920934  0.48350896  4.19977627 -2.64503639  0.02096049]]</t>
+          <t>[[  0.84526787   0.21074646   0.21570432  -0.41251932   0.14080067]
+ [  6.56554761   0.69769019 -12.35661432   8.58402997  -2.49065344]
+ [ -1.51860634   0.30475602   7.26209834  -6.69044392   1.6421959 ]]</t>
         </is>
       </c>
       <c r="E1185" t="inlineStr"/>
@@ -32110,7 +32095,7 @@
       <c r="C1186" t="inlineStr"/>
       <c r="D1186" t="inlineStr">
         <is>
-          <t>[[ 0.61673347  1.21920604 -7.60961327 11.52099652 -4.74732276]
+          <t>[[ 0.59902406  0.43526151  1.4052839  -2.18525118  0.74568172]
  [ 0.          0.          0.          0.          0.        ]
  [ 0.          0.          0.          0.          0.        ]]</t>
         </is>
@@ -32135,37 +32120,37 @@
       </c>
       <c r="D1187" t="inlineStr">
         <is>
-          <t>[[1.61427238e-04]
- [3.75342517e-04]
- [7.29465201e-05]
- [3.46971366e-03]
- [4.74147523e-03]
- [6.17062733e-03]
- [7.75549122e-03]
- [9.49089638e-03]
- [1.13741081e-02]
- [1.34034935e-02]
- [1.79256748e-02]
- [2.30615298e-02]
- [2.87968251e-02]
- [3.51351638e-02]
- [4.20715750e-02]
- [4.95911180e-02]
- [5.35607236e-02]
- [5.76654564e-02]
- [6.19035108e-02]
- [9.60224588e-02]
- [1.37724167e-01]
- [1.86278255e-01]
- [2.68225661e-01]
- [3.66276889e-01]
- [4.81467933e-01]
- [5.59587070e-01]
- [6.44797558e-01]
- [7.35567026e-01]
- [8.22656101e-01]
- [9.08292659e-01]
- [9.91019299e-01]]</t>
+          <t>[[2.18289516e-05]
+ [2.40875811e-04]
+ [9.88428871e-04]
+ [7.35709273e-03]
+ [1.03954437e-02]
+ [1.39011036e-02]
+ [1.78693537e-02]
+ [2.22954663e-02]
+ [2.71747047e-02]
+ [3.25023237e-02]
+ [4.44837072e-02]
+ [5.82014768e-02]
+ [7.36173981e-02]
+ [9.06931365e-02]
+ [1.09390300e-01]
+ [1.29670427e-01]
+ [1.40392038e-01]
+ [1.51494923e-01]
+ [1.62974252e-01]
+ [2.68775795e-01]
+ [4.10518927e-01]
+ [5.84311857e-01]
+ [8.91665546e-01]
+ [1.26321599e+00]
+ [1.68258817e+00]
+ [1.95106337e+00]
+ [2.22962953e+00]
+ [2.51540495e+00]
+ [2.70714914e+00]
+ [2.89710814e+00]
+ [3.08436181e+00]]</t>
         </is>
       </c>
       <c r="E1187" t="inlineStr"/>
@@ -32188,7 +32173,7 @@
       </c>
       <c r="D1188" t="inlineStr">
         <is>
-          <t>[0.9910193]</t>
+          <t>[3.08436181]</t>
         </is>
       </c>
       <c r="E1188" t="inlineStr"/>
@@ -32211,24 +32196,24 @@
       </c>
       <c r="D1189" t="inlineStr">
         <is>
-          <t>[[-37659768.49559436]
- [-35743961.40046109]
- [-33454724.88885747]
- [-32977092.55573377]
- [-32498309.18004898]
- [-32017209.79736612]
- [-31521599.44810367]
- [-31021242.88680022]
- [-30514842.91699108]
- [-29535929.43401596]
- [-28514691.54384048]
- [-27436054.33105656]
- [-26575176.39456691]
- [-25933963.00122879]
- [-25292389.06315684]
- [-24959433.00240117]
- [-24626420.50588604]
- [-24293356.87206104]]</t>
+          <t>[[-28431712.70980915]
+ [-26290808.5460415 ]
+ [-23843848.54277119]
+ [-23537797.92365013]
+ [-23231105.44164764]
+ [-22923121.37060168]
+ [-22613180.05153665]
+ [-22300591.42997131]
+ [-21984631.9164622 ]
+ [-21339049.3427664 ]
+ [-20669889.53269256]
+ [-19968833.93401692]
+ [-19370424.18932707]
+ [-18892742.43969426]
+ [-18414798.57995193]
+ [-18175753.23928136]
+ [-17936667.74250199]
+ [-17697546.03041898]]</t>
         </is>
       </c>
       <c r="E1189" t="inlineStr"/>
@@ -32251,24 +32236,24 @@
       </c>
       <c r="D1190" t="inlineStr">
         <is>
-          <t>[[ -3639905.17226285]
- [ -9766709.24345015]
- [-10502998.69683866]
- [  2937895.62223617]
- [  2937918.64562052]
- [  2937942.07646666]
- [  2937971.30894677]
- [  2937995.90384744]
- [  2938021.44852153]
- [  2938375.08718981]
- [  2938496.15972302]
- [  2938635.07884158]
- [  2938602.52462055]
- [  2938380.05762982]
- [  2938436.57663856]
- [  2938109.46777968]
- [  2938123.03665618]
- [  2938136.42275469]]</t>
+          <t>[[  -673240.70429312]
+ [ -5853014.43516075]
+ [-17878119.93044607]
+ [  2937992.49094482]
+ [  2938036.05474188]
+ [  2938080.11373301]
+ [  2938124.9539485 ]
+ [  2938170.87626565]
+ [  2938218.20287829]
+ [  2938870.35609262]
+ [  2939084.55341983]
+ [  2939325.34065462]
+ [  2939350.99942475]
+ [  2939052.54129501]
+ [  2939166.81363423]
+ [  2938481.84510185]
+ [  2938509.32530548]
+ [  2938536.454204  ]]</t>
         </is>
       </c>
       <c r="E1190" t="inlineStr"/>
@@ -32291,24 +32276,24 @@
       </c>
       <c r="D1191" t="inlineStr">
         <is>
-          <t>[[-17422.37460075]
- [-47229.20390934]
- [-52852.39682291]
- [  8739.02719333]
- [  8739.1380311 ]
- [  8739.25121977]
- [  8739.39257945]
- [  8739.51217349]
- [  8739.63676917]
- [  8741.32838012]
- [  8741.92400094]
- [  8742.61076359]
- [  8742.47333762]
- [  8741.41265188]
- [  8741.70437172]
- [  8740.11364313]
- [  8740.18485216]
- [  8740.2555071 ]]</t>
+          <t>[[ -3222.20966085]
+ [-28132.4201787 ]
+ [-87853.40294574]
+ [  8739.4958468 ]
+ [  8739.70653964]
+ [  8739.92037255]
+ [  8740.13874243]
+ [  8740.36312804]
+ [  8740.59512207]
+ [  8743.74403432]
+ [  8744.80355094]
+ [  8746.00084505]
+ [  8746.15883579]
+ [  8744.73070813]
+ [  8745.3206998 ]
+ [  8741.96360401]
+ [  8742.10770042]
+ [  8742.25071774]]</t>
         </is>
       </c>
       <c r="E1191" t="inlineStr"/>
@@ -32331,24 +32316,24 @@
       </c>
       <c r="D1192" t="inlineStr">
         <is>
-          <t>[[ -185744.6987324 ]
- [ -922877.17495226]
- [-1912924.12264541]
- [-2233722.8407644 ]
- [-2218937.3171156 ]
- [-2204130.5449188 ]
- [-2189303.89668055]
- [-2174458.60097659]
- [-2159595.56974702]
- [-2129810.12497625]
- [-2099955.73298634]
- [-2070040.85491078]
- [-2040072.28236072]
- [-2010048.86981045]
- [-1979969.02975364]
- [-1964913.08147426]
- [-1949845.97787964]
- [-1934768.25667114]]</t>
+          <t>[[  -20313.49059307]
+ [ -322469.555858  ]
+ [-2088712.05320619]
+ [-2386901.82991791]
+ [-2371945.68545704]
+ [-2356942.46957804]
+ [-2341893.91362375]
+ [-2326801.76097523]
+ [-2311667.77334416]
+ [-2281272.09016161]
+ [-2250729.05772015]
+ [-2220054.19857306]
+ [-2189263.87293147]
+ [-2158362.71566788]
+ [-2127350.89743344]
+ [-2111812.90560035]
+ [-2096251.35387866]
+ [-2080667.32370623]]</t>
         </is>
       </c>
       <c r="E1192" t="inlineStr"/>
@@ -32371,24 +32356,24 @@
       </c>
       <c r="D1193" t="inlineStr">
         <is>
-          <t>[[3.95348550e+07]
- [1.94704553e+08]
- [3.98043888e+08]
- [4.63804980e+08]
- [4.58861662e+08]
- [4.53913969e+08]
- [4.48962219e+08]
- [4.44006669e+08]
- [4.39047528e+08]
- [4.29117181e+08]
- [4.19173115e+08]
- [4.09217201e+08]
- [3.99250924e+08]
- [3.89274206e+08]
- [3.79286820e+08]
- [3.74290218e+08]
- [3.69291580e+08]
- [3.64291025e+08]]</t>
+          <t>[[4.27378765e+06]
+ [6.78909709e+07]
+ [4.32821846e+08]
+ [4.93419434e+08]
+ [4.88440731e+08]
+ [4.83452357e+08]
+ [4.78454709e+08]
+ [4.73448187e+08]
+ [4.68433191e+08]
+ [4.58377453e+08]
+ [4.48292356e+08]
+ [4.38181339e+08]
+ [4.28047979e+08]
+ [4.17893423e+08]
+ [4.07717903e+08]
+ [4.02624254e+08]
+ [3.97526264e+08]
+ [3.92424178e+08]]</t>
         </is>
       </c>
       <c r="E1193" t="inlineStr"/>
@@ -32411,24 +32396,24 @@
       </c>
       <c r="D1194" t="inlineStr">
         <is>
-          <t>[[ 976232.407753  ]
- [2155994.04084283]
- [3785261.29216983]
- [6203611.75276307]
- [6203598.25173683]
- [6203584.71823353]
- [6203543.75648983]
- [6203530.17115424]
- [6203516.45577904]
- [6203575.54211905]
- [6203546.36779593]
- [6203515.93238117]
- [6203523.1567296 ]
- [6203496.26527367]
- [6203476.2356846 ]
- [6203427.42521465]
- [6203417.40360754]
- [6203407.38033416]]</t>
+          <t>[[ 807731.22048394]
+ [1864353.46951233]
+ [3495465.11370389]
+ [6203665.17968211]
+ [6203652.34655136]
+ [6203639.48655966]
+ [6203626.57246373]
+ [6203613.57635254]
+ [6203600.46929285]
+ [6203587.22094555]
+ [6203560.15150724]
+ [6203532.09371887]
+ [6203502.69881628]
+ [6203477.60802218]
+ [6203457.5793924 ]
+ [6203437.53990203]
+ [6203427.51712744]
+ [6203417.49270156]]</t>
         </is>
       </c>
       <c r="E1194" t="inlineStr"/>
@@ -32451,9 +32436,9 @@
       </c>
       <c r="D1195" t="inlineStr">
         <is>
-          <t>[[ 2.93789562e+06]
- [ 8.73902719e+03]
- [-3.34547249e+07]]</t>
+          <t>[[ 2.93799249e+06]
+ [ 8.73949585e+03]
+ [-2.38438485e+07]]</t>
         </is>
       </c>
       <c r="E1195" t="inlineStr"/>
@@ -32476,9 +32461,9 @@
       </c>
       <c r="D1196" t="inlineStr">
         <is>
-          <t>[[-2.24848622e+06]
- [ 4.68743714e+08]
- [ 6.20361175e+06]]</t>
+          <t>[[-2.40180918e+06]
+ [ 4.98388067e+08]
+ [ 6.20366518e+06]]</t>
         </is>
       </c>
       <c r="E1196" t="inlineStr"/>
@@ -32501,12 +32486,12 @@
       </c>
       <c r="D1197" t="inlineStr">
         <is>
-          <t>[-50.         -40.         -30.         -20.         -18.33333333
+          <t>[-65.         -50.         -35.         -20.         -18.33333333
  -16.66666667 -15.         -13.33333333 -11.66666667 -10.
   -6.66666667  -3.33333333   0.           3.33333333   6.66666667
-  10.          11.66666667  13.33333333  15.          26.61331002
-  38.22662005  49.83993007  66.43037296  83.02081585  99.61125874
- 109.56552448 119.51979021 129.47405594 138.76470396 148.05535198
+  10.          11.66666667  13.33333333  15.          27.30150617
+  39.60301235  51.90451852  69.47809877  87.05167901 104.62525926
+ 115.16940741 125.71355556 136.2577037  143.2871358  150.3165679
  157.346     ]</t>
         </is>
       </c>
@@ -32530,12 +32515,12 @@
       </c>
       <c r="D1198" t="inlineStr">
         <is>
-          <t>[10.95292028 10.95292028 10.95292028 10.95292028 10.95292028 10.95292028
- 10.95292028 10.95292028 10.95292028 10.95292028 10.95292028 10.95292028
- 10.95292028 10.95292028 10.95292028 10.95292028 10.95292028 10.95292028
- 10.95292028 10.91265219 10.87238411 10.83211603  9.79229319  8.75247036
-  7.71264753  7.14143168  6.57021584  5.999       5.999       5.999
-  5.999     ]</t>
+          <t>[8.         8.         8.         8.         8.         8.
+ 8.         8.         8.         8.         8.         8.
+ 8.         8.         8.         8.         8.         8.
+ 8.         8.         8.         8.         8.         8.
+ 8.         7.33333333 6.66666667 6.         6.         6.
+ 6.        ]</t>
         </is>
       </c>
       <c r="E1198" t="inlineStr"/>
@@ -32558,11 +32543,11 @@
       </c>
       <c r="D1199" t="inlineStr">
         <is>
-          <t>[0.06845575 0.06845575 0.06845575 0.07570283 0.07570283 0.07570283
- 0.07808014 0.07808014 0.07808014 0.07177377 0.07177377 0.07177377
- 0.06845574 0.06845574 0.06845574 0.07105978 0.07105978 0.07105978
- 0.05446259 0.05446259 0.05446259 0.04636191 0.04636191 0.04636191
- 0.03636191 0.03636191 0.03636191 0.035      0.035      0.035     ]</t>
+          <t>[0.07       0.07       0.07       0.07       0.07       0.07
+ 0.07       0.07       0.07       0.07       0.07       0.07
+ 0.07       0.07       0.07       0.07       0.07       0.07
+ 0.03515992 0.03515992 0.03515992 0.025      0.025      0.025
+ 0.025      0.025      0.025      0.025      0.025      0.025     ]</t>
         </is>
       </c>
       <c r="E1199" t="inlineStr"/>
@@ -32661,11 +32646,11 @@
       </c>
       <c r="D1203" t="inlineStr">
         <is>
-          <t>[2.50467086 2.50467086 2.50467086 2.7679841  2.7679841  2.7679841
- 2.85428356 2.85428356 2.85428356 2.62527042 2.62527042 2.62527042
- 2.50467029 2.50467029 2.50467029 2.59932533 2.59932533 2.59932533
- 1.99156242 1.98419029 1.97681817 1.59988794 1.43783597 1.275784
- 0.90336776 0.83354765 0.76372753 0.70168037 0.70168037 0.70168037]</t>
+          <t>[1.86597095 1.86597095 1.86597095 1.86597095 1.86597095 1.86597095
+ 1.86597095 1.86597095 1.86597095 1.86597095 1.86597095 1.86597095
+ 1.86597095 1.86597095 1.86597095 1.86597095 1.86597095 1.86597095
+ 0.94136625 0.94136625 0.94136625 0.67019989 0.67019989 0.67019989
+ 0.64218735 0.58616228 0.53013722 0.50212468 0.50212468 0.50212468]</t>
         </is>
       </c>
       <c r="E1203" t="inlineStr"/>
@@ -32688,11 +32673,11 @@
       </c>
       <c r="D1204" t="inlineStr">
         <is>
-          <t>[1.42532402 1.42532402 1.42532402 1.57564951 1.57564951 1.57564951
- 1.62493864 1.62493864 1.62493864 1.49416248 1.49416248 1.49416248
- 1.42532369 1.42532369 1.42532369 1.47935129 1.47935129 1.47935129
- 1.13267115 1.12848786 1.12430457 0.90971073 0.81775445 0.72579902
- 0.51375671 0.47413756 0.43451871 0.39922621 0.39922621 0.39922621]</t>
+          <t>[1.06310121 1.06310121 1.06310121 1.06310121 1.06310121 1.06310121
+ 1.06310121 1.06310121 1.06310121 1.06310121 1.06310121 1.06310121
+ 1.06310121 1.06310121 1.06310121 1.06310121 1.06310121 1.06310121
+ 0.53524481 0.53524481 0.53524481 0.38084559 0.38084559 0.38084559
+ 0.36494957 0.33315762 0.3013658  0.28546995 0.28546995 0.28546995]</t>
         </is>
       </c>
       <c r="E1204" t="inlineStr"/>
@@ -32715,11 +32700,11 @@
       </c>
       <c r="D1205" t="inlineStr">
         <is>
-          <t>[1.42532402 1.42532402 1.42532402 1.57564951 1.57564951 1.57564951
- 1.62493864 1.62493864 1.62493864 1.49416248 1.49416248 1.49416248
- 1.42532369 1.42532369 1.42532369 1.47935129 1.47935129 1.47935129
- 1.13267115 1.12848786 1.12430457 0.90971073 0.81775445 0.72579902
- 0.51375671 0.47413756 0.43451871 0.39922621 0.39922621 0.39922621]</t>
+          <t>[1.06310121 1.06310121 1.06310121 1.06310121 1.06310121 1.06310121
+ 1.06310121 1.06310121 1.06310121 1.06310121 1.06310121 1.06310121
+ 1.06310121 1.06310121 1.06310121 1.06310121 1.06310121 1.06310121
+ 0.53524481 0.53524481 0.53524481 0.38084559 0.38084559 0.38084559
+ 0.36494957 0.33315762 0.3013658  0.28546995 0.28546995 0.28546995]</t>
         </is>
       </c>
       <c r="E1205" t="inlineStr"/>
@@ -32742,11 +32727,11 @@
       </c>
       <c r="D1206" t="inlineStr">
         <is>
-          <t>[74.18600531 74.18600531 74.18600531 81.87668621 81.87668621 81.87668621
- 84.39277645 84.39277645 84.39277645 77.71095858 77.71095858 77.71095858
- 74.18598871 74.18598871 74.18598871 76.95298572 76.95298572 76.95298572
- 58.92081819 58.26892992 57.62186776 42.15291783 30.59772176 21.37447606
- 12.33626345  9.69132133  7.45434353  6.23978412  6.23978412  6.23978412]</t>
+          <t>[29.33763493 29.33763493 29.33763493 29.33763493 29.33763493 29.33763493
+ 29.33763493 29.33763493 29.33763493 29.33763493 29.33763493 29.33763493
+ 29.33763493 29.33763493 29.33763493 29.33763493 29.33763493 29.33763493
+ 14.93004837 14.93004837 14.93004837 10.65638765 10.65638765 10.65638765
+  9.37524411  7.12938196  5.27429466  4.48161969  4.48161969  4.48161969]</t>
         </is>
       </c>
       <c r="E1206" t="inlineStr"/>
@@ -32769,11 +32754,11 @@
       </c>
       <c r="D1207" t="inlineStr">
         <is>
-          <t>[37.09300265 37.09300265 37.09300265 40.9383431  40.9383431  40.9383431
- 42.19638823 42.19638823 42.19638823 38.85547929 38.85547929 38.85547929
- 37.09299436 37.09299436 37.09299436 38.47649286 38.47649286 38.47649286
- 29.4604091  29.13446496 28.81093388 21.07645891 15.29886088 10.68723803
-  6.16813172  4.84566067  3.72717177  3.11989206  3.11989206  3.11989206]</t>
+          <t>[14.66881746 14.66881746 14.66881746 14.66881746 14.66881746 14.66881746
+ 14.66881746 14.66881746 14.66881746 14.66881746 14.66881746 14.66881746
+ 14.66881746 14.66881746 14.66881746 14.66881746 14.66881746 14.66881746
+  7.46502418  7.46502418  7.46502418  5.32819383  5.32819383  5.32819383
+  4.68762206  3.56469098  2.63714733  2.24080985  2.24080985  2.24080985]</t>
         </is>
       </c>
       <c r="E1207" t="inlineStr"/>
@@ -32796,11 +32781,11 @@
       </c>
       <c r="D1208" t="inlineStr">
         <is>
-          <t>[37.09300265 37.09300265 37.09300265 40.9383431  40.9383431  40.9383431
- 42.19638823 42.19638823 42.19638823 38.85547929 38.85547929 38.85547929
- 37.09299436 37.09299436 37.09299436 38.47649286 38.47649286 38.47649286
- 29.4604091  29.13446496 28.81093388 21.07645891 15.29886088 10.68723803
-  6.16813172  4.84566067  3.72717177  3.11989206  3.11989206  3.11989206]</t>
+          <t>[14.66881746 14.66881746 14.66881746 14.66881746 14.66881746 14.66881746
+ 14.66881746 14.66881746 14.66881746 14.66881746 14.66881746 14.66881746
+ 14.66881746 14.66881746 14.66881746 14.66881746 14.66881746 14.66881746
+  7.46502418  7.46502418  7.46502418  5.32819383  5.32819383  5.32819383
+  4.68762206  3.56469098  2.63714733  2.24080985  2.24080985  2.24080985]</t>
         </is>
       </c>
       <c r="E1208" t="inlineStr"/>
@@ -32891,17 +32876,17 @@
  [1.27775357e+02]
  [1.31936564e+02]
  [1.35719352e+02]
- [1.55741233e+02]
- [1.69882127e+02]
- [1.81049969e+02]
- [1.93975947e+02]
- [2.04637279e+02]
- [2.13783359e+02]
- [2.18726607e+02]
- [2.23339444e+02]
- [2.27668913e+02]
- [2.31487123e+02]
- [2.35115716e+02]
+ [1.56698435e+02]
+ [1.71330486e+02]
+ [1.82822277e+02]
+ [1.96075520e+02]
+ [2.06979051e+02]
+ [2.16317993e+02]
+ [2.21360836e+02]
+ [2.26064090e+02]
+ [2.30476436e+02]
+ [2.33275754e+02]
+ [2.35972568e+02]
  [2.38575171e+02]]</t>
         </is>
       </c>
@@ -32925,36 +32910,36 @@
       </c>
       <c r="D1212" t="inlineStr">
         <is>
-          <t>[[-3.76597685e+07]
- [-3.57439614e+07]
- [-3.34547249e+07]
- [-3.29770926e+07]
- [-3.24983092e+07]
- [-3.20172098e+07]
- [-3.15215994e+07]
- [-3.10212429e+07]
- [-3.05148429e+07]
- [-2.95359294e+07]
- [-2.85146915e+07]
- [-2.74360543e+07]
- [-2.65751764e+07]
- [-2.59339630e+07]
- [-2.52923891e+07]
- [-2.49594330e+07]
- [-2.46264205e+07]
- [-2.42933569e+07]
- [-2.15316439e+07]
- [-1.97562287e+07]
- [-1.79858565e+07]
- [-1.59334913e+07]
- [-1.40865005e+07]
- [-1.24462516e+07]
- [-1.17465588e+07]
- [-1.11008176e+07]
- [-1.05088465e+07]
- [-1.00010424e+07]
- [-9.49348031e+06]
- [ 1.28347892e-08]]</t>
+          <t>[[-2.84317127e+07]
+ [-2.62908085e+07]
+ [-2.38438485e+07]
+ [-2.35377979e+07]
+ [-2.32311054e+07]
+ [-2.29231214e+07]
+ [-2.26131801e+07]
+ [-2.23005914e+07]
+ [-2.19846319e+07]
+ [-2.13390493e+07]
+ [-2.06698895e+07]
+ [-1.99688339e+07]
+ [-1.93704242e+07]
+ [-1.88927424e+07]
+ [-1.84147986e+07]
+ [-1.81757532e+07]
+ [-1.79366677e+07]
+ [-1.76975460e+07]
+ [-1.58218439e+07]
+ [-1.49260694e+07]
+ [-1.40290970e+07]
+ [-1.31109498e+07]
+ [-1.21916074e+07]
+ [-1.12710940e+07]
+ [-1.07407875e+07]
+ [-1.02557818e+07]
+ [-9.81676307e+06]
+ [-9.53971248e+06]
+ [-9.26291313e+06]
+ [-1.08266249e-08]]</t>
         </is>
       </c>
       <c r="E1212" t="inlineStr"/>
@@ -32977,36 +32962,36 @@
       </c>
       <c r="D1213" t="inlineStr">
         <is>
-          <t>[[-3.63990517e+06]
- [-9.76670924e+06]
- [-1.05029987e+07]
- [ 2.93789562e+06]
- [ 2.93791865e+06]
- [ 2.93794208e+06]
- [ 2.93797131e+06]
- [ 2.93799590e+06]
- [ 2.93802145e+06]
- [ 2.93837509e+06]
- [ 2.93849616e+06]
- [ 2.93863508e+06]
- [ 2.93860252e+06]
- [ 2.93838006e+06]
- [ 2.93843658e+06]
- [ 2.93810947e+06]
- [ 2.93812304e+06]
- [ 2.93813642e+06]
- [ 2.94032958e+06]
- [ 2.94090040e+06]
- [ 2.94141380e+06]
- [ 2.94278258e+06]
- [ 2.94317327e+06]
- [ 2.94341070e+06]
- [ 2.94045984e+06]
- [ 2.94047802e+06]
- [ 2.94041337e+06]
- [ 2.94009430e+06]
- [ 2.94005285e+06]
- [ 2.26055052e+03]]</t>
+          <t>[[-6.73240704e+05]
+ [-5.85301444e+06]
+ [-1.78781199e+07]
+ [ 2.93799249e+06]
+ [ 2.93803605e+06]
+ [ 2.93808011e+06]
+ [ 2.93812495e+06]
+ [ 2.93817088e+06]
+ [ 2.93821820e+06]
+ [ 2.93887036e+06]
+ [ 2.93908455e+06]
+ [ 2.93932534e+06]
+ [ 2.93935100e+06]
+ [ 2.93905254e+06]
+ [ 2.93916681e+06]
+ [ 2.93848185e+06]
+ [ 2.93850933e+06]
+ [ 2.93853645e+06]
+ [ 2.94156303e+06]
+ [ 2.94287349e+06]
+ [ 2.94404925e+06]
+ [ 2.94574470e+06]
+ [ 2.94743415e+06]
+ [ 2.94869951e+06]
+ [ 2.94446496e+06]
+ [ 2.94412334e+06]
+ [ 2.94366625e+06]
+ [ 2.94149387e+06]
+ [ 2.94145375e+06]
+ [ 3.68844521e+03]]</t>
         </is>
       </c>
       <c r="E1213" t="inlineStr"/>
@@ -33029,36 +33014,36 @@
       </c>
       <c r="D1214" t="inlineStr">
         <is>
-          <t>[[-1.74223746e+04]
- [-4.72292039e+04]
- [-5.28523968e+04]
- [ 8.73902719e+03]
- [ 8.73913803e+03]
- [ 8.73925122e+03]
- [ 8.73939258e+03]
- [ 8.73951217e+03]
- [ 8.73963677e+03]
- [ 8.74132838e+03]
- [ 8.74192400e+03]
- [ 8.74261076e+03]
- [ 8.74247334e+03]
- [ 8.74141265e+03]
- [ 8.74170437e+03]
- [ 8.74011364e+03]
- [ 8.74018485e+03]
- [ 8.74025551e+03]
- [ 8.75120114e+03]
- [ 8.75437643e+03]
- [ 8.75738889e+03]
- [ 8.76534998e+03]
- [ 8.76894258e+03]
- [ 8.77255380e+03]
- [ 8.75608857e+03]
- [ 8.75784721e+03]
- [ 8.75958840e+03]
- [ 8.75967961e+03]
- [ 8.76262551e+03]
- [ 2.57522375e+01]]</t>
+          <t>[[-3.22220966e+03]
+ [-2.81324202e+04]
+ [-8.78534029e+04]
+ [ 8.73949585e+03]
+ [ 8.73970654e+03]
+ [ 8.73992037e+03]
+ [ 8.74013874e+03]
+ [ 8.74036313e+03]
+ [ 8.74059512e+03]
+ [ 8.74374403e+03]
+ [ 8.74480355e+03]
+ [ 8.74600085e+03]
+ [ 8.74615884e+03]
+ [ 8.74473071e+03]
+ [ 8.74532070e+03]
+ [ 8.74196360e+03]
+ [ 8.74210770e+03]
+ [ 8.74225072e+03]
+ [ 8.75752996e+03]
+ [ 8.76478980e+03]
+ [ 8.77164749e+03]
+ [ 8.78213525e+03]
+ [ 8.79391961e+03]
+ [ 8.80435921e+03]
+ [ 8.78072624e+03]
+ [ 8.78048125e+03]
+ [ 8.78011977e+03]
+ [ 8.76676112e+03]
+ [ 8.76839464e+03]
+ [ 3.09485094e+01]]</t>
         </is>
       </c>
       <c r="E1214" t="inlineStr"/>
@@ -33081,36 +33066,36 @@
       </c>
       <c r="D1215" t="inlineStr">
         <is>
-          <t>[[-1.85744699e+05]
- [-9.22877175e+05]
- [-1.91292412e+06]
- [-2.23372284e+06]
- [-2.21893732e+06]
- [-2.20413054e+06]
- [-2.18930390e+06]
- [-2.17445860e+06]
- [-2.15959557e+06]
- [-2.12981012e+06]
- [-2.09995573e+06]
- [-2.07004085e+06]
- [-2.04007228e+06]
- [-2.01004887e+06]
- [-1.97996903e+06]
- [-1.96491308e+06]
- [-1.94984598e+06]
- [-1.93476826e+06]
- [-1.82933096e+06]
- [-1.72328621e+06]
- [-1.61682537e+06]
- [-1.46395825e+06]
- [-1.31018352e+06]
- [-1.15542095e+06]
- [-1.06208779e+06]
- [-9.67982348e+05]
- [-8.73007652e+05]
- [-7.83556203e+05]
- [-6.93420381e+05]
- [-6.62698140e-04]]</t>
+          <t>[[-2.03134906e+04]
+ [-3.22469556e+05]
+ [-2.08871205e+06]
+ [-2.38690183e+06]
+ [-2.37194569e+06]
+ [-2.35694247e+06]
+ [-2.34189391e+06]
+ [-2.32680176e+06]
+ [-2.31166777e+06]
+ [-2.28127209e+06]
+ [-2.25072906e+06]
+ [-2.22005420e+06]
+ [-2.18926387e+06]
+ [-2.15836272e+06]
+ [-2.12735090e+06]
+ [-2.11181291e+06]
+ [-2.09625135e+06]
+ [-2.08066732e+06]
+ [-1.96428792e+06]
+ [-1.84522593e+06]
+ [-1.72402678e+06]
+ [-1.54687055e+06]
+ [-1.36536743e+06]
+ [-1.18099839e+06]
+ [-1.06977816e+06]
+ [-9.57892666e+05]
+ [-8.45103136e+05]
+ [-7.69442256e+05]
+ [-6.93375950e+05]
+ [-2.67199344e-04]]</t>
         </is>
       </c>
       <c r="E1215" t="inlineStr"/>
@@ -33133,36 +33118,36 @@
       </c>
       <c r="D1216" t="inlineStr">
         <is>
-          <t>[[ 3.95348550e+07]
- [ 1.94704553e+08]
- [ 3.98043888e+08]
- [ 4.63804980e+08]
- [ 4.58861662e+08]
- [ 4.53913969e+08]
- [ 4.48962219e+08]
- [ 4.44006669e+08]
- [ 4.39047528e+08]
- [ 4.29117181e+08]
- [ 4.19173115e+08]
- [ 4.09217201e+08]
- [ 3.99250924e+08]
- [ 3.89274206e+08]
- [ 3.79286820e+08]
- [ 3.74290218e+08]
- [ 3.69291580e+08]
- [ 3.64291025e+08]
- [ 3.29379644e+08]
- [ 2.94365123e+08]
- [ 2.59289263e+08]
- [ 2.09078253e+08]
- [ 1.58777983e+08]
- [ 1.08417311e+08]
- [ 7.82013236e+07]
- [ 4.79575970e+07]
- [ 1.77071694e+07]
- [-1.05013563e+07]
- [-3.86511103e+07]
- [ 5.81741729e-02]]</t>
+          <t>[[ 4.27378765e+06]
+ [ 6.78909709e+07]
+ [ 4.32821846e+08]
+ [ 4.93419434e+08]
+ [ 4.88440731e+08]
+ [ 4.83452357e+08]
+ [ 4.78454709e+08]
+ [ 4.73448187e+08]
+ [ 4.68433191e+08]
+ [ 4.58377453e+08]
+ [ 4.48292356e+08]
+ [ 4.38181339e+08]
+ [ 4.28047979e+08]
+ [ 4.17893423e+08]
+ [ 4.07717903e+08]
+ [ 4.02624254e+08]
+ [ 3.97526264e+08]
+ [ 3.92424178e+08]
+ [ 3.54518635e+08]
+ [ 3.16137590e+08]
+ [ 2.77405142e+08]
+ [ 2.21468798e+08]
+ [ 1.64970743e+08]
+ [ 1.08231252e+08]
+ [ 7.42283667e+07]
+ [ 4.02606708e+07]
+ [ 6.35411882e+06]
+ [-1.61786836e+07]
+ [-3.86412646e+07]
+ [ 3.18440452e-02]]</t>
         </is>
       </c>
       <c r="E1216" t="inlineStr"/>
@@ -33185,35 +33170,35 @@
       </c>
       <c r="D1217" t="inlineStr">
         <is>
-          <t>[[ 976232.407753  ]
- [2155994.04084283]
- [3785261.29216983]
- [6203611.75276307]
- [6203598.25173683]
- [6203584.71823353]
- [6203543.75648983]
- [6203530.17115424]
- [6203516.45577904]
- [6203575.54211905]
- [6203546.36779593]
- [6203515.93238117]
- [6203523.1567296 ]
- [6203496.26527367]
- [6203476.2356846 ]
- [6203427.42521465]
- [6203417.40360754]
- [6203407.38033416]
- [6203581.97669593]
- [6203515.14844253]
- [6203448.04749739]
- [6203545.688918  ]
- [6203533.14165987]
- [6203530.00173873]
- [6203744.085564  ]
- [6203768.70407526]
- [6203803.35168508]
- [6203837.90833668]
- [6203781.28151446]
+          <t>[[ 807731.22048394]
+ [1864353.46951233]
+ [3495465.11370389]
+ [6203665.17968211]
+ [6203652.34655136]
+ [6203639.48655966]
+ [6203626.57246373]
+ [6203613.57635254]
+ [6203600.46929285]
+ [6203587.22094555]
+ [6203560.15150724]
+ [6203532.09371887]
+ [6203502.69881628]
+ [6203477.60802218]
+ [6203457.5793924 ]
+ [6203437.53990203]
+ [6203427.51712744]
+ [6203417.49270156]
+ [6204054.84514783]
+ [6203980.44180232]
+ [6203905.98161357]
+ [6204303.27371889]
+ [6204196.06380413]
+ [6204088.71803165]
+ [6204038.64365428]
+ [6204099.11896091]
+ [6204179.06465726]
+ [6204195.10155977]
+ [6204151.92342882]
  [      0.        ]]</t>
         </is>
       </c>
@@ -33237,24 +33222,24 @@
       </c>
       <c r="D1218" t="inlineStr">
         <is>
-          <t>[[-9198772.45596973]
- [14475839.9318605 ]
- [45411471.97200194]
- [50131716.97743547]
- [49643402.81661519]
- [49155339.985815  ]
- [47225662.74823355]
- [46757805.03520324]
- [46291598.44506727]
- [49231762.06735714]
- [48219201.4750277 ]
- [47226835.31884934]
- [48336469.67951289]
- [47119497.15708809]
- [45901093.75582191]
- [43672168.9105759 ]
- [43088813.07716893]
- [42505204.21342596]]</t>
+          <t>[[-1.40715329e+07]
+ [ 4.42360032e+06]
+ [ 1.05248135e+08]
+ [ 1.21936544e+08]
+ [ 1.20743272e+08]
+ [ 1.19548055e+08]
+ [ 1.18351358e+08]
+ [ 1.17153660e+08]
+ [ 1.15955458e+08]
+ [ 1.13559355e+08]
+ [ 1.11167882e+08]
+ [ 1.08786435e+08]
+ [ 1.06343886e+08]
+ [ 1.03830857e+08]
+ [ 1.01312252e+08]
+ [ 1.00051384e+08]
+ [ 9.87893529e+07]
+ [ 9.75262244e+07]]</t>
         </is>
       </c>
       <c r="E1218" t="inlineStr"/>
@@ -33277,24 +33262,24 @@
       </c>
       <c r="D1219" t="inlineStr">
         <is>
-          <t>[[2625834.1237968 ]
- [7011509.99587595]
- [7648373.65875537]
- [2279508.90545656]
- [2279522.61455819]
- [2279536.58009009]
- [2210622.22260585]
- [2210636.47706612]
- [2210651.30759239]
- [2403758.13982849]
- [2403837.11504425]
- [2403927.94572336]
- [2519666.30663956]
- [2519508.2382389 ]
- [2519546.41352917]
- [2427563.47209715]
- [2427571.93117904]
- [2427580.26658896]]</t>
+          <t>[[  743416.2413124 ]
+ [ 5759860.48748527]
+ [17293737.51648058]
+ [ 3609448.16320614]
+ [ 3609487.39193213]
+ [ 3609527.08280397]
+ [ 3609567.50116266]
+ [ 3609608.92622409]
+ [ 3609651.65711626]
+ [ 3610263.3010318 ]
+ [ 3610461.09583544]
+ [ 3610683.76780143]
+ [ 3610703.89610231]
+ [ 3610419.72946554]
+ [ 3610524.48947912]
+ [ 3609877.43899331]
+ [ 3609901.92183505]
+ [ 3609926.07399698]]</t>
         </is>
       </c>
       <c r="E1219" t="inlineStr"/>
@@ -33319,22 +33304,22 @@
         <is>
           <t>[[-0.00000000e+00]
  [-0.00000000e+00]
- [-8.54919298e+06]
- [-1.48517765e+07]
- [-1.36574241e+07]
- [-1.24723435e+07]
- [-1.09503907e+07]
- [-9.82030658e+06]
- [-8.70010615e+06]
- [-7.66711317e+06]
- [-5.30181601e+06]
- [-2.99461782e+06]
- [-9.77413561e+05]
- [-8.20091310e+03]
- [-9.33533743e+03]
- [-9.60587901e+03]
- [-9.94285748e+03]
- [-1.02469868e+04]]</t>
+ [-6.09120398e+06]
+ [-1.17097567e+07]
+ [-1.07680797e+07]
+ [-9.83371304e+06]
+ [-8.90681564e+06]
+ [-7.98762920e+06]
+ [-7.07648192e+06]
+ [-5.72925432e+06]
+ [-3.96178478e+06]
+ [-2.23772972e+06]
+ [-6.96396025e+05]
+ [-5.84305714e+03]
+ [-6.65132155e+03]
+ [-7.10612658e+03]
+ [-7.35541263e+03]
+ [-7.58039790e+03]]</t>
         </is>
       </c>
       <c r="E1220" t="inlineStr"/>
@@ -33393,24 +33378,24 @@
       <c r="C1222" t="inlineStr"/>
       <c r="D1222" t="inlineStr">
         <is>
-          <t>[[0.05220081]
- [0.09611976]
- [0.26427778]
- [0.30068594]
- [0.29419072]
- [0.28778321]
- [0.27308829]
- [0.2670806 ]
- [0.26117481]
- [0.27286914]
- [0.2606878 ]
- [0.24911053]
- [0.24939893]
- [0.24074138]
- [0.23457342]
- [0.22321001]
- [0.22025721]
- [0.21730342]]</t>
+          <t>[[0.07188034]
+ [0.05551457]
+ [0.57219964]
+ [0.65288804]
+ [0.64414103]
+ [0.63542433]
+ [0.62674104]
+ [0.61809453]
+ [0.60948852]
+ [0.59363418]
+ [0.57672545]
+ [0.56007464]
+ [0.54367824]
+ [0.52915496]
+ [0.51636879]
+ [0.50996794]
+ [0.50356135]
+ [0.49714945]]</t>
         </is>
       </c>
       <c r="E1222" t="inlineStr"/>
@@ -33429,24 +33414,24 @@
       <c r="C1223" t="inlineStr"/>
       <c r="D1223" t="inlineStr">
         <is>
-          <t>[[0.08227709]
- [0.1072528 ]
- [0.22639108]
- [0.0663278 ]
- [0.06335721]
- [0.06053086]
- [0.05480711]
- [0.05243425]
- [0.05024666]
- [0.07533475]
- [0.06725075]
- [0.05947295]
- [0.05763434]
- [0.05446099]
- [0.05333115]
- [0.04530889]
- [0.04477877]
- [0.04424926]]</t>
+          <t>[[0.06409401]
+ [0.08609488]
+ [0.27294638]
+ [0.06269294]
+ [0.06070436]
+ [0.05883482]
+ [0.05709053]
+ [0.05547742]
+ [0.05400081]
+ [0.06735219]
+ [0.06110902]
+ [0.05582075]
+ [0.05199927]
+ [0.05014918]
+ [0.04922053]
+ [0.04526716]
+ [0.04481285]
+ [0.04435964]]</t>
         </is>
       </c>
       <c r="E1223" t="inlineStr"/>
@@ -33465,24 +33450,24 @@
       <c r="C1224" t="inlineStr"/>
       <c r="D1224" t="inlineStr">
         <is>
-          <t>[[0.1084764 ]
- [0.21570839]
- [0.35655526]
- [0.36447486]
- [0.36031346]
- [0.35614531]
- [0.34135622]
- [0.33727383]
- [0.33317822]
- [0.35325882]
- [0.34432046]
- [0.3352571 ]
- [0.34230228]
- [0.33375321]
- [0.32519798]
- [0.30926097]
- [0.30511131]
- [0.30096078]]</t>
+          <t>[[0.09295021]
+ [0.17077628]
+ [0.64611827]
+ [0.72520111]
+ [0.71748133]
+ [0.70974799]
+ [0.70199921]
+ [0.69423301]
+ [0.68644735]
+ [0.67080454]
+ [0.65505415]
+ [0.63917158]
+ [0.62364832]
+ [0.60854677]
+ [0.59342912]
+ [0.58586694]
+ [0.57830202]
+ [0.5707347 ]]</t>
         </is>
       </c>
       <c r="E1224" t="inlineStr"/>
@@ -33505,36 +33490,36 @@
       </c>
       <c r="D1225" t="inlineStr">
         <is>
-          <t>[[-9.19877246e+06]
- [ 1.44758399e+07]
- [ 4.54114720e+07]
- [ 5.01317170e+07]
- [ 4.96434028e+07]
- [ 4.91553400e+07]
- [ 4.72256627e+07]
- [ 4.67578050e+07]
- [ 4.62915984e+07]
- [ 4.92317621e+07]
- [ 4.82192015e+07]
- [ 4.72268353e+07]
- [ 4.83364697e+07]
- [ 4.71194972e+07]
- [ 4.59010938e+07]
- [ 4.36721689e+07]
- [ 4.30888131e+07]
- [ 4.25052042e+07]
- [ 5.03060613e+07]
- [ 4.50713451e+07]
- [ 3.97359659e+07]
- [ 4.11906055e+07]
- [ 3.83209531e+07]
- [ 3.20044421e+07]
- [ 3.40823244e+07]
- [ 2.06154638e+07]
- [ 1.18675105e+06]
- [-4.12879891e+06]
- [ 2.36359639e+07]
- [ 5.59329640e-02]]</t>
+          <t>[[-1.40715329e+07]
+ [ 4.42360032e+06]
+ [ 1.05248135e+08]
+ [ 1.21936544e+08]
+ [ 1.20743272e+08]
+ [ 1.19548055e+08]
+ [ 1.18351358e+08]
+ [ 1.17153660e+08]
+ [ 1.15955458e+08]
+ [ 1.13559355e+08]
+ [ 1.11167882e+08]
+ [ 1.08786435e+08]
+ [ 1.06343886e+08]
+ [ 1.03830857e+08]
+ [ 1.01312252e+08]
+ [ 1.00051384e+08]
+ [ 9.87893529e+07]
+ [ 9.75262244e+07]
+ [ 1.73158080e+08]
+ [ 1.53543820e+08]
+ [ 1.33742555e+08]
+ [ 1.46703128e+08]
+ [ 1.05660643e+08]
+ [ 6.44390641e+07]
+ [ 4.39817142e+07]
+ [ 2.20447300e+07]
+ [-1.08202340e+07]
+ [ 2.68583840e+06]
+ [ 3.32938817e+07]
+ [ 4.26343406e-02]]</t>
         </is>
       </c>
       <c r="E1225" t="inlineStr"/>
@@ -33557,36 +33542,36 @@
       </c>
       <c r="D1226" t="inlineStr">
         <is>
-          <t>[[2.62583412e+06]
- [7.01151000e+06]
- [7.64837366e+06]
- [2.27950891e+06]
- [2.27952261e+06]
- [2.27953658e+06]
- [2.21062222e+06]
- [2.21063648e+06]
- [2.21065131e+06]
- [2.40375814e+06]
- [2.40383712e+06]
- [2.40392795e+06]
- [2.51966631e+06]
- [2.51950824e+06]
- [2.51954641e+06]
- [2.42756347e+06]
- [2.42757193e+06]
- [2.42758027e+06]
- [3.17147550e+06]
- [3.18589352e+06]
- [3.20038399e+06]
- [3.99368108e+06]
- [4.53907193e+06]
- [5.25009625e+06]
- [7.59095350e+06]
- [8.39609942e+06]
- [9.38223944e+06]
- [1.03467353e+07]
- [1.03466043e+07]
- [5.66269740e+03]]</t>
+          <t>[[7.43416241e+05]
+ [5.75986049e+06]
+ [1.72937375e+07]
+ [3.60944816e+06]
+ [3.60948739e+06]
+ [3.60952708e+06]
+ [3.60956750e+06]
+ [3.60960893e+06]
+ [3.60965166e+06]
+ [3.61026330e+06]
+ [3.61046110e+06]
+ [3.61068377e+06]
+ [3.61070390e+06]
+ [3.61041973e+06]
+ [3.61052449e+06]
+ [3.60987744e+06]
+ [3.60990192e+06]
+ [3.60992607e+06]
+ [7.15792426e+06]
+ [7.16035270e+06]
+ [7.16252946e+06]
+ [1.00636404e+07]
+ [1.00680363e+07]
+ [1.00713186e+07]
+ [1.06048742e+07]
+ [1.18828221e+07]
+ [1.34927609e+07]
+ [1.44571797e+07]
+ [1.44570102e+07]
+ [1.29210627e+04]]</t>
         </is>
       </c>
       <c r="E1226" t="inlineStr"/>
@@ -33611,34 +33596,34 @@
         <is>
           <t>[[-0.00000000e+00]
  [-0.00000000e+00]
- [-8.54919298e+06]
- [-1.48517765e+07]
- [-1.36574241e+07]
- [-1.24723435e+07]
- [-1.09503907e+07]
- [-9.82030658e+06]
- [-8.70010615e+06]
- [-7.66711317e+06]
- [-5.30181601e+06]
- [-2.99461782e+06]
- [-9.77413561e+05]
- [-8.20091310e+03]
- [-9.33533743e+03]
- [-9.60587901e+03]
- [-9.94285748e+03]
- [-1.02469868e+04]
- [-1.45540385e+04]
- [-1.61997621e+04]
- [-1.73940045e+04]
- [-2.07603459e+04]
- [-1.98310080e+04]
- [-1.84703018e+04]
- [-2.19772686e+04]
- [-2.07267211e+04]
- [-1.93747472e+04]
- [-1.95600471e+04]
- [-1.98772810e+04]
- [-2.01792318e+04]]</t>
+ [-6.09120398e+06]
+ [-1.17097567e+07]
+ [-1.07680797e+07]
+ [-9.83371304e+06]
+ [-8.90681564e+06]
+ [-7.98762920e+06]
+ [-7.07648192e+06]
+ [-5.72925432e+06]
+ [-3.96178478e+06]
+ [-2.23772972e+06]
+ [-6.96396025e+05]
+ [-5.84305714e+03]
+ [-6.65132155e+03]
+ [-7.10612658e+03]
+ [-7.35541263e+03]
+ [-7.58039790e+03]
+ [-1.65604808e+04]
+ [-1.85772443e+04]
+ [-2.00567145e+04]
+ [-3.02170993e+04]
+ [-3.21436020e+04]
+ [-3.37579392e+04]
+ [-3.34459572e+04]
+ [-3.12078886e+04]
+ [-2.88000982e+04]
+ [-2.77091934e+04]
+ [-2.80375872e+04]
+ [-2.83542274e+04]]</t>
         </is>
       </c>
       <c r="E1227" t="inlineStr"/>
@@ -33709,36 +33694,36 @@
       <c r="C1229" t="inlineStr"/>
       <c r="D1229" t="inlineStr">
         <is>
-          <t>[[5.22008074e-02]
- [9.61197576e-02]
- [2.64277785e-01]
- [3.00685944e-01]
- [2.94190722e-01]
- [2.87783205e-01]
- [2.73088289e-01]
- [2.67080598e-01]
- [2.61174805e-01]
- [2.72869140e-01]
- [2.60687800e-01]
- [2.49110533e-01]
- [2.49398933e-01]
- [2.40741381e-01]
- [2.34573423e-01]
- [2.23210014e-01]
- [2.20257208e-01]
- [2.17303415e-01]
- [2.57462672e-01]
- [2.31028840e-01]
- [2.04136328e-01]
- [2.12520966e-01]
- [1.99046655e-01]
- [1.69294518e-01]
- [1.85880905e-01]
- [1.28379759e-01]
- [8.28894547e-02]
- [9.35407348e-02]
- [1.50928008e-01]
- [1.14134001e-04]]</t>
+          <t>[[7.18803409e-02]
+ [5.55145740e-02]
+ [5.72199644e-01]
+ [6.52888044e-01]
+ [6.44141031e-01]
+ [6.35424334e-01]
+ [6.26741037e-01]
+ [6.18094526e-01]
+ [6.09488516e-01]
+ [5.93634180e-01]
+ [5.76725455e-01]
+ [5.60074643e-01]
+ [5.43678244e-01]
+ [5.29154963e-01]
+ [5.16368787e-01]
+ [5.09967937e-01]
+ [5.03561346e-01]
+ [4.97149447e-01]
+ [8.83144532e-01]
+ [7.83661616e-01]
+ [6.83314028e-01]
+ [7.51597991e-01]
+ [5.44842846e-01]
+ [3.39680120e-01]
+ [2.42539204e-01]
+ [1.53476391e-01]
+ [1.30976087e-01]
+ [1.28118517e-01]
+ [2.11976125e-01]
+ [1.83752882e-04]]</t>
         </is>
       </c>
       <c r="E1229" t="inlineStr"/>
@@ -33757,36 +33742,36 @@
       <c r="C1230" t="inlineStr"/>
       <c r="D1230" t="inlineStr">
         <is>
-          <t>[[0.08227709]
- [0.1072528 ]
- [0.22639108]
- [0.0663278 ]
- [0.06335721]
- [0.06053086]
- [0.05480711]
- [0.05243425]
- [0.05024666]
- [0.07533475]
- [0.06725075]
- [0.05947295]
- [0.05763434]
- [0.05446099]
- [0.05333115]
- [0.04530889]
- [0.04477877]
- [0.04424926]
- [0.08085683]
- [0.07643264]
- [0.07205009]
- [0.09707235]
- [0.09545733]
- [0.09569436]
- [0.13719869]
- [0.13992594]
- [0.14428879]
- [0.15371998]
- [0.15087004]
- [0.00069681]]</t>
+          <t>[[0.06409401]
+ [0.08609488]
+ [0.27294638]
+ [0.06269294]
+ [0.06070436]
+ [0.05883482]
+ [0.05709053]
+ [0.05547742]
+ [0.05400081]
+ [0.06735219]
+ [0.06110902]
+ [0.05582075]
+ [0.05199927]
+ [0.05014918]
+ [0.04922053]
+ [0.04526716]
+ [0.04481285]
+ [0.04435964]
+ [0.16957207]
+ [0.16469079]
+ [0.15982319]
+ [0.33694599]
+ [0.32800071]
+ [0.31904737]
+ [0.27419539]
+ [0.27861405]
+ [0.2862208 ]
+ [0.26167226]
+ [0.25892401]
+ [0.00127174]]</t>
         </is>
       </c>
       <c r="E1230" t="inlineStr"/>
@@ -33805,36 +33790,36 @@
       <c r="C1231" t="inlineStr"/>
       <c r="D1231" t="inlineStr">
         <is>
-          <t>[[2.09830616e-01]
- [3.69965674e-01]
- [5.78386651e-01]
- [5.81997590e-01]
- [5.74764755e-01]
- [5.67528343e-01]
- [5.42505702e-01]
- [5.35436655e-01]
- [5.28347031e-01]
- [5.61338604e-01]
- [5.45795254e-01]
- [5.29995545e-01]
- [5.41316729e-01]
- [5.27183767e-01]
- [5.13076161e-01]
- [4.86810762e-01]
- [4.79991016e-01]
- [4.73178255e-01]
- [5.60050253e-01]
- [5.05106866e-01]
- [4.49746803e-01]
- [4.87883952e-01]
- [4.91821014e-01]
- [4.88124837e-01]
- [6.68448148e-01]
- [6.31412941e-01]
- [5.56811349e-01]
- [5.75294748e-01]
- [8.01754509e-01]
- [3.75409915e-10]]</t>
+          <t>[[3.41924814e-01]
+ [4.64427091e-01]
+ [1.26149543e+00]
+ [1.39258569e+00]
+ [1.37477099e+00]
+ [1.35698304e+00]
+ [1.33920891e+00]
+ [1.32143554e+00]
+ [1.30364957e+00]
+ [1.26797065e+00]
+ [1.23206227e+00]
+ [1.19578312e+00]
+ [1.16179336e+00]
+ [1.13035835e+00]
+ [1.09907939e+00]
+ [1.08350263e+00]
+ [1.06796664e+00]
+ [1.05247177e+00]
+ [2.05631883e+00]
+ [1.82795777e+00]
+ [1.60457403e+00]
+ [1.97828703e+00]
+ [1.52372932e+00]
+ [1.08774458e+00]
+ [9.48429633e-01]
+ [8.88498634e-01]
+ [7.28383618e-01]
+ [1.00611010e+00]
+ [1.34913896e+00]
+ [2.93825665e-10]]</t>
         </is>
       </c>
       <c r="E1231" t="inlineStr"/>
@@ -33853,7 +33838,7 @@
       <c r="C1232" t="inlineStr"/>
       <c r="D1232" t="inlineStr">
         <is>
-          <t>[-0.06184585]</t>
+          <t>[-0.18371147]</t>
         </is>
       </c>
       <c r="E1232" t="inlineStr">
@@ -33876,7 +33861,7 @@
       <c r="C1233" t="inlineStr"/>
       <c r="D1233" t="inlineStr">
         <is>
-          <t>[-0.1253374]</t>
+          <t>[-0.02562917]</t>
         </is>
       </c>
       <c r="E1233" t="inlineStr">
@@ -33899,7 +33884,7 @@
       <c r="C1234" t="inlineStr"/>
       <c r="D1234" t="inlineStr">
         <is>
-          <t>[1.05175114]</t>
+          <t>[1.0007888]</t>
         </is>
       </c>
       <c r="E1234" t="inlineStr"/>
@@ -33922,7 +33907,7 @@
       </c>
       <c r="D1235" t="inlineStr">
         <is>
-          <t>[28.29640759]</t>
+          <t>[29.73732221]</t>
         </is>
       </c>
       <c r="E1235" t="inlineStr"/>
@@ -33945,9 +33930,9 @@
       </c>
       <c r="D1236" t="inlineStr">
         <is>
-          <t>[1042.475991   1196.20798661 1304.3790757  1389.07318696 1337.06049449
- 1255.22189119 1154.30127998 1094.70919237 1030.65298879  962.19898835
-  978.02680667  993.06340443 1007.39507288]</t>
+          <t>[ 764.0675664   879.89721404  960.79254611 1024.48836201 1098.19816289
+ 1159.08690457 1211.44283474 1136.90215108 1057.80219044  973.99389388
+  985.59734665  996.77327326 1007.55661265]</t>
         </is>
       </c>
       <c r="E1236" t="inlineStr"/>
@@ -34016,9 +34001,9 @@
       </c>
       <c r="D1239" t="inlineStr">
         <is>
-          <t>[135.7193516  155.74123287 169.88212701 181.04996942 193.97594653
- 204.63727934 213.7833591  218.72660661 223.33944433 227.66891335
- 231.48712289 235.11571637 238.57517091]</t>
+          <t>[135.7193516  156.69843521 171.33048609 182.82227714 196.0755203
+ 206.97905056 216.31799319 221.36083569 226.06408979 230.47643609
+ 233.27575427 235.97256769 238.57517091]</t>
         </is>
       </c>
       <c r="E1239" t="inlineStr"/>
@@ -34041,8 +34026,8 @@
       </c>
       <c r="D1240" t="inlineStr">
         <is>
-          <t>[14.88565131 15.94588977 16.65408583 17.19278299 17.79593838 18.27844853
- 18.68245315 18.89721312 19.09543997 19.27963559 19.44063167 19.59240654
+          <t>[14.88565131 15.99481728 16.72492878 17.27672858 17.89198978 18.38273594
+ 18.79287721 19.01066664 19.21156496 19.39814576 19.51559311 19.62807517
  19.73601994]</t>
         </is>
       </c>
@@ -34066,9 +34051,9 @@
       </c>
       <c r="D1241" t="inlineStr">
         <is>
-          <t>[1042.475991   1196.20798661 1304.3790757  1389.07318696 1337.06049449
- 1255.22189119 1154.30127998 1094.70919237 1030.65298879  962.19898835
-  978.02680667  993.06340443 1007.39507288]</t>
+          <t>[ 764.0675664   879.89721404  960.79254611 1024.48836201 1098.19816289
+ 1159.08690457 1211.44283474 1136.90215108 1057.80219044  973.99389388
+  985.59734665  996.77327326 1007.55661265]</t>
         </is>
       </c>
       <c r="E1241" t="inlineStr"/>
@@ -34137,9 +34122,9 @@
       </c>
       <c r="D1244" t="inlineStr">
         <is>
-          <t>[135.7193516  155.74123287 169.88212701 181.04996942 193.97594653
- 204.63727934 213.7833591  218.72660661 223.33944433 227.66891335
- 231.48712289 235.11571637 238.57517091]</t>
+          <t>[135.7193516  156.69843521 171.33048609 182.82227714 196.0755203
+ 206.97905056 216.31799319 221.36083569 226.06408979 230.47643609
+ 233.27575427 235.97256769 238.57517091]</t>
         </is>
       </c>
       <c r="E1244" t="inlineStr"/>
@@ -34162,9 +34147,9 @@
       </c>
       <c r="D1245" t="inlineStr">
         <is>
-          <t>[ 15.          26.61331002  38.22662005  49.83993007  66.43037296
-  83.02081585  99.61125874 109.56552448 119.51979021 129.47405594
- 138.76470396 148.05535198 157.346     ]</t>
+          <t>[ 15.          27.30150617  39.60301235  51.90451852  69.47809877
+  87.05167901 104.62525926 115.16940741 125.71355556 136.2577037
+ 143.2871358  150.3165679  157.346     ]</t>
         </is>
       </c>
       <c r="E1245" t="inlineStr"/>
@@ -34256,10 +34241,10 @@
       </c>
       <c r="D1249" t="inlineStr">
         <is>
-          <t>[-1042.475991   -1196.20798661 -1304.3790757  -1389.07318696
- -1337.06049449 -1255.22189119 -1154.30127998 -1094.70919237
- -1030.65298879  -962.19898835  -978.02680667  -993.06340443
- -1007.39507288]</t>
+          <t>[ -764.0675664   -879.89721404  -960.79254611 -1024.48836201
+ -1098.19816289 -1159.08690457 -1211.44283474 -1136.90215108
+ -1057.80219044  -973.99389388  -985.59734665  -996.77327326
+ -1007.55661265]</t>
         </is>
       </c>
       <c r="E1249" t="inlineStr"/>
@@ -34282,9 +34267,9 @@
       </c>
       <c r="D1250" t="inlineStr">
         <is>
-          <t>[135.7193516  155.74123287 169.88212701 181.04996942 193.97594653
- 204.63727934 213.7833591  218.72660661 223.33944433 227.66891335
- 231.48712289 235.11571637 238.57517091]</t>
+          <t>[135.7193516  156.69843521 171.33048609 182.82227714 196.0755203
+ 206.97905056 216.31799319 221.36083569 226.06408979 230.47643609
+ 233.27575427 235.97256769 238.57517091]</t>
         </is>
       </c>
       <c r="E1250" t="inlineStr"/>
@@ -34307,18 +34292,18 @@
       </c>
       <c r="D1251" t="inlineStr">
         <is>
-          <t>[[54829191.64049605]
- [49745176.45766906]
- [44550611.30345981]
- [47616877.61500728]
- [46459470.01990112]
- [42532122.55927505]
- [50674404.91316561]
- [40241202.27692041]
- [24685280.12775888]
- [ 2560638.3822082 ]
- [-3272105.30655231]
- [24399881.61827262]]</t>
+          <t>[[ 1.79994065e+08]
+ [ 1.61091392e+08]
+ [ 1.41949717e+08]
+ [ 1.59407180e+08]
+ [ 1.19443125e+08]
+ [ 7.91756378e+07]
+ [ 6.05829369e+07]
+ [ 4.25732390e+07]
+ [ 1.48909737e+07]
+ [-1.14251477e+07]
+ [ 3.77358102e+06]
+ [ 3.39146845e+07]]</t>
         </is>
       </c>
       <c r="E1251" t="inlineStr"/>
@@ -34341,18 +34326,18 @@
       </c>
       <c r="D1252" t="inlineStr">
         <is>
-          <t>[[ 3169483.18367244]
- [ 3183939.20308599]
- [ 3198467.44225797]
- [ 3991020.6811076 ]
- [ 4536543.65381678]
- [ 5247763.93423891]
- [ 7589692.78148914]
- [ 8395011.61424986]
- [ 9381373.24370547]
- [10346178.72122168]
- [10346318.47946923]
- [10346191.96909047]]</t>
+          <t>[[ 7152140.73612772]
+ [ 7154658.98710827]
+ [ 7156925.68787123]
+ [10055817.02723187]
+ [10060546.44399578]
+ [10064184.66120238]
+ [10600769.85366519]
+ [11878872.83212939]
+ [13489068.20600433]
+ [14454911.38603015]
+ [14454928.2168285 ]
+ [14454776.14127151]]</t>
         </is>
       </c>
       <c r="E1252" t="inlineStr"/>
@@ -34375,18 +34360,18 @@
       </c>
       <c r="D1253" t="inlineStr">
         <is>
-          <t>[[-14554.03845576]
- [-16199.76212033]
- [-17394.00446779]
- [-20760.3459134 ]
- [-19831.00798972]
- [-18470.30176566]
- [-21977.26863096]
- [-20726.72107212]
- [-19374.74722693]
- [-19560.04714398]
- [-19877.28095268]
- [-20179.23179818]]</t>
+          <t>[[-16560.48084132]
+ [-18577.24431138]
+ [-20056.71445069]
+ [-30217.09934593]
+ [-32143.6020261 ]
+ [-33757.93923908]
+ [-33445.9571736 ]
+ [-31207.8885523 ]
+ [-28800.09817433]
+ [-27709.19337349]
+ [-28037.58723658]
+ [-28354.227381  ]]</t>
         </is>
       </c>
       <c r="E1253" t="inlineStr"/>
@@ -34439,18 +34424,18 @@
       <c r="C1255" t="inlineStr"/>
       <c r="D1255" t="inlineStr">
         <is>
-          <t>[[0.28034509]
- [0.25464276]
- [0.2284164 ]
- [0.2448164 ]
- [0.23974329]
- [0.22129047]
- [0.2663652 ]
- [0.21770852]
- [0.1503772 ]
- [0.09209184]
- [0.09265818]
- [0.15404142]]</t>
+          <t>[[0.81584886]
+ [0.73060723]
+ [0.64434758]
+ [0.72515537]
+ [0.54587981]
+ [0.36666032]
+ [0.28631746]
+ [0.21387076]
+ [0.12531302]
+ [0.12441371]
+ [0.11449748]
+ [0.19066464]]</t>
         </is>
       </c>
       <c r="E1255" t="inlineStr"/>
@@ -34469,18 +34454,18 @@
       <c r="C1256" t="inlineStr"/>
       <c r="D1256" t="inlineStr">
         <is>
-          <t>[[0.0808369 ]
- [0.07640885]
- [0.07202353]
- [0.09702783]
- [0.09541896]
- [0.09566406]
- [0.13717974]
- [0.13991218]
- [0.14428086]
- [0.15371636]
- [0.15086811]
- [0.14805898]]</t>
+          <t>[[0.16952707]
+ [0.16463941]
+ [0.15976728]
+ [0.33679244]
+ [0.32784148]
+ [0.31888499]
+ [0.27411413]
+ [0.27854656]
+ [0.28616865]
+ [0.26164785]
+ [0.25890087]
+ [0.25616544]]</t>
         </is>
       </c>
       <c r="E1256" t="inlineStr"/>
@@ -34499,18 +34484,18 @@
       <c r="C1257" t="inlineStr"/>
       <c r="D1257" t="inlineStr">
         <is>
-          <t>[[0.52977839]
- [0.48261962]
- [0.43470717]
- [0.48059433]
- [0.49665451]
- [0.50245626]
- [0.65718277]
- [0.60342351]
- [0.51989523]
- [0.36789098]
- [0.30023771]
- [0.51245387]]</t>
+          <t>[[2.25715804]
+ [2.02830607]
+ [1.79945283]
+ [2.13743589]
+ [1.67153469]
+ [1.20992104]
+ [1.04387559]
+ [0.93772397]
+ [0.6939445 ]
+ [0.41542891]
+ [0.5836181 ]
+ [0.9300377 ]]</t>
         </is>
       </c>
       <c r="E1257" t="inlineStr"/>
@@ -34533,7 +34518,7 @@
       </c>
       <c r="D1258" t="inlineStr">
         <is>
-          <t>[0.27366129]</t>
+          <t>[0.16287437]</t>
         </is>
       </c>
       <c r="E1258" t="inlineStr"/>
@@ -34556,7 +34541,7 @@
       </c>
       <c r="D1259" t="inlineStr">
         <is>
-          <t>[0.27709454]</t>
+          <t>[0.16420496]</t>
         </is>
       </c>
       <c r="E1259" t="inlineStr"/>
@@ -34579,7 +34564,7 @@
       </c>
       <c r="D1260" t="inlineStr">
         <is>
-          <t>[0.27366129 0.27709454 0.86852809 1.109199   1.26596101 2.83819094]</t>
+          <t>[0.16287437 0.16420496 0.66948732 0.91294008 1.05261913 2.53047604]</t>
         </is>
       </c>
       <c r="E1260" t="inlineStr"/>
@@ -34598,12 +34583,12 @@
       <c r="C1261" t="inlineStr"/>
       <c r="D1261" t="inlineStr">
         <is>
-          <t>[[ 8.80263629e-01  1.32232955e-01 -1.48113974e+00  2.92690188e+00
-  -1.45825872e+00]
- [ 2.13010698e+02 -5.51139404e+02  1.19494194e+03 -1.29247463e+03
-   4.36661403e+02]
- [-5.33954476e+01  1.05342511e+02 -1.49711521e+02  2.23013182e+02
-  -1.24248724e+02]]</t>
+          <t>[[ 1.19924175e+00 -1.97476190e-01  3.31078041e-01 -5.94359853e-01
+   2.61516247e-01]
+ [ 6.22085049e+02 -8.42640453e+02  6.14330433e+02 -4.57633045e+02
+   6.48580164e+01]
+ [-9.90228136e+01  1.79789181e+02 -7.69412426e+01  3.19501475e+01
+  -3.47752724e+01]]</t>
         </is>
       </c>
       <c r="E1261" t="inlineStr"/>
@@ -34622,12 +34607,9 @@
       <c r="C1262" t="inlineStr"/>
       <c r="D1262" t="inlineStr">
         <is>
-          <t>[[ 8.62703451e-01  1.77722277e-01 -1.58056904e+00  3.02364469e+00
-  -1.48350138e+00]
- [ 4.13097691e+01 -1.05140448e+02  2.27881816e+02 -2.40013617e+02
-   7.69624793e+01]
- [-5.00657913e+01  1.03319084e+02 -1.59898300e+02  2.29695214e+02
-  -1.22050206e+02]]</t>
+          <t>[[  1.19042878  -0.18748127   0.32525053  -0.59246826   0.26427022]
+ [ 67.98636967 -87.53828601  62.1592874  -43.02961545   1.4222444 ]
+ [-92.17497172 166.41581498 -77.92747752  40.83869703 -36.15206276]]</t>
         </is>
       </c>
       <c r="E1262" t="inlineStr"/>
@@ -34646,7 +34628,7 @@
       <c r="C1263" t="inlineStr"/>
       <c r="D1263" t="inlineStr">
         <is>
-          <t>[[  7.28180391 -28.00135394  49.72538152 -40.00976574  12.00393424]
+          <t>[[  7.58722108 -25.82321652  42.95400409 -34.17138755  10.45337889]
  [  0.           0.           0.           0.           0.        ]
  [  0.           0.           0.           0.           0.        ]]</t>
         </is>
@@ -34671,7 +34653,7 @@
       </c>
       <c r="D1264" t="inlineStr">
         <is>
-          <t>[0.27709454 1.26596101 2.94319818]</t>
+          <t>[0.16420496 1.05261913 2.611518  ]</t>
         </is>
       </c>
       <c r="E1264" t="inlineStr"/>
@@ -34694,7 +34676,7 @@
       </c>
       <c r="D1265" t="inlineStr">
         <is>
-          <t>[0.27366129 1.109199   2.83819094]</t>
+          <t>[0.16287437 0.91294008 2.53047604]</t>
         </is>
       </c>
       <c r="E1265" t="inlineStr"/>
@@ -34717,7 +34699,7 @@
       </c>
       <c r="D1266" t="inlineStr">
         <is>
-          <t>[5.7992317 0.        0.       ]</t>
+          <t>[4.57146106 0.         0.        ]</t>
         </is>
       </c>
       <c r="E1266" t="inlineStr"/>
@@ -34741,18 +34723,18 @@
       <c r="D1267" t="inlineStr">
         <is>
           <t>[[0.        ]
- [0.0046911 ]
- [0.01752644]
- [0.03779641]
- [0.0806032 ]
- [0.1415541 ]
- [0.22258364]
- [0.28235578]
- [0.35173587]
- [0.42993844]
- [0.50895733]
- [0.59039351]
- [0.67035811]]</t>
+ [0.02070865]
+ [0.07865352]
+ [0.17007718]
+ [0.36312646]
+ [0.62527595]
+ [0.94056637]
+ [1.14944173]
+ [1.37119743]
+ [1.60400073]
+ [1.76311476]
+ [1.92284528]
+ [2.08074667]]</t>
         </is>
       </c>
       <c r="E1267" t="inlineStr"/>
@@ -34775,7 +34757,7 @@
       </c>
       <c r="D1268" t="inlineStr">
         <is>
-          <t>[0.67035811]</t>
+          <t>[2.08074667]</t>
         </is>
       </c>
       <c r="E1268" t="inlineStr"/>
@@ -34798,18 +34780,18 @@
       </c>
       <c r="D1269" t="inlineStr">
         <is>
-          <t>[[-21529908.32708937]
- [-19752987.55157984]
- [-17981506.73380483]
- [-15928873.0970923 ]
- [-14082981.50723458]
- [-12444233.4506605 ]
- [-11745331.58280429]
- [-11100199.67678794]
- [-10508881.4474522 ]
- [-10001319.38229696]
- [ -9493615.37584772]
- [ -8985776.30844629]]</t>
+          <t>[[-15825409.94452397]
+ [-14928437.5716555 ]
+ [-14030584.74683796]
+ [-13111242.26497845]
+ [-12190728.92008965]
+ [-11269230.46898924]
+ [-10739039.70396253]
+ [-10254835.92416168]
+ [ -9816667.5003503 ]
+ [ -9539868.15269817]
+ [ -9262989.54291176]
+ [ -8986034.52447547]]</t>
         </is>
       </c>
       <c r="E1269" t="inlineStr"/>
@@ -34832,18 +34814,18 @@
       </c>
       <c r="D1270" t="inlineStr">
         <is>
-          <t>[[2938072.96746462]
- [2938695.00668892]
- [2939259.05695811]
- [2940362.43428595]
- [2941105.82008848]
- [2941717.95857186]
- [2939812.17176358]
- [2939962.27321582]
- [2940037.00427416]
- [2939872.08188809]
- [2939938.72958409]
- [2939899.07923565]]</t>
+          <t>[[2938467.40851566]
+ [2939825.95130812]
+ [2941049.86777214]
+ [2942765.20082649]
+ [2944581.69639173]
+ [2945982.63444853]
+ [2942967.13068615]
+ [2942807.6666633 ]
+ [2942553.45245483]
+ [2940846.35194885]
+ [2940859.39481385]
+ [2940824.22250044]]</t>
         </is>
       </c>
       <c r="E1270" t="inlineStr"/>
@@ -34866,18 +34848,18 @@
       </c>
       <c r="D1271" t="inlineStr">
         <is>
-          <t>[[8739.98425859]
- [8743.32394634]
- [8746.49743045]
- [8752.95381041]
- [8758.1125831 ]
- [8763.36896229]
- [8752.39677868]
- [8754.69681763]
- [8756.99976119]
- [8757.77951072]
- [8761.08460836]
- [8764.05241999]]</t>
+          <t>[[8742.06921928]
+ [8749.42559293]
+ [8756.37963841]
+ [8766.74131302]
+ [8778.87029027]
+ [8789.69801122]
+ [8772.47213588]
+ [8773.06731377]
+ [8773.64968602]
+ [8762.8627152 ]
+ [8764.69882265]
+ [8766.37425601]]</t>
         </is>
       </c>
       <c r="E1271" t="inlineStr"/>
@@ -34900,18 +34882,18 @@
       </c>
       <c r="D1272" t="inlineStr">
         <is>
-          <t>[[-1899081.44731704]
- [-1796151.72846891]
- [-1692515.77392953]
- [-1543255.88926401]
- [-1392579.12357596]
- [-1240428.67675869]
- [-1148396.43211853]
- [-1055426.56797305]
- [ -961410.63439206]
- [ -872683.97231411]
- [ -783114.4024976 ]
- [ -692941.935305  ]]</t>
+          <t>[[-1988874.73220415]
+ [-1876496.2229188 ]
+ [-1761554.64962428]
+ [-1592683.85756738]
+ [-1418750.75252001]
+ [-1241234.5302352 ]
+ [-1133718.61376536]
+ [-1025269.4415967 ]
+ [ -915633.23947936]
+ [ -841896.99032765]
+ [ -767624.59183133]
+ [ -692940.93637841]]</t>
         </is>
       </c>
       <c r="E1272" t="inlineStr"/>
@@ -34934,18 +34916,18 @@
       </c>
       <c r="D1273" t="inlineStr">
         <is>
-          <t>[[ 3.53751748e+08]
- [ 3.19358783e+08]
- [ 2.84841770e+08]
- [ 2.35335016e+08]
- [ 1.85626196e+08]
- [ 1.35747073e+08]
- [ 1.05759380e+08]
- [ 7.57017003e+07]
- [ 4.55908368e+07]
- [ 1.74671057e+07]
- [-1.06406634e+07]
- [-3.86931089e+07]]</t>
+          <t>[[ 3.67283460e+08]
+ [ 3.30228040e+08]
+ [ 2.92724814e+08]
+ [ 2.38391874e+08]
+ [ 1.83328090e+08]
+ [ 1.27857797e+08]
+ [ 9.45268854e+07]
+ [ 6.11697695e+07]
+ [ 2.78067170e+07]
+ [ 5.59419373e+06]
+ [-1.65800450e+07]
+ [-3.86931097e+07]]</t>
         </is>
       </c>
       <c r="E1273" t="inlineStr"/>
@@ -34968,18 +34950,18 @@
       </c>
       <c r="D1274" t="inlineStr">
         <is>
-          <t>[[6203581.94323231]
- [6203515.0800082 ]
- [6203447.91922262]
- [6203545.47619768]
- [6203532.89036133]
- [6203529.7859318 ]
- [6203743.91076617]
- [6203768.58887698]
- [6203803.28837458]
- [6203837.91223762]
- [6203781.31240357]
- [6203724.69777438]]</t>
+          <t>[[6204055.20021407]
+ [6203980.73823082]
+ [6203906.17846163]
+ [6204303.44743804]
+ [6204196.09794963]
+ [6204088.61546411]
+ [6204038.41657645]
+ [6204098.8856325 ]
+ [6204178.9250367 ]
+ [6204195.086665  ]
+ [6204151.94768982]
+ [6204108.79696184]]</t>
         </is>
       </c>
       <c r="E1274" t="inlineStr"/>
@@ -35004,7 +34986,7 @@
         <is>
           <t>[[ 2.93771295e+06]
  [ 8.73816952e+03]
- [-2.33118721e+07]]</t>
+ [-1.67211844e+07]]</t>
         </is>
       </c>
       <c r="E1275" t="inlineStr"/>
@@ -35027,9 +35009,9 @@
       </c>
       <c r="D1276" t="inlineStr">
         <is>
-          <t>[[-2.00110854e+06]
- [ 3.87977046e+08]
- [ 6.20266624e+06]]</t>
+          <t>[[-2.09815008e+06]
+ [ 4.03766567e+08]
+ [ 6.20266553e+06]]</t>
         </is>
       </c>
       <c r="E1276" t="inlineStr"/>
@@ -35052,7 +35034,7 @@
       </c>
       <c r="D1277" t="inlineStr">
         <is>
-          <t>[2392497.50765147]</t>
+          <t>[1722218.78619622]</t>
         </is>
       </c>
       <c r="E1277" t="inlineStr"/>
@@ -35075,7 +35057,7 @@
       </c>
       <c r="D1278" t="inlineStr">
         <is>
-          <t>[-2.67902058e+00 -3.80000524e-02  9.79360890e+01]</t>
+          <t>[-3.72168348e+00 -5.27948928e-02  1.17321402e+02]</t>
         </is>
       </c>
       <c r="E1278" t="inlineStr"/>
@@ -35098,8 +35080,8 @@
       </c>
       <c r="D1279" t="inlineStr">
         <is>
-          <t>[3.05819290e+10 3.04509961e+10 2.98008858e+08 5.41253411e+02
- 1.42357775e+07 1.69892134e+05]</t>
+          <t>[2.82272670e+10 2.80963339e+10 2.77519285e+08 5.41567843e+02
+ 1.42357746e+07 1.69909285e+05]</t>
         </is>
       </c>
       <c r="E1279" t="inlineStr"/>
@@ -35118,8 +35100,8 @@
       <c r="C1280" t="inlineStr"/>
       <c r="D1280" t="inlineStr">
         <is>
-          <t>[160.00000007 144.68309698 140.27792815 152.60339277 160.00003655
- 154.1367128 ]</t>
+          <t>[114.28571429 114.28571429 114.28571429 114.28571429 114.28571429
+ 114.28571429]</t>
         </is>
       </c>
       <c r="E1280" t="inlineStr"/>
@@ -35176,7 +35158,7 @@
       <c r="C1283" t="inlineStr"/>
       <c r="D1283" t="inlineStr">
         <is>
-          <t>[1.10586519 1.03140315 0.91923204 0.95377099 1.03803976]</t>
+          <t>[1. 1. 1. 1. 1.]</t>
         </is>
       </c>
       <c r="E1283" t="inlineStr"/>
@@ -35258,10 +35240,7 @@
       </c>
       <c r="D1287" t="inlineStr">
         <is>
-          <t>[5.47646014 5.47646014 5.47646014 5.47646014 5.47646014 5.47646014
- 5.47646014 5.47646014 5.47646014 5.47646014 5.47646014 5.47646014
- 5.47646014 5.47646014 5.47646014 5.47646014 5.47646014 5.47646014
- 5.47646014]</t>
+          <t>[4. 4. 4. 4. 4. 4. 4. 4. 4. 4. 4. 4. 4. 4. 4. 4. 4. 4. 4.]</t>
         </is>
       </c>
       <c r="E1287" t="inlineStr"/>
@@ -35284,7 +35263,7 @@
       </c>
       <c r="D1288" t="inlineStr">
         <is>
-          <t>[  0.   0. -25.]</t>
+          <t>[  0.    0.  -32.5]</t>
         </is>
       </c>
       <c r="E1288" t="inlineStr"/>
@@ -35307,7 +35286,7 @@
       </c>
       <c r="D1289" t="inlineStr">
         <is>
-          <t>[4711.07197162]</t>
+          <t>[3267.25635973]</t>
         </is>
       </c>
       <c r="E1289" t="inlineStr"/>
@@ -35330,7 +35309,7 @@
       </c>
       <c r="D1290" t="inlineStr">
         <is>
-          <t>[47353284.56764184]</t>
+          <t>[32840788.90959796]</t>
         </is>
       </c>
       <c r="E1290" t="inlineStr"/>
@@ -35349,7 +35328,7 @@
       <c r="C1291" t="inlineStr"/>
       <c r="D1291" t="inlineStr">
         <is>
-          <t>[3.]</t>
+          <t>[2.]</t>
         </is>
       </c>
       <c r="E1291" t="inlineStr"/>
@@ -35372,7 +35351,7 @@
       </c>
       <c r="D1292" t="inlineStr">
         <is>
-          <t>[94.22143943]</t>
+          <t>[50.26548246]</t>
         </is>
       </c>
       <c r="E1292" t="inlineStr"/>
@@ -35395,7 +35374,7 @@
       </c>
       <c r="D1293" t="inlineStr">
         <is>
-          <t>[706.46329964]</t>
+          <t>[201.06192983]</t>
         </is>
       </c>
       <c r="E1293" t="inlineStr"/>
@@ -35418,7 +35397,7 @@
       </c>
       <c r="D1294" t="inlineStr">
         <is>
-          <t>[706.46329964]</t>
+          <t>[201.06192983]</t>
         </is>
       </c>
       <c r="E1294" t="inlineStr"/>
@@ -35441,8 +35420,8 @@
       </c>
       <c r="D1295" t="inlineStr">
         <is>
-          <t>[4.82884877e+06 4.82884877e+06 2.24472113e+05 1.00606097e+09
- 1.00606097e+09 0.00000000e+00]</t>
+          <t>[3.34893777e+06 3.34893777e+06 8.74666667e+04 1.17916472e+09
+ 1.17916472e+09 0.00000000e+00]</t>
         </is>
       </c>
       <c r="E1295" t="inlineStr"/>
@@ -35488,7 +35467,7 @@
       </c>
       <c r="D1297" t="inlineStr">
         <is>
-          <t>[-50.         -40.         -30.         -20.         -18.33333333
+          <t>[-65.         -50.         -35.         -20.         -18.33333333
  -16.66666667 -15.         -13.33333333 -11.66666667 -10.
   -6.66666667  -3.33333333   0.           3.33333333   6.66666667
   10.          11.66666667  13.33333333  15.        ]</t>
@@ -35514,10 +35493,7 @@
       </c>
       <c r="D1298" t="inlineStr">
         <is>
-          <t>[10.95292028 10.95292028 10.95292028 10.95292028 10.95292028 10.95292028
- 10.95292028 10.95292028 10.95292028 10.95292028 10.95292028 10.95292028
- 10.95292028 10.95292028 10.95292028 10.95292028 10.95292028 10.95292028
- 10.95292028]</t>
+          <t>[8. 8. 8. 8. 8. 8. 8. 8. 8. 8. 8. 8. 8. 8. 8. 8. 8. 8. 8.]</t>
         </is>
       </c>
       <c r="E1298" t="inlineStr"/>
@@ -35540,7 +35516,7 @@
       </c>
       <c r="D1299" t="inlineStr">
         <is>
-          <t>[30.  5.  5. 10. 10.  5.]</t>
+          <t>[45.  5.  5. 10. 10.  5.]</t>
         </is>
       </c>
       <c r="E1299" t="inlineStr"/>
@@ -35671,7 +35647,7 @@
       </c>
       <c r="D1305" t="inlineStr">
         <is>
-          <t>[-50. -20. -15. -10.   0.  10.  15.]</t>
+          <t>[-65. -20. -15. -10.   0.  10.  15.]</t>
         </is>
       </c>
       <c r="E1305" t="inlineStr"/>
@@ -35690,7 +35666,7 @@
       <c r="C1306" t="inlineStr"/>
       <c r="D1306" t="inlineStr">
         <is>
-          <t>[0.         0.36842105 0.47368421 0.63157895 0.84210526 1.        ]</t>
+          <t>[0.         0.45454545 0.54545455 0.68181818 0.86363636 1.        ]</t>
         </is>
       </c>
       <c r="E1306" t="inlineStr">
@@ -35771,8 +35747,8 @@
       </c>
       <c r="D1309" t="inlineStr">
         <is>
-          <t>[19536.43268291 21590.27599047 22263.4117474  20477.10930733
- 19536.42825673 20274.73755798]</t>
+          <t>[14554.57339244 14554.57339244 14554.57339244 14554.57339244
+ 14554.57339244 14554.57339244]</t>
         </is>
       </c>
       <c r="E1309" t="inlineStr">
@@ -35799,8 +35775,8 @@
       </c>
       <c r="D1310" t="inlineStr">
         <is>
-          <t>[289325.4206968  319319.07621452 329131.82817263 303072.73844952
- 289325.35597179 300116.64432687]</t>
+          <t>[114416.77621695 114416.77621695 114416.77621695 114416.77621695
+ 114416.77621695 114416.77621695]</t>
         </is>
       </c>
       <c r="E1310" t="inlineStr">
@@ -35827,8 +35803,8 @@
       </c>
       <c r="D1311" t="inlineStr">
         <is>
-          <t>[289325.4206968  319319.07621452 329131.82817263 303072.73844952
- 289325.35597179 300116.64432687]</t>
+          <t>[114416.77621695 114416.77621695 114416.77621695 114416.77621695
+ 114416.77621695 114416.77621695]</t>
         </is>
       </c>
       <c r="E1311" t="inlineStr">
@@ -35855,8 +35831,8 @@
       </c>
       <c r="D1312" t="inlineStr">
         <is>
-          <t>[6.93327152e+12 7.65202675e+12 7.88717537e+12 7.26270641e+12
- 6.93326997e+12 7.19186782e+12]</t>
+          <t>[2.74183504e+12 2.74183504e+12 2.74183504e+12 2.74183504e+12
+ 2.74183504e+12 2.74183504e+12]</t>
         </is>
       </c>
       <c r="E1312" t="inlineStr">
@@ -35883,8 +35859,8 @@
       </c>
       <c r="D1313" t="inlineStr">
         <is>
-          <t>[6.93327152e+12 7.65202675e+12 7.88717537e+12 7.26270641e+12
- 6.93326997e+12 7.19186782e+12]</t>
+          <t>[2.74183504e+12 2.74183504e+12 2.74183504e+12 2.74183504e+12
+ 2.74183504e+12 2.74183504e+12]</t>
         </is>
       </c>
       <c r="E1313" t="inlineStr">
@@ -35911,8 +35887,8 @@
       </c>
       <c r="D1314" t="inlineStr">
         <is>
-          <t>[5.49808432e+12 6.06805721e+12 6.25453007e+12 5.75932618e+12
- 5.49808309e+12 5.70315119e+12]</t>
+          <t>[2.17427519e+12 2.17427519e+12 2.17427519e+12 2.17427519e+12
+ 2.17427519e+12 2.17427519e+12]</t>
         </is>
       </c>
       <c r="E1314" t="inlineStr">
@@ -35939,8 +35915,8 @@
       </c>
       <c r="D1315" t="inlineStr">
         <is>
-          <t>[4.68162777e+11 5.17380206e+11 5.33510945e+11 4.90704752e+11
- 4.68162671e+11 4.85855201e+11]</t>
+          <t>[3.48779616e+11 3.48779616e+11 3.48779616e+11 3.48779616e+11
+ 3.48779616e+11 3.48779616e+11]</t>
         </is>
       </c>
       <c r="E1315" t="inlineStr">
@@ -36048,12 +36024,12 @@
       </c>
       <c r="D1319" t="inlineStr">
         <is>
-          <t>[[0.         0.         0.42720184 0.15797622 0.15797622 0.        ]
- [0.         0.         0.38656291 0.14313751 0.14313751 0.        ]
- [0.         0.         0.37487516 0.13887    0.13887    0.        ]
- [0.         0.         0.40757706 0.15081045 0.15081045 0.        ]
- [0.         0.         0.42720194 0.15797626 0.15797626 0.        ]
- [0.         0.         0.41164528 0.15229591 0.15229591 0.        ]]</t>
+          <t>[[0.         0.         0.57342801 0.29177539 0.29177539 0.        ]
+ [0.         0.         0.57342801 0.29177539 0.29177539 0.        ]
+ [0.         0.         0.57342801 0.29177539 0.29177539 0.        ]
+ [0.         0.         0.57342801 0.29177539 0.29177539 0.        ]
+ [0.         0.         0.57342801 0.29177539 0.29177539 0.        ]
+ [0.         0.         0.57342801 0.29177539 0.29177539 0.        ]]</t>
         </is>
       </c>
       <c r="E1319" t="inlineStr"/>
@@ -36076,12 +36052,12 @@
       </c>
       <c r="D1320" t="inlineStr">
         <is>
-          <t>[[0.70159486 0.70159486 0.         0.         0.         0.07898811]
- [0.63465891 0.63465891 0.         0.         0.         0.07156875]
- [0.61540785 0.61540785 0.         0.         0.         0.069435  ]
- [0.66927126 0.66927126 0.         0.         0.         0.07540523]
- [0.70159502 0.70159502 0.         0.         0.         0.07898813]
- [0.67597197 0.67597197 0.         0.         0.         0.07614795]]</t>
+          <t>[[0.94064421 0.94064421 0.         0.         0.         0.1458877 ]
+ [0.94064421 0.94064421 0.         0.         0.         0.1458877 ]
+ [0.94064421 0.94064421 0.         0.         0.         0.1458877 ]
+ [0.94064421 0.94064421 0.         0.         0.         0.1458877 ]
+ [0.94064421 0.94064421 0.         0.         0.         0.1458877 ]
+ [0.94064421 0.94064421 0.         0.         0.         0.1458877 ]]</t>
         </is>
       </c>
       <c r="E1320" t="inlineStr"/>
@@ -36104,7 +36080,7 @@
       </c>
       <c r="D1321" t="inlineStr">
         <is>
-          <t>[1086.06228427]</t>
+          <t>[959.787433]</t>
         </is>
       </c>
       <c r="E1321" t="inlineStr"/>
@@ -36127,7 +36103,7 @@
       </c>
       <c r="D1322" t="inlineStr">
         <is>
-          <t>[3227427.67086679]</t>
+          <t>[2877410.15457617]</t>
         </is>
       </c>
       <c r="E1322" t="inlineStr"/>
@@ -36150,7 +36126,7 @@
       </c>
       <c r="D1323" t="inlineStr">
         <is>
-          <t>[1306870.48260719]</t>
+          <t>[1164365.87139489]</t>
         </is>
       </c>
       <c r="E1323" t="inlineStr"/>
@@ -36173,7 +36149,7 @@
       </c>
       <c r="D1324" t="inlineStr">
         <is>
-          <t>[32.72688078]</t>
+          <t>[40.]</t>
         </is>
       </c>
       <c r="E1324" t="inlineStr"/>
@@ -36196,7 +36172,7 @@
       </c>
       <c r="D1325" t="inlineStr">
         <is>
-          <t>[1.87136959e+09 1.87136959e+09 3.86931626e+07 0.00000000e+00
+          <t>[2.49313387e+09 2.49313387e+09 1.83066842e+07 0.00000000e+00
  0.00000000e+00 0.00000000e+00]</t>
         </is>
       </c>
@@ -36220,9 +36196,7 @@
       </c>
       <c r="D1326" t="inlineStr">
         <is>
-          <t>[10.95292028 10.95292028 10.95292028 10.95292028 10.95292028 10.95292028
- 10.95292028 10.95292028 10.95292028 10.95292028 10.95292028 10.95292028
- 10.95292028 10.95292028 10.95292028 10.95292028 10.95292028 10.95292028]</t>
+          <t>[8. 8. 8. 8. 8. 8. 8. 8. 8. 8. 8. 8. 8. 8. 8. 8. 8. 8.]</t>
         </is>
       </c>
       <c r="E1326" t="inlineStr"/>
@@ -36245,9 +36219,8 @@
       </c>
       <c r="D1327" t="inlineStr">
         <is>
-          <t>[0.07324765 0.07324765 0.07324765 0.08100203 0.08100203 0.08100203
- 0.08354575 0.08354575 0.08354575 0.07679793 0.07679793 0.07679793
- 0.07324764 0.07324764 0.07324764 0.07603396 0.07603396 0.07603396]</t>
+          <t>[0.0749 0.0749 0.0749 0.0749 0.0749 0.0749 0.0749 0.0749 0.0749 0.0749
+ 0.0749 0.0749 0.0749 0.0749 0.0749 0.0749 0.0749 0.0749]</t>
         </is>
       </c>
       <c r="E1327" t="inlineStr"/>
@@ -36295,7 +36268,7 @@
       </c>
       <c r="D1329" t="inlineStr">
         <is>
-          <t>[1406870.48260719]</t>
+          <t>[1264365.87139489]</t>
         </is>
       </c>
       <c r="E1329" t="inlineStr"/>
@@ -36318,7 +36291,7 @@
       </c>
       <c r="D1330" t="inlineStr">
         <is>
-          <t>[3727427.67086679]</t>
+          <t>[3377410.15457617]</t>
         </is>
       </c>
       <c r="E1330" t="inlineStr"/>
@@ -36341,7 +36314,7 @@
       </c>
       <c r="D1331" t="inlineStr">
         <is>
-          <t>[35.02084597]</t>
+          <t>[43.16364123]</t>
         </is>
       </c>
       <c r="E1331" t="inlineStr"/>
@@ -36364,7 +36337,7 @@
       </c>
       <c r="D1332" t="inlineStr">
         <is>
-          <t>[2.29536917e+09 2.29536917e+09 4.16923242e+07 0.00000000e+00
+          <t>[3.13393387e+09 3.13393387e+09 1.99066842e+07 0.00000000e+00
  0.00000000e+00 0.00000000e+00]</t>
         </is>
       </c>
@@ -36388,7 +36361,7 @@
       </c>
       <c r="D1333" t="inlineStr">
         <is>
-          <t>[2850972.76535094]</t>
+          <t>[2038163.33151176]</t>
         </is>
       </c>
       <c r="E1333" t="inlineStr"/>
@@ -36411,7 +36384,7 @@
       </c>
       <c r="D1334" t="inlineStr">
         <is>
-          <t>[7441772.97328297]</t>
+          <t>[5554720.88844186]</t>
         </is>
       </c>
       <c r="E1334" t="inlineStr"/>
@@ -36434,7 +36407,7 @@
       </c>
       <c r="D1335" t="inlineStr">
         <is>
-          <t>[-50.]</t>
+          <t>[-65.]</t>
         </is>
       </c>
       <c r="E1335" t="inlineStr"/>
@@ -36476,8 +36449,7 @@
       </c>
       <c r="D1337" t="inlineStr">
         <is>
-          <t>[-30.         -26.66666667 -23.33333333 -20.         -16.66666667
- -13.33333333 -10.          -6.66666667  -3.33333333  -0.        ]</t>
+          <t>[-45. -40. -35. -30. -25. -20. -15. -10.  -5.  -0.]</t>
         </is>
       </c>
       <c r="E1337" t="inlineStr"/>
@@ -36500,26 +36472,26 @@
       </c>
       <c r="D1338" t="inlineStr">
         <is>
-          <t>[[2.25484013e+10 5.88128600e+12 2.25484013e+10 5.88128600e+12
-  1.51913628e+10 1.22638423e+11]
- [2.04734539e+10 4.23623515e+12 2.04734539e+10 4.23623515e+12
-  1.40713628e+10 1.22638423e+11]
- [1.83985065e+10 2.94515960e+12 1.83985065e+10 2.94515960e+12
-  1.29513628e+10 1.22638423e+11]
- [1.63235592e+10 1.96381245e+12 1.63235592e+10 1.96381245e+12
-  1.18313628e+10 1.22638423e+11]
- [1.42486118e+10 1.24794678e+12 1.42486118e+10 1.24794678e+12
-  1.07113628e+10 1.22638423e+11]
- [1.21736644e+10 7.53315681e+11 1.21736644e+10 7.53315681e+11
-  9.59136280e+09 1.22638423e+11]
- [1.00987171e+10 4.35672235e+11 1.00987171e+10 4.35672235e+11
-  8.47136280e+09 1.22638423e+11]
- [8.02376970e+09 2.50769529e+11 8.02376970e+09 2.50769529e+11
-  7.35136280e+09 1.22638423e+11]
- [5.94882233e+09 1.54360651e+11 5.94882233e+09 1.54360651e+11
-  6.23136280e+09 1.22638423e+11]
- [3.87387496e+09 1.02198686e+11 3.87387496e+09 1.02198686e+11
-  5.11136280e+09 1.22638423e+11]]</t>
+          <t>[[3.08412632e+10 1.85063822e+13 3.08412632e+10 1.85063822e+13
+  1.88533333e+10 4.77866667e+10]
+ [2.77288421e+10 1.30696533e+13 2.77288421e+10 1.30696533e+13
+  1.71733333e+10 4.77866667e+10]
+ [2.46164211e+10 8.82759111e+12 2.46164211e+10 8.82759111e+12
+  1.54933333e+10 4.77866667e+10]
+ [2.15040000e+10 5.63086222e+12 2.15040000e+10 5.63086222e+12
+  1.38133333e+10 4.77866667e+10]
+ [1.83915789e+10 3.33013333e+12 1.83915789e+10 3.33013333e+12
+  1.21333333e+10 4.77866667e+10]
+ [1.52791579e+10 1.77607111e+12 1.52791579e+10 1.77607111e+12
+  1.04533333e+10 4.77866667e+10]
+ [1.21667368e+10 8.19342222e+11 1.21667368e+10 8.19342222e+11
+  8.77333333e+09 4.77866667e+10]
+ [9.05431579e+09 3.10613333e+11 9.05431579e+09 3.10613333e+11
+  7.09333333e+09 4.77866667e+10]
+ [5.94189474e+09 1.00551111e+11 5.94189474e+09 1.00551111e+11
+  5.41333333e+09 4.77866667e+10]
+ [2.82947368e+09 3.98222222e+10 2.82947368e+09 3.98222222e+10
+  3.73333333e+09 4.77866667e+10]]</t>
         </is>
       </c>
       <c r="E1338" t="inlineStr"/>
@@ -38625,7 +38597,7 @@
       <c r="C1408" t="inlineStr"/>
       <c r="D1408" t="inlineStr">
         <is>
-          <t>[199.99999958 200.00000003 188.54411046 171.4       ]</t>
+          <t>[227.53178553 320.         280.         240.        ]</t>
         </is>
       </c>
       <c r="E1408" t="inlineStr"/>
@@ -38644,7 +38616,7 @@
       <c r="C1409" t="inlineStr"/>
       <c r="D1409" t="inlineStr">
         <is>
-          <t>[0.98897059 0.7120167  0.77781332 1.        ]</t>
+          <t>[1.   1.   0.75 1.  ]</t>
         </is>
       </c>
       <c r="E1409" t="inlineStr"/>
@@ -38663,7 +38635,7 @@
       <c r="C1410" t="inlineStr"/>
       <c r="D1410" t="inlineStr">
         <is>
-          <t>[0.98897059 0.7120167  0.77781332 1.        ]</t>
+          <t>[1.   1.   0.75 1.  ]</t>
         </is>
       </c>
       <c r="E1410" t="inlineStr"/>
@@ -38682,7 +38654,7 @@
       <c r="C1411" t="inlineStr"/>
       <c r="D1411" t="inlineStr">
         <is>
-          <t>[0.85126154 0.78430569 0.96254573]</t>
+          <t>[0.71103683 1.         1.        ]</t>
         </is>
       </c>
       <c r="E1411" t="inlineStr"/>
@@ -38763,9 +38735,9 @@
       </c>
       <c r="D1415" t="inlineStr">
         <is>
-          <t>[5.47646014 5.4563261  5.43619206 5.41605801 4.8961466  4.37623518
- 3.85632376 3.57071584 3.28510792 2.9995     2.9995     2.9995
- 2.9995    ]</t>
+          <t>[4.         4.         4.         4.         4.         4.
+ 4.         3.66666667 3.33333333 3.         3.         3.
+ 3.        ]</t>
         </is>
       </c>
       <c r="E1415" t="inlineStr"/>
@@ -38991,9 +38963,9 @@
       </c>
       <c r="D1425" t="inlineStr">
         <is>
-          <t>[ 15.          26.61331002  38.22662005  49.83993007  66.43037296
-  83.02081585  99.61125874 109.56552448 119.51979021 129.47405594
- 138.76470396 148.05535198 157.346     ]</t>
+          <t>[ 15.          27.30150617  39.60301235  51.90451852  69.47809877
+  87.05167901 104.62525926 115.16940741 125.71355556 136.2577037
+ 143.2871358  150.3165679  157.346     ]</t>
         </is>
       </c>
       <c r="E1425" t="inlineStr"/>
@@ -39016,9 +38988,9 @@
       </c>
       <c r="D1426" t="inlineStr">
         <is>
-          <t>[10.95292028 10.91265219 10.87238411 10.83211603  9.79229319  8.75247036
-  7.71264753  7.14143168  6.57021584  5.999       5.999       5.999
-  5.999     ]</t>
+          <t>[8.         8.         8.         8.         8.         8.
+ 8.         7.33333333 6.66666667 6.         6.         6.
+ 6.        ]</t>
         </is>
       </c>
       <c r="E1426" t="inlineStr"/>
@@ -39041,7 +39013,7 @@
       </c>
       <c r="D1427" t="inlineStr">
         <is>
-          <t>[34.83993007 49.77132867 29.8627972  27.87194406]</t>
+          <t>[36.90451852 52.72074074 31.63244444 21.0882963 ]</t>
         </is>
       </c>
       <c r="E1427" t="inlineStr"/>
@@ -39171,7 +39143,7 @@
       </c>
       <c r="D1433" t="inlineStr">
         <is>
-          <t>[ 15.          49.83993007  99.61125874 129.47405594 157.346     ]</t>
+          <t>[ 15.          51.90451852 104.62525926 136.2577037  157.346     ]</t>
         </is>
       </c>
       <c r="E1433" t="inlineStr"/>
@@ -39190,7 +39162,7 @@
       <c r="C1434" t="inlineStr"/>
       <c r="D1434" t="inlineStr">
         <is>
-          <t>[0.         0.38116592 0.73991031 1.        ]</t>
+          <t>[0.         0.39534884 0.76744186 1.        ]</t>
         </is>
       </c>
       <c r="E1434" t="inlineStr">
@@ -39271,7 +39243,7 @@
       </c>
       <c r="D1437" t="inlineStr">
         <is>
-          <t>[15476.68430078 11215.12058586  6501.67163129  5473.10691756]</t>
+          <t>[7342.6567299  5227.55912469 4572.06581752 3916.57251035]</t>
         </is>
       </c>
       <c r="E1437" t="inlineStr">
@@ -39298,7 +39270,7 @@
       </c>
       <c r="D1438" t="inlineStr">
         <is>
-          <t>[227248.82670549 119331.11485428  37796.15320011  24335.15806829]</t>
+          <t>[58227.18863764 41559.91184742 27804.58963809 17478.31679189]</t>
         </is>
       </c>
       <c r="E1438" t="inlineStr">
@@ -39325,7 +39297,7 @@
       </c>
       <c r="D1439" t="inlineStr">
         <is>
-          <t>[227248.82670549 119331.11485428  37796.15320011  24335.15806829]</t>
+          <t>[58227.18863764 41559.91184742 27804.58963809 17478.31679189]</t>
         </is>
       </c>
       <c r="E1439" t="inlineStr">
@@ -39352,7 +39324,7 @@
       </c>
       <c r="D1440" t="inlineStr">
         <is>
-          <t>[5.44569439e+12 2.85960016e+12 9.05730966e+11 5.83157394e+11]</t>
+          <t>[1.39533162e+12 9.95924080e+11 6.66297379e+11 4.18842962e+11]</t>
         </is>
       </c>
       <c r="E1440" t="inlineStr">
@@ -39379,7 +39351,7 @@
       </c>
       <c r="D1441" t="inlineStr">
         <is>
-          <t>[5.44569439e+12 2.85960016e+12 9.05730966e+11 5.83157394e+11]</t>
+          <t>[1.39533162e+12 9.95924080e+11 6.66297379e+11 4.18842962e+11]</t>
         </is>
       </c>
       <c r="E1441" t="inlineStr">
@@ -39406,7 +39378,7 @@
       </c>
       <c r="D1442" t="inlineStr">
         <is>
-          <t>[4.31843565e+12 2.26766293e+12 7.18244656e+11 4.62443814e+11]</t>
+          <t>[1.10649798e+12 7.89767795e+11 5.28373822e+11 3.32142469e+11]</t>
         </is>
       </c>
       <c r="E1442" t="inlineStr">
@@ -39433,7 +39405,7 @@
       </c>
       <c r="D1443" t="inlineStr">
         <is>
-          <t>[3.70876691e+11 2.68754387e+11 1.55803298e+11 1.31155210e+11]</t>
+          <t>[1.75956308e+11 1.25271007e+11 1.09563044e+11 9.38550805e+10]</t>
         </is>
       </c>
       <c r="E1443" t="inlineStr">
@@ -39541,10 +39513,10 @@
       </c>
       <c r="D1447" t="inlineStr">
         <is>
-          <t>[[0.         0.         0.53926279 0.20002074 0.20002074 0.        ]
- [0.         0.         0.7441739  0.32425448 0.32425448 0.        ]
- [0.         0.         1.28366987 0.75693821 0.75693821 0.        ]
- [0.         0.         1.52491083 1.02871027 1.02871027 0.        ]]</t>
+          <t>[[0.         0.         1.13664581 0.57334041 0.57334041 0.        ]
+ [0.         0.         1.59653861 0.80327408 0.80327408 0.        ]
+ [0.         0.         1.82543304 1.05058195 1.05058195 0.        ]
+ [0.         0.         2.13094484 1.4325178  1.4325178  0.        ]]</t>
         </is>
       </c>
       <c r="E1447" t="inlineStr"/>
@@ -39567,10 +39539,10 @@
       </c>
       <c r="D1448" t="inlineStr">
         <is>
-          <t>[[0.88614157 0.88614157 0.         0.         0.         0.10001037]
- [1.22286097 1.22286097 0.         0.         0.         0.16212724]
- [2.10909257 2.10909257 0.         0.         0.         0.37846911]
- [2.50484558 2.50484558 0.         0.         0.         0.51435513]]</t>
+          <t>[[1.86830396 1.86830396 0.         0.         0.         0.2866702 ]
+ [2.62573607 2.62573607 0.         0.         0.         0.40163704]
+ [3.00158224 3.00158224 0.         0.         0.         0.52529097]
+ [3.50299574 3.50299574 0.         0.         0.         0.7162589 ]]</t>
         </is>
       </c>
       <c r="E1448" t="inlineStr"/>
@@ -39593,7 +39565,7 @@
       </c>
       <c r="D1449" t="inlineStr">
         <is>
-          <t>[687.53826993]</t>
+          <t>[513.10985353]</t>
         </is>
       </c>
       <c r="E1449" t="inlineStr"/>
@@ -39616,7 +39588,7 @@
       </c>
       <c r="D1450" t="inlineStr">
         <is>
-          <t>[3714345.30241618]</t>
+          <t>[2177310.73386569]</t>
         </is>
       </c>
       <c r="E1450" t="inlineStr"/>
@@ -39639,8 +39611,8 @@
       </c>
       <c r="D1451" t="inlineStr">
         <is>
-          <t>[10.93278624 10.89251815 10.85225007 10.31220461  9.27238178  8.23255894
-  7.4270396   6.85582376  6.28460792  5.999       5.999       5.999     ]</t>
+          <t>[8.         8.         8.         8.         8.         8.
+ 7.66666667 7.         6.33333333 6.         6.         6.        ]</t>
         </is>
       </c>
       <c r="E1451" t="inlineStr"/>
@@ -39663,8 +39635,8 @@
       </c>
       <c r="D1452" t="inlineStr">
         <is>
-          <t>[0.05827497 0.05827497 0.05827497 0.04960724 0.04960724 0.04960724
- 0.03890724 0.03890724 0.03890724 0.03745    0.03745    0.03745   ]</t>
+          <t>[0.03762112 0.03762112 0.03762112 0.02675    0.02675    0.02675
+ 0.02675    0.02675    0.02675    0.02675    0.02675    0.02675   ]</t>
         </is>
       </c>
       <c r="E1452" t="inlineStr"/>
@@ -45183,7 +45155,7 @@
       </c>
       <c r="D1628" t="inlineStr">
         <is>
-          <t>[2.57112109]</t>
+          <t>[2.81245332]</t>
         </is>
       </c>
       <c r="E1628" t="inlineStr"/>
@@ -47087,9 +47059,9 @@
       <c r="D1713" t="inlineStr">
         <is>
           <t>[[  0.           0.          15.        ]
- [  0.           0.          49.83993007]
- [  0.           0.          99.61125874]
- [  0.           0.         129.47405594]
+ [  0.           0.          51.90451852]
+ [  0.           0.         104.62525926]
+ [  0.           0.         136.2577037 ]
  [  0.           0.         157.346     ]]</t>
         </is>
       </c>
@@ -47913,8 +47885,7 @@
       <c r="C1745" t="inlineStr"/>
       <c r="D1745" t="inlineStr">
         <is>
-          <t>[0.         0.46153846 0.53846154 0.61538462 0.76923077 0.92307692
- 1.        ]</t>
+          <t>[0.     0.5625 0.625  0.6875 0.8125 0.9375 1.    ]</t>
         </is>
       </c>
       <c r="E1745" t="inlineStr">
@@ -47941,7 +47912,7 @@
       </c>
       <c r="D1746" t="inlineStr">
         <is>
-          <t>[65.]</t>
+          <t>[80.]</t>
         </is>
       </c>
       <c r="E1746" t="inlineStr">
@@ -47968,7 +47939,7 @@
       </c>
       <c r="D1747" t="inlineStr">
         <is>
-          <t>[65.]</t>
+          <t>[80.]</t>
         </is>
       </c>
       <c r="E1747" t="inlineStr">
@@ -47995,7 +47966,7 @@
       </c>
       <c r="D1748" t="inlineStr">
         <is>
-          <t>[-50.]</t>
+          <t>[-65.]</t>
         </is>
       </c>
       <c r="E1748" t="inlineStr">
@@ -48022,8 +47993,7 @@
       </c>
       <c r="D1749" t="inlineStr">
         <is>
-          <t>[10.95292028 10.95292028 10.95292028 10.95292028 10.95292028 10.95292028
- 10.95292028]</t>
+          <t>[8. 8. 8. 8. 8. 8. 8.]</t>
         </is>
       </c>
       <c r="E1749" t="inlineStr">
@@ -48050,8 +48020,7 @@
       </c>
       <c r="D1750" t="inlineStr">
         <is>
-          <t>[[0.06673466 0.07017685 0.08122882 0.07493146 0.06861607 0.0682954
-  0.07382415]]</t>
+          <t>[[0.07 0.07 0.07 0.07 0.07 0.07 0.07]]</t>
         </is>
       </c>
       <c r="E1750" t="inlineStr">
@@ -48982,7 +48951,7 @@
  [  0.   0.  50.]
  [  0.   0. 100.]
  [  0.   0. 130.]
- [  0.   0. 158.]]</t>
+ [  0.   0. 150.]]</t>
         </is>
       </c>
       <c r="E1785" t="inlineStr">
@@ -49009,7 +48978,7 @@
       </c>
       <c r="D1786" t="inlineStr">
         <is>
-          <t>[10.95292028 10.83211603  7.71264753  5.999       5.999     ]</t>
+          <t>[8. 8. 8. 6. 6.]</t>
         </is>
       </c>
       <c r="E1786" t="inlineStr">
@@ -49059,7 +49028,7 @@
       </c>
       <c r="D1788" t="inlineStr">
         <is>
-          <t>[[0.05392518 0.055      0.03772382 0.035      0.035     ]]</t>
+          <t>[[0.04531985 0.025      0.025      0.025      0.025     ]]</t>
         </is>
       </c>
       <c r="E1788" t="inlineStr">
@@ -49159,7 +49128,7 @@
       <c r="C1792" t="inlineStr"/>
       <c r="D1792" t="inlineStr">
         <is>
-          <t>[0.         0.24475524 0.59440559 0.8041958  1.        ]</t>
+          <t>[0.         0.25925926 0.62962963 0.85185185 1.        ]</t>
         </is>
       </c>
       <c r="E1792" t="inlineStr">
@@ -49516,7 +49485,7 @@
       </c>
       <c r="D1807" t="inlineStr">
         <is>
-          <t>[-0.006317]</t>
+          <t>[-0.00631526]</t>
         </is>
       </c>
       <c r="E1807" t="inlineStr"/>
@@ -49562,7 +49531,7 @@
       </c>
       <c r="D1809" t="inlineStr">
         <is>
-          <t>[-0.00544265]</t>
+          <t>[-0.00544382]</t>
         </is>
       </c>
       <c r="E1809" t="inlineStr"/>
@@ -51059,7 +51028,7 @@
       </c>
       <c r="D1877" t="inlineStr">
         <is>
-          <t>[0.77726827]</t>
+          <t>[0.77676827]</t>
         </is>
       </c>
       <c r="E1877" t="inlineStr"/>
@@ -52049,7 +52018,7 @@
       </c>
       <c r="D1921" t="inlineStr">
         <is>
-          <t>[40682.04562332]</t>
+          <t>[40686.9261128]</t>
         </is>
       </c>
       <c r="E1921" t="inlineStr"/>
@@ -52072,7 +52041,7 @@
       </c>
       <c r="D1922" t="inlineStr">
         <is>
-          <t>[629518.96502211]</t>
+          <t>[629537.66835959]</t>
         </is>
       </c>
       <c r="E1922" t="inlineStr"/>
@@ -52095,7 +52064,7 @@
       </c>
       <c r="D1923" t="inlineStr">
         <is>
-          <t>[-4.01003178 -0.14441984  4.24929631]</t>
+          <t>[-4.00991761 -0.14443037  4.24918643]</t>
         </is>
       </c>
       <c r="E1923" t="inlineStr"/>
@@ -52118,8 +52087,8 @@
       </c>
       <c r="D1924" t="inlineStr">
         <is>
-          <t>[9224591.7416582  8617359.56999176 8195565.62370818  351066.14056623
- 1743279.93471595 -201547.34360018]</t>
+          <t>[9225580.40494873 8618497.83646925 8196888.37923555  351088.87030514
+ 1743635.62842814 -201554.91603401]</t>
         </is>
       </c>
       <c r="E1924" t="inlineStr"/>
@@ -52142,8 +52111,8 @@
       </c>
       <c r="D1925" t="inlineStr">
         <is>
-          <t>[8803003.83878226 7821243.31218108 7820064.43983148  364572.16184084
- 1345889.34905671 -215859.22180367]</t>
+          <t>[8803899.15124394 7822207.43852207 7821305.99873213  364599.1774316
+ 1346158.17883116 -215871.37321263]</t>
         </is>
       </c>
       <c r="E1925" t="inlineStr"/>
@@ -52166,8 +52135,8 @@
       </c>
       <c r="D1926" t="inlineStr">
         <is>
-          <t>[ 2.01830550e+07  2.93110529e+07  1.79560827e+07 -5.82076609e-11
-  1.20727749e+07  1.70465683e+05]</t>
+          <t>[2.01837025e+07 2.93114912e+07 1.79570509e+07 1.16415322e-10
+ 1.20727797e+07 1.70483168e+05]</t>
         </is>
       </c>
       <c r="E1926" t="inlineStr"/>
@@ -52190,7 +52159,7 @@
       </c>
       <c r="D1927" t="inlineStr">
         <is>
-          <t>[0.00466215]</t>
+          <t>[0.00466098]</t>
         </is>
       </c>
       <c r="E1927" t="inlineStr"/>
@@ -52213,7 +52182,7 @@
       </c>
       <c r="D1928" t="inlineStr">
         <is>
-          <t>[0.00330808]</t>
+          <t>[0.00330717]</t>
         </is>
       </c>
       <c r="E1928" t="inlineStr"/>
@@ -52236,7 +52205,7 @@
       </c>
       <c r="D1929" t="inlineStr">
         <is>
-          <t>[0.00311439]</t>
+          <t>[0.00311352]</t>
         </is>
       </c>
       <c r="E1929" t="inlineStr"/>
@@ -52259,7 +52228,7 @@
       </c>
       <c r="D1930" t="inlineStr">
         <is>
-          <t>[-0.0009661]</t>
+          <t>[-0.00096587]</t>
         </is>
       </c>
       <c r="E1930" t="inlineStr"/>
@@ -52282,7 +52251,7 @@
       </c>
       <c r="D1931" t="inlineStr">
         <is>
-          <t>[-0.00093224]</t>
+          <t>[-0.00093202]</t>
         </is>
       </c>
       <c r="E1931" t="inlineStr"/>
@@ -52305,7 +52274,7 @@
       </c>
       <c r="D1932" t="inlineStr">
         <is>
-          <t>[0.00090783]</t>
+          <t>[0.0009076]</t>
         </is>
       </c>
       <c r="E1932" t="inlineStr"/>
@@ -52330,7 +52299,7 @@
         <is>
           <t>[[ 2.93771295e+06]
  [ 8.73816952e+03]
- [-8.98577631e+06]]</t>
+ [-8.98603452e+06]]</t>
         </is>
       </c>
       <c r="E1933" t="inlineStr"/>
@@ -52353,9 +52322,9 @@
       </c>
       <c r="D1934" t="inlineStr">
         <is>
-          <t>[[  -692939.78155346]
- [-38693034.48001503]
- [  6202666.24461834]]</t>
+          <t>[[  -692940.008576  ]
+ [-38693074.08051626]
+ [  6202665.53278366]]</t>
         </is>
       </c>
       <c r="E1934" t="inlineStr"/>
@@ -52378,20 +52347,20 @@
       </c>
       <c r="D1935" t="inlineStr">
         <is>
-          <t>[[3.77212692e+07]
- [3.94409121e+07]
- [4.19929289e+07]
- [4.56090199e+07]
- [5.06449418e+07]
- [5.76402722e+07]
- [6.73768708e+07]
- [8.07951237e+07]
- [9.81304395e+07]
- [1.15412630e+08]
- [1.18612497e+08]
- [6.31659015e+07]
- [6.13025412e+07]
- [1.12867568e+07]
+          <t>[[3.77100750e+07]
+ [3.94292335e+07]
+ [4.19805835e+07]
+ [4.55957996e+07]
+ [5.06306239e+07]
+ [5.76246670e+07]
+ [6.73599764e+07]
+ [8.07775573e+07]
+ [9.81143750e+07]
+ [1.15402369e+08]
+ [1.18609783e+08]
+ [6.31658991e+07]
+ [6.13025391e+07]
+ [1.12867557e+07]
  [3.67595980e+06]]</t>
         </is>
       </c>
@@ -52415,21 +52384,21 @@
       </c>
       <c r="D1936" t="inlineStr">
         <is>
-          <t>[[ 8198781.70594297]
- [ 5095327.15811212]
- [ 3047782.37602239]
- [ 7003274.18581238]
- [11730989.02670427]
- [17602448.15078774]
- [25094691.22252726]
- [34742153.56517183]
- [46807042.36370879]
- [60107631.68236353]
- [70031275.85325268]
- [36800928.55476876]
- [25411892.47588418]
- [24647897.46562164]
- [24524781.53624108]]</t>
+          <t>[[ 8196999.31830915]
+ [ 5094051.80087556]
+ [ 3046911.15812881]
+ [ 7001757.54569468]
+ [11728746.17396683]
+ [17599404.23607993]
+ [25090836.93232333]
+ [34737694.3872863 ]
+ [46802685.79137163]
+ [60104720.92907161]
+ [70030447.54624267]
+ [36800928.55531872]
+ [25411892.47643425]
+ [24647897.46745445]
+ [24524781.53807375]]</t>
         </is>
       </c>
       <c r="E1936" t="inlineStr"/>
@@ -52452,17 +52421,17 @@
       </c>
       <c r="D1937" t="inlineStr">
         <is>
-          <t>[[19541743.00755712]
- [20787724.11727618]
- [22799392.78851027]
- [25699411.44681294]
- [29729542.03579063]
- [35347827.62194533]
- [43372175.51898514]
- [55104178.23484337]
- [71764285.95271593]
- [90596108.96297374]
- [97575448.40726511]
+          <t>[[19533470.81272291]
+ [20779111.50768375]
+ [22790297.47511817]
+ [25689644.04409157]
+ [29718870.4404159 ]
+ [35335991.44334316]
+ [43358968.86777292]
+ [55089814.72862327]
+ [71750489.69705041]
+ [90587113.57082449]
+ [97572896.30561961]
  [       0.        ]
  [       0.        ]
  [       0.        ]
@@ -52485,19 +52454,19 @@
       <c r="C1938" t="inlineStr"/>
       <c r="D1938" t="inlineStr">
         <is>
-          <t>[[0.1289189 ]
- [0.12771584]
- [0.13313496]
- [0.14988231]
- [0.17563809]
- [0.21297135]
- [0.26560644]
- [0.33816037]
- [0.43286972]
- [0.53562679]
- [0.59160208]
+          <t>[[0.1288821 ]
+ [0.12767813]
+ [0.13309542]
+ [0.14983922]
+ [0.17559051]
+ [0.21291838]
+ [0.26554777]
+ [0.33809798]
+ [0.4328115 ]
+ [0.53558914]
+ [0.59159187]
  [0.32472098]
- [0.27308225]
+ [0.27308224]
  [0.15978898]
  [0.15428413]]</t>
         </is>
@@ -52518,7 +52487,7 @@
       <c r="C1939" t="inlineStr"/>
       <c r="D1939" t="inlineStr">
         <is>
-          <t>[0.11070637]</t>
+          <t>[0.11068017]</t>
         </is>
       </c>
       <c r="E1939" t="inlineStr"/>
@@ -52537,7 +52506,7 @@
       <c r="C1940" t="inlineStr"/>
       <c r="D1940" t="inlineStr">
         <is>
-          <t>[0.01195186]</t>
+          <t>[0.01194893]</t>
         </is>
       </c>
       <c r="E1940" t="inlineStr"/>
@@ -52556,7 +52525,7 @@
       <c r="C1941" t="inlineStr"/>
       <c r="D1941" t="inlineStr">
         <is>
-          <t>[54.65752477]</t>
+          <t>[54.64230165]</t>
         </is>
       </c>
       <c r="E1941" t="inlineStr"/>
@@ -52575,7 +52544,7 @@
       <c r="C1942" t="inlineStr"/>
       <c r="D1942" t="inlineStr">
         <is>
-          <t>[1.59324322]</t>
+          <t>[1.59284205]</t>
         </is>
       </c>
       <c r="E1942" t="inlineStr"/>
@@ -52621,7 +52590,7 @@
       </c>
       <c r="D1944" t="inlineStr">
         <is>
-          <t>[948395.22490771]</t>
+          <t>[948421.32607936]</t>
         </is>
       </c>
       <c r="E1944" t="inlineStr"/>
@@ -52644,7 +52613,7 @@
       </c>
       <c r="D1945" t="inlineStr">
         <is>
-          <t>[-6.7583112  -0.09586197  4.59784123]</t>
+          <t>[-6.75812851 -0.09586916  4.59772556]</t>
         </is>
       </c>
       <c r="E1945" t="inlineStr"/>
@@ -52667,8 +52636,8 @@
       </c>
       <c r="D1946" t="inlineStr">
         <is>
-          <t>[4.16137377e+08 2.85204501e+08 2.66306106e+08 5.41253411e+02
- 1.42357775e+07 1.69892134e+05]</t>
+          <t>[4.16138017e+08 2.85204924e+08 2.66307067e+08 5.41567843e+02
+ 1.42357746e+07 1.69909285e+05]</t>
         </is>
       </c>
       <c r="E1946" t="inlineStr"/>
